--- a/Project Management/Effort Calculation.xlsx
+++ b/Project Management/Effort Calculation.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="270" windowWidth="18795" windowHeight="11760" tabRatio="785" activeTab="2"/>
+    <workbookView xWindow="360" yWindow="330" windowWidth="18795" windowHeight="11700" tabRatio="785" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="8" r:id="rId1"/>
@@ -19,13 +19,17 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">School!$B$1</definedName>
+    <definedName name="Competency">'Team Member'!$C$4:$AH$10</definedName>
+    <definedName name="CostPerHour">'Skill Set'!$G$2:$G$33</definedName>
+    <definedName name="MemberList">'Team Member'!$B$4:$B$10</definedName>
+    <definedName name="SkillList">'Skill Set'!$C$2:$C$33</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="76">
   <si>
     <t>Total</t>
   </si>
@@ -198,9 +202,6 @@
     <t>Weitage</t>
   </si>
   <si>
-    <t>Resource Index</t>
-  </si>
-  <si>
     <t>Skill Index</t>
   </si>
   <si>
@@ -250,6 +251,12 @@
   </si>
   <si>
     <t>Usability Design</t>
+  </si>
+  <si>
+    <t>Member Index</t>
+  </si>
+  <si>
+    <t>Market Survey</t>
   </si>
 </sst>
 </file>
@@ -257,7 +264,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="&quot;₹&quot;\ #,##0.00"/>
+    <numFmt numFmtId="164" formatCode="&quot;₹&quot;\ #,##0.00"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -302,7 +309,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="39">
+  <borders count="40">
     <border>
       <left/>
       <right/>
@@ -776,11 +783,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -809,25 +827,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="1" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
@@ -837,24 +837,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="1" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -864,56 +861,17 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
@@ -929,16 +887,47 @@
     <xf numFmtId="2" fontId="0" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -957,13 +946,43 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1462,13 +1481,13 @@
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
-      <c r="F10" s="27" t="s">
-        <v>69</v>
-      </c>
-      <c r="G10" s="28"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="28"/>
-      <c r="J10" s="28"/>
+      <c r="F10" s="66" t="s">
+        <v>68</v>
+      </c>
+      <c r="G10" s="67"/>
+      <c r="H10" s="67"/>
+      <c r="I10" s="67"/>
+      <c r="J10" s="67"/>
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
       <c r="M10" s="4"/>
@@ -1480,16 +1499,16 @@
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
-      <c r="F11" s="27" t="s">
-        <v>60</v>
-      </c>
-      <c r="G11" s="29"/>
-      <c r="H11" s="53">
+      <c r="F11" s="66" t="s">
+        <v>59</v>
+      </c>
+      <c r="G11" s="68"/>
+      <c r="H11" s="73">
         <f>Summery!D10</f>
-        <v>1420.44</v>
-      </c>
-      <c r="I11" s="54"/>
-      <c r="J11" s="55"/>
+        <v>1775.5500000000002</v>
+      </c>
+      <c r="I11" s="74"/>
+      <c r="J11" s="75"/>
       <c r="K11" s="4"/>
       <c r="L11" s="4"/>
       <c r="M11" s="4"/>
@@ -1501,16 +1520,16 @@
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
-      <c r="F12" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="G12" s="29"/>
-      <c r="H12" s="56">
+      <c r="F12" s="66" t="s">
+        <v>60</v>
+      </c>
+      <c r="G12" s="68"/>
+      <c r="H12" s="70">
         <f>Summery!C10</f>
-        <v>4</v>
-      </c>
-      <c r="I12" s="57"/>
-      <c r="J12" s="58"/>
+        <v>5</v>
+      </c>
+      <c r="I12" s="71"/>
+      <c r="J12" s="72"/>
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
       <c r="M12" s="4"/>
@@ -1524,9 +1543,9 @@
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="24"/>
-      <c r="J13" s="24"/>
+      <c r="H13" s="69"/>
+      <c r="I13" s="69"/>
+      <c r="J13" s="69"/>
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
       <c r="M13" s="4"/>
@@ -1688,11 +1707,11 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="4"/>
-      <c r="B1" s="47" t="s">
-        <v>63</v>
-      </c>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
+      <c r="B1" s="76" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
       <c r="E1" s="8"/>
       <c r="F1" s="8"/>
       <c r="G1" s="13"/>
@@ -1713,19 +1732,19 @@
         <v>6</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D2" s="14" t="s">
         <v>1</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F2" s="11" t="s">
         <v>6</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H2" s="14" t="s">
         <v>1</v>
@@ -1747,11 +1766,11 @@
       </c>
       <c r="C3" s="15">
         <f>SUMIF(Business!B:B,B3,Business!D:D) + SUMIF(School!B:B,B3,School!D:D) + SUMIF(Service!B:B,B3,Service!D:D)+SUMIF(Retail!B:B,B3,Retail!D:D) + SUMIF(Tourism!B:B,B3,Tourism!D:D)</f>
-        <v>4</v>
-      </c>
-      <c r="D3" s="41">
+        <v>5</v>
+      </c>
+      <c r="D3" s="34">
         <f>SUMIF(Business!B:B,B3,Business!I:I) + SUMIF(School!B:B,B3,School!I:I) + SUMIF(Service!B:B,B3,Service!I:I)+SUMIF(Retail!B:B,B3,Retail!I:I) + SUMIF(Tourism!B:B,B3,Tourism!I:I)</f>
-        <v>1420.44</v>
+        <v>1775.5500000000002</v>
       </c>
       <c r="E3" s="5"/>
       <c r="F3" s="10" t="s">
@@ -1759,11 +1778,11 @@
       </c>
       <c r="G3" s="15">
         <f>SUM(Business!D:D)</f>
-        <v>4</v>
-      </c>
-      <c r="H3" s="41">
+        <v>5</v>
+      </c>
+      <c r="H3" s="34">
         <f>SUM(Business!I:I)</f>
-        <v>1420.44</v>
+        <v>1775.5500000000002</v>
       </c>
       <c r="I3" s="5"/>
       <c r="J3" s="4"/>
@@ -1784,19 +1803,19 @@
         <f>SUMIF(Business!B:B,B4,Business!D:D) + SUMIF(School!B:B,B4,School!D:D) + SUMIF(Service!B:B,B4,Service!D:D)+SUMIF(Retail!B:B,B4,Retail!D:D) + SUMIF(Tourism!B:B,B4,Tourism!D:D)</f>
         <v>0</v>
       </c>
-      <c r="D4" s="41">
+      <c r="D4" s="34">
         <f>SUMIF(Business!B:B,B4,Business!I:I) + SUMIF(School!B:B,B4,School!I:I) + SUMIF(Service!B:B,B4,Service!I:I)+SUMIF(Retail!B:B,B4,Retail!I:I) + SUMIF(Tourism!B:B,B4,Tourism!I:I)</f>
         <v>0</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G4" s="15">
         <f>SUM(School!D:D)</f>
         <v>0</v>
       </c>
-      <c r="H4" s="41">
+      <c r="H4" s="34">
         <f>SUM(School!I:I)</f>
         <v>0</v>
       </c>
@@ -1819,19 +1838,19 @@
         <f>SUMIF(Business!B:B,B5,Business!D:D) + SUMIF(School!B:B,B5,School!D:D) + SUMIF(Service!B:B,B5,Service!D:D)+SUMIF(Retail!B:B,B5,Retail!D:D) + SUMIF(Tourism!B:B,B5,Tourism!D:D)</f>
         <v>0</v>
       </c>
-      <c r="D5" s="41">
+      <c r="D5" s="34">
         <f>SUMIF(Business!B:B,B5,Business!I:I) + SUMIF(School!B:B,B5,School!I:I) + SUMIF(Service!B:B,B5,Service!I:I)+SUMIF(Retail!B:B,B5,Retail!I:I) + SUMIF(Tourism!B:B,B5,Tourism!I:I)</f>
         <v>0</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G5" s="15">
         <f>SUM(Service!D:D)</f>
         <v>0</v>
       </c>
-      <c r="H5" s="41">
+      <c r="H5" s="34">
         <f>SUM(Service!I:I)</f>
         <v>0</v>
       </c>
@@ -1854,19 +1873,19 @@
         <f>SUMIF(Business!B:B,B6,Business!D:D) + SUMIF(School!B:B,B6,School!D:D) + SUMIF(Service!B:B,B6,Service!D:D)+SUMIF(Retail!B:B,B6,Retail!D:D) + SUMIF(Tourism!B:B,B6,Tourism!D:D)</f>
         <v>0</v>
       </c>
-      <c r="D6" s="41">
+      <c r="D6" s="34">
         <f>SUMIF(Business!B:B,B6,Business!I:I) + SUMIF(School!B:B,B6,School!I:I) + SUMIF(Service!B:B,B6,Service!I:I)+SUMIF(Retail!B:B,B6,Retail!I:I) + SUMIF(Tourism!B:B,B6,Tourism!I:I)</f>
         <v>0</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G6" s="15">
         <f>SUM(Retail!D:D)</f>
         <v>0</v>
       </c>
-      <c r="H6" s="41">
+      <c r="H6" s="34">
         <f>SUM(Retail!I:I)</f>
         <v>0</v>
       </c>
@@ -1889,19 +1908,19 @@
         <f>SUMIF(Business!B:B,B7,Business!D:D) + SUMIF(School!B:B,B7,School!D:D) + SUMIF(Service!B:B,B7,Service!D:D)+SUMIF(Retail!B:B,B7,Retail!D:D) + SUMIF(Tourism!B:B,B7,Tourism!D:D)</f>
         <v>0</v>
       </c>
-      <c r="D7" s="41">
+      <c r="D7" s="34">
         <f>SUMIF(Business!B:B,B7,Business!I:I) + SUMIF(School!B:B,B7,School!I:I) + SUMIF(Service!B:B,B7,Service!I:I)+SUMIF(Retail!B:B,B7,Retail!I:I) + SUMIF(Tourism!B:B,B7,Tourism!I:I)</f>
         <v>0</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G7" s="15">
         <f>SUM(Tourism!D:D)</f>
         <v>0</v>
       </c>
-      <c r="H7" s="41">
+      <c r="H7" s="34">
         <f>SUM(Tourism!I:I)</f>
         <v>0</v>
       </c>
@@ -1924,7 +1943,7 @@
         <f>SUMIF(Business!B:B,B8,Business!D:D) + SUMIF(School!B:B,B8,School!D:D) + SUMIF(Service!B:B,B8,Service!D:D)+SUMIF(Retail!B:B,B8,Retail!D:D) + SUMIF(Tourism!B:B,B8,Tourism!D:D)</f>
         <v>0</v>
       </c>
-      <c r="D8" s="41">
+      <c r="D8" s="34">
         <f>SUMIF(Business!B:B,B8,Business!I:I) + SUMIF(School!B:B,B8,School!I:I) + SUMIF(Service!B:B,B8,Service!I:I)+SUMIF(Retail!B:B,B8,Retail!I:I) + SUMIF(Tourism!B:B,B8,Tourism!I:I)</f>
         <v>0</v>
       </c>
@@ -1934,11 +1953,11 @@
       </c>
       <c r="G8" s="16">
         <f>SUM(G3:G7)</f>
-        <v>4</v>
-      </c>
-      <c r="H8" s="48">
+        <v>5</v>
+      </c>
+      <c r="H8" s="40">
         <f>SUM(H3:H7)</f>
-        <v>1420.44</v>
+        <v>1775.5500000000002</v>
       </c>
       <c r="I8" s="5"/>
       <c r="J8" s="4"/>
@@ -1959,7 +1978,7 @@
         <f>SUMIF(Business!B:B,B9,Business!D:D) + SUMIF(School!B:B,B9,School!D:D) + SUMIF(Service!B:B,B9,Service!D:D)+SUMIF(Retail!B:B,B9,Retail!D:D) + SUMIF(Tourism!B:B,B9,Tourism!D:D)</f>
         <v>0</v>
       </c>
-      <c r="D9" s="41">
+      <c r="D9" s="34">
         <f>SUMIF(Business!B:B,B9,Business!I:I) + SUMIF(School!B:B,B9,School!I:I) + SUMIF(Service!B:B,B9,Service!I:I)+SUMIF(Retail!B:B,B9,Retail!I:I) + SUMIF(Tourism!B:B,B9,Tourism!I:I)</f>
         <v>0</v>
       </c>
@@ -1984,11 +2003,11 @@
       </c>
       <c r="C10" s="16">
         <f>SUM(C3:C9)</f>
-        <v>4</v>
-      </c>
-      <c r="D10" s="48">
+        <v>5</v>
+      </c>
+      <c r="D10" s="40">
         <f>SUM(D3:D9)</f>
-        <v>1420.44</v>
+        <v>1775.5500000000002</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="4"/>
@@ -2168,24 +2187,24 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.140625" style="45" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" style="38" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="34.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" style="42" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="42" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="8.140625" style="37" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" style="35" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="35" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" style="30" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="8.5703125" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="9.7109375" style="42" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.7109375" style="35" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="37" t="s">
         <v>4</v>
       </c>
       <c r="B1" s="11" t="s">
@@ -2197,14 +2216,14 @@
       <c r="D1" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="E1" s="43" t="s">
+      <c r="E1" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="F1" s="36" t="s">
+        <v>74</v>
+      </c>
+      <c r="G1" s="11" t="s">
         <v>58</v>
-      </c>
-      <c r="F1" s="43" t="s">
-        <v>57</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>59</v>
       </c>
       <c r="H1" s="11" t="s">
         <v>56</v>
@@ -2214,167 +2233,154 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="50" t="s">
+      <c r="C2" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="D2" s="51">
+      <c r="D2" s="43">
+        <v>5</v>
+      </c>
+      <c r="E2" s="39">
+        <f>IF(ISERROR(MATCH(C2,SkillList,0)),0,MATCH(C2,SkillList,0))</f>
         <v>4</v>
       </c>
-      <c r="E2" s="46">
-        <f>IF(ISERROR(MATCH(C2,'Skill Set'!C2:C32,0)),0,MATCH(C2,'Skill Set'!C2:C32,0))</f>
-        <v>4</v>
-      </c>
-      <c r="F2" s="46">
-        <f>IF(ISERROR(MATCH(B2,'Team Member'!B4:B10,0)),0,MATCH(B2,'Team Member'!B4:B10,0))</f>
+      <c r="F2" s="39">
+        <f>IF(ISERROR(MATCH(B2,MemberList,0)),0,MATCH(B2,MemberList,0))</f>
         <v>1</v>
       </c>
-      <c r="G2" s="41">
-        <f>INDEX('Skill Set'!G2:G32,E2)</f>
+      <c r="G2" s="34">
+        <f>INDEX(CostPerHour,E2)</f>
         <v>355.11</v>
       </c>
       <c r="H2" s="9">
-        <f>IF(ISERROR(INDEX('Team Member'!C4:AG10,F2,E2)), 0, INDEX('Team Member'!C4:AG10,F2,E2))</f>
+        <f>IF(ISERROR(INDEX(Competency,F2,E2)), 0, INDEX(Competency,F2,E2))</f>
         <v>1</v>
       </c>
-      <c r="I2" s="41">
+      <c r="I2" s="34">
         <f>D2*G2*H2</f>
-        <v>1420.44</v>
+        <v>1775.5500000000002</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="49"/>
-      <c r="B3" s="50"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="46">
-        <f>IF(ISERROR(MATCH(C3,'Skill Set'!C2:C32,0)),0,MATCH(C3,'Skill Set'!C2:C32,0))</f>
-        <v>0</v>
-      </c>
-      <c r="F3" s="46">
-        <f>IF(ISERROR(MATCH(B3,'Team Member'!B4:B10,0)),0,MATCH(B3,'Team Member'!B4:B10,0))</f>
-        <v>0</v>
-      </c>
-      <c r="G3" s="41">
-        <f>INDEX('Skill Set'!G2:G32,E3)</f>
+      <c r="A3" s="41"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="39">
+        <f>IF(ISERROR(MATCH(C3,SkillList,0)),0,MATCH(C3,SkillList,0))</f>
+        <v>0</v>
+      </c>
+      <c r="F3" s="39">
+        <f>IF(ISERROR(MATCH(B3,MemberList,0)),0,MATCH(B3,MemberList,0))</f>
+        <v>0</v>
+      </c>
+      <c r="G3" s="34">
+        <f>INDEX(CostPerHour,E3)</f>
         <v>946.97</v>
       </c>
       <c r="H3" s="9">
-        <f>IF(ISERROR(INDEX('Team Member'!C4:AG10,F3,E3)), 0, INDEX('Team Member'!C4:AG10,F3,E3))</f>
-        <v>0</v>
-      </c>
-      <c r="I3" s="41">
+        <f>IF(ISERROR(INDEX(Competency,F3,E3)), 0, INDEX(Competency,F3,E3))</f>
+        <v>0</v>
+      </c>
+      <c r="I3" s="34">
         <f t="shared" ref="I3:I6" si="0">D3*G3*H3</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="49"/>
-      <c r="B4" s="50"/>
-      <c r="C4" s="50"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="46">
-        <f>IF(ISERROR(MATCH(C4,'Skill Set'!C2:C32,0)),0,MATCH(C4,'Skill Set'!C2:C32,0))</f>
-        <v>0</v>
-      </c>
-      <c r="F4" s="46">
-        <f>IF(ISERROR(MATCH(B4,'Team Member'!B4:B10,0)),0,MATCH(B4,'Team Member'!B4:B10,0))</f>
-        <v>0</v>
-      </c>
-      <c r="G4" s="41">
-        <f>INDEX('Skill Set'!G2:G32,E4)</f>
+      <c r="A4" s="41"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="39">
+        <f>IF(ISERROR(MATCH(C4,SkillList,0)),0,MATCH(C4,SkillList,0))</f>
+        <v>0</v>
+      </c>
+      <c r="F4" s="39">
+        <f>IF(ISERROR(MATCH(B4,MemberList,0)),0,MATCH(B4,MemberList,0))</f>
+        <v>0</v>
+      </c>
+      <c r="G4" s="34">
+        <f>INDEX(CostPerHour,E4)</f>
         <v>946.97</v>
       </c>
       <c r="H4" s="9">
-        <f>IF(ISERROR(INDEX('Team Member'!C4:AG10,F4,E4)), 0, INDEX('Team Member'!C4:AG10,F4,E4))</f>
+        <f>IF(ISERROR(INDEX(Competency,F4,E4)), 0, INDEX(Competency,F4,E4))</f>
         <v>1</v>
       </c>
-      <c r="I4" s="41">
+      <c r="I4" s="34">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="49"/>
-      <c r="B5" s="50"/>
-      <c r="C5" s="50"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="46">
-        <f>IF(ISERROR(MATCH(C5,'Skill Set'!C2:C32,0)),0,MATCH(C5,'Skill Set'!C2:C32,0))</f>
-        <v>0</v>
-      </c>
-      <c r="F5" s="46">
-        <f>IF(ISERROR(MATCH(B5,'Team Member'!B4:B10,0)),0,MATCH(B5,'Team Member'!B4:B10,0))</f>
-        <v>0</v>
-      </c>
-      <c r="G5" s="41">
-        <f>INDEX('Skill Set'!G2:G32,E5)</f>
+      <c r="A5" s="41"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="39">
+        <f>IF(ISERROR(MATCH(C5,SkillList,0)),0,MATCH(C5,SkillList,0))</f>
+        <v>0</v>
+      </c>
+      <c r="F5" s="39">
+        <f>IF(ISERROR(MATCH(B5,MemberList,0)),0,MATCH(B5,MemberList,0))</f>
+        <v>0</v>
+      </c>
+      <c r="G5" s="34">
+        <f>INDEX(CostPerHour,E5)</f>
         <v>355.11</v>
       </c>
       <c r="H5" s="9">
-        <f>IF(ISERROR(INDEX('Team Member'!C4:AG10,F5,E5)), 0, INDEX('Team Member'!C4:AG10,F5,E5))</f>
-        <v>0</v>
-      </c>
-      <c r="I5" s="41">
+        <f>IF(ISERROR(INDEX(Competency,F5,E5)), 0, INDEX(Competency,F5,E5))</f>
+        <v>0</v>
+      </c>
+      <c r="I5" s="34">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="49"/>
-      <c r="B6" s="50"/>
-      <c r="C6" s="50"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="46">
-        <f>IF(ISERROR(MATCH(C6,'Skill Set'!C2:C32,0)),0,MATCH(C6,'Skill Set'!C2:C32,0))</f>
-        <v>0</v>
-      </c>
-      <c r="F6" s="46">
-        <f>IF(ISERROR(MATCH(B6,'Team Member'!B4:B10,0)),0,MATCH(B6,'Team Member'!B4:B10,0))</f>
-        <v>0</v>
-      </c>
-      <c r="G6" s="41">
-        <f>INDEX('Skill Set'!G2:G32,E6)</f>
+      <c r="A6" s="41"/>
+      <c r="B6" s="42"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="39">
+        <f>IF(ISERROR(MATCH(C6,SkillList,0)),0,MATCH(C6,SkillList,0))</f>
+        <v>0</v>
+      </c>
+      <c r="F6" s="39">
+        <f>IF(ISERROR(MATCH(B6,MemberList,0)),0,MATCH(B6,MemberList,0))</f>
+        <v>0</v>
+      </c>
+      <c r="G6" s="34">
+        <f>INDEX(CostPerHour,E6)</f>
         <v>355.11</v>
       </c>
       <c r="H6" s="9">
-        <f>IF(ISERROR(INDEX('Team Member'!C4:AG10,F6,E6)), 0, INDEX('Team Member'!C4:AG10,F6,E6))</f>
-        <v>0</v>
-      </c>
-      <c r="I6" s="41">
+        <f>IF(ISERROR(INDEX(Competency,F6,E6)), 0, INDEX(Competency,F6,E6))</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="34">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576">
+      <formula1>SkillList</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B1048576">
+      <formula1>MemberList</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <ignoredErrors>
-    <ignoredError sqref="F3" formula="1"/>
-  </ignoredErrors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>'Skill Set'!$C$2:$C$32</xm:f>
-          </x14:formula1>
-          <xm:sqref>C1:C1048576</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>'Team Member'!$B$4:$B$10</xm:f>
-          </x14:formula1>
-          <xm:sqref>B1:B1048576</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -2382,25 +2388,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.140625" style="45" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" style="38" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="34.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" style="42" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="42" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="8.140625" style="37" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" style="35" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="35" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" style="30" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="8.5703125" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="9.7109375" style="42" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.7109375" style="35" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="37" t="s">
         <v>4</v>
       </c>
       <c r="B1" s="11" t="s">
@@ -2412,14 +2416,14 @@
       <c r="D1" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="E1" s="43" t="s">
+      <c r="E1" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="F1" s="36" t="s">
+        <v>74</v>
+      </c>
+      <c r="G1" s="11" t="s">
         <v>58</v>
-      </c>
-      <c r="F1" s="43" t="s">
-        <v>57</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>59</v>
       </c>
       <c r="H1" s="11" t="s">
         <v>56</v>
@@ -2429,155 +2433,145 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="49"/>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="46">
-        <f>IF(ISERROR(MATCH(C2,'Skill Set'!C2:C32,0)),0,MATCH(C2,'Skill Set'!C2:C32,0))</f>
-        <v>0</v>
-      </c>
-      <c r="F2" s="46">
-        <f>IF(ISERROR(MATCH(B2,'Team Member'!B4:B10,0)),0,MATCH(B2,'Team Member'!B4:B10,0))</f>
-        <v>0</v>
-      </c>
-      <c r="G2" s="41">
-        <f>INDEX('Skill Set'!G2:G32,E2)</f>
+      <c r="A2" s="41"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="39">
+        <f>IF(ISERROR(MATCH(C2,SkillList,0)),0,MATCH(C2,SkillList,0))</f>
+        <v>0</v>
+      </c>
+      <c r="F2" s="39">
+        <f>IF(ISERROR(MATCH(B2,MemberList,0)),0,MATCH(B2,MemberList,0))</f>
+        <v>0</v>
+      </c>
+      <c r="G2" s="34">
+        <f>INDEX(CostPerHour,E2)</f>
         <v>1183.71</v>
       </c>
       <c r="H2" s="9">
-        <f>IF(ISERROR(INDEX('Team Member'!C4:AG10,F2,E2)), 0, INDEX('Team Member'!C4:AG10,F2,E2))</f>
-        <v>0</v>
-      </c>
-      <c r="I2" s="41">
+        <f>IF(ISERROR(INDEX(Competency,F2,E2)), 0, INDEX(Competency,F2,E2))</f>
+        <v>0</v>
+      </c>
+      <c r="I2" s="34">
         <f>D2*G2*H2</f>
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="49"/>
-      <c r="B3" s="50"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="46">
-        <f>IF(ISERROR(MATCH(C3,'Skill Set'!C2:C32,0)),0,MATCH(C3,'Skill Set'!C2:C32,0))</f>
-        <v>0</v>
-      </c>
-      <c r="F3" s="46">
-        <f>IF(ISERROR(MATCH(B3,'Team Member'!B4:B10,0)),0,MATCH(B3,'Team Member'!B4:B10,0))</f>
-        <v>0</v>
-      </c>
-      <c r="G3" s="41">
-        <f>INDEX('Skill Set'!G2:G32,E3)</f>
+      <c r="A3" s="41"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="39">
+        <f>IF(ISERROR(MATCH(C3,SkillList,0)),0,MATCH(C3,SkillList,0))</f>
+        <v>0</v>
+      </c>
+      <c r="F3" s="39">
+        <f>IF(ISERROR(MATCH(B3,MemberList,0)),0,MATCH(B3,MemberList,0))</f>
+        <v>0</v>
+      </c>
+      <c r="G3" s="34">
+        <f>INDEX(CostPerHour,E3)</f>
         <v>946.97</v>
       </c>
       <c r="H3" s="9">
-        <f>IF(ISERROR(INDEX('Team Member'!C4:AG10,F3,E3)), 0, INDEX('Team Member'!C4:AG10,F3,E3))</f>
-        <v>0</v>
-      </c>
-      <c r="I3" s="41">
+        <f>IF(ISERROR(INDEX(Competency,F3,E3)), 0, INDEX(Competency,F3,E3))</f>
+        <v>0</v>
+      </c>
+      <c r="I3" s="34">
         <f t="shared" ref="I3:I6" si="0">D3*G3*H3</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="49"/>
-      <c r="B4" s="50"/>
-      <c r="C4" s="50"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="46">
-        <f>IF(ISERROR(MATCH(C4,'Skill Set'!C2:C32,0)),0,MATCH(C4,'Skill Set'!C2:C32,0))</f>
-        <v>0</v>
-      </c>
-      <c r="F4" s="46">
-        <f>IF(ISERROR(MATCH(B4,'Team Member'!B4:B10,0)),0,MATCH(B4,'Team Member'!B4:B10,0))</f>
-        <v>0</v>
-      </c>
-      <c r="G4" s="41">
-        <f>INDEX('Skill Set'!G2:G32,E4)</f>
+      <c r="A4" s="41"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="39">
+        <f>IF(ISERROR(MATCH(C4,SkillList,0)),0,MATCH(C4,SkillList,0))</f>
+        <v>0</v>
+      </c>
+      <c r="F4" s="39">
+        <f>IF(ISERROR(MATCH(B4,MemberList,0)),0,MATCH(B4,MemberList,0))</f>
+        <v>0</v>
+      </c>
+      <c r="G4" s="34">
+        <f>INDEX(CostPerHour,E4)</f>
         <v>946.97</v>
       </c>
       <c r="H4" s="9">
-        <f>IF(ISERROR(INDEX('Team Member'!C4:AG10,F4,E4)), 0, INDEX('Team Member'!C4:AG10,F4,E4))</f>
+        <f>IF(ISERROR(INDEX(Competency,F4,E4)), 0, INDEX(Competency,F4,E4))</f>
         <v>1</v>
       </c>
-      <c r="I4" s="41">
+      <c r="I4" s="34">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="49"/>
-      <c r="B5" s="50"/>
-      <c r="C5" s="50"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="46">
-        <f>IF(ISERROR(MATCH(C5,'Skill Set'!C2:C32,0)),0,MATCH(C5,'Skill Set'!C2:C32,0))</f>
-        <v>0</v>
-      </c>
-      <c r="F5" s="46">
-        <f>IF(ISERROR(MATCH(B5,'Team Member'!B4:B10,0)),0,MATCH(B5,'Team Member'!B4:B10,0))</f>
-        <v>0</v>
-      </c>
-      <c r="G5" s="41">
-        <f>INDEX('Skill Set'!G2:G32,E5)</f>
+      <c r="A5" s="41"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="39">
+        <f>IF(ISERROR(MATCH(C5,SkillList,0)),0,MATCH(C5,SkillList,0))</f>
+        <v>0</v>
+      </c>
+      <c r="F5" s="39">
+        <f>IF(ISERROR(MATCH(B5,MemberList,0)),0,MATCH(B5,MemberList,0))</f>
+        <v>0</v>
+      </c>
+      <c r="G5" s="34">
+        <f>INDEX(CostPerHour,E5)</f>
         <v>355.11</v>
       </c>
       <c r="H5" s="9">
-        <f>IF(ISERROR(INDEX('Team Member'!C4:AG10,F5,E5)), 0, INDEX('Team Member'!C4:AG10,F5,E5))</f>
-        <v>0</v>
-      </c>
-      <c r="I5" s="41">
+        <f>IF(ISERROR(INDEX(Competency,F5,E5)), 0, INDEX(Competency,F5,E5))</f>
+        <v>0</v>
+      </c>
+      <c r="I5" s="34">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="49"/>
-      <c r="B6" s="50"/>
-      <c r="C6" s="50"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="46">
-        <f>IF(ISERROR(MATCH(C6,'Skill Set'!C2:C32,0)),0,MATCH(C6,'Skill Set'!C2:C32,0))</f>
-        <v>0</v>
-      </c>
-      <c r="F6" s="46">
-        <f>IF(ISERROR(MATCH(B6,'Team Member'!B4:B10,0)),0,MATCH(B6,'Team Member'!B4:B10,0))</f>
-        <v>0</v>
-      </c>
-      <c r="G6" s="41">
-        <f>INDEX('Skill Set'!G2:G32,E6)</f>
+      <c r="A6" s="41"/>
+      <c r="B6" s="42"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="39">
+        <f>IF(ISERROR(MATCH(C6,SkillList,0)),0,MATCH(C6,SkillList,0))</f>
+        <v>0</v>
+      </c>
+      <c r="F6" s="39">
+        <f>IF(ISERROR(MATCH(B6,MemberList,0)),0,MATCH(B6,MemberList,0))</f>
+        <v>0</v>
+      </c>
+      <c r="G6" s="34">
+        <f>INDEX(CostPerHour,E6)</f>
         <v>355.11</v>
       </c>
       <c r="H6" s="9">
-        <f>IF(ISERROR(INDEX('Team Member'!C4:AG10,F6,E6)), 0, INDEX('Team Member'!C4:AG10,F6,E6))</f>
-        <v>0</v>
-      </c>
-      <c r="I6" s="41">
+        <f>IF(ISERROR(INDEX(Competency,F6,E6)), 0, INDEX(Competency,F6,E6))</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="34">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B1048576">
+      <formula1>MemberList</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576">
+      <formula1>SkillList</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>'Team Member'!$B$4:$B$10</xm:f>
-          </x14:formula1>
-          <xm:sqref>B1:B1048576</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>'Skill Set'!$C$2:$C$32</xm:f>
-          </x14:formula1>
-          <xm:sqref>C1:C1048576</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -2589,19 +2583,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.140625" style="45" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" style="38" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="34.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" style="42" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="42" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="8.140625" style="37" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" style="35" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="35" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" style="30" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="8.5703125" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="9.7109375" style="42" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.7109375" style="35" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="37" t="s">
         <v>4</v>
       </c>
       <c r="B1" s="11" t="s">
@@ -2613,14 +2607,14 @@
       <c r="D1" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="E1" s="43" t="s">
+      <c r="E1" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="F1" s="36" t="s">
+        <v>74</v>
+      </c>
+      <c r="G1" s="11" t="s">
         <v>58</v>
-      </c>
-      <c r="F1" s="43" t="s">
-        <v>57</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>59</v>
       </c>
       <c r="H1" s="11" t="s">
         <v>56</v>
@@ -2630,155 +2624,145 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="49"/>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="46">
-        <f>IF(ISERROR(MATCH(C2,'Skill Set'!C2:C32,0)),0,MATCH(C2,'Skill Set'!C2:C32,0))</f>
-        <v>0</v>
-      </c>
-      <c r="F2" s="46">
-        <f>IF(ISERROR(MATCH(B2,'Team Member'!B4:B10,0)),0,MATCH(B2,'Team Member'!B4:B10,0))</f>
-        <v>0</v>
-      </c>
-      <c r="G2" s="41">
-        <f>INDEX('Skill Set'!G2:G32,E2)</f>
+      <c r="A2" s="41"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="39">
+        <f>IF(ISERROR(MATCH(C2,SkillList,0)),0,MATCH(C2,SkillList,0))</f>
+        <v>0</v>
+      </c>
+      <c r="F2" s="39">
+        <f>IF(ISERROR(MATCH(B2,MemberList,0)),0,MATCH(B2,MemberList,0))</f>
+        <v>0</v>
+      </c>
+      <c r="G2" s="34">
+        <f>INDEX(CostPerHour,E2)</f>
         <v>1183.71</v>
       </c>
       <c r="H2" s="9">
-        <f>IF(ISERROR(INDEX('Team Member'!C4:AG10,F2,E2)), 0, INDEX('Team Member'!C4:AG10,F2,E2))</f>
-        <v>0</v>
-      </c>
-      <c r="I2" s="41">
+        <f>IF(ISERROR(INDEX(Competency,F2,E2)), 0, INDEX(Competency,F2,E2))</f>
+        <v>0</v>
+      </c>
+      <c r="I2" s="34">
         <f>D2*G2*H2</f>
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="49"/>
-      <c r="B3" s="50"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="46">
-        <f>IF(ISERROR(MATCH(C3,'Skill Set'!C2:C32,0)),0,MATCH(C3,'Skill Set'!C2:C32,0))</f>
-        <v>0</v>
-      </c>
-      <c r="F3" s="46">
-        <f>IF(ISERROR(MATCH(B3,'Team Member'!B4:B10,0)),0,MATCH(B3,'Team Member'!B4:B10,0))</f>
-        <v>0</v>
-      </c>
-      <c r="G3" s="41">
-        <f>INDEX('Skill Set'!G2:G32,E3)</f>
+      <c r="A3" s="41"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="39">
+        <f>IF(ISERROR(MATCH(C3,SkillList,0)),0,MATCH(C3,SkillList,0))</f>
+        <v>0</v>
+      </c>
+      <c r="F3" s="39">
+        <f>IF(ISERROR(MATCH(B3,MemberList,0)),0,MATCH(B3,MemberList,0))</f>
+        <v>0</v>
+      </c>
+      <c r="G3" s="34">
+        <f>INDEX(CostPerHour,E3)</f>
         <v>946.97</v>
       </c>
       <c r="H3" s="9">
-        <f>IF(ISERROR(INDEX('Team Member'!C4:AG10,F3,E3)), 0, INDEX('Team Member'!C4:AG10,F3,E3))</f>
-        <v>0</v>
-      </c>
-      <c r="I3" s="41">
+        <f>IF(ISERROR(INDEX(Competency,F3,E3)), 0, INDEX(Competency,F3,E3))</f>
+        <v>0</v>
+      </c>
+      <c r="I3" s="34">
         <f t="shared" ref="I3:I6" si="0">D3*G3*H3</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="49"/>
-      <c r="B4" s="50"/>
-      <c r="C4" s="50"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="46">
-        <f>IF(ISERROR(MATCH(C4,'Skill Set'!C2:C32,0)),0,MATCH(C4,'Skill Set'!C2:C32,0))</f>
-        <v>0</v>
-      </c>
-      <c r="F4" s="46">
-        <f>IF(ISERROR(MATCH(B4,'Team Member'!B4:B10,0)),0,MATCH(B4,'Team Member'!B4:B10,0))</f>
-        <v>0</v>
-      </c>
-      <c r="G4" s="41">
-        <f>INDEX('Skill Set'!G2:G32,E4)</f>
+      <c r="A4" s="41"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="39">
+        <f>IF(ISERROR(MATCH(C4,SkillList,0)),0,MATCH(C4,SkillList,0))</f>
+        <v>0</v>
+      </c>
+      <c r="F4" s="39">
+        <f>IF(ISERROR(MATCH(B4,MemberList,0)),0,MATCH(B4,MemberList,0))</f>
+        <v>0</v>
+      </c>
+      <c r="G4" s="34">
+        <f>INDEX(CostPerHour,E4)</f>
         <v>946.97</v>
       </c>
       <c r="H4" s="9">
-        <f>IF(ISERROR(INDEX('Team Member'!C4:AG10,F4,E4)), 0, INDEX('Team Member'!C4:AG10,F4,E4))</f>
+        <f>IF(ISERROR(INDEX(Competency,F4,E4)), 0, INDEX(Competency,F4,E4))</f>
         <v>1</v>
       </c>
-      <c r="I4" s="41">
+      <c r="I4" s="34">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="49"/>
-      <c r="B5" s="50"/>
-      <c r="C5" s="50"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="46">
-        <f>IF(ISERROR(MATCH(C5,'Skill Set'!C2:C32,0)),0,MATCH(C5,'Skill Set'!C2:C32,0))</f>
-        <v>0</v>
-      </c>
-      <c r="F5" s="46">
-        <f>IF(ISERROR(MATCH(B5,'Team Member'!B4:B10,0)),0,MATCH(B5,'Team Member'!B4:B10,0))</f>
-        <v>0</v>
-      </c>
-      <c r="G5" s="41">
-        <f>INDEX('Skill Set'!G2:G32,E5)</f>
+      <c r="A5" s="41"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="39">
+        <f>IF(ISERROR(MATCH(C5,SkillList,0)),0,MATCH(C5,SkillList,0))</f>
+        <v>0</v>
+      </c>
+      <c r="F5" s="39">
+        <f>IF(ISERROR(MATCH(B5,MemberList,0)),0,MATCH(B5,MemberList,0))</f>
+        <v>0</v>
+      </c>
+      <c r="G5" s="34">
+        <f>INDEX(CostPerHour,E5)</f>
         <v>355.11</v>
       </c>
       <c r="H5" s="9">
-        <f>IF(ISERROR(INDEX('Team Member'!C4:AG10,F5,E5)), 0, INDEX('Team Member'!C4:AG10,F5,E5))</f>
-        <v>0</v>
-      </c>
-      <c r="I5" s="41">
+        <f>IF(ISERROR(INDEX(Competency,F5,E5)), 0, INDEX(Competency,F5,E5))</f>
+        <v>0</v>
+      </c>
+      <c r="I5" s="34">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="49"/>
-      <c r="B6" s="50"/>
-      <c r="C6" s="50"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="46">
-        <f>IF(ISERROR(MATCH(C6,'Skill Set'!C2:C32,0)),0,MATCH(C6,'Skill Set'!C2:C32,0))</f>
-        <v>0</v>
-      </c>
-      <c r="F6" s="46">
-        <f>IF(ISERROR(MATCH(B6,'Team Member'!B4:B10,0)),0,MATCH(B6,'Team Member'!B4:B10,0))</f>
-        <v>0</v>
-      </c>
-      <c r="G6" s="41">
-        <f>INDEX('Skill Set'!G2:G32,E6)</f>
+      <c r="A6" s="41"/>
+      <c r="B6" s="42"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="39">
+        <f>IF(ISERROR(MATCH(C6,SkillList,0)),0,MATCH(C6,SkillList,0))</f>
+        <v>0</v>
+      </c>
+      <c r="F6" s="39">
+        <f>IF(ISERROR(MATCH(B6,MemberList,0)),0,MATCH(B6,MemberList,0))</f>
+        <v>0</v>
+      </c>
+      <c r="G6" s="34">
+        <f>INDEX(CostPerHour,E6)</f>
         <v>355.11</v>
       </c>
       <c r="H6" s="9">
-        <f>IF(ISERROR(INDEX('Team Member'!C4:AG10,F6,E6)), 0, INDEX('Team Member'!C4:AG10,F6,E6))</f>
-        <v>0</v>
-      </c>
-      <c r="I6" s="41">
+        <f>IF(ISERROR(INDEX(Competency,F6,E6)), 0, INDEX(Competency,F6,E6))</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="34">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B1048576">
+      <formula1>MemberList</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576">
+      <formula1>SkillList</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>'Team Member'!$B$4:$B$10</xm:f>
-          </x14:formula1>
-          <xm:sqref>B1:B1048576</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>'Skill Set'!$C$2:$C$32</xm:f>
-          </x14:formula1>
-          <xm:sqref>C1:C1048576</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -2790,19 +2774,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.140625" style="45" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" style="38" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="34.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" style="42" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="42" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="8.140625" style="37" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" style="35" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="35" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" style="30" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="8.5703125" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="9.7109375" style="42" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.7109375" style="35" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="37" t="s">
         <v>4</v>
       </c>
       <c r="B1" s="11" t="s">
@@ -2814,14 +2798,14 @@
       <c r="D1" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="E1" s="43" t="s">
+      <c r="E1" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="F1" s="36" t="s">
+        <v>74</v>
+      </c>
+      <c r="G1" s="11" t="s">
         <v>58</v>
-      </c>
-      <c r="F1" s="43" t="s">
-        <v>57</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>59</v>
       </c>
       <c r="H1" s="11" t="s">
         <v>56</v>
@@ -2831,155 +2815,145 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="49"/>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="46">
-        <f>IF(ISERROR(MATCH(C2,'Skill Set'!C2:C32,0)),0,MATCH(C2,'Skill Set'!C2:C32,0))</f>
-        <v>0</v>
-      </c>
-      <c r="F2" s="46">
-        <f>IF(ISERROR(MATCH(B2,'Team Member'!B4:B10,0)),0,MATCH(B2,'Team Member'!B4:B10,0))</f>
-        <v>0</v>
-      </c>
-      <c r="G2" s="41">
-        <f>INDEX('Skill Set'!G2:G32,E2)</f>
+      <c r="A2" s="41"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="39">
+        <f>IF(ISERROR(MATCH(C2,SkillList,0)),0,MATCH(C2,SkillList,0))</f>
+        <v>0</v>
+      </c>
+      <c r="F2" s="39">
+        <f>IF(ISERROR(MATCH(B2,MemberList,0)),0,MATCH(B2,MemberList,0))</f>
+        <v>0</v>
+      </c>
+      <c r="G2" s="34">
+        <f>INDEX(CostPerHour,E2)</f>
         <v>1183.71</v>
       </c>
       <c r="H2" s="9">
-        <f>IF(ISERROR(INDEX('Team Member'!C4:AG10,F2,E2)), 0, INDEX('Team Member'!C4:AG10,F2,E2))</f>
-        <v>0</v>
-      </c>
-      <c r="I2" s="41">
+        <f>IF(ISERROR(INDEX(Competency,F2,E2)), 0, INDEX(Competency,F2,E2))</f>
+        <v>0</v>
+      </c>
+      <c r="I2" s="34">
         <f>D2*G2*H2</f>
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="49"/>
-      <c r="B3" s="50"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="46">
-        <f>IF(ISERROR(MATCH(C3,'Skill Set'!C2:C32,0)),0,MATCH(C3,'Skill Set'!C2:C32,0))</f>
-        <v>0</v>
-      </c>
-      <c r="F3" s="46">
-        <f>IF(ISERROR(MATCH(B3,'Team Member'!B4:B10,0)),0,MATCH(B3,'Team Member'!B4:B10,0))</f>
-        <v>0</v>
-      </c>
-      <c r="G3" s="41">
-        <f>INDEX('Skill Set'!G2:G32,E3)</f>
+      <c r="A3" s="41"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="39">
+        <f>IF(ISERROR(MATCH(C3,SkillList,0)),0,MATCH(C3,SkillList,0))</f>
+        <v>0</v>
+      </c>
+      <c r="F3" s="39">
+        <f>IF(ISERROR(MATCH(B3,MemberList,0)),0,MATCH(B3,MemberList,0))</f>
+        <v>0</v>
+      </c>
+      <c r="G3" s="34">
+        <f>INDEX(CostPerHour,E3)</f>
         <v>946.97</v>
       </c>
       <c r="H3" s="9">
-        <f>IF(ISERROR(INDEX('Team Member'!C4:AG10,F3,E3)), 0, INDEX('Team Member'!C4:AG10,F3,E3))</f>
-        <v>0</v>
-      </c>
-      <c r="I3" s="41">
+        <f>IF(ISERROR(INDEX(Competency,F3,E3)), 0, INDEX(Competency,F3,E3))</f>
+        <v>0</v>
+      </c>
+      <c r="I3" s="34">
         <f t="shared" ref="I3:I6" si="0">D3*G3*H3</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="49"/>
-      <c r="B4" s="50"/>
-      <c r="C4" s="50"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="46">
-        <f>IF(ISERROR(MATCH(C4,'Skill Set'!C2:C32,0)),0,MATCH(C4,'Skill Set'!C2:C32,0))</f>
-        <v>0</v>
-      </c>
-      <c r="F4" s="46">
-        <f>IF(ISERROR(MATCH(B4,'Team Member'!B4:B10,0)),0,MATCH(B4,'Team Member'!B4:B10,0))</f>
-        <v>0</v>
-      </c>
-      <c r="G4" s="41">
-        <f>INDEX('Skill Set'!G2:G32,E4)</f>
+      <c r="A4" s="41"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="39">
+        <f>IF(ISERROR(MATCH(C4,SkillList,0)),0,MATCH(C4,SkillList,0))</f>
+        <v>0</v>
+      </c>
+      <c r="F4" s="39">
+        <f>IF(ISERROR(MATCH(B4,MemberList,0)),0,MATCH(B4,MemberList,0))</f>
+        <v>0</v>
+      </c>
+      <c r="G4" s="34">
+        <f>INDEX(CostPerHour,E4)</f>
         <v>946.97</v>
       </c>
       <c r="H4" s="9">
-        <f>IF(ISERROR(INDEX('Team Member'!C4:AG10,F4,E4)), 0, INDEX('Team Member'!C4:AG10,F4,E4))</f>
+        <f>IF(ISERROR(INDEX(Competency,F4,E4)), 0, INDEX(Competency,F4,E4))</f>
         <v>1</v>
       </c>
-      <c r="I4" s="41">
+      <c r="I4" s="34">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="49"/>
-      <c r="B5" s="50"/>
-      <c r="C5" s="50"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="46">
-        <f>IF(ISERROR(MATCH(C5,'Skill Set'!C2:C32,0)),0,MATCH(C5,'Skill Set'!C2:C32,0))</f>
-        <v>0</v>
-      </c>
-      <c r="F5" s="46">
-        <f>IF(ISERROR(MATCH(B5,'Team Member'!B4:B10,0)),0,MATCH(B5,'Team Member'!B4:B10,0))</f>
-        <v>0</v>
-      </c>
-      <c r="G5" s="41">
-        <f>INDEX('Skill Set'!G2:G32,E5)</f>
+      <c r="A5" s="41"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="39">
+        <f>IF(ISERROR(MATCH(C5,SkillList,0)),0,MATCH(C5,SkillList,0))</f>
+        <v>0</v>
+      </c>
+      <c r="F5" s="39">
+        <f>IF(ISERROR(MATCH(B5,MemberList,0)),0,MATCH(B5,MemberList,0))</f>
+        <v>0</v>
+      </c>
+      <c r="G5" s="34">
+        <f>INDEX(CostPerHour,E5)</f>
         <v>355.11</v>
       </c>
       <c r="H5" s="9">
-        <f>IF(ISERROR(INDEX('Team Member'!C4:AG10,F5,E5)), 0, INDEX('Team Member'!C4:AG10,F5,E5))</f>
-        <v>0</v>
-      </c>
-      <c r="I5" s="41">
+        <f>IF(ISERROR(INDEX(Competency,F5,E5)), 0, INDEX(Competency,F5,E5))</f>
+        <v>0</v>
+      </c>
+      <c r="I5" s="34">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="49"/>
-      <c r="B6" s="50"/>
-      <c r="C6" s="50"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="46">
-        <f>IF(ISERROR(MATCH(C6,'Skill Set'!C2:C32,0)),0,MATCH(C6,'Skill Set'!C2:C32,0))</f>
-        <v>0</v>
-      </c>
-      <c r="F6" s="46">
-        <f>IF(ISERROR(MATCH(B6,'Team Member'!B4:B10,0)),0,MATCH(B6,'Team Member'!B4:B10,0))</f>
-        <v>0</v>
-      </c>
-      <c r="G6" s="41">
-        <f>INDEX('Skill Set'!G2:G32,E6)</f>
+      <c r="A6" s="41"/>
+      <c r="B6" s="42"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="39">
+        <f>IF(ISERROR(MATCH(C6,SkillList,0)),0,MATCH(C6,SkillList,0))</f>
+        <v>0</v>
+      </c>
+      <c r="F6" s="39">
+        <f>IF(ISERROR(MATCH(B6,MemberList,0)),0,MATCH(B6,MemberList,0))</f>
+        <v>0</v>
+      </c>
+      <c r="G6" s="34">
+        <f>INDEX(CostPerHour,E6)</f>
         <v>355.11</v>
       </c>
       <c r="H6" s="9">
-        <f>IF(ISERROR(INDEX('Team Member'!C4:AG10,F6,E6)), 0, INDEX('Team Member'!C4:AG10,F6,E6))</f>
-        <v>0</v>
-      </c>
-      <c r="I6" s="41">
+        <f>IF(ISERROR(INDEX(Competency,F6,E6)), 0, INDEX(Competency,F6,E6))</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="34">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B1048576">
+      <formula1>MemberList</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576">
+      <formula1>SkillList</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>'Team Member'!$B$4:$B$10</xm:f>
-          </x14:formula1>
-          <xm:sqref>B1:B1048576</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>'Skill Set'!$C$2:$C$32</xm:f>
-          </x14:formula1>
-          <xm:sqref>C1:C1048576</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -2991,19 +2965,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.140625" style="45" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" style="38" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="34.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" style="42" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="42" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="8.140625" style="37" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" style="35" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="35" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" style="30" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="8.5703125" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="9.7109375" style="42" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.7109375" style="35" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="37" t="s">
         <v>4</v>
       </c>
       <c r="B1" s="11" t="s">
@@ -3015,14 +2989,14 @@
       <c r="D1" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="E1" s="43" t="s">
+      <c r="E1" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="F1" s="36" t="s">
+        <v>74</v>
+      </c>
+      <c r="G1" s="11" t="s">
         <v>58</v>
-      </c>
-      <c r="F1" s="43" t="s">
-        <v>57</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>59</v>
       </c>
       <c r="H1" s="11" t="s">
         <v>56</v>
@@ -3032,164 +3006,154 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="49"/>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="46">
-        <f>IF(ISERROR(MATCH(C2,'Skill Set'!C2:C32,0)),0,MATCH(C2,'Skill Set'!C2:C32,0))</f>
-        <v>0</v>
-      </c>
-      <c r="F2" s="46">
-        <f>IF(ISERROR(MATCH(B2,'Team Member'!B4:B10,0)),0,MATCH(B2,'Team Member'!B4:B10,0))</f>
-        <v>0</v>
-      </c>
-      <c r="G2" s="41">
-        <f>INDEX('Skill Set'!G2:G32,E2)</f>
+      <c r="A2" s="41"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="39">
+        <f>IF(ISERROR(MATCH(C2,SkillList,0)),0,MATCH(C2,SkillList,0))</f>
+        <v>0</v>
+      </c>
+      <c r="F2" s="39">
+        <f>IF(ISERROR(MATCH(B2,MemberList,0)),0,MATCH(B2,MemberList,0))</f>
+        <v>0</v>
+      </c>
+      <c r="G2" s="34">
+        <f>INDEX(CostPerHour,E2)</f>
         <v>1183.71</v>
       </c>
       <c r="H2" s="9">
-        <f>IF(ISERROR(INDEX('Team Member'!C4:AG10,F2,E2)), 0, INDEX('Team Member'!C4:AG10,F2,E2))</f>
-        <v>0</v>
-      </c>
-      <c r="I2" s="41">
+        <f>IF(ISERROR(INDEX(Competency,F2,E2)), 0, INDEX(Competency,F2,E2))</f>
+        <v>0</v>
+      </c>
+      <c r="I2" s="34">
         <f>D2*G2*H2</f>
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="49"/>
-      <c r="B3" s="50"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="46">
-        <f>IF(ISERROR(MATCH(C3,'Skill Set'!C2:C32,0)),0,MATCH(C3,'Skill Set'!C2:C32,0))</f>
-        <v>0</v>
-      </c>
-      <c r="F3" s="46">
-        <f>IF(ISERROR(MATCH(B3,'Team Member'!B4:B10,0)),0,MATCH(B3,'Team Member'!B4:B10,0))</f>
-        <v>0</v>
-      </c>
-      <c r="G3" s="41">
-        <f>INDEX('Skill Set'!G2:G32,E3)</f>
+      <c r="A3" s="41"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="39">
+        <f>IF(ISERROR(MATCH(C3,SkillList,0)),0,MATCH(C3,SkillList,0))</f>
+        <v>0</v>
+      </c>
+      <c r="F3" s="39">
+        <f>IF(ISERROR(MATCH(B3,MemberList,0)),0,MATCH(B3,MemberList,0))</f>
+        <v>0</v>
+      </c>
+      <c r="G3" s="34">
+        <f>INDEX(CostPerHour,E3)</f>
         <v>946.97</v>
       </c>
       <c r="H3" s="9">
-        <f>IF(ISERROR(INDEX('Team Member'!C4:AG10,F3,E3)), 0, INDEX('Team Member'!C4:AG10,F3,E3))</f>
-        <v>0</v>
-      </c>
-      <c r="I3" s="41">
+        <f>IF(ISERROR(INDEX(Competency,F3,E3)), 0, INDEX(Competency,F3,E3))</f>
+        <v>0</v>
+      </c>
+      <c r="I3" s="34">
         <f t="shared" ref="I3:I6" si="0">D3*G3*H3</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="49"/>
-      <c r="B4" s="50"/>
-      <c r="C4" s="50"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="46">
-        <f>IF(ISERROR(MATCH(C4,'Skill Set'!C2:C32,0)),0,MATCH(C4,'Skill Set'!C2:C32,0))</f>
-        <v>0</v>
-      </c>
-      <c r="F4" s="46">
-        <f>IF(ISERROR(MATCH(B4,'Team Member'!B4:B10,0)),0,MATCH(B4,'Team Member'!B4:B10,0))</f>
-        <v>0</v>
-      </c>
-      <c r="G4" s="41">
-        <f>INDEX('Skill Set'!G2:G32,E4)</f>
+      <c r="A4" s="41"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="39">
+        <f>IF(ISERROR(MATCH(C4,SkillList,0)),0,MATCH(C4,SkillList,0))</f>
+        <v>0</v>
+      </c>
+      <c r="F4" s="39">
+        <f>IF(ISERROR(MATCH(B4,MemberList,0)),0,MATCH(B4,MemberList,0))</f>
+        <v>0</v>
+      </c>
+      <c r="G4" s="34">
+        <f>INDEX(CostPerHour,E4)</f>
         <v>946.97</v>
       </c>
       <c r="H4" s="9">
-        <f>IF(ISERROR(INDEX('Team Member'!C4:AG10,F4,E4)), 0, INDEX('Team Member'!C4:AG10,F4,E4))</f>
+        <f>IF(ISERROR(INDEX(Competency,F4,E4)), 0, INDEX(Competency,F4,E4))</f>
         <v>1</v>
       </c>
-      <c r="I4" s="41">
+      <c r="I4" s="34">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="49"/>
-      <c r="B5" s="50"/>
-      <c r="C5" s="50"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="46">
-        <f>IF(ISERROR(MATCH(C5,'Skill Set'!C2:C32,0)),0,MATCH(C5,'Skill Set'!C2:C32,0))</f>
-        <v>0</v>
-      </c>
-      <c r="F5" s="46">
-        <f>IF(ISERROR(MATCH(B5,'Team Member'!B4:B10,0)),0,MATCH(B5,'Team Member'!B4:B10,0))</f>
-        <v>0</v>
-      </c>
-      <c r="G5" s="41">
-        <f>INDEX('Skill Set'!G2:G32,E5)</f>
+      <c r="A5" s="41"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="39">
+        <f>IF(ISERROR(MATCH(C5,SkillList,0)),0,MATCH(C5,SkillList,0))</f>
+        <v>0</v>
+      </c>
+      <c r="F5" s="39">
+        <f>IF(ISERROR(MATCH(B5,MemberList,0)),0,MATCH(B5,MemberList,0))</f>
+        <v>0</v>
+      </c>
+      <c r="G5" s="34">
+        <f>INDEX(CostPerHour,E5)</f>
         <v>355.11</v>
       </c>
       <c r="H5" s="9">
-        <f>IF(ISERROR(INDEX('Team Member'!C4:AG10,F5,E5)), 0, INDEX('Team Member'!C4:AG10,F5,E5))</f>
-        <v>0</v>
-      </c>
-      <c r="I5" s="41">
+        <f>IF(ISERROR(INDEX(Competency,F5,E5)), 0, INDEX(Competency,F5,E5))</f>
+        <v>0</v>
+      </c>
+      <c r="I5" s="34">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="49"/>
-      <c r="B6" s="50"/>
-      <c r="C6" s="50"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="46">
-        <f>IF(ISERROR(MATCH(C6,'Skill Set'!C2:C32,0)),0,MATCH(C6,'Skill Set'!C2:C32,0))</f>
-        <v>0</v>
-      </c>
-      <c r="F6" s="46">
-        <f>IF(ISERROR(MATCH(B6,'Team Member'!B4:B10,0)),0,MATCH(B6,'Team Member'!B4:B10,0))</f>
-        <v>0</v>
-      </c>
-      <c r="G6" s="41">
-        <f>INDEX('Skill Set'!G2:G32,E6)</f>
+      <c r="A6" s="41"/>
+      <c r="B6" s="42"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="39">
+        <f>IF(ISERROR(MATCH(C6,SkillList,0)),0,MATCH(C6,SkillList,0))</f>
+        <v>0</v>
+      </c>
+      <c r="F6" s="39">
+        <f>IF(ISERROR(MATCH(B6,MemberList,0)),0,MATCH(B6,MemberList,0))</f>
+        <v>0</v>
+      </c>
+      <c r="G6" s="34">
+        <f>INDEX(CostPerHour,E6)</f>
         <v>355.11</v>
       </c>
       <c r="H6" s="9">
-        <f>IF(ISERROR(INDEX('Team Member'!C4:AG10,F6,E6)), 0, INDEX('Team Member'!C4:AG10,F6,E6))</f>
-        <v>0</v>
-      </c>
-      <c r="I6" s="41">
+        <f>IF(ISERROR(INDEX(Competency,F6,E6)), 0, INDEX(Competency,F6,E6))</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="34">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B1048576">
+      <formula1>MemberList</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576">
+      <formula1>SkillList</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>'Team Member'!$B$4:$B$10</xm:f>
-          </x14:formula1>
-          <xm:sqref>B1:B1048576</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>'Skill Set'!$C$2:$C$32</xm:f>
-          </x14:formula1>
-          <xm:sqref>C1:C1048576</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG10"/>
+  <dimension ref="A1:AH10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AG10" sqref="AG10"/>
+      <selection activeCell="AB5" sqref="AB5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3198,536 +3162,552 @@
     <col min="2" max="2" width="19.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="14" width="4.5703125" bestFit="1" customWidth="1"/>
     <col min="15" max="16" width="4.5703125" customWidth="1"/>
-    <col min="17" max="33" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="27" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="4.5703125" customWidth="1"/>
+    <col min="29" max="34" width="4.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="34"/>
-      <c r="B1" s="34"/>
-      <c r="C1" s="87" t="s">
+    <row r="1" spans="1:34" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="83"/>
+      <c r="B1" s="83"/>
+      <c r="C1" s="80" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="88"/>
-      <c r="K1" s="88"/>
-      <c r="L1" s="88"/>
-      <c r="M1" s="88"/>
-      <c r="N1" s="88"/>
-      <c r="O1" s="88"/>
-      <c r="P1" s="88"/>
-      <c r="Q1" s="88"/>
-      <c r="R1" s="88"/>
-      <c r="S1" s="88"/>
-      <c r="T1" s="88"/>
-      <c r="U1" s="88"/>
-      <c r="V1" s="88"/>
-      <c r="W1" s="88"/>
-      <c r="X1" s="88"/>
-      <c r="Y1" s="88"/>
-      <c r="Z1" s="88"/>
-      <c r="AA1" s="88"/>
-      <c r="AB1" s="88"/>
-      <c r="AC1" s="88"/>
-      <c r="AD1" s="88"/>
-      <c r="AE1" s="88"/>
-      <c r="AF1" s="88"/>
-      <c r="AG1" s="89"/>
-    </row>
-    <row r="2" spans="1:33" s="33" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="66" t="s">
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="81"/>
+      <c r="K1" s="81"/>
+      <c r="L1" s="81"/>
+      <c r="M1" s="81"/>
+      <c r="N1" s="81"/>
+      <c r="O1" s="81"/>
+      <c r="P1" s="81"/>
+      <c r="Q1" s="81"/>
+      <c r="R1" s="81"/>
+      <c r="S1" s="81"/>
+      <c r="T1" s="81"/>
+      <c r="U1" s="81"/>
+      <c r="V1" s="81"/>
+      <c r="W1" s="81"/>
+      <c r="X1" s="81"/>
+      <c r="Y1" s="81"/>
+      <c r="Z1" s="81"/>
+      <c r="AA1" s="81"/>
+      <c r="AB1" s="81"/>
+      <c r="AC1" s="81"/>
+      <c r="AD1" s="81"/>
+      <c r="AE1" s="81"/>
+      <c r="AF1" s="81"/>
+      <c r="AG1" s="81"/>
+      <c r="AH1" s="82"/>
+    </row>
+    <row r="2" spans="1:34" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="84"/>
+      <c r="B2" s="84"/>
+      <c r="C2" s="85" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="68"/>
-      <c r="I2" s="66" t="s">
+      <c r="D2" s="86"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="86"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="85" t="s">
         <v>29</v>
       </c>
-      <c r="J2" s="67"/>
-      <c r="K2" s="67"/>
-      <c r="L2" s="67"/>
-      <c r="M2" s="67"/>
-      <c r="N2" s="67"/>
-      <c r="O2" s="67"/>
-      <c r="P2" s="67"/>
-      <c r="Q2" s="68"/>
-      <c r="R2" s="67" t="s">
+      <c r="J2" s="86"/>
+      <c r="K2" s="86"/>
+      <c r="L2" s="86"/>
+      <c r="M2" s="86"/>
+      <c r="N2" s="86"/>
+      <c r="O2" s="86"/>
+      <c r="P2" s="86"/>
+      <c r="Q2" s="87"/>
+      <c r="R2" s="86" t="s">
         <v>23</v>
       </c>
-      <c r="S2" s="67"/>
-      <c r="T2" s="67"/>
-      <c r="U2" s="67"/>
-      <c r="V2" s="67"/>
-      <c r="W2" s="67"/>
-      <c r="X2" s="67"/>
-      <c r="Y2" s="67"/>
-      <c r="Z2" s="68"/>
-      <c r="AA2" s="80" t="s">
+      <c r="S2" s="86"/>
+      <c r="T2" s="86"/>
+      <c r="U2" s="86"/>
+      <c r="V2" s="86"/>
+      <c r="W2" s="86"/>
+      <c r="X2" s="86"/>
+      <c r="Y2" s="86"/>
+      <c r="Z2" s="87"/>
+      <c r="AA2" s="88" t="s">
         <v>26</v>
       </c>
-      <c r="AB2" s="81"/>
-      <c r="AC2" s="82"/>
-      <c r="AD2" s="84" t="s">
+      <c r="AB2" s="89"/>
+      <c r="AC2" s="89"/>
+      <c r="AD2" s="90"/>
+      <c r="AE2" s="77" t="s">
         <v>28</v>
       </c>
-      <c r="AE2" s="85"/>
-      <c r="AF2" s="85"/>
-      <c r="AG2" s="86"/>
-    </row>
-    <row r="3" spans="1:33" ht="180" x14ac:dyDescent="0.25">
+      <c r="AF2" s="78"/>
+      <c r="AG2" s="78"/>
+      <c r="AH2" s="79"/>
+    </row>
+    <row r="3" spans="1:34" ht="180" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="69" t="s">
+      <c r="C3" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="D3" s="31" t="s">
+      <c r="D3" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="E3" s="31" t="s">
+      <c r="E3" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="F3" s="31" t="s">
+      <c r="F3" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="G3" s="31" t="s">
+      <c r="G3" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="H3" s="70" t="s">
+      <c r="H3" s="50" t="s">
         <v>46</v>
       </c>
-      <c r="I3" s="69" t="s">
+      <c r="I3" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="31" t="s">
+      <c r="J3" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="K3" s="31" t="s">
+      <c r="K3" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="L3" s="31" t="s">
+      <c r="L3" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="M3" s="31" t="s">
+      <c r="M3" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="N3" s="31" t="s">
+      <c r="N3" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="O3" s="90" t="s">
+      <c r="O3" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="P3" s="90" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q3" s="70" t="s">
+      <c r="P3" s="61" t="s">
         <v>73</v>
       </c>
-      <c r="R3" s="63" t="s">
+      <c r="Q3" s="50" t="s">
+        <v>72</v>
+      </c>
+      <c r="R3" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="S3" s="31" t="s">
+      <c r="S3" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="T3" s="31" t="s">
+      <c r="T3" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="U3" s="31" t="s">
+      <c r="U3" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="V3" s="31" t="s">
+      <c r="V3" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="W3" s="31" t="s">
+      <c r="W3" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="X3" s="31" t="s">
+      <c r="X3" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="Y3" s="31" t="s">
+      <c r="Y3" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="Z3" s="70" t="s">
+      <c r="Z3" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="AA3" s="69" t="s">
+      <c r="AA3" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="AB3" s="31" t="s">
+      <c r="AB3" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC3" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="AC3" s="70" t="s">
+      <c r="AD3" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="AD3" s="69" t="s">
+      <c r="AE3" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="AE3" s="31" t="s">
+      <c r="AF3" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="AF3" s="31" t="s">
+      <c r="AG3" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="AG3" s="70" t="s">
+      <c r="AH3" s="50" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A4" s="25">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A4" s="24">
         <v>1</v>
       </c>
-      <c r="B4" s="62" t="s">
+      <c r="B4" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="71">
+      <c r="C4" s="51">
         <v>1</v>
       </c>
-      <c r="D4" s="51">
+      <c r="D4" s="43">
         <v>1</v>
       </c>
-      <c r="E4" s="51">
+      <c r="E4" s="43">
         <v>1</v>
       </c>
-      <c r="F4" s="51">
+      <c r="F4" s="43">
         <v>1</v>
       </c>
-      <c r="G4" s="51">
+      <c r="G4" s="43">
         <v>1</v>
       </c>
-      <c r="H4" s="72">
+      <c r="H4" s="52">
         <v>1</v>
       </c>
-      <c r="I4" s="71">
+      <c r="I4" s="51">
         <v>1</v>
       </c>
-      <c r="J4" s="51">
+      <c r="J4" s="43">
         <v>0.5</v>
       </c>
-      <c r="K4" s="51">
+      <c r="K4" s="43">
         <v>1</v>
       </c>
-      <c r="L4" s="51">
+      <c r="L4" s="43">
         <v>1</v>
       </c>
-      <c r="M4" s="51">
+      <c r="M4" s="43">
         <v>1</v>
       </c>
-      <c r="N4" s="51">
+      <c r="N4" s="43">
         <v>1</v>
       </c>
-      <c r="O4" s="91">
+      <c r="O4" s="62">
         <v>0.8</v>
       </c>
-      <c r="P4" s="72">
+      <c r="P4" s="52">
         <v>1</v>
       </c>
-      <c r="Q4" s="72">
+      <c r="Q4" s="52">
         <v>0.8</v>
       </c>
-      <c r="R4" s="64">
-        <v>0</v>
-      </c>
-      <c r="S4" s="51">
-        <v>0</v>
-      </c>
-      <c r="T4" s="51">
+      <c r="R4" s="47">
+        <v>0</v>
+      </c>
+      <c r="S4" s="43">
+        <v>0</v>
+      </c>
+      <c r="T4" s="43">
         <v>1</v>
       </c>
-      <c r="U4" s="51">
-        <v>0</v>
-      </c>
-      <c r="V4" s="51">
-        <v>0</v>
-      </c>
-      <c r="W4" s="51">
-        <v>0</v>
-      </c>
-      <c r="X4" s="51">
-        <v>0</v>
-      </c>
-      <c r="Y4" s="51">
-        <v>0</v>
-      </c>
-      <c r="Z4" s="72">
+      <c r="U4" s="43">
+        <v>0</v>
+      </c>
+      <c r="V4" s="43">
+        <v>0</v>
+      </c>
+      <c r="W4" s="43">
+        <v>0</v>
+      </c>
+      <c r="X4" s="43">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="43">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="52">
         <v>1</v>
       </c>
-      <c r="AA4" s="71">
+      <c r="AA4" s="51">
         <v>1</v>
       </c>
-      <c r="AB4" s="51">
-        <v>0</v>
-      </c>
-      <c r="AC4" s="72">
+      <c r="AB4" s="47">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="43">
+        <v>0</v>
+      </c>
+      <c r="AD4" s="52">
         <v>1</v>
       </c>
-      <c r="AD4" s="71">
-        <v>0</v>
-      </c>
       <c r="AE4" s="51">
         <v>0</v>
       </c>
-      <c r="AF4" s="51">
-        <v>0</v>
-      </c>
-      <c r="AG4" s="72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A5" s="25">
+      <c r="AF4" s="43">
+        <v>0</v>
+      </c>
+      <c r="AG4" s="43">
+        <v>0</v>
+      </c>
+      <c r="AH4" s="52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A5" s="24">
         <v>2</v>
       </c>
-      <c r="B5" s="62" t="s">
+      <c r="B5" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="73"/>
-      <c r="D5" s="52"/>
-      <c r="E5" s="52"/>
-      <c r="F5" s="52"/>
-      <c r="G5" s="52"/>
-      <c r="H5" s="74"/>
-      <c r="I5" s="73"/>
-      <c r="J5" s="52"/>
-      <c r="K5" s="52"/>
-      <c r="L5" s="52"/>
-      <c r="M5" s="52"/>
-      <c r="N5" s="52"/>
-      <c r="O5" s="92"/>
-      <c r="P5" s="92"/>
-      <c r="Q5" s="74"/>
-      <c r="R5" s="65"/>
-      <c r="S5" s="52"/>
-      <c r="T5" s="51"/>
-      <c r="U5" s="51"/>
-      <c r="V5" s="51"/>
-      <c r="W5" s="51"/>
-      <c r="X5" s="51"/>
-      <c r="Y5" s="51"/>
-      <c r="Z5" s="72"/>
-      <c r="AA5" s="71"/>
-      <c r="AB5" s="51"/>
-      <c r="AC5" s="72"/>
-      <c r="AD5" s="71"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="54"/>
+      <c r="I5" s="53"/>
+      <c r="J5" s="44"/>
+      <c r="K5" s="44"/>
+      <c r="L5" s="44"/>
+      <c r="M5" s="44"/>
+      <c r="N5" s="44"/>
+      <c r="O5" s="63"/>
+      <c r="P5" s="63"/>
+      <c r="Q5" s="54"/>
+      <c r="R5" s="48"/>
+      <c r="S5" s="44"/>
+      <c r="T5" s="43"/>
+      <c r="U5" s="43"/>
+      <c r="V5" s="43"/>
+      <c r="W5" s="43"/>
+      <c r="X5" s="43"/>
+      <c r="Y5" s="43"/>
+      <c r="Z5" s="52"/>
+      <c r="AA5" s="51"/>
+      <c r="AB5" s="47"/>
+      <c r="AC5" s="43"/>
+      <c r="AD5" s="52"/>
       <c r="AE5" s="51"/>
-      <c r="AF5" s="51"/>
-      <c r="AG5" s="72"/>
-    </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A6" s="25">
+      <c r="AF5" s="43"/>
+      <c r="AG5" s="43"/>
+      <c r="AH5" s="52"/>
+    </row>
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A6" s="24">
         <v>3</v>
       </c>
-      <c r="B6" s="62" t="s">
+      <c r="B6" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="73"/>
-      <c r="D6" s="52"/>
-      <c r="E6" s="52"/>
-      <c r="F6" s="52"/>
-      <c r="G6" s="52"/>
-      <c r="H6" s="74"/>
-      <c r="I6" s="73"/>
-      <c r="J6" s="52"/>
-      <c r="K6" s="52"/>
-      <c r="L6" s="52"/>
-      <c r="M6" s="52"/>
-      <c r="N6" s="52"/>
-      <c r="O6" s="92"/>
-      <c r="P6" s="92"/>
-      <c r="Q6" s="74"/>
-      <c r="R6" s="65"/>
-      <c r="S6" s="52"/>
-      <c r="T6" s="51"/>
-      <c r="U6" s="51"/>
-      <c r="V6" s="51"/>
-      <c r="W6" s="51"/>
-      <c r="X6" s="51"/>
-      <c r="Y6" s="51"/>
-      <c r="Z6" s="72"/>
-      <c r="AA6" s="71"/>
-      <c r="AB6" s="51"/>
-      <c r="AC6" s="72"/>
-      <c r="AD6" s="71"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="54"/>
+      <c r="I6" s="53"/>
+      <c r="J6" s="44"/>
+      <c r="K6" s="44"/>
+      <c r="L6" s="44"/>
+      <c r="M6" s="44"/>
+      <c r="N6" s="44"/>
+      <c r="O6" s="63"/>
+      <c r="P6" s="63"/>
+      <c r="Q6" s="54"/>
+      <c r="R6" s="48"/>
+      <c r="S6" s="44"/>
+      <c r="T6" s="43"/>
+      <c r="U6" s="43"/>
+      <c r="V6" s="43"/>
+      <c r="W6" s="43"/>
+      <c r="X6" s="43"/>
+      <c r="Y6" s="43"/>
+      <c r="Z6" s="52"/>
+      <c r="AA6" s="51"/>
+      <c r="AB6" s="47"/>
+      <c r="AC6" s="43"/>
+      <c r="AD6" s="52"/>
       <c r="AE6" s="51"/>
-      <c r="AF6" s="51"/>
-      <c r="AG6" s="72"/>
-    </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A7" s="25">
+      <c r="AF6" s="43"/>
+      <c r="AG6" s="43"/>
+      <c r="AH6" s="52"/>
+    </row>
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A7" s="24">
         <v>4</v>
       </c>
-      <c r="B7" s="62" t="s">
+      <c r="B7" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="73"/>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="52"/>
-      <c r="H7" s="74"/>
-      <c r="I7" s="73"/>
-      <c r="J7" s="52"/>
-      <c r="K7" s="52"/>
-      <c r="L7" s="52"/>
-      <c r="M7" s="52"/>
-      <c r="N7" s="52"/>
-      <c r="O7" s="92"/>
-      <c r="P7" s="92"/>
-      <c r="Q7" s="74"/>
-      <c r="R7" s="65"/>
-      <c r="S7" s="52"/>
-      <c r="T7" s="51"/>
-      <c r="U7" s="51"/>
-      <c r="V7" s="51"/>
-      <c r="W7" s="51"/>
-      <c r="X7" s="51"/>
-      <c r="Y7" s="51"/>
-      <c r="Z7" s="72"/>
-      <c r="AA7" s="71"/>
-      <c r="AB7" s="51"/>
-      <c r="AC7" s="72"/>
-      <c r="AD7" s="71"/>
+      <c r="C7" s="53"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="44"/>
+      <c r="G7" s="44"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="44"/>
+      <c r="K7" s="44"/>
+      <c r="L7" s="44"/>
+      <c r="M7" s="44"/>
+      <c r="N7" s="44"/>
+      <c r="O7" s="63"/>
+      <c r="P7" s="63"/>
+      <c r="Q7" s="54"/>
+      <c r="R7" s="48"/>
+      <c r="S7" s="44"/>
+      <c r="T7" s="43"/>
+      <c r="U7" s="43"/>
+      <c r="V7" s="43"/>
+      <c r="W7" s="43"/>
+      <c r="X7" s="43"/>
+      <c r="Y7" s="43"/>
+      <c r="Z7" s="52"/>
+      <c r="AA7" s="51"/>
+      <c r="AB7" s="47"/>
+      <c r="AC7" s="43"/>
+      <c r="AD7" s="52"/>
       <c r="AE7" s="51"/>
-      <c r="AF7" s="51"/>
-      <c r="AG7" s="72"/>
-    </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A8" s="25">
+      <c r="AF7" s="43"/>
+      <c r="AG7" s="43"/>
+      <c r="AH7" s="52"/>
+    </row>
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A8" s="24">
         <v>5</v>
       </c>
-      <c r="B8" s="62" t="s">
+      <c r="B8" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="73"/>
-      <c r="D8" s="52"/>
-      <c r="E8" s="52"/>
-      <c r="F8" s="52"/>
-      <c r="G8" s="52"/>
-      <c r="H8" s="74"/>
-      <c r="I8" s="73"/>
-      <c r="J8" s="52"/>
-      <c r="K8" s="52"/>
-      <c r="L8" s="52"/>
-      <c r="M8" s="52"/>
-      <c r="N8" s="52"/>
-      <c r="O8" s="92"/>
-      <c r="P8" s="92"/>
-      <c r="Q8" s="74"/>
-      <c r="R8" s="65"/>
-      <c r="S8" s="52"/>
-      <c r="T8" s="51"/>
-      <c r="U8" s="51"/>
-      <c r="V8" s="51"/>
-      <c r="W8" s="51"/>
-      <c r="X8" s="51"/>
-      <c r="Y8" s="51"/>
-      <c r="Z8" s="72"/>
-      <c r="AA8" s="71"/>
-      <c r="AB8" s="51"/>
-      <c r="AC8" s="72"/>
-      <c r="AD8" s="71"/>
+      <c r="C8" s="53"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="54"/>
+      <c r="I8" s="53"/>
+      <c r="J8" s="44"/>
+      <c r="K8" s="44"/>
+      <c r="L8" s="44"/>
+      <c r="M8" s="44"/>
+      <c r="N8" s="44"/>
+      <c r="O8" s="63"/>
+      <c r="P8" s="63"/>
+      <c r="Q8" s="54"/>
+      <c r="R8" s="48"/>
+      <c r="S8" s="44"/>
+      <c r="T8" s="43"/>
+      <c r="U8" s="43"/>
+      <c r="V8" s="43"/>
+      <c r="W8" s="43"/>
+      <c r="X8" s="43"/>
+      <c r="Y8" s="43"/>
+      <c r="Z8" s="52"/>
+      <c r="AA8" s="51"/>
+      <c r="AB8" s="47"/>
+      <c r="AC8" s="43"/>
+      <c r="AD8" s="52"/>
       <c r="AE8" s="51"/>
-      <c r="AF8" s="51"/>
-      <c r="AG8" s="72"/>
-    </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A9" s="25">
+      <c r="AF8" s="43"/>
+      <c r="AG8" s="43"/>
+      <c r="AH8" s="52"/>
+    </row>
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A9" s="24">
         <v>6</v>
       </c>
-      <c r="B9" s="62" t="s">
+      <c r="B9" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="73"/>
-      <c r="D9" s="52"/>
-      <c r="E9" s="52"/>
-      <c r="F9" s="52"/>
-      <c r="G9" s="52"/>
-      <c r="H9" s="74"/>
-      <c r="I9" s="73"/>
-      <c r="J9" s="52"/>
-      <c r="K9" s="52"/>
-      <c r="L9" s="52"/>
-      <c r="M9" s="52"/>
-      <c r="N9" s="52"/>
-      <c r="O9" s="92"/>
-      <c r="P9" s="92"/>
-      <c r="Q9" s="74"/>
-      <c r="R9" s="65"/>
-      <c r="S9" s="52"/>
-      <c r="T9" s="51"/>
-      <c r="U9" s="51"/>
-      <c r="V9" s="51"/>
-      <c r="W9" s="51"/>
-      <c r="X9" s="51"/>
-      <c r="Y9" s="51"/>
-      <c r="Z9" s="72"/>
-      <c r="AA9" s="71"/>
-      <c r="AB9" s="51"/>
-      <c r="AC9" s="72"/>
-      <c r="AD9" s="71"/>
+      <c r="C9" s="53"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="44"/>
+      <c r="G9" s="44"/>
+      <c r="H9" s="54"/>
+      <c r="I9" s="53"/>
+      <c r="J9" s="44"/>
+      <c r="K9" s="44"/>
+      <c r="L9" s="44"/>
+      <c r="M9" s="44"/>
+      <c r="N9" s="44"/>
+      <c r="O9" s="63"/>
+      <c r="P9" s="63"/>
+      <c r="Q9" s="54"/>
+      <c r="R9" s="48"/>
+      <c r="S9" s="44"/>
+      <c r="T9" s="43"/>
+      <c r="U9" s="43"/>
+      <c r="V9" s="43"/>
+      <c r="W9" s="43"/>
+      <c r="X9" s="43"/>
+      <c r="Y9" s="43"/>
+      <c r="Z9" s="52"/>
+      <c r="AA9" s="51"/>
+      <c r="AB9" s="47"/>
+      <c r="AC9" s="43"/>
+      <c r="AD9" s="52"/>
       <c r="AE9" s="51"/>
-      <c r="AF9" s="51"/>
-      <c r="AG9" s="72"/>
-    </row>
-    <row r="10" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="25">
+      <c r="AF9" s="43"/>
+      <c r="AG9" s="43"/>
+      <c r="AH9" s="52"/>
+    </row>
+    <row r="10" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="24">
         <v>7</v>
       </c>
-      <c r="B10" s="62" t="s">
+      <c r="B10" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="75"/>
-      <c r="D10" s="76"/>
-      <c r="E10" s="76"/>
-      <c r="F10" s="76"/>
-      <c r="G10" s="76"/>
-      <c r="H10" s="77"/>
-      <c r="I10" s="75"/>
-      <c r="J10" s="76"/>
-      <c r="K10" s="76"/>
-      <c r="L10" s="76"/>
-      <c r="M10" s="76"/>
-      <c r="N10" s="76"/>
-      <c r="O10" s="93"/>
-      <c r="P10" s="93"/>
-      <c r="Q10" s="77"/>
-      <c r="R10" s="94"/>
-      <c r="S10" s="76"/>
-      <c r="T10" s="78"/>
-      <c r="U10" s="78"/>
-      <c r="V10" s="78"/>
-      <c r="W10" s="78"/>
-      <c r="X10" s="78"/>
-      <c r="Y10" s="78"/>
-      <c r="Z10" s="79"/>
-      <c r="AA10" s="83"/>
-      <c r="AB10" s="78"/>
-      <c r="AC10" s="79"/>
-      <c r="AD10" s="83"/>
-      <c r="AE10" s="78"/>
-      <c r="AF10" s="78"/>
-      <c r="AG10" s="79"/>
+      <c r="C10" s="55"/>
+      <c r="D10" s="56"/>
+      <c r="E10" s="56"/>
+      <c r="F10" s="56"/>
+      <c r="G10" s="56"/>
+      <c r="H10" s="57"/>
+      <c r="I10" s="55"/>
+      <c r="J10" s="56"/>
+      <c r="K10" s="56"/>
+      <c r="L10" s="56"/>
+      <c r="M10" s="56"/>
+      <c r="N10" s="56"/>
+      <c r="O10" s="64"/>
+      <c r="P10" s="64"/>
+      <c r="Q10" s="57"/>
+      <c r="R10" s="65"/>
+      <c r="S10" s="56"/>
+      <c r="T10" s="58"/>
+      <c r="U10" s="58"/>
+      <c r="V10" s="58"/>
+      <c r="W10" s="58"/>
+      <c r="X10" s="58"/>
+      <c r="Y10" s="58"/>
+      <c r="Z10" s="59"/>
+      <c r="AA10" s="60"/>
+      <c r="AB10" s="95"/>
+      <c r="AC10" s="58"/>
+      <c r="AD10" s="59"/>
+      <c r="AE10" s="60"/>
+      <c r="AF10" s="58"/>
+      <c r="AG10" s="58"/>
+      <c r="AH10" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="AD2:AG2"/>
-    <mergeCell ref="C1:AG1"/>
+    <mergeCell ref="AE2:AH2"/>
+    <mergeCell ref="C1:AH1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C2:H2"/>
     <mergeCell ref="I2:Q2"/>
     <mergeCell ref="R2:Z2"/>
-    <mergeCell ref="AA2:AC2"/>
+    <mergeCell ref="AA2:AD2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3736,25 +3716,25 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.42578125" style="35" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.42578125" style="28" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.28515625" style="36" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="15" style="40" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="38" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" style="37" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.28515625" style="29" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="15" style="33" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="31" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" style="30" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B1" s="11" t="s">
         <v>5</v>
@@ -3762,10 +3742,10 @@
       <c r="C1" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="D1" s="39" t="s">
+      <c r="D1" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="E1" s="39" t="s">
+      <c r="E1" s="32" t="s">
         <v>55</v>
       </c>
       <c r="F1" s="14" t="s">
@@ -3776,7 +3756,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="59" t="s">
+      <c r="A2" s="91" t="s">
         <v>25</v>
       </c>
       <c r="B2" s="9">
@@ -3785,10 +3765,10 @@
       <c r="C2" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="D2" s="41">
+      <c r="D2" s="34">
         <v>10000000</v>
       </c>
-      <c r="E2" s="41">
+      <c r="E2" s="34">
         <f>D2/4</f>
         <v>2500000</v>
       </c>
@@ -3796,49 +3776,49 @@
         <f>E2/12</f>
         <v>208333.33333333334</v>
       </c>
-      <c r="G2" s="41">
+      <c r="G2" s="34">
         <f>ROUND(F2/22/8,2)</f>
         <v>1183.71</v>
       </c>
-      <c r="H2" s="30"/>
+      <c r="H2" s="93"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="60"/>
+      <c r="A3" s="92"/>
       <c r="B3" s="9">
         <v>2</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="D3" s="41">
+      <c r="D3" s="34">
         <v>8000000</v>
       </c>
-      <c r="E3" s="41">
-        <f t="shared" ref="E3:E32" si="0">D3/4</f>
+      <c r="E3" s="34">
+        <f t="shared" ref="E3:E33" si="0">D3/4</f>
         <v>2000000</v>
       </c>
       <c r="F3" s="15">
-        <f t="shared" ref="F3:F32" si="1">E3/12</f>
+        <f t="shared" ref="F3:F33" si="1">E3/12</f>
         <v>166666.66666666666</v>
       </c>
-      <c r="G3" s="41">
-        <f t="shared" ref="G3:G32" si="2">ROUND(F3/22/8,2)</f>
+      <c r="G3" s="34">
+        <f t="shared" ref="G3:G33" si="2">ROUND(F3/22/8,2)</f>
         <v>946.97</v>
       </c>
-      <c r="H3" s="30"/>
+      <c r="H3" s="93"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="60"/>
+      <c r="A4" s="92"/>
       <c r="B4" s="9">
         <v>3</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D4" s="41">
+      <c r="D4" s="34">
         <v>8000000</v>
       </c>
-      <c r="E4" s="41">
+      <c r="E4" s="34">
         <f t="shared" si="0"/>
         <v>2000000</v>
       </c>
@@ -3846,24 +3826,24 @@
         <f t="shared" si="1"/>
         <v>166666.66666666666</v>
       </c>
-      <c r="G4" s="41">
+      <c r="G4" s="34">
         <f t="shared" si="2"/>
         <v>946.97</v>
       </c>
-      <c r="H4" s="30"/>
+      <c r="H4" s="93"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="60"/>
+      <c r="A5" s="92"/>
       <c r="B5" s="9">
         <v>4</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="D5" s="41">
+      <c r="D5" s="34">
         <v>3000000</v>
       </c>
-      <c r="E5" s="41">
+      <c r="E5" s="34">
         <f t="shared" si="0"/>
         <v>750000</v>
       </c>
@@ -3871,24 +3851,24 @@
         <f t="shared" si="1"/>
         <v>62500</v>
       </c>
-      <c r="G5" s="41">
+      <c r="G5" s="34">
         <f t="shared" si="2"/>
         <v>355.11</v>
       </c>
-      <c r="H5" s="30"/>
+      <c r="H5" s="93"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="60"/>
+      <c r="A6" s="92"/>
       <c r="B6" s="9">
         <v>5</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="D6" s="41">
+      <c r="D6" s="34">
         <v>3000000</v>
       </c>
-      <c r="E6" s="41">
+      <c r="E6" s="34">
         <f t="shared" si="0"/>
         <v>750000</v>
       </c>
@@ -3896,24 +3876,24 @@
         <f t="shared" si="1"/>
         <v>62500</v>
       </c>
-      <c r="G6" s="41">
+      <c r="G6" s="34">
         <f t="shared" si="2"/>
         <v>355.11</v>
       </c>
-      <c r="H6" s="30"/>
+      <c r="H6" s="93"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="61"/>
+      <c r="A7" s="94"/>
       <c r="B7" s="9">
         <v>6</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="D7" s="41">
+      <c r="D7" s="34">
         <v>8000000</v>
       </c>
-      <c r="E7" s="41">
+      <c r="E7" s="34">
         <f t="shared" si="0"/>
         <v>2000000</v>
       </c>
@@ -3921,14 +3901,14 @@
         <f t="shared" si="1"/>
         <v>166666.66666666666</v>
       </c>
-      <c r="G7" s="41">
+      <c r="G7" s="34">
         <f t="shared" si="2"/>
         <v>946.97</v>
       </c>
-      <c r="H7" s="30"/>
+      <c r="H7" s="93"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="59" t="s">
+      <c r="A8" s="91" t="s">
         <v>29</v>
       </c>
       <c r="B8" s="9">
@@ -3937,10 +3917,10 @@
       <c r="C8" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="41">
+      <c r="D8" s="34">
         <v>5000000</v>
       </c>
-      <c r="E8" s="41">
+      <c r="E8" s="34">
         <f t="shared" si="0"/>
         <v>1250000</v>
       </c>
@@ -3948,23 +3928,23 @@
         <f t="shared" si="1"/>
         <v>104166.66666666667</v>
       </c>
-      <c r="G8" s="41">
+      <c r="G8" s="34">
         <f t="shared" si="2"/>
         <v>591.86</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="60"/>
+      <c r="A9" s="92"/>
       <c r="B9" s="9">
         <v>8</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="41">
+      <c r="D9" s="34">
         <v>2000000</v>
       </c>
-      <c r="E9" s="41">
+      <c r="E9" s="34">
         <f t="shared" si="0"/>
         <v>500000</v>
       </c>
@@ -3972,23 +3952,23 @@
         <f t="shared" si="1"/>
         <v>41666.666666666664</v>
       </c>
-      <c r="G9" s="41">
+      <c r="G9" s="34">
         <f t="shared" si="2"/>
         <v>236.74</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="60"/>
+      <c r="A10" s="92"/>
       <c r="B10" s="9">
         <v>9</v>
       </c>
       <c r="C10" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="41">
+      <c r="D10" s="34">
         <v>1500000</v>
       </c>
-      <c r="E10" s="41">
+      <c r="E10" s="34">
         <f t="shared" si="0"/>
         <v>375000</v>
       </c>
@@ -3996,23 +3976,23 @@
         <f t="shared" si="1"/>
         <v>31250</v>
       </c>
-      <c r="G10" s="41">
+      <c r="G10" s="34">
         <f t="shared" si="2"/>
         <v>177.56</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="60"/>
+      <c r="A11" s="92"/>
       <c r="B11" s="9">
         <v>10</v>
       </c>
       <c r="C11" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D11" s="41">
+      <c r="D11" s="34">
         <v>5000000</v>
       </c>
-      <c r="E11" s="41">
+      <c r="E11" s="34">
         <f t="shared" si="0"/>
         <v>1250000</v>
       </c>
@@ -4020,23 +4000,23 @@
         <f t="shared" si="1"/>
         <v>104166.66666666667</v>
       </c>
-      <c r="G11" s="41">
+      <c r="G11" s="34">
         <f t="shared" si="2"/>
         <v>591.86</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="60"/>
+      <c r="A12" s="92"/>
       <c r="B12" s="9">
         <v>11</v>
       </c>
       <c r="C12" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="41">
+      <c r="D12" s="34">
         <v>1500000</v>
       </c>
-      <c r="E12" s="41">
+      <c r="E12" s="34">
         <f t="shared" si="0"/>
         <v>375000</v>
       </c>
@@ -4044,23 +4024,23 @@
         <f t="shared" si="1"/>
         <v>31250</v>
       </c>
-      <c r="G12" s="41">
+      <c r="G12" s="34">
         <f t="shared" si="2"/>
         <v>177.56</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="60"/>
+      <c r="A13" s="92"/>
       <c r="B13" s="9">
         <v>12</v>
       </c>
       <c r="C13" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="41">
+      <c r="D13" s="34">
         <v>1000000</v>
       </c>
-      <c r="E13" s="41">
+      <c r="E13" s="34">
         <f t="shared" si="0"/>
         <v>250000</v>
       </c>
@@ -4068,23 +4048,23 @@
         <f t="shared" si="1"/>
         <v>20833.333333333332</v>
       </c>
-      <c r="G13" s="41">
+      <c r="G13" s="34">
         <f t="shared" si="2"/>
         <v>118.37</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="60"/>
+      <c r="A14" s="92"/>
       <c r="B14" s="9">
         <v>13</v>
       </c>
       <c r="C14" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="41">
+      <c r="D14" s="34">
         <v>1000000</v>
       </c>
-      <c r="E14" s="41">
+      <c r="E14" s="34">
         <f t="shared" si="0"/>
         <v>250000</v>
       </c>
@@ -4092,23 +4072,23 @@
         <f t="shared" si="1"/>
         <v>20833.333333333332</v>
       </c>
-      <c r="G14" s="41">
+      <c r="G14" s="34">
         <f t="shared" si="2"/>
         <v>118.37</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="60"/>
+      <c r="A15" s="92"/>
       <c r="B15" s="9">
         <v>14</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="D15" s="41">
+        <v>73</v>
+      </c>
+      <c r="D15" s="34">
         <v>2500000</v>
       </c>
-      <c r="E15" s="41">
+      <c r="E15" s="34">
         <f t="shared" si="0"/>
         <v>625000</v>
       </c>
@@ -4116,23 +4096,23 @@
         <f t="shared" si="1"/>
         <v>52083.333333333336</v>
       </c>
-      <c r="G15" s="41">
+      <c r="G15" s="34">
         <f t="shared" si="2"/>
         <v>295.93</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="60"/>
+      <c r="A16" s="92"/>
       <c r="B16" s="9">
         <v>15</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="D16" s="41">
+        <v>72</v>
+      </c>
+      <c r="D16" s="34">
         <v>1000000</v>
       </c>
-      <c r="E16" s="41">
+      <c r="E16" s="34">
         <f t="shared" si="0"/>
         <v>250000</v>
       </c>
@@ -4140,14 +4120,14 @@
         <f t="shared" si="1"/>
         <v>20833.333333333332</v>
       </c>
-      <c r="G16" s="41">
+      <c r="G16" s="34">
         <f t="shared" si="2"/>
         <v>118.37</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="59" t="s">
-        <v>70</v>
+      <c r="A17" s="91" t="s">
+        <v>69</v>
       </c>
       <c r="B17" s="9">
         <v>16</v>
@@ -4155,10 +4135,10 @@
       <c r="C17" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="41">
+      <c r="D17" s="34">
         <v>1500000</v>
       </c>
-      <c r="E17" s="41">
+      <c r="E17" s="34">
         <f t="shared" si="0"/>
         <v>375000</v>
       </c>
@@ -4166,23 +4146,23 @@
         <f t="shared" si="1"/>
         <v>31250</v>
       </c>
-      <c r="G17" s="41">
+      <c r="G17" s="34">
         <f t="shared" si="2"/>
         <v>177.56</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="60"/>
+      <c r="A18" s="92"/>
       <c r="B18" s="9">
         <v>17</v>
       </c>
       <c r="C18" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="D18" s="41">
+      <c r="D18" s="34">
         <v>600000</v>
       </c>
-      <c r="E18" s="41">
+      <c r="E18" s="34">
         <f t="shared" si="0"/>
         <v>150000</v>
       </c>
@@ -4190,23 +4170,23 @@
         <f t="shared" si="1"/>
         <v>12500</v>
       </c>
-      <c r="G18" s="41">
+      <c r="G18" s="34">
         <f t="shared" si="2"/>
         <v>71.02</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="60"/>
+      <c r="A19" s="92"/>
       <c r="B19" s="9">
         <v>18</v>
       </c>
       <c r="C19" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D19" s="41">
+      <c r="D19" s="34">
         <v>300000</v>
       </c>
-      <c r="E19" s="41">
+      <c r="E19" s="34">
         <f t="shared" si="0"/>
         <v>75000</v>
       </c>
@@ -4214,23 +4194,23 @@
         <f t="shared" si="1"/>
         <v>6250</v>
       </c>
-      <c r="G19" s="41">
+      <c r="G19" s="34">
         <f t="shared" si="2"/>
         <v>35.51</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="60"/>
+      <c r="A20" s="92"/>
       <c r="B20" s="9">
         <v>19</v>
       </c>
       <c r="C20" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D20" s="41">
+      <c r="D20" s="34">
         <v>600000</v>
       </c>
-      <c r="E20" s="41">
+      <c r="E20" s="34">
         <f t="shared" si="0"/>
         <v>150000</v>
       </c>
@@ -4238,23 +4218,23 @@
         <f t="shared" si="1"/>
         <v>12500</v>
       </c>
-      <c r="G20" s="41">
+      <c r="G20" s="34">
         <f t="shared" si="2"/>
         <v>71.02</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="60"/>
+      <c r="A21" s="92"/>
       <c r="B21" s="9">
         <v>20</v>
       </c>
       <c r="C21" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="D21" s="41">
+      <c r="D21" s="34">
         <v>300000</v>
       </c>
-      <c r="E21" s="41">
+      <c r="E21" s="34">
         <f t="shared" si="0"/>
         <v>75000</v>
       </c>
@@ -4262,23 +4242,23 @@
         <f t="shared" si="1"/>
         <v>6250</v>
       </c>
-      <c r="G21" s="41">
+      <c r="G21" s="34">
         <f t="shared" si="2"/>
         <v>35.51</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="60"/>
+      <c r="A22" s="92"/>
       <c r="B22" s="9">
         <v>21</v>
       </c>
       <c r="C22" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D22" s="41">
+      <c r="D22" s="34">
         <v>600000</v>
       </c>
-      <c r="E22" s="41">
+      <c r="E22" s="34">
         <f t="shared" si="0"/>
         <v>150000</v>
       </c>
@@ -4286,23 +4266,23 @@
         <f t="shared" si="1"/>
         <v>12500</v>
       </c>
-      <c r="G22" s="41">
+      <c r="G22" s="34">
         <f t="shared" si="2"/>
         <v>71.02</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="60"/>
+      <c r="A23" s="92"/>
       <c r="B23" s="9">
         <v>22</v>
       </c>
       <c r="C23" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D23" s="41">
+      <c r="D23" s="34">
         <v>300000</v>
       </c>
-      <c r="E23" s="41">
+      <c r="E23" s="34">
         <f t="shared" si="0"/>
         <v>75000</v>
       </c>
@@ -4310,23 +4290,23 @@
         <f t="shared" si="1"/>
         <v>6250</v>
       </c>
-      <c r="G23" s="41">
+      <c r="G23" s="34">
         <f t="shared" si="2"/>
         <v>35.51</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="60"/>
+      <c r="A24" s="92"/>
       <c r="B24" s="9">
         <v>23</v>
       </c>
       <c r="C24" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="D24" s="41">
+      <c r="D24" s="34">
         <v>300000</v>
       </c>
-      <c r="E24" s="41">
+      <c r="E24" s="34">
         <f t="shared" si="0"/>
         <v>75000</v>
       </c>
@@ -4334,23 +4314,23 @@
         <f t="shared" si="1"/>
         <v>6250</v>
       </c>
-      <c r="G24" s="41">
+      <c r="G24" s="34">
         <f t="shared" si="2"/>
         <v>35.51</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="61"/>
+      <c r="A25" s="94"/>
       <c r="B25" s="9">
         <v>24</v>
       </c>
       <c r="C25" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="D25" s="41">
+      <c r="D25" s="34">
         <v>600000</v>
       </c>
-      <c r="E25" s="41">
+      <c r="E25" s="34">
         <f t="shared" si="0"/>
         <v>150000</v>
       </c>
@@ -4358,14 +4338,14 @@
         <f t="shared" si="1"/>
         <v>12500</v>
       </c>
-      <c r="G25" s="41">
+      <c r="G25" s="34">
         <f t="shared" si="2"/>
         <v>71.02</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="59" t="s">
-        <v>71</v>
+      <c r="A26" s="91" t="s">
+        <v>70</v>
       </c>
       <c r="B26" s="9">
         <v>25</v>
@@ -4373,10 +4353,10 @@
       <c r="C26" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="41">
+      <c r="D26" s="34">
         <v>2500000</v>
       </c>
-      <c r="E26" s="41">
+      <c r="E26" s="34">
         <f t="shared" si="0"/>
         <v>625000</v>
       </c>
@@ -4384,97 +4364,97 @@
         <f t="shared" si="1"/>
         <v>52083.333333333336</v>
       </c>
-      <c r="G26" s="41">
+      <c r="G26" s="34">
         <f t="shared" si="2"/>
         <v>295.93</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="60"/>
+      <c r="A27" s="92"/>
       <c r="B27" s="9">
         <v>26</v>
       </c>
       <c r="C27" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="D27" s="34">
+        <v>600000</v>
+      </c>
+      <c r="E27" s="34">
+        <f t="shared" si="0"/>
+        <v>150000</v>
+      </c>
+      <c r="F27" s="15">
+        <f t="shared" si="1"/>
+        <v>12500</v>
+      </c>
+      <c r="G27" s="34">
+        <f t="shared" si="2"/>
+        <v>71.02</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="92"/>
+      <c r="B28" s="9">
+        <v>27</v>
+      </c>
+      <c r="C28" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="D27" s="41">
+      <c r="D28" s="34">
         <v>1500000</v>
       </c>
-      <c r="E27" s="41">
+      <c r="E28" s="34">
         <f t="shared" si="0"/>
         <v>375000</v>
       </c>
-      <c r="F27" s="15">
+      <c r="F28" s="15">
         <f t="shared" si="1"/>
         <v>31250</v>
       </c>
-      <c r="G27" s="41">
+      <c r="G28" s="34">
         <f t="shared" si="2"/>
         <v>177.56</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="61"/>
-      <c r="B28" s="9">
-        <v>27</v>
-      </c>
-      <c r="C28" s="10" t="s">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="94"/>
+      <c r="B29" s="9">
+        <v>28</v>
+      </c>
+      <c r="C29" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D28" s="41">
+      <c r="D29" s="34">
         <v>600000</v>
       </c>
-      <c r="E28" s="41">
+      <c r="E29" s="34">
         <f t="shared" si="0"/>
         <v>150000</v>
       </c>
-      <c r="F28" s="15">
+      <c r="F29" s="15">
         <f t="shared" si="1"/>
         <v>12500</v>
       </c>
-      <c r="G28" s="41">
+      <c r="G29" s="34">
         <f t="shared" si="2"/>
         <v>71.02</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="59" t="s">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="91" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="9">
-        <v>28</v>
-      </c>
-      <c r="C29" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D29" s="41">
-        <v>300000</v>
-      </c>
-      <c r="E29" s="41">
-        <f t="shared" si="0"/>
-        <v>75000</v>
-      </c>
-      <c r="F29" s="15">
-        <f t="shared" si="1"/>
-        <v>6250</v>
-      </c>
-      <c r="G29" s="41">
-        <f t="shared" si="2"/>
-        <v>35.51</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="60"/>
       <c r="B30" s="9">
         <v>29</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="D30" s="41">
+        <v>30</v>
+      </c>
+      <c r="D30" s="34">
         <v>300000</v>
       </c>
-      <c r="E30" s="41">
+      <c r="E30" s="34">
         <f t="shared" si="0"/>
         <v>75000</v>
       </c>
@@ -4482,67 +4462,91 @@
         <f t="shared" si="1"/>
         <v>6250</v>
       </c>
-      <c r="G30" s="41">
+      <c r="G30" s="34">
         <f t="shared" si="2"/>
         <v>35.51</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="60"/>
+      <c r="A31" s="92"/>
       <c r="B31" s="9">
         <v>30</v>
       </c>
       <c r="C31" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D31" s="34">
+        <v>300000</v>
+      </c>
+      <c r="E31" s="34">
+        <f t="shared" si="0"/>
+        <v>75000</v>
+      </c>
+      <c r="F31" s="15">
+        <f t="shared" si="1"/>
+        <v>6250</v>
+      </c>
+      <c r="G31" s="34">
+        <f t="shared" si="2"/>
+        <v>35.51</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="92"/>
+      <c r="B32" s="9">
+        <v>31</v>
+      </c>
+      <c r="C32" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="D31" s="41">
+      <c r="D32" s="34">
         <v>600000</v>
       </c>
-      <c r="E31" s="41">
+      <c r="E32" s="34">
         <f t="shared" si="0"/>
         <v>150000</v>
       </c>
-      <c r="F31" s="15">
+      <c r="F32" s="15">
         <f t="shared" si="1"/>
         <v>12500</v>
       </c>
-      <c r="G31" s="41">
+      <c r="G32" s="34">
         <f t="shared" si="2"/>
         <v>71.02</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="60"/>
-      <c r="B32" s="9">
-        <v>31</v>
-      </c>
-      <c r="C32" s="10" t="s">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="92"/>
+      <c r="B33" s="9">
+        <v>32</v>
+      </c>
+      <c r="C33" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="D32" s="41">
+      <c r="D33" s="34">
         <v>1000000</v>
       </c>
-      <c r="E32" s="41">
+      <c r="E33" s="34">
         <f t="shared" si="0"/>
         <v>250000</v>
       </c>
-      <c r="F32" s="15">
+      <c r="F33" s="15">
         <f t="shared" si="1"/>
         <v>20833.333333333332</v>
       </c>
-      <c r="G32" s="41">
+      <c r="G33" s="34">
         <f t="shared" si="2"/>
         <v>118.37</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="A29:A32"/>
+    <mergeCell ref="A30:A33"/>
     <mergeCell ref="H2:H7"/>
     <mergeCell ref="A2:A7"/>
     <mergeCell ref="A8:A16"/>
     <mergeCell ref="A17:A25"/>
-    <mergeCell ref="A26:A28"/>
+    <mergeCell ref="A26:A29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Project Management/Effort Calculation.xlsx
+++ b/Project Management/Effort Calculation.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="330" windowWidth="18795" windowHeight="11700" tabRatio="785" activeTab="2"/>
+    <workbookView xWindow="360" yWindow="330" windowWidth="18795" windowHeight="11700" tabRatio="785"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="8" r:id="rId1"/>
@@ -19,17 +19,17 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">School!$B$1</definedName>
-    <definedName name="Competency">'Team Member'!$C$4:$AH$10</definedName>
-    <definedName name="CostPerHour">'Skill Set'!$G$2:$G$33</definedName>
+    <definedName name="Competency">'Team Member'!$C$4:$AI$10</definedName>
+    <definedName name="CostPerHour">'Skill Set'!$G$2:$G$34</definedName>
     <definedName name="MemberList">'Team Member'!$B$4:$B$10</definedName>
-    <definedName name="SkillList">'Skill Set'!$C$2:$C$33</definedName>
+    <definedName name="SkillList">'Skill Set'!$C$2:$C$34</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="77">
   <si>
     <t>Total</t>
   </si>
@@ -257,6 +257,9 @@
   </si>
   <si>
     <t>Market Survey</t>
+  </si>
+  <si>
+    <t>Training</t>
   </si>
 </sst>
 </file>
@@ -895,6 +898,7 @@
     <xf numFmtId="2" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -982,7 +986,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1337,7 +1340,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:O20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11:J11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1481,13 +1486,13 @@
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
-      <c r="F10" s="66" t="s">
+      <c r="F10" s="67" t="s">
         <v>68</v>
       </c>
-      <c r="G10" s="67"/>
-      <c r="H10" s="67"/>
-      <c r="I10" s="67"/>
-      <c r="J10" s="67"/>
+      <c r="G10" s="68"/>
+      <c r="H10" s="68"/>
+      <c r="I10" s="68"/>
+      <c r="J10" s="68"/>
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
       <c r="M10" s="4"/>
@@ -1499,16 +1504,16 @@
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
-      <c r="F11" s="66" t="s">
+      <c r="F11" s="67" t="s">
         <v>59</v>
       </c>
-      <c r="G11" s="68"/>
-      <c r="H11" s="73">
+      <c r="G11" s="69"/>
+      <c r="H11" s="74">
         <f>Summery!D10</f>
         <v>1775.5500000000002</v>
       </c>
-      <c r="I11" s="74"/>
-      <c r="J11" s="75"/>
+      <c r="I11" s="75"/>
+      <c r="J11" s="76"/>
       <c r="K11" s="4"/>
       <c r="L11" s="4"/>
       <c r="M11" s="4"/>
@@ -1520,16 +1525,16 @@
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
-      <c r="F12" s="66" t="s">
+      <c r="F12" s="67" t="s">
         <v>60</v>
       </c>
-      <c r="G12" s="68"/>
-      <c r="H12" s="70">
+      <c r="G12" s="69"/>
+      <c r="H12" s="71">
         <f>Summery!C10</f>
         <v>5</v>
       </c>
-      <c r="I12" s="71"/>
-      <c r="J12" s="72"/>
+      <c r="I12" s="72"/>
+      <c r="J12" s="73"/>
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
       <c r="M12" s="4"/>
@@ -1543,9 +1548,9 @@
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
-      <c r="H13" s="69"/>
-      <c r="I13" s="69"/>
-      <c r="J13" s="69"/>
+      <c r="H13" s="70"/>
+      <c r="I13" s="70"/>
+      <c r="J13" s="70"/>
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
       <c r="M13" s="4"/>
@@ -1707,11 +1712,11 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="4"/>
-      <c r="B1" s="76" t="s">
+      <c r="B1" s="77" t="s">
         <v>62</v>
       </c>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
       <c r="E1" s="8"/>
       <c r="F1" s="8"/>
       <c r="G1" s="13"/>
@@ -2186,9 +2191,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3150,10 +3153,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AH10"/>
+  <dimension ref="A1:AI10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AB5" sqref="AB5"/>
+      <selection sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3162,96 +3165,100 @@
     <col min="2" max="2" width="19.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="14" width="4.5703125" bestFit="1" customWidth="1"/>
     <col min="15" max="16" width="4.5703125" customWidth="1"/>
-    <col min="17" max="27" width="4.5703125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="4.5703125" customWidth="1"/>
-    <col min="29" max="34" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="20" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="4.5703125" customWidth="1"/>
+    <col min="22" max="28" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="4.5703125" customWidth="1"/>
+    <col min="30" max="35" width="4.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="83"/>
-      <c r="B1" s="83"/>
-      <c r="C1" s="80" t="s">
+    <row r="1" spans="1:35" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="84"/>
+      <c r="B1" s="84"/>
+      <c r="C1" s="81" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="81"/>
-      <c r="J1" s="81"/>
-      <c r="K1" s="81"/>
-      <c r="L1" s="81"/>
-      <c r="M1" s="81"/>
-      <c r="N1" s="81"/>
-      <c r="O1" s="81"/>
-      <c r="P1" s="81"/>
-      <c r="Q1" s="81"/>
-      <c r="R1" s="81"/>
-      <c r="S1" s="81"/>
-      <c r="T1" s="81"/>
-      <c r="U1" s="81"/>
-      <c r="V1" s="81"/>
-      <c r="W1" s="81"/>
-      <c r="X1" s="81"/>
-      <c r="Y1" s="81"/>
-      <c r="Z1" s="81"/>
-      <c r="AA1" s="81"/>
-      <c r="AB1" s="81"/>
-      <c r="AC1" s="81"/>
-      <c r="AD1" s="81"/>
-      <c r="AE1" s="81"/>
-      <c r="AF1" s="81"/>
-      <c r="AG1" s="81"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
+      <c r="I1" s="82"/>
+      <c r="J1" s="82"/>
+      <c r="K1" s="82"/>
+      <c r="L1" s="82"/>
+      <c r="M1" s="82"/>
+      <c r="N1" s="82"/>
+      <c r="O1" s="82"/>
+      <c r="P1" s="82"/>
+      <c r="Q1" s="82"/>
+      <c r="R1" s="82"/>
+      <c r="S1" s="82"/>
+      <c r="T1" s="82"/>
+      <c r="U1" s="82"/>
+      <c r="V1" s="82"/>
+      <c r="W1" s="82"/>
+      <c r="X1" s="82"/>
+      <c r="Y1" s="82"/>
+      <c r="Z1" s="82"/>
+      <c r="AA1" s="82"/>
+      <c r="AB1" s="82"/>
+      <c r="AC1" s="82"/>
+      <c r="AD1" s="82"/>
+      <c r="AE1" s="82"/>
+      <c r="AF1" s="82"/>
+      <c r="AG1" s="82"/>
       <c r="AH1" s="82"/>
-    </row>
-    <row r="2" spans="1:34" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="84"/>
-      <c r="B2" s="84"/>
-      <c r="C2" s="85" t="s">
+      <c r="AI1" s="83"/>
+    </row>
+    <row r="2" spans="1:35" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="85"/>
+      <c r="B2" s="85"/>
+      <c r="C2" s="86" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="86"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="86"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="87"/>
-      <c r="I2" s="85" t="s">
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="86" t="s">
         <v>29</v>
       </c>
-      <c r="J2" s="86"/>
-      <c r="K2" s="86"/>
-      <c r="L2" s="86"/>
-      <c r="M2" s="86"/>
-      <c r="N2" s="86"/>
-      <c r="O2" s="86"/>
-      <c r="P2" s="86"/>
-      <c r="Q2" s="87"/>
-      <c r="R2" s="86" t="s">
+      <c r="J2" s="87"/>
+      <c r="K2" s="87"/>
+      <c r="L2" s="87"/>
+      <c r="M2" s="87"/>
+      <c r="N2" s="87"/>
+      <c r="O2" s="87"/>
+      <c r="P2" s="87"/>
+      <c r="Q2" s="88"/>
+      <c r="R2" s="87" t="s">
         <v>23</v>
       </c>
-      <c r="S2" s="86"/>
-      <c r="T2" s="86"/>
-      <c r="U2" s="86"/>
-      <c r="V2" s="86"/>
-      <c r="W2" s="86"/>
-      <c r="X2" s="86"/>
-      <c r="Y2" s="86"/>
+      <c r="S2" s="87"/>
+      <c r="T2" s="87"/>
+      <c r="U2" s="87"/>
+      <c r="V2" s="87"/>
+      <c r="W2" s="87"/>
+      <c r="X2" s="87"/>
+      <c r="Y2" s="87"/>
       <c r="Z2" s="87"/>
-      <c r="AA2" s="88" t="s">
+      <c r="AA2" s="88"/>
+      <c r="AB2" s="89" t="s">
         <v>26</v>
       </c>
-      <c r="AB2" s="89"/>
-      <c r="AC2" s="89"/>
+      <c r="AC2" s="90"/>
       <c r="AD2" s="90"/>
-      <c r="AE2" s="77" t="s">
+      <c r="AE2" s="91"/>
+      <c r="AF2" s="78" t="s">
         <v>28</v>
       </c>
-      <c r="AF2" s="78"/>
-      <c r="AG2" s="78"/>
+      <c r="AG2" s="79"/>
       <c r="AH2" s="79"/>
-    </row>
-    <row r="3" spans="1:34" ht="180" x14ac:dyDescent="0.25">
+      <c r="AI2" s="80"/>
+    </row>
+    <row r="3" spans="1:35" ht="180" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>5</v>
       </c>
@@ -3313,49 +3320,52 @@
         <v>41</v>
       </c>
       <c r="U3" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="V3" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="V3" s="25" t="s">
+      <c r="W3" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="W3" s="25" t="s">
+      <c r="X3" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="X3" s="25" t="s">
+      <c r="Y3" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="Y3" s="25" t="s">
+      <c r="Z3" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="Z3" s="50" t="s">
+      <c r="AA3" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="AA3" s="49" t="s">
+      <c r="AB3" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="AB3" s="25" t="s">
+      <c r="AC3" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="AC3" s="25" t="s">
+      <c r="AD3" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="AD3" s="50" t="s">
+      <c r="AE3" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="AE3" s="49" t="s">
+      <c r="AF3" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="AF3" s="25" t="s">
+      <c r="AG3" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="AG3" s="25" t="s">
+      <c r="AH3" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="AH3" s="50" t="s">
+      <c r="AI3" s="50" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" s="24">
         <v>1</v>
       </c>
@@ -3417,7 +3427,7 @@
         <v>1</v>
       </c>
       <c r="U4" s="43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V4" s="43">
         <v>0</v>
@@ -3431,35 +3441,38 @@
       <c r="Y4" s="43">
         <v>0</v>
       </c>
-      <c r="Z4" s="52">
+      <c r="Z4" s="43">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="52">
         <v>1</v>
       </c>
-      <c r="AA4" s="51">
+      <c r="AB4" s="51">
         <v>1</v>
       </c>
-      <c r="AB4" s="47">
-        <v>0</v>
-      </c>
-      <c r="AC4" s="43">
-        <v>0</v>
-      </c>
-      <c r="AD4" s="52">
+      <c r="AC4" s="47">
+        <v>0</v>
+      </c>
+      <c r="AD4" s="43">
+        <v>0</v>
+      </c>
+      <c r="AE4" s="52">
         <v>1</v>
       </c>
-      <c r="AE4" s="51">
-        <v>0</v>
-      </c>
-      <c r="AF4" s="43">
+      <c r="AF4" s="51">
         <v>0</v>
       </c>
       <c r="AG4" s="43">
         <v>0</v>
       </c>
-      <c r="AH4" s="52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AH4" s="43">
+        <v>0</v>
+      </c>
+      <c r="AI4" s="52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" s="24">
         <v>2</v>
       </c>
@@ -3489,17 +3502,18 @@
       <c r="W5" s="43"/>
       <c r="X5" s="43"/>
       <c r="Y5" s="43"/>
-      <c r="Z5" s="52"/>
-      <c r="AA5" s="51"/>
-      <c r="AB5" s="47"/>
-      <c r="AC5" s="43"/>
-      <c r="AD5" s="52"/>
-      <c r="AE5" s="51"/>
-      <c r="AF5" s="43"/>
+      <c r="Z5" s="43"/>
+      <c r="AA5" s="52"/>
+      <c r="AB5" s="51"/>
+      <c r="AC5" s="47"/>
+      <c r="AD5" s="43"/>
+      <c r="AE5" s="52"/>
+      <c r="AF5" s="51"/>
       <c r="AG5" s="43"/>
-      <c r="AH5" s="52"/>
-    </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AH5" s="43"/>
+      <c r="AI5" s="52"/>
+    </row>
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" s="24">
         <v>3</v>
       </c>
@@ -3529,17 +3543,18 @@
       <c r="W6" s="43"/>
       <c r="X6" s="43"/>
       <c r="Y6" s="43"/>
-      <c r="Z6" s="52"/>
-      <c r="AA6" s="51"/>
-      <c r="AB6" s="47"/>
-      <c r="AC6" s="43"/>
-      <c r="AD6" s="52"/>
-      <c r="AE6" s="51"/>
-      <c r="AF6" s="43"/>
+      <c r="Z6" s="43"/>
+      <c r="AA6" s="52"/>
+      <c r="AB6" s="51"/>
+      <c r="AC6" s="47"/>
+      <c r="AD6" s="43"/>
+      <c r="AE6" s="52"/>
+      <c r="AF6" s="51"/>
       <c r="AG6" s="43"/>
-      <c r="AH6" s="52"/>
-    </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AH6" s="43"/>
+      <c r="AI6" s="52"/>
+    </row>
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" s="24">
         <v>4</v>
       </c>
@@ -3569,17 +3584,18 @@
       <c r="W7" s="43"/>
       <c r="X7" s="43"/>
       <c r="Y7" s="43"/>
-      <c r="Z7" s="52"/>
-      <c r="AA7" s="51"/>
-      <c r="AB7" s="47"/>
-      <c r="AC7" s="43"/>
-      <c r="AD7" s="52"/>
-      <c r="AE7" s="51"/>
-      <c r="AF7" s="43"/>
+      <c r="Z7" s="43"/>
+      <c r="AA7" s="52"/>
+      <c r="AB7" s="51"/>
+      <c r="AC7" s="47"/>
+      <c r="AD7" s="43"/>
+      <c r="AE7" s="52"/>
+      <c r="AF7" s="51"/>
       <c r="AG7" s="43"/>
-      <c r="AH7" s="52"/>
-    </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AH7" s="43"/>
+      <c r="AI7" s="52"/>
+    </row>
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" s="24">
         <v>5</v>
       </c>
@@ -3609,17 +3625,18 @@
       <c r="W8" s="43"/>
       <c r="X8" s="43"/>
       <c r="Y8" s="43"/>
-      <c r="Z8" s="52"/>
-      <c r="AA8" s="51"/>
-      <c r="AB8" s="47"/>
-      <c r="AC8" s="43"/>
-      <c r="AD8" s="52"/>
-      <c r="AE8" s="51"/>
-      <c r="AF8" s="43"/>
+      <c r="Z8" s="43"/>
+      <c r="AA8" s="52"/>
+      <c r="AB8" s="51"/>
+      <c r="AC8" s="47"/>
+      <c r="AD8" s="43"/>
+      <c r="AE8" s="52"/>
+      <c r="AF8" s="51"/>
       <c r="AG8" s="43"/>
-      <c r="AH8" s="52"/>
-    </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AH8" s="43"/>
+      <c r="AI8" s="52"/>
+    </row>
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" s="24">
         <v>6</v>
       </c>
@@ -3649,17 +3666,18 @@
       <c r="W9" s="43"/>
       <c r="X9" s="43"/>
       <c r="Y9" s="43"/>
-      <c r="Z9" s="52"/>
-      <c r="AA9" s="51"/>
-      <c r="AB9" s="47"/>
-      <c r="AC9" s="43"/>
-      <c r="AD9" s="52"/>
-      <c r="AE9" s="51"/>
-      <c r="AF9" s="43"/>
+      <c r="Z9" s="43"/>
+      <c r="AA9" s="52"/>
+      <c r="AB9" s="51"/>
+      <c r="AC9" s="47"/>
+      <c r="AD9" s="43"/>
+      <c r="AE9" s="52"/>
+      <c r="AF9" s="51"/>
       <c r="AG9" s="43"/>
-      <c r="AH9" s="52"/>
-    </row>
-    <row r="10" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AH9" s="43"/>
+      <c r="AI9" s="52"/>
+    </row>
+    <row r="10" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="24">
         <v>7</v>
       </c>
@@ -3689,25 +3707,26 @@
       <c r="W10" s="58"/>
       <c r="X10" s="58"/>
       <c r="Y10" s="58"/>
-      <c r="Z10" s="59"/>
-      <c r="AA10" s="60"/>
-      <c r="AB10" s="95"/>
-      <c r="AC10" s="58"/>
-      <c r="AD10" s="59"/>
-      <c r="AE10" s="60"/>
-      <c r="AF10" s="58"/>
+      <c r="Z10" s="58"/>
+      <c r="AA10" s="59"/>
+      <c r="AB10" s="60"/>
+      <c r="AC10" s="66"/>
+      <c r="AD10" s="58"/>
+      <c r="AE10" s="59"/>
+      <c r="AF10" s="60"/>
       <c r="AG10" s="58"/>
-      <c r="AH10" s="59"/>
+      <c r="AH10" s="58"/>
+      <c r="AI10" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="AE2:AH2"/>
-    <mergeCell ref="C1:AH1"/>
+    <mergeCell ref="AF2:AI2"/>
+    <mergeCell ref="C1:AI1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C2:H2"/>
     <mergeCell ref="I2:Q2"/>
-    <mergeCell ref="R2:Z2"/>
-    <mergeCell ref="AA2:AD2"/>
+    <mergeCell ref="R2:AA2"/>
+    <mergeCell ref="AB2:AE2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3716,11 +3735,9 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H33"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3756,7 +3773,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="91" t="s">
+      <c r="A2" s="92" t="s">
         <v>25</v>
       </c>
       <c r="B2" s="9">
@@ -3780,10 +3797,10 @@
         <f>ROUND(F2/22/8,2)</f>
         <v>1183.71</v>
       </c>
-      <c r="H2" s="93"/>
+      <c r="H2" s="94"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="92"/>
+      <c r="A3" s="93"/>
       <c r="B3" s="9">
         <v>2</v>
       </c>
@@ -3794,21 +3811,21 @@
         <v>8000000</v>
       </c>
       <c r="E3" s="34">
-        <f t="shared" ref="E3:E33" si="0">D3/4</f>
+        <f t="shared" ref="E3:E34" si="0">D3/4</f>
         <v>2000000</v>
       </c>
       <c r="F3" s="15">
-        <f t="shared" ref="F3:F33" si="1">E3/12</f>
+        <f t="shared" ref="F3:F34" si="1">E3/12</f>
         <v>166666.66666666666</v>
       </c>
       <c r="G3" s="34">
-        <f t="shared" ref="G3:G33" si="2">ROUND(F3/22/8,2)</f>
+        <f t="shared" ref="G3:G34" si="2">ROUND(F3/22/8,2)</f>
         <v>946.97</v>
       </c>
-      <c r="H3" s="93"/>
+      <c r="H3" s="94"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="92"/>
+      <c r="A4" s="93"/>
       <c r="B4" s="9">
         <v>3</v>
       </c>
@@ -3830,10 +3847,10 @@
         <f t="shared" si="2"/>
         <v>946.97</v>
       </c>
-      <c r="H4" s="93"/>
+      <c r="H4" s="94"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="92"/>
+      <c r="A5" s="93"/>
       <c r="B5" s="9">
         <v>4</v>
       </c>
@@ -3855,10 +3872,10 @@
         <f t="shared" si="2"/>
         <v>355.11</v>
       </c>
-      <c r="H5" s="93"/>
+      <c r="H5" s="94"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="92"/>
+      <c r="A6" s="93"/>
       <c r="B6" s="9">
         <v>5</v>
       </c>
@@ -3880,10 +3897,10 @@
         <f t="shared" si="2"/>
         <v>355.11</v>
       </c>
-      <c r="H6" s="93"/>
+      <c r="H6" s="94"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="94"/>
+      <c r="A7" s="95"/>
       <c r="B7" s="9">
         <v>6</v>
       </c>
@@ -3905,10 +3922,10 @@
         <f t="shared" si="2"/>
         <v>946.97</v>
       </c>
-      <c r="H7" s="93"/>
+      <c r="H7" s="94"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="91" t="s">
+      <c r="A8" s="92" t="s">
         <v>29</v>
       </c>
       <c r="B8" s="9">
@@ -3934,7 +3951,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="92"/>
+      <c r="A9" s="93"/>
       <c r="B9" s="9">
         <v>8</v>
       </c>
@@ -3958,7 +3975,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="92"/>
+      <c r="A10" s="93"/>
       <c r="B10" s="9">
         <v>9</v>
       </c>
@@ -3982,7 +3999,7 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="92"/>
+      <c r="A11" s="93"/>
       <c r="B11" s="9">
         <v>10</v>
       </c>
@@ -4006,7 +4023,7 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="92"/>
+      <c r="A12" s="93"/>
       <c r="B12" s="9">
         <v>11</v>
       </c>
@@ -4030,7 +4047,7 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="92"/>
+      <c r="A13" s="93"/>
       <c r="B13" s="9">
         <v>12</v>
       </c>
@@ -4054,7 +4071,7 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="92"/>
+      <c r="A14" s="93"/>
       <c r="B14" s="9">
         <v>13</v>
       </c>
@@ -4078,7 +4095,7 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="92"/>
+      <c r="A15" s="93"/>
       <c r="B15" s="9">
         <v>14</v>
       </c>
@@ -4102,7 +4119,7 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="92"/>
+      <c r="A16" s="93"/>
       <c r="B16" s="9">
         <v>15</v>
       </c>
@@ -4126,7 +4143,7 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="91" t="s">
+      <c r="A17" s="92" t="s">
         <v>69</v>
       </c>
       <c r="B17" s="9">
@@ -4152,7 +4169,7 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="92"/>
+      <c r="A18" s="93"/>
       <c r="B18" s="9">
         <v>17</v>
       </c>
@@ -4176,7 +4193,7 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="92"/>
+      <c r="A19" s="93"/>
       <c r="B19" s="9">
         <v>18</v>
       </c>
@@ -4200,108 +4217,108 @@
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="92"/>
+      <c r="A20" s="93"/>
       <c r="B20" s="9">
         <v>19</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>27</v>
+        <v>76</v>
       </c>
       <c r="D20" s="34">
-        <v>600000</v>
+        <v>2000000</v>
       </c>
       <c r="E20" s="34">
         <f t="shared" si="0"/>
-        <v>150000</v>
+        <v>500000</v>
       </c>
       <c r="F20" s="15">
         <f t="shared" si="1"/>
-        <v>12500</v>
+        <v>41666.666666666664</v>
       </c>
       <c r="G20" s="34">
         <f t="shared" si="2"/>
-        <v>71.02</v>
+        <v>236.74</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="92"/>
+      <c r="A21" s="93"/>
       <c r="B21" s="9">
         <v>20</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D21" s="34">
-        <v>300000</v>
+        <v>600000</v>
       </c>
       <c r="E21" s="34">
         <f t="shared" si="0"/>
-        <v>75000</v>
+        <v>150000</v>
       </c>
       <c r="F21" s="15">
         <f t="shared" si="1"/>
-        <v>6250</v>
+        <v>12500</v>
       </c>
       <c r="G21" s="34">
         <f t="shared" si="2"/>
-        <v>35.51</v>
+        <v>71.02</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="92"/>
+      <c r="A22" s="93"/>
       <c r="B22" s="9">
         <v>21</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="D22" s="34">
-        <v>600000</v>
+        <v>300000</v>
       </c>
       <c r="E22" s="34">
         <f t="shared" si="0"/>
-        <v>150000</v>
+        <v>75000</v>
       </c>
       <c r="F22" s="15">
         <f t="shared" si="1"/>
-        <v>12500</v>
+        <v>6250</v>
       </c>
       <c r="G22" s="34">
         <f t="shared" si="2"/>
-        <v>71.02</v>
+        <v>35.51</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="92"/>
+      <c r="A23" s="93"/>
       <c r="B23" s="9">
         <v>22</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="D23" s="34">
-        <v>300000</v>
+        <v>600000</v>
       </c>
       <c r="E23" s="34">
         <f t="shared" si="0"/>
-        <v>75000</v>
+        <v>150000</v>
       </c>
       <c r="F23" s="15">
         <f t="shared" si="1"/>
-        <v>6250</v>
+        <v>12500</v>
       </c>
       <c r="G23" s="34">
         <f t="shared" si="2"/>
-        <v>35.51</v>
+        <v>71.02</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="92"/>
+      <c r="A24" s="93"/>
       <c r="B24" s="9">
         <v>23</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D24" s="34">
         <v>300000</v>
@@ -4320,160 +4337,160 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="94"/>
+      <c r="A25" s="93"/>
       <c r="B25" s="9">
         <v>24</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D25" s="34">
-        <v>600000</v>
+        <v>300000</v>
       </c>
       <c r="E25" s="34">
         <f t="shared" si="0"/>
-        <v>150000</v>
+        <v>75000</v>
       </c>
       <c r="F25" s="15">
         <f t="shared" si="1"/>
-        <v>12500</v>
+        <v>6250</v>
       </c>
       <c r="G25" s="34">
         <f t="shared" si="2"/>
-        <v>71.02</v>
+        <v>35.51</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="91" t="s">
-        <v>70</v>
-      </c>
+      <c r="A26" s="95"/>
       <c r="B26" s="9">
         <v>25</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="D26" s="34">
-        <v>2500000</v>
+        <v>600000</v>
       </c>
       <c r="E26" s="34">
         <f t="shared" si="0"/>
-        <v>625000</v>
+        <v>150000</v>
       </c>
       <c r="F26" s="15">
         <f t="shared" si="1"/>
-        <v>52083.333333333336</v>
+        <v>12500</v>
       </c>
       <c r="G26" s="34">
         <f t="shared" si="2"/>
-        <v>295.93</v>
+        <v>71.02</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="92"/>
+      <c r="A27" s="92" t="s">
+        <v>70</v>
+      </c>
       <c r="B27" s="9">
         <v>26</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="D27" s="34">
-        <v>600000</v>
+        <v>2500000</v>
       </c>
       <c r="E27" s="34">
         <f t="shared" si="0"/>
-        <v>150000</v>
+        <v>625000</v>
       </c>
       <c r="F27" s="15">
         <f t="shared" si="1"/>
-        <v>12500</v>
+        <v>52083.333333333336</v>
       </c>
       <c r="G27" s="34">
         <f t="shared" si="2"/>
-        <v>71.02</v>
+        <v>295.93</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="92"/>
+      <c r="A28" s="93"/>
       <c r="B28" s="9">
         <v>27</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>31</v>
+        <v>75</v>
       </c>
       <c r="D28" s="34">
-        <v>1500000</v>
+        <v>600000</v>
       </c>
       <c r="E28" s="34">
         <f t="shared" si="0"/>
-        <v>375000</v>
+        <v>150000</v>
       </c>
       <c r="F28" s="15">
         <f t="shared" si="1"/>
-        <v>31250</v>
+        <v>12500</v>
       </c>
       <c r="G28" s="34">
         <f t="shared" si="2"/>
-        <v>177.56</v>
+        <v>71.02</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="94"/>
+      <c r="A29" s="93"/>
       <c r="B29" s="9">
         <v>28</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D29" s="34">
-        <v>600000</v>
+        <v>1500000</v>
       </c>
       <c r="E29" s="34">
         <f t="shared" si="0"/>
-        <v>150000</v>
+        <v>375000</v>
       </c>
       <c r="F29" s="15">
         <f t="shared" si="1"/>
-        <v>12500</v>
+        <v>31250</v>
       </c>
       <c r="G29" s="34">
         <f t="shared" si="2"/>
-        <v>71.02</v>
+        <v>177.56</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="91" t="s">
-        <v>28</v>
-      </c>
+      <c r="A30" s="95"/>
       <c r="B30" s="9">
         <v>29</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D30" s="34">
-        <v>300000</v>
+        <v>600000</v>
       </c>
       <c r="E30" s="34">
         <f t="shared" si="0"/>
-        <v>75000</v>
+        <v>150000</v>
       </c>
       <c r="F30" s="15">
         <f t="shared" si="1"/>
-        <v>6250</v>
+        <v>12500</v>
       </c>
       <c r="G30" s="34">
         <f t="shared" si="2"/>
-        <v>35.51</v>
+        <v>71.02</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="92"/>
+      <c r="A31" s="92" t="s">
+        <v>28</v>
+      </c>
       <c r="B31" s="9">
         <v>30</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="D31" s="34">
         <v>300000</v>
@@ -4492,61 +4509,85 @@
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="92"/>
+      <c r="A32" s="93"/>
       <c r="B32" s="9">
         <v>31</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D32" s="34">
-        <v>600000</v>
+        <v>300000</v>
       </c>
       <c r="E32" s="34">
         <f t="shared" si="0"/>
-        <v>150000</v>
+        <v>75000</v>
       </c>
       <c r="F32" s="15">
         <f t="shared" si="1"/>
-        <v>12500</v>
+        <v>6250</v>
       </c>
       <c r="G32" s="34">
         <f t="shared" si="2"/>
-        <v>71.02</v>
+        <v>35.51</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="92"/>
+      <c r="A33" s="93"/>
       <c r="B33" s="9">
         <v>32</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D33" s="34">
-        <v>1000000</v>
+        <v>600000</v>
       </c>
       <c r="E33" s="34">
         <f t="shared" si="0"/>
-        <v>250000</v>
+        <v>150000</v>
       </c>
       <c r="F33" s="15">
         <f t="shared" si="1"/>
-        <v>20833.333333333332</v>
+        <v>12500</v>
       </c>
       <c r="G33" s="34">
         <f t="shared" si="2"/>
+        <v>71.02</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="93"/>
+      <c r="B34" s="9">
+        <v>33</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D34" s="34">
+        <v>1000000</v>
+      </c>
+      <c r="E34" s="34">
+        <f t="shared" si="0"/>
+        <v>250000</v>
+      </c>
+      <c r="F34" s="15">
+        <f t="shared" si="1"/>
+        <v>20833.333333333332</v>
+      </c>
+      <c r="G34" s="34">
+        <f t="shared" si="2"/>
         <v>118.37</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="A30:A33"/>
+    <mergeCell ref="A31:A34"/>
     <mergeCell ref="H2:H7"/>
     <mergeCell ref="A2:A7"/>
     <mergeCell ref="A8:A16"/>
-    <mergeCell ref="A17:A25"/>
-    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="A17:A26"/>
+    <mergeCell ref="A27:A30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Project Management/Effort Calculation.xlsx
+++ b/Project Management/Effort Calculation.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="330" windowWidth="18795" windowHeight="11700" tabRatio="785"/>
+    <workbookView xWindow="360" yWindow="330" windowWidth="18795" windowHeight="11700" tabRatio="785" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="8" r:id="rId1"/>
@@ -24,7 +24,7 @@
     <definedName name="MemberList">'Team Member'!$B$4:$B$10</definedName>
     <definedName name="SkillList">'Skill Set'!$C$2:$C$34</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -265,11 +265,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;₹&quot;\ #,##0.00"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -312,7 +312,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="40">
+  <borders count="34">
     <border>
       <left/>
       <right/>
@@ -677,14 +677,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="medium">
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -693,32 +695,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -734,65 +710,13 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -801,7 +725,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -888,17 +812,11 @@
     <xf numFmtId="2" fontId="0" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -932,13 +850,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1126,7 +1044,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1161,7 +1078,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1337,14 +1253,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:O20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H11" sqref="H11:J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="2.85546875" style="1" customWidth="1"/>
     <col min="2" max="4" width="9.140625" style="1"/>
@@ -1352,8 +1268,8 @@
     <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:15" ht="15.75" thickBot="1"/>
+    <row r="2" spans="2:15">
       <c r="B2" s="19"/>
       <c r="C2" s="20"/>
       <c r="D2" s="20"/>
@@ -1369,7 +1285,7 @@
       <c r="N2" s="20"/>
       <c r="O2" s="21"/>
     </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:15">
       <c r="B3" s="3"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
@@ -1385,7 +1301,7 @@
       <c r="N3" s="4"/>
       <c r="O3" s="22"/>
     </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:15">
       <c r="B4" s="3"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -1401,7 +1317,7 @@
       <c r="N4" s="4"/>
       <c r="O4" s="22"/>
     </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:15">
       <c r="B5" s="3"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -1417,7 +1333,7 @@
       <c r="N5" s="4"/>
       <c r="O5" s="22"/>
     </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:15">
       <c r="B6" s="3"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
@@ -1433,7 +1349,7 @@
       <c r="N6" s="4"/>
       <c r="O6" s="22"/>
     </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:15">
       <c r="B7" s="3"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
@@ -1449,7 +1365,7 @@
       <c r="N7" s="4"/>
       <c r="O7" s="22"/>
     </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:15">
       <c r="B8" s="3"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
@@ -1465,7 +1381,7 @@
       <c r="N8" s="4"/>
       <c r="O8" s="22"/>
     </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:15">
       <c r="B9" s="3"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
@@ -1481,83 +1397,83 @@
       <c r="N9" s="4"/>
       <c r="O9" s="22"/>
     </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:15">
       <c r="B10" s="3"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
-      <c r="F10" s="67" t="s">
+      <c r="F10" s="61" t="s">
         <v>68</v>
       </c>
-      <c r="G10" s="68"/>
-      <c r="H10" s="68"/>
-      <c r="I10" s="68"/>
-      <c r="J10" s="68"/>
+      <c r="G10" s="62"/>
+      <c r="H10" s="62"/>
+      <c r="I10" s="62"/>
+      <c r="J10" s="62"/>
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
       <c r="M10" s="4"/>
       <c r="N10" s="4"/>
       <c r="O10" s="22"/>
     </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:15">
       <c r="B11" s="3"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
-      <c r="F11" s="67" t="s">
+      <c r="F11" s="61" t="s">
         <v>59</v>
       </c>
-      <c r="G11" s="69"/>
-      <c r="H11" s="74">
+      <c r="G11" s="63"/>
+      <c r="H11" s="68">
         <f>Summery!D10</f>
         <v>1775.5500000000002</v>
       </c>
-      <c r="I11" s="75"/>
-      <c r="J11" s="76"/>
+      <c r="I11" s="69"/>
+      <c r="J11" s="70"/>
       <c r="K11" s="4"/>
       <c r="L11" s="4"/>
       <c r="M11" s="4"/>
       <c r="N11" s="4"/>
       <c r="O11" s="22"/>
     </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:15">
       <c r="B12" s="3"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
-      <c r="F12" s="67" t="s">
+      <c r="F12" s="61" t="s">
         <v>60</v>
       </c>
-      <c r="G12" s="69"/>
-      <c r="H12" s="71">
+      <c r="G12" s="63"/>
+      <c r="H12" s="65">
         <f>Summery!C10</f>
         <v>5</v>
       </c>
-      <c r="I12" s="72"/>
-      <c r="J12" s="73"/>
+      <c r="I12" s="66"/>
+      <c r="J12" s="67"/>
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
       <c r="M12" s="4"/>
       <c r="N12" s="4"/>
       <c r="O12" s="22"/>
     </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:15">
       <c r="B13" s="3"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
-      <c r="H13" s="70"/>
-      <c r="I13" s="70"/>
-      <c r="J13" s="70"/>
+      <c r="H13" s="64"/>
+      <c r="I13" s="64"/>
+      <c r="J13" s="64"/>
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
       <c r="M13" s="4"/>
       <c r="N13" s="4"/>
       <c r="O13" s="22"/>
     </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:15">
       <c r="B14" s="3"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
@@ -1573,7 +1489,7 @@
       <c r="N14" s="4"/>
       <c r="O14" s="22"/>
     </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:15">
       <c r="B15" s="3"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -1589,7 +1505,7 @@
       <c r="N15" s="4"/>
       <c r="O15" s="22"/>
     </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:15">
       <c r="B16" s="3"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -1605,7 +1521,7 @@
       <c r="N16" s="4"/>
       <c r="O16" s="22"/>
     </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:15">
       <c r="B17" s="3"/>
       <c r="D17" s="4"/>
       <c r="E17" s="5"/>
@@ -1620,7 +1536,7 @@
       <c r="N17" s="4"/>
       <c r="O17" s="22"/>
     </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:15">
       <c r="B18" s="3"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
@@ -1635,7 +1551,7 @@
       <c r="N18" s="4"/>
       <c r="O18" s="22"/>
     </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:15">
       <c r="B19" s="3"/>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
@@ -1651,7 +1567,7 @@
       <c r="N19" s="4"/>
       <c r="O19" s="22"/>
     </row>
-    <row r="20" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:15" ht="15.75" thickBot="1">
       <c r="B20" s="6"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -1683,12 +1599,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="2.85546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="28.5703125" style="1" customWidth="1"/>
@@ -1710,13 +1626,13 @@
     <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17">
       <c r="A1" s="4"/>
-      <c r="B1" s="77" t="s">
+      <c r="B1" s="71" t="s">
         <v>62</v>
       </c>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
       <c r="E1" s="8"/>
       <c r="F1" s="8"/>
       <c r="G1" s="13"/>
@@ -1731,7 +1647,7 @@
       <c r="P1" s="8"/>
       <c r="Q1" s="8"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17">
       <c r="A2" s="4"/>
       <c r="B2" s="11" t="s">
         <v>6</v>
@@ -1764,7 +1680,7 @@
       <c r="P2" s="8"/>
       <c r="Q2" s="8"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17">
       <c r="A3" s="4"/>
       <c r="B3" s="10" t="s">
         <v>7</v>
@@ -1799,7 +1715,7 @@
       <c r="P3" s="5"/>
       <c r="Q3" s="5"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17">
       <c r="A4" s="4"/>
       <c r="B4" s="10" t="s">
         <v>10</v>
@@ -1834,7 +1750,7 @@
       <c r="P4" s="5"/>
       <c r="Q4" s="5"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17">
       <c r="A5" s="4"/>
       <c r="B5" s="10" t="s">
         <v>8</v>
@@ -1869,7 +1785,7 @@
       <c r="P5" s="5"/>
       <c r="Q5" s="5"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17">
       <c r="A6" s="4"/>
       <c r="B6" s="10" t="s">
         <v>11</v>
@@ -1904,7 +1820,7 @@
       <c r="P6" s="5"/>
       <c r="Q6" s="5"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17">
       <c r="A7" s="4"/>
       <c r="B7" s="10" t="s">
         <v>12</v>
@@ -1939,7 +1855,7 @@
       <c r="P7" s="5"/>
       <c r="Q7" s="5"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17">
       <c r="A8" s="4"/>
       <c r="B8" s="10" t="s">
         <v>13</v>
@@ -1974,7 +1890,7 @@
       <c r="P8" s="5"/>
       <c r="Q8" s="5"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17">
       <c r="A9" s="4"/>
       <c r="B9" s="10" t="s">
         <v>14</v>
@@ -2001,7 +1917,7 @@
       <c r="P9" s="5"/>
       <c r="Q9" s="5"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17">
       <c r="A10" s="4"/>
       <c r="B10" s="12" t="s">
         <v>0</v>
@@ -2028,7 +1944,7 @@
       <c r="P10" s="5"/>
       <c r="Q10" s="5"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="17"/>
@@ -2044,7 +1960,7 @@
       <c r="P11" s="5"/>
       <c r="Q11" s="5"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="17"/>
@@ -2060,7 +1976,7 @@
       <c r="P12" s="5"/>
       <c r="Q12" s="5"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="17"/>
@@ -2079,7 +1995,7 @@
       <c r="P13" s="5"/>
       <c r="Q13" s="5"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="17"/>
@@ -2098,7 +2014,7 @@
       <c r="P14" s="5"/>
       <c r="Q14" s="5"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="17"/>
@@ -2117,7 +2033,7 @@
       <c r="P15" s="5"/>
       <c r="Q15" s="5"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="17"/>
@@ -2136,7 +2052,7 @@
       <c r="P16" s="5"/>
       <c r="Q16" s="5"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="17"/>
@@ -2155,7 +2071,7 @@
       <c r="P17" s="5"/>
       <c r="Q17" s="5"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="17"/>
@@ -2188,12 +2104,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.140625" style="38" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.42578125" bestFit="1" customWidth="1"/>
@@ -2206,7 +2122,7 @@
     <col min="9" max="9" width="9.7109375" style="35" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="A1" s="37" t="s">
         <v>4</v>
       </c>
@@ -2235,7 +2151,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9">
       <c r="A2" s="41" t="s">
         <v>51</v>
       </c>
@@ -2269,7 +2185,7 @@
         <v>1775.5500000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9">
       <c r="A3" s="41"/>
       <c r="B3" s="42"/>
       <c r="C3" s="42"/>
@@ -2295,7 +2211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9">
       <c r="A4" s="41"/>
       <c r="B4" s="42"/>
       <c r="C4" s="42"/>
@@ -2321,7 +2237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9">
       <c r="A5" s="41"/>
       <c r="B5" s="42"/>
       <c r="C5" s="42"/>
@@ -2347,7 +2263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9">
       <c r="A6" s="41"/>
       <c r="B6" s="42"/>
       <c r="C6" s="42"/>
@@ -2388,12 +2304,12 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.140625" style="38" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.42578125" bestFit="1" customWidth="1"/>
@@ -2406,7 +2322,7 @@
     <col min="9" max="9" width="9.7109375" style="35" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="A1" s="37" t="s">
         <v>4</v>
       </c>
@@ -2435,7 +2351,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9">
       <c r="A2" s="41"/>
       <c r="B2" s="42"/>
       <c r="C2" s="42"/>
@@ -2461,7 +2377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9">
       <c r="A3" s="41"/>
       <c r="B3" s="42"/>
       <c r="C3" s="42"/>
@@ -2487,7 +2403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9">
       <c r="A4" s="41"/>
       <c r="B4" s="42"/>
       <c r="C4" s="42"/>
@@ -2513,7 +2429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9">
       <c r="A5" s="41"/>
       <c r="B5" s="42"/>
       <c r="C5" s="42"/>
@@ -2539,7 +2455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9">
       <c r="A6" s="41"/>
       <c r="B6" s="42"/>
       <c r="C6" s="42"/>
@@ -2579,12 +2495,12 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.140625" style="38" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.42578125" bestFit="1" customWidth="1"/>
@@ -2597,7 +2513,7 @@
     <col min="9" max="9" width="9.7109375" style="35" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="A1" s="37" t="s">
         <v>4</v>
       </c>
@@ -2626,7 +2542,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9">
       <c r="A2" s="41"/>
       <c r="B2" s="42"/>
       <c r="C2" s="42"/>
@@ -2652,7 +2568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9">
       <c r="A3" s="41"/>
       <c r="B3" s="42"/>
       <c r="C3" s="42"/>
@@ -2678,7 +2594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9">
       <c r="A4" s="41"/>
       <c r="B4" s="42"/>
       <c r="C4" s="42"/>
@@ -2704,7 +2620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9">
       <c r="A5" s="41"/>
       <c r="B5" s="42"/>
       <c r="C5" s="42"/>
@@ -2730,7 +2646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9">
       <c r="A6" s="41"/>
       <c r="B6" s="42"/>
       <c r="C6" s="42"/>
@@ -2770,12 +2686,12 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.140625" style="38" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.42578125" bestFit="1" customWidth="1"/>
@@ -2788,7 +2704,7 @@
     <col min="9" max="9" width="9.7109375" style="35" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="A1" s="37" t="s">
         <v>4</v>
       </c>
@@ -2817,7 +2733,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9">
       <c r="A2" s="41"/>
       <c r="B2" s="42"/>
       <c r="C2" s="42"/>
@@ -2843,7 +2759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9">
       <c r="A3" s="41"/>
       <c r="B3" s="42"/>
       <c r="C3" s="42"/>
@@ -2869,7 +2785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9">
       <c r="A4" s="41"/>
       <c r="B4" s="42"/>
       <c r="C4" s="42"/>
@@ -2895,7 +2811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9">
       <c r="A5" s="41"/>
       <c r="B5" s="42"/>
       <c r="C5" s="42"/>
@@ -2921,7 +2837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9">
       <c r="A6" s="41"/>
       <c r="B6" s="42"/>
       <c r="C6" s="42"/>
@@ -2961,12 +2877,12 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.140625" style="38" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.42578125" bestFit="1" customWidth="1"/>
@@ -2979,7 +2895,7 @@
     <col min="9" max="9" width="9.7109375" style="35" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="A1" s="37" t="s">
         <v>4</v>
       </c>
@@ -3008,7 +2924,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9">
       <c r="A2" s="41"/>
       <c r="B2" s="42"/>
       <c r="C2" s="42"/>
@@ -3034,7 +2950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9">
       <c r="A3" s="41"/>
       <c r="B3" s="42"/>
       <c r="C3" s="42"/>
@@ -3060,7 +2976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9">
       <c r="A4" s="41"/>
       <c r="B4" s="42"/>
       <c r="C4" s="42"/>
@@ -3086,7 +3002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9">
       <c r="A5" s="41"/>
       <c r="B5" s="42"/>
       <c r="C5" s="42"/>
@@ -3112,7 +3028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9">
       <c r="A6" s="41"/>
       <c r="B6" s="42"/>
       <c r="C6" s="42"/>
@@ -3152,14 +3068,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AI10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="4.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.42578125" bestFit="1" customWidth="1"/>
@@ -3172,93 +3088,93 @@
     <col min="30" max="35" width="4.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="84"/>
-      <c r="B1" s="84"/>
-      <c r="C1" s="81" t="s">
+    <row r="1" spans="1:35" ht="15" customHeight="1" thickBot="1">
+      <c r="A1" s="78"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="75" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="82"/>
-      <c r="K1" s="82"/>
-      <c r="L1" s="82"/>
-      <c r="M1" s="82"/>
-      <c r="N1" s="82"/>
-      <c r="O1" s="82"/>
-      <c r="P1" s="82"/>
-      <c r="Q1" s="82"/>
-      <c r="R1" s="82"/>
-      <c r="S1" s="82"/>
-      <c r="T1" s="82"/>
-      <c r="U1" s="82"/>
-      <c r="V1" s="82"/>
-      <c r="W1" s="82"/>
-      <c r="X1" s="82"/>
-      <c r="Y1" s="82"/>
-      <c r="Z1" s="82"/>
-      <c r="AA1" s="82"/>
-      <c r="AB1" s="82"/>
-      <c r="AC1" s="82"/>
-      <c r="AD1" s="82"/>
-      <c r="AE1" s="82"/>
-      <c r="AF1" s="82"/>
-      <c r="AG1" s="82"/>
-      <c r="AH1" s="82"/>
-      <c r="AI1" s="83"/>
-    </row>
-    <row r="2" spans="1:35" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="85"/>
-      <c r="B2" s="85"/>
-      <c r="C2" s="86" t="s">
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="76"/>
+      <c r="N1" s="76"/>
+      <c r="O1" s="76"/>
+      <c r="P1" s="76"/>
+      <c r="Q1" s="76"/>
+      <c r="R1" s="76"/>
+      <c r="S1" s="76"/>
+      <c r="T1" s="76"/>
+      <c r="U1" s="76"/>
+      <c r="V1" s="76"/>
+      <c r="W1" s="76"/>
+      <c r="X1" s="76"/>
+      <c r="Y1" s="76"/>
+      <c r="Z1" s="76"/>
+      <c r="AA1" s="76"/>
+      <c r="AB1" s="76"/>
+      <c r="AC1" s="76"/>
+      <c r="AD1" s="76"/>
+      <c r="AE1" s="76"/>
+      <c r="AF1" s="76"/>
+      <c r="AG1" s="76"/>
+      <c r="AH1" s="76"/>
+      <c r="AI1" s="77"/>
+    </row>
+    <row r="2" spans="1:35" s="27" customFormat="1" ht="15" customHeight="1">
+      <c r="A2" s="79"/>
+      <c r="B2" s="79"/>
+      <c r="C2" s="80" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="87"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="87"/>
-      <c r="G2" s="87"/>
-      <c r="H2" s="88"/>
-      <c r="I2" s="86" t="s">
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
+      <c r="G2" s="81"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="80" t="s">
         <v>29</v>
       </c>
-      <c r="J2" s="87"/>
-      <c r="K2" s="87"/>
-      <c r="L2" s="87"/>
-      <c r="M2" s="87"/>
-      <c r="N2" s="87"/>
-      <c r="O2" s="87"/>
-      <c r="P2" s="87"/>
-      <c r="Q2" s="88"/>
-      <c r="R2" s="87" t="s">
+      <c r="J2" s="81"/>
+      <c r="K2" s="81"/>
+      <c r="L2" s="81"/>
+      <c r="M2" s="81"/>
+      <c r="N2" s="81"/>
+      <c r="O2" s="81"/>
+      <c r="P2" s="81"/>
+      <c r="Q2" s="82"/>
+      <c r="R2" s="81" t="s">
         <v>23</v>
       </c>
-      <c r="S2" s="87"/>
-      <c r="T2" s="87"/>
-      <c r="U2" s="87"/>
-      <c r="V2" s="87"/>
-      <c r="W2" s="87"/>
-      <c r="X2" s="87"/>
-      <c r="Y2" s="87"/>
-      <c r="Z2" s="87"/>
-      <c r="AA2" s="88"/>
-      <c r="AB2" s="89" t="s">
+      <c r="S2" s="81"/>
+      <c r="T2" s="81"/>
+      <c r="U2" s="81"/>
+      <c r="V2" s="81"/>
+      <c r="W2" s="81"/>
+      <c r="X2" s="81"/>
+      <c r="Y2" s="81"/>
+      <c r="Z2" s="81"/>
+      <c r="AA2" s="82"/>
+      <c r="AB2" s="83" t="s">
         <v>26</v>
       </c>
-      <c r="AC2" s="90"/>
-      <c r="AD2" s="90"/>
-      <c r="AE2" s="91"/>
-      <c r="AF2" s="78" t="s">
+      <c r="AC2" s="84"/>
+      <c r="AD2" s="84"/>
+      <c r="AE2" s="85"/>
+      <c r="AF2" s="72" t="s">
         <v>28</v>
       </c>
-      <c r="AG2" s="79"/>
-      <c r="AH2" s="79"/>
-      <c r="AI2" s="80"/>
-    </row>
-    <row r="3" spans="1:35" ht="180" x14ac:dyDescent="0.25">
+      <c r="AG2" s="73"/>
+      <c r="AH2" s="73"/>
+      <c r="AI2" s="74"/>
+    </row>
+    <row r="3" spans="1:35" ht="180">
       <c r="A3" s="11" t="s">
         <v>5</v>
       </c>
@@ -3301,10 +3217,10 @@
       <c r="N3" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="O3" s="61" t="s">
+      <c r="O3" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="P3" s="61" t="s">
+      <c r="P3" s="58" t="s">
         <v>73</v>
       </c>
       <c r="Q3" s="50" t="s">
@@ -3365,7 +3281,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35">
       <c r="A4" s="24">
         <v>1</v>
       </c>
@@ -3408,7 +3324,7 @@
       <c r="N4" s="43">
         <v>1</v>
       </c>
-      <c r="O4" s="62">
+      <c r="O4" s="59">
         <v>0.8</v>
       </c>
       <c r="P4" s="52">
@@ -3472,7 +3388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35">
       <c r="A5" s="24">
         <v>2</v>
       </c>
@@ -3491,8 +3407,8 @@
       <c r="L5" s="44"/>
       <c r="M5" s="44"/>
       <c r="N5" s="44"/>
-      <c r="O5" s="63"/>
-      <c r="P5" s="63"/>
+      <c r="O5" s="60"/>
+      <c r="P5" s="60"/>
       <c r="Q5" s="54"/>
       <c r="R5" s="48"/>
       <c r="S5" s="44"/>
@@ -3513,7 +3429,7 @@
       <c r="AH5" s="43"/>
       <c r="AI5" s="52"/>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35">
       <c r="A6" s="24">
         <v>3</v>
       </c>
@@ -3532,8 +3448,8 @@
       <c r="L6" s="44"/>
       <c r="M6" s="44"/>
       <c r="N6" s="44"/>
-      <c r="O6" s="63"/>
-      <c r="P6" s="63"/>
+      <c r="O6" s="60"/>
+      <c r="P6" s="60"/>
       <c r="Q6" s="54"/>
       <c r="R6" s="48"/>
       <c r="S6" s="44"/>
@@ -3554,7 +3470,7 @@
       <c r="AH6" s="43"/>
       <c r="AI6" s="52"/>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35">
       <c r="A7" s="24">
         <v>4</v>
       </c>
@@ -3573,8 +3489,8 @@
       <c r="L7" s="44"/>
       <c r="M7" s="44"/>
       <c r="N7" s="44"/>
-      <c r="O7" s="63"/>
-      <c r="P7" s="63"/>
+      <c r="O7" s="60"/>
+      <c r="P7" s="60"/>
       <c r="Q7" s="54"/>
       <c r="R7" s="48"/>
       <c r="S7" s="44"/>
@@ -3595,7 +3511,7 @@
       <c r="AH7" s="43"/>
       <c r="AI7" s="52"/>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35">
       <c r="A8" s="24">
         <v>5</v>
       </c>
@@ -3614,8 +3530,8 @@
       <c r="L8" s="44"/>
       <c r="M8" s="44"/>
       <c r="N8" s="44"/>
-      <c r="O8" s="63"/>
-      <c r="P8" s="63"/>
+      <c r="O8" s="60"/>
+      <c r="P8" s="60"/>
       <c r="Q8" s="54"/>
       <c r="R8" s="48"/>
       <c r="S8" s="44"/>
@@ -3636,7 +3552,7 @@
       <c r="AH8" s="43"/>
       <c r="AI8" s="52"/>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35">
       <c r="A9" s="24">
         <v>6</v>
       </c>
@@ -3655,8 +3571,8 @@
       <c r="L9" s="44"/>
       <c r="M9" s="44"/>
       <c r="N9" s="44"/>
-      <c r="O9" s="63"/>
-      <c r="P9" s="63"/>
+      <c r="O9" s="60"/>
+      <c r="P9" s="60"/>
       <c r="Q9" s="54"/>
       <c r="R9" s="48"/>
       <c r="S9" s="44"/>
@@ -3677,46 +3593,112 @@
       <c r="AH9" s="43"/>
       <c r="AI9" s="52"/>
     </row>
-    <row r="10" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:35" ht="15.75" thickBot="1">
       <c r="A10" s="24">
         <v>7</v>
       </c>
       <c r="B10" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="55"/>
-      <c r="D10" s="56"/>
-      <c r="E10" s="56"/>
-      <c r="F10" s="56"/>
-      <c r="G10" s="56"/>
-      <c r="H10" s="57"/>
-      <c r="I10" s="55"/>
-      <c r="J10" s="56"/>
-      <c r="K10" s="56"/>
-      <c r="L10" s="56"/>
-      <c r="M10" s="56"/>
-      <c r="N10" s="56"/>
-      <c r="O10" s="64"/>
-      <c r="P10" s="64"/>
-      <c r="Q10" s="57"/>
-      <c r="R10" s="65"/>
-      <c r="S10" s="56"/>
-      <c r="T10" s="58"/>
-      <c r="U10" s="58"/>
-      <c r="V10" s="58"/>
-      <c r="W10" s="58"/>
-      <c r="X10" s="58"/>
-      <c r="Y10" s="58"/>
-      <c r="Z10" s="58"/>
-      <c r="AA10" s="59"/>
-      <c r="AB10" s="60"/>
-      <c r="AC10" s="66"/>
-      <c r="AD10" s="58"/>
-      <c r="AE10" s="59"/>
-      <c r="AF10" s="60"/>
-      <c r="AG10" s="58"/>
-      <c r="AH10" s="58"/>
-      <c r="AI10" s="59"/>
+      <c r="C10" s="55">
+        <v>0.25</v>
+      </c>
+      <c r="D10" s="56">
+        <v>0.25</v>
+      </c>
+      <c r="E10" s="56">
+        <v>0</v>
+      </c>
+      <c r="F10" s="56">
+        <v>0.25</v>
+      </c>
+      <c r="G10" s="56">
+        <v>0.25</v>
+      </c>
+      <c r="H10" s="57">
+        <v>0.25</v>
+      </c>
+      <c r="I10" s="55">
+        <v>0</v>
+      </c>
+      <c r="J10" s="55">
+        <v>0.25</v>
+      </c>
+      <c r="K10" s="55">
+        <v>0.5</v>
+      </c>
+      <c r="L10" s="55">
+        <v>0</v>
+      </c>
+      <c r="M10" s="55">
+        <v>0.25</v>
+      </c>
+      <c r="N10" s="55">
+        <v>0</v>
+      </c>
+      <c r="O10" s="55">
+        <v>0.5</v>
+      </c>
+      <c r="P10" s="55">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="55">
+        <v>0</v>
+      </c>
+      <c r="R10" s="55">
+        <v>0.25</v>
+      </c>
+      <c r="S10" s="55">
+        <v>0</v>
+      </c>
+      <c r="T10" s="55">
+        <v>0</v>
+      </c>
+      <c r="U10" s="55">
+        <v>0</v>
+      </c>
+      <c r="V10" s="55">
+        <v>0</v>
+      </c>
+      <c r="W10" s="55">
+        <v>0</v>
+      </c>
+      <c r="X10" s="55">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="55">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="55">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="55">
+        <v>1</v>
+      </c>
+      <c r="AB10" s="55">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="55">
+        <v>0.25</v>
+      </c>
+      <c r="AD10" s="55">
+        <v>0.25</v>
+      </c>
+      <c r="AE10" s="55">
+        <v>0.5</v>
+      </c>
+      <c r="AF10" s="55">
+        <v>0</v>
+      </c>
+      <c r="AG10" s="55">
+        <v>1</v>
+      </c>
+      <c r="AH10" s="55">
+        <v>0</v>
+      </c>
+      <c r="AI10" s="55">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -3734,12 +3716,12 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="17.42578125" style="28" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="3" bestFit="1" customWidth="1"/>
@@ -3749,7 +3731,7 @@
     <col min="7" max="7" width="13.140625" style="30" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" s="11" t="s">
         <v>71</v>
       </c>
@@ -3772,8 +3754,8 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="92" t="s">
+    <row r="2" spans="1:8">
+      <c r="A2" s="86" t="s">
         <v>25</v>
       </c>
       <c r="B2" s="9">
@@ -3797,10 +3779,10 @@
         <f>ROUND(F2/22/8,2)</f>
         <v>1183.71</v>
       </c>
-      <c r="H2" s="94"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="93"/>
+      <c r="H2" s="88"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="87"/>
       <c r="B3" s="9">
         <v>2</v>
       </c>
@@ -3822,10 +3804,10 @@
         <f t="shared" ref="G3:G34" si="2">ROUND(F3/22/8,2)</f>
         <v>946.97</v>
       </c>
-      <c r="H3" s="94"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="93"/>
+      <c r="H3" s="88"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="87"/>
       <c r="B4" s="9">
         <v>3</v>
       </c>
@@ -3847,10 +3829,10 @@
         <f t="shared" si="2"/>
         <v>946.97</v>
       </c>
-      <c r="H4" s="94"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="93"/>
+      <c r="H4" s="88"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="87"/>
       <c r="B5" s="9">
         <v>4</v>
       </c>
@@ -3872,10 +3854,10 @@
         <f t="shared" si="2"/>
         <v>355.11</v>
       </c>
-      <c r="H5" s="94"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="93"/>
+      <c r="H5" s="88"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="87"/>
       <c r="B6" s="9">
         <v>5</v>
       </c>
@@ -3897,10 +3879,10 @@
         <f t="shared" si="2"/>
         <v>355.11</v>
       </c>
-      <c r="H6" s="94"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="95"/>
+      <c r="H6" s="88"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="89"/>
       <c r="B7" s="9">
         <v>6</v>
       </c>
@@ -3922,10 +3904,10 @@
         <f t="shared" si="2"/>
         <v>946.97</v>
       </c>
-      <c r="H7" s="94"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="92" t="s">
+      <c r="H7" s="88"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="86" t="s">
         <v>29</v>
       </c>
       <c r="B8" s="9">
@@ -3950,8 +3932,8 @@
         <v>591.86</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="93"/>
+    <row r="9" spans="1:8">
+      <c r="A9" s="87"/>
       <c r="B9" s="9">
         <v>8</v>
       </c>
@@ -3974,8 +3956,8 @@
         <v>236.74</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="93"/>
+    <row r="10" spans="1:8">
+      <c r="A10" s="87"/>
       <c r="B10" s="9">
         <v>9</v>
       </c>
@@ -3998,8 +3980,8 @@
         <v>177.56</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="93"/>
+    <row r="11" spans="1:8">
+      <c r="A11" s="87"/>
       <c r="B11" s="9">
         <v>10</v>
       </c>
@@ -4022,8 +4004,8 @@
         <v>591.86</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="93"/>
+    <row r="12" spans="1:8">
+      <c r="A12" s="87"/>
       <c r="B12" s="9">
         <v>11</v>
       </c>
@@ -4046,8 +4028,8 @@
         <v>177.56</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="93"/>
+    <row r="13" spans="1:8">
+      <c r="A13" s="87"/>
       <c r="B13" s="9">
         <v>12</v>
       </c>
@@ -4070,8 +4052,8 @@
         <v>118.37</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="93"/>
+    <row r="14" spans="1:8">
+      <c r="A14" s="87"/>
       <c r="B14" s="9">
         <v>13</v>
       </c>
@@ -4094,8 +4076,8 @@
         <v>118.37</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="93"/>
+    <row r="15" spans="1:8">
+      <c r="A15" s="87"/>
       <c r="B15" s="9">
         <v>14</v>
       </c>
@@ -4118,8 +4100,8 @@
         <v>295.93</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="93"/>
+    <row r="16" spans="1:8">
+      <c r="A16" s="87"/>
       <c r="B16" s="9">
         <v>15</v>
       </c>
@@ -4142,8 +4124,8 @@
         <v>118.37</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="92" t="s">
+    <row r="17" spans="1:7">
+      <c r="A17" s="86" t="s">
         <v>69</v>
       </c>
       <c r="B17" s="9">
@@ -4168,8 +4150,8 @@
         <v>177.56</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="93"/>
+    <row r="18" spans="1:7">
+      <c r="A18" s="87"/>
       <c r="B18" s="9">
         <v>17</v>
       </c>
@@ -4192,8 +4174,8 @@
         <v>71.02</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="93"/>
+    <row r="19" spans="1:7">
+      <c r="A19" s="87"/>
       <c r="B19" s="9">
         <v>18</v>
       </c>
@@ -4216,8 +4198,8 @@
         <v>35.51</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="93"/>
+    <row r="20" spans="1:7">
+      <c r="A20" s="87"/>
       <c r="B20" s="9">
         <v>19</v>
       </c>
@@ -4240,8 +4222,8 @@
         <v>236.74</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="93"/>
+    <row r="21" spans="1:7">
+      <c r="A21" s="87"/>
       <c r="B21" s="9">
         <v>20</v>
       </c>
@@ -4264,8 +4246,8 @@
         <v>71.02</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="93"/>
+    <row r="22" spans="1:7">
+      <c r="A22" s="87"/>
       <c r="B22" s="9">
         <v>21</v>
       </c>
@@ -4288,8 +4270,8 @@
         <v>35.51</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="93"/>
+    <row r="23" spans="1:7">
+      <c r="A23" s="87"/>
       <c r="B23" s="9">
         <v>22</v>
       </c>
@@ -4312,8 +4294,8 @@
         <v>71.02</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="93"/>
+    <row r="24" spans="1:7">
+      <c r="A24" s="87"/>
       <c r="B24" s="9">
         <v>23</v>
       </c>
@@ -4336,8 +4318,8 @@
         <v>35.51</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="93"/>
+    <row r="25" spans="1:7">
+      <c r="A25" s="87"/>
       <c r="B25" s="9">
         <v>24</v>
       </c>
@@ -4360,8 +4342,8 @@
         <v>35.51</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="95"/>
+    <row r="26" spans="1:7">
+      <c r="A26" s="89"/>
       <c r="B26" s="9">
         <v>25</v>
       </c>
@@ -4384,8 +4366,8 @@
         <v>71.02</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="92" t="s">
+    <row r="27" spans="1:7">
+      <c r="A27" s="86" t="s">
         <v>70</v>
       </c>
       <c r="B27" s="9">
@@ -4410,8 +4392,8 @@
         <v>295.93</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="93"/>
+    <row r="28" spans="1:7">
+      <c r="A28" s="87"/>
       <c r="B28" s="9">
         <v>27</v>
       </c>
@@ -4434,8 +4416,8 @@
         <v>71.02</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="93"/>
+    <row r="29" spans="1:7">
+      <c r="A29" s="87"/>
       <c r="B29" s="9">
         <v>28</v>
       </c>
@@ -4458,8 +4440,8 @@
         <v>177.56</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="95"/>
+    <row r="30" spans="1:7">
+      <c r="A30" s="89"/>
       <c r="B30" s="9">
         <v>29</v>
       </c>
@@ -4482,8 +4464,8 @@
         <v>71.02</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="92" t="s">
+    <row r="31" spans="1:7">
+      <c r="A31" s="86" t="s">
         <v>28</v>
       </c>
       <c r="B31" s="9">
@@ -4508,8 +4490,8 @@
         <v>35.51</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="93"/>
+    <row r="32" spans="1:7">
+      <c r="A32" s="87"/>
       <c r="B32" s="9">
         <v>31</v>
       </c>
@@ -4532,8 +4514,8 @@
         <v>35.51</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="93"/>
+    <row r="33" spans="1:7">
+      <c r="A33" s="87"/>
       <c r="B33" s="9">
         <v>32</v>
       </c>
@@ -4556,8 +4538,8 @@
         <v>71.02</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="93"/>
+    <row r="34" spans="1:7">
+      <c r="A34" s="87"/>
       <c r="B34" s="9">
         <v>33</v>
       </c>

--- a/Project Management/Effort Calculation.xlsx
+++ b/Project Management/Effort Calculation.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="330" windowWidth="18795" windowHeight="11700" tabRatio="785" activeTab="7"/>
@@ -24,7 +24,7 @@
     <definedName name="MemberList">'Team Member'!$B$4:$B$10</definedName>
     <definedName name="SkillList">'Skill Set'!$C$2:$C$34</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -3072,7 +3072,7 @@
   <dimension ref="A1:AI10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3395,7 +3395,9 @@
       <c r="B5" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="53"/>
+      <c r="C5" s="53">
+        <v>0</v>
+      </c>
       <c r="D5" s="44"/>
       <c r="E5" s="44"/>
       <c r="F5" s="44"/>
@@ -3405,9 +3407,15 @@
       <c r="J5" s="44"/>
       <c r="K5" s="44"/>
       <c r="L5" s="44"/>
-      <c r="M5" s="44"/>
-      <c r="N5" s="44"/>
-      <c r="O5" s="60"/>
+      <c r="M5" s="44">
+        <v>1</v>
+      </c>
+      <c r="N5" s="44">
+        <v>1</v>
+      </c>
+      <c r="O5" s="60">
+        <v>1</v>
+      </c>
       <c r="P5" s="60"/>
       <c r="Q5" s="54"/>
       <c r="R5" s="48"/>

--- a/Project Management/Effort Calculation.xlsx
+++ b/Project Management/Effort Calculation.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="330" windowWidth="18795" windowHeight="11700" tabRatio="785" activeTab="7"/>
+    <workbookView xWindow="360" yWindow="330" windowWidth="18795" windowHeight="11700" tabRatio="785" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="8" r:id="rId1"/>
@@ -24,12 +24,12 @@
     <definedName name="MemberList">'Team Member'!$B$4:$B$10</definedName>
     <definedName name="SkillList">'Skill Set'!$C$2:$C$34</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="77">
   <si>
     <t>Total</t>
   </si>
@@ -1426,7 +1426,7 @@
       <c r="G11" s="63"/>
       <c r="H11" s="68">
         <f>Summery!D10</f>
-        <v>1775.5500000000002</v>
+        <v>2130.67</v>
       </c>
       <c r="I11" s="69"/>
       <c r="J11" s="70"/>
@@ -1447,7 +1447,7 @@
       <c r="G12" s="63"/>
       <c r="H12" s="65">
         <f>Summery!C10</f>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="I12" s="66"/>
       <c r="J12" s="67"/>
@@ -1734,11 +1734,11 @@
       </c>
       <c r="G4" s="15">
         <f>SUM(School!D:D)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H4" s="34">
         <f>SUM(School!I:I)</f>
-        <v>0</v>
+        <v>355.12</v>
       </c>
       <c r="I4" s="5"/>
       <c r="J4" s="4"/>
@@ -1874,11 +1874,11 @@
       </c>
       <c r="G8" s="16">
         <f>SUM(G3:G7)</f>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="H8" s="40">
         <f>SUM(H3:H7)</f>
-        <v>1775.5500000000002</v>
+        <v>2130.67</v>
       </c>
       <c r="I8" s="5"/>
       <c r="J8" s="4"/>
@@ -1897,11 +1897,11 @@
       </c>
       <c r="C9" s="15">
         <f>SUMIF(Business!B:B,B9,Business!D:D) + SUMIF(School!B:B,B9,School!D:D) + SUMIF(Service!B:B,B9,Service!D:D)+SUMIF(Retail!B:B,B9,Retail!D:D) + SUMIF(Tourism!B:B,B9,Tourism!D:D)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D9" s="34">
         <f>SUMIF(Business!B:B,B9,Business!I:I) + SUMIF(School!B:B,B9,School!I:I) + SUMIF(Service!B:B,B9,Service!I:I)+SUMIF(Retail!B:B,B9,Retail!I:I) + SUMIF(Tourism!B:B,B9,Tourism!I:I)</f>
-        <v>0</v>
+        <v>355.12</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="4"/>
@@ -1924,11 +1924,11 @@
       </c>
       <c r="C10" s="16">
         <f>SUM(C3:C9)</f>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D10" s="40">
         <f>SUM(D3:D9)</f>
-        <v>1775.5500000000002</v>
+        <v>2130.67</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="4"/>
@@ -2307,11 +2307,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.140625" style="38" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" style="38" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="34.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.28515625" bestFit="1" customWidth="1"/>
@@ -2352,29 +2354,37 @@
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="41"/>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="43"/>
+      <c r="A2" s="41">
+        <v>42299</v>
+      </c>
+      <c r="B2" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="43">
+        <v>4</v>
+      </c>
       <c r="E2" s="39">
         <f>IF(ISERROR(MATCH(C2,SkillList,0)),0,MATCH(C2,SkillList,0))</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F2" s="39">
         <f>IF(ISERROR(MATCH(B2,MemberList,0)),0,MATCH(B2,MemberList,0))</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G2" s="34">
         <f>INDEX(CostPerHour,E2)</f>
-        <v>1183.71</v>
+        <v>177.56</v>
       </c>
       <c r="H2" s="9">
         <f>IF(ISERROR(INDEX(Competency,F2,E2)), 0, INDEX(Competency,F2,E2))</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I2" s="34">
         <f>D2*G2*H2</f>
-        <v>0</v>
+        <v>355.12</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -3071,7 +3081,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AI10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>

--- a/Project Management/Effort Calculation.xlsx
+++ b/Project Management/Effort Calculation.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="77">
   <si>
     <t>Total</t>
   </si>
@@ -1426,7 +1426,7 @@
       <c r="G11" s="63"/>
       <c r="H11" s="68">
         <f>Summery!D10</f>
-        <v>2130.67</v>
+        <v>2012.2900000000002</v>
       </c>
       <c r="I11" s="69"/>
       <c r="J11" s="70"/>
@@ -1738,7 +1738,7 @@
       </c>
       <c r="H4" s="34">
         <f>SUM(School!I:I)</f>
-        <v>355.12</v>
+        <v>236.74</v>
       </c>
       <c r="I4" s="5"/>
       <c r="J4" s="4"/>
@@ -1878,7 +1878,7 @@
       </c>
       <c r="H8" s="40">
         <f>SUM(H3:H7)</f>
-        <v>2130.67</v>
+        <v>2012.2900000000002</v>
       </c>
       <c r="I8" s="5"/>
       <c r="J8" s="4"/>
@@ -1901,7 +1901,7 @@
       </c>
       <c r="D9" s="34">
         <f>SUMIF(Business!B:B,B9,Business!I:I) + SUMIF(School!B:B,B9,School!I:I) + SUMIF(Service!B:B,B9,Service!I:I)+SUMIF(Retail!B:B,B9,Retail!I:I) + SUMIF(Tourism!B:B,B9,Tourism!I:I)</f>
-        <v>355.12</v>
+        <v>236.74</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="4"/>
@@ -1928,7 +1928,7 @@
       </c>
       <c r="D10" s="40">
         <f>SUM(D3:D9)</f>
-        <v>2130.67</v>
+        <v>2012.2900000000002</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="4"/>
@@ -2308,7 +2308,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2355,20 +2355,20 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="41">
-        <v>42299</v>
+        <v>42298</v>
       </c>
       <c r="B2" s="42" t="s">
         <v>14</v>
       </c>
       <c r="C2" s="42" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D2" s="43">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E2" s="39">
         <f>IF(ISERROR(MATCH(C2,SkillList,0)),0,MATCH(C2,SkillList,0))</f>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F2" s="39">
         <f>IF(ISERROR(MATCH(B2,MemberList,0)),0,MATCH(B2,MemberList,0))</f>
@@ -2376,41 +2376,49 @@
       </c>
       <c r="G2" s="34">
         <f>INDEX(CostPerHour,E2)</f>
-        <v>177.56</v>
+        <v>236.74</v>
       </c>
       <c r="H2" s="9">
         <f>IF(ISERROR(INDEX(Competency,F2,E2)), 0, INDEX(Competency,F2,E2))</f>
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="I2" s="34">
         <f>D2*G2*H2</f>
-        <v>355.12</v>
+        <v>118.37</v>
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="41"/>
-      <c r="B3" s="42"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="43"/>
+      <c r="A3" s="41">
+        <v>42299</v>
+      </c>
+      <c r="B3" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="43">
+        <v>2</v>
+      </c>
       <c r="E3" s="39">
         <f>IF(ISERROR(MATCH(C3,SkillList,0)),0,MATCH(C3,SkillList,0))</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F3" s="39">
         <f>IF(ISERROR(MATCH(B3,MemberList,0)),0,MATCH(B3,MemberList,0))</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G3" s="34">
         <f>INDEX(CostPerHour,E3)</f>
-        <v>946.97</v>
+        <v>236.74</v>
       </c>
       <c r="H3" s="9">
         <f>IF(ISERROR(INDEX(Competency,F3,E3)), 0, INDEX(Competency,F3,E3))</f>
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="I3" s="34">
         <f t="shared" ref="I3:I6" si="0">D3*G3*H3</f>
-        <v>0</v>
+        <v>118.37</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -3737,7 +3745,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>

--- a/Project Management/Effort Calculation.xlsx
+++ b/Project Management/Effort Calculation.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="330" windowWidth="18795" windowHeight="11700" tabRatio="785" activeTab="3"/>
+    <workbookView xWindow="360" yWindow="330" windowWidth="18795" windowHeight="11700" tabRatio="785" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="8" r:id="rId1"/>
@@ -24,12 +24,12 @@
     <definedName name="MemberList">'Team Member'!$B$4:$B$10</definedName>
     <definedName name="SkillList">'Skill Set'!$C$2:$C$34</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="84">
   <si>
     <t>Total</t>
   </si>
@@ -260,16 +260,37 @@
   </si>
   <si>
     <t>Training</t>
+  </si>
+  <si>
+    <t>22.10.2015</t>
+  </si>
+  <si>
+    <t>Man Hours</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>Preparing Effort sheet, and other templates</t>
+  </si>
+  <si>
+    <t>Discussion on business model</t>
+  </si>
+  <si>
+    <t>Discussion on risk of the migration project Ascent, Technical discussion of feasibility</t>
+  </si>
+  <si>
+    <t>Till March 2016</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;₹&quot;\ #,##0.00"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -312,7 +333,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="34">
+  <borders count="33">
     <border>
       <left/>
       <right/>
@@ -455,15 +476,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
@@ -725,7 +737,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -779,43 +791,32 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -823,11 +824,11 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -847,8 +848,11 @@
     <xf numFmtId="164" fontId="0" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -856,9 +860,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -871,8 +872,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -880,9 +884,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -892,18 +893,76 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1044,6 +1103,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1078,6 +1138,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1253,14 +1314,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:O20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11:J11"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.85546875" style="1" customWidth="1"/>
     <col min="2" max="4" width="9.140625" style="1"/>
@@ -1268,8 +1327,8 @@
     <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" ht="15.75" thickBot="1"/>
-    <row r="2" spans="2:15">
+    <row r="1" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B2" s="19"/>
       <c r="C2" s="20"/>
       <c r="D2" s="20"/>
@@ -1285,7 +1344,7 @@
       <c r="N2" s="20"/>
       <c r="O2" s="21"/>
     </row>
-    <row r="3" spans="2:15">
+    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B3" s="3"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
@@ -1301,7 +1360,7 @@
       <c r="N3" s="4"/>
       <c r="O3" s="22"/>
     </row>
-    <row r="4" spans="2:15">
+    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B4" s="3"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -1317,7 +1376,7 @@
       <c r="N4" s="4"/>
       <c r="O4" s="22"/>
     </row>
-    <row r="5" spans="2:15">
+    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B5" s="3"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -1333,7 +1392,7 @@
       <c r="N5" s="4"/>
       <c r="O5" s="22"/>
     </row>
-    <row r="6" spans="2:15">
+    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B6" s="3"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
@@ -1349,7 +1408,7 @@
       <c r="N6" s="4"/>
       <c r="O6" s="22"/>
     </row>
-    <row r="7" spans="2:15">
+    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B7" s="3"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
@@ -1365,7 +1424,7 @@
       <c r="N7" s="4"/>
       <c r="O7" s="22"/>
     </row>
-    <row r="8" spans="2:15">
+    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B8" s="3"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
@@ -1381,7 +1440,7 @@
       <c r="N8" s="4"/>
       <c r="O8" s="22"/>
     </row>
-    <row r="9" spans="2:15">
+    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B9" s="3"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
@@ -1397,83 +1456,88 @@
       <c r="N9" s="4"/>
       <c r="O9" s="22"/>
     </row>
-    <row r="10" spans="2:15">
+    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B10" s="3"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
-      <c r="F10" s="61" t="s">
+      <c r="F10" s="54" t="s">
         <v>68</v>
       </c>
-      <c r="G10" s="62"/>
-      <c r="H10" s="62"/>
-      <c r="I10" s="62"/>
-      <c r="J10" s="62"/>
+      <c r="G10" s="55"/>
+      <c r="H10" s="55"/>
+      <c r="I10" s="55"/>
+      <c r="J10" s="55"/>
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
       <c r="M10" s="4"/>
       <c r="N10" s="4"/>
       <c r="O10" s="22"/>
     </row>
-    <row r="11" spans="2:15">
+    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B11" s="3"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
-      <c r="F11" s="61" t="s">
+      <c r="F11" s="56" t="s">
         <v>59</v>
       </c>
-      <c r="G11" s="63"/>
-      <c r="H11" s="68">
+      <c r="G11" s="57"/>
+      <c r="H11" s="61">
         <f>Summery!D10</f>
-        <v>2012.2900000000002</v>
-      </c>
-      <c r="I11" s="69"/>
-      <c r="J11" s="70"/>
+        <v>5089.9699999999993</v>
+      </c>
+      <c r="I11" s="62"/>
+      <c r="J11" s="63"/>
       <c r="K11" s="4"/>
       <c r="L11" s="4"/>
       <c r="M11" s="4"/>
       <c r="N11" s="4"/>
       <c r="O11" s="22"/>
     </row>
-    <row r="12" spans="2:15">
+    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B12" s="3"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
-      <c r="F12" s="61" t="s">
-        <v>60</v>
-      </c>
-      <c r="G12" s="63"/>
-      <c r="H12" s="65">
+      <c r="F12" s="56" t="s">
+        <v>78</v>
+      </c>
+      <c r="G12" s="57"/>
+      <c r="H12" s="58">
         <f>Summery!C10</f>
-        <v>9</v>
-      </c>
-      <c r="I12" s="66"/>
-      <c r="J12" s="67"/>
+        <v>15</v>
+      </c>
+      <c r="I12" s="59"/>
+      <c r="J12" s="60"/>
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
       <c r="M12" s="4"/>
       <c r="N12" s="4"/>
       <c r="O12" s="22"/>
     </row>
-    <row r="13" spans="2:15">
+    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B13" s="3"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="64"/>
-      <c r="I13" s="64"/>
-      <c r="J13" s="64"/>
+      <c r="F13" s="56" t="s">
+        <v>60</v>
+      </c>
+      <c r="G13" s="57"/>
+      <c r="H13" s="58">
+        <f>H12/8</f>
+        <v>1.875</v>
+      </c>
+      <c r="I13" s="59"/>
+      <c r="J13" s="60"/>
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
       <c r="M13" s="4"/>
       <c r="N13" s="4"/>
       <c r="O13" s="22"/>
     </row>
-    <row r="14" spans="2:15">
+    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B14" s="3"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
@@ -1489,7 +1553,7 @@
       <c r="N14" s="4"/>
       <c r="O14" s="22"/>
     </row>
-    <row r="15" spans="2:15">
+    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B15" s="3"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -1505,7 +1569,7 @@
       <c r="N15" s="4"/>
       <c r="O15" s="22"/>
     </row>
-    <row r="16" spans="2:15">
+    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B16" s="3"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -1521,7 +1585,7 @@
       <c r="N16" s="4"/>
       <c r="O16" s="22"/>
     </row>
-    <row r="17" spans="2:15">
+    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B17" s="3"/>
       <c r="D17" s="4"/>
       <c r="E17" s="5"/>
@@ -1536,7 +1600,7 @@
       <c r="N17" s="4"/>
       <c r="O17" s="22"/>
     </row>
-    <row r="18" spans="2:15">
+    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B18" s="3"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
@@ -1551,7 +1615,7 @@
       <c r="N18" s="4"/>
       <c r="O18" s="22"/>
     </row>
-    <row r="19" spans="2:15">
+    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B19" s="3"/>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
@@ -1567,7 +1631,7 @@
       <c r="N19" s="4"/>
       <c r="O19" s="22"/>
     </row>
-    <row r="20" spans="2:15" ht="15.75" thickBot="1">
+    <row r="20" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="6"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -1585,13 +1649,14 @@
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
-  <mergeCells count="6">
+  <mergeCells count="7">
     <mergeCell ref="F10:J10"/>
     <mergeCell ref="F11:G11"/>
     <mergeCell ref="F12:G12"/>
     <mergeCell ref="H13:J13"/>
     <mergeCell ref="H12:J12"/>
     <mergeCell ref="H11:J11"/>
+    <mergeCell ref="F13:G13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -1599,12 +1664,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.85546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="28.5703125" style="1" customWidth="1"/>
@@ -1626,13 +1691,13 @@
     <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="4"/>
-      <c r="B1" s="71" t="s">
+      <c r="B1" s="64" t="s">
         <v>62</v>
       </c>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
       <c r="E1" s="8"/>
       <c r="F1" s="8"/>
       <c r="G1" s="13"/>
@@ -1647,7 +1712,7 @@
       <c r="P1" s="8"/>
       <c r="Q1" s="8"/>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
       <c r="B2" s="11" t="s">
         <v>6</v>
@@ -1680,18 +1745,18 @@
       <c r="P2" s="8"/>
       <c r="Q2" s="8"/>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="10" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="15">
         <f>SUMIF(Business!B:B,B3,Business!D:D) + SUMIF(School!B:B,B3,School!D:D) + SUMIF(Service!B:B,B3,Service!D:D)+SUMIF(Retail!B:B,B3,Retail!D:D) + SUMIF(Tourism!B:B,B3,Tourism!D:D)</f>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D3" s="34">
         <f>SUMIF(Business!B:B,B3,Business!I:I) + SUMIF(School!B:B,B3,School!I:I) + SUMIF(Service!B:B,B3,Service!I:I)+SUMIF(Retail!B:B,B3,Retail!I:I) + SUMIF(Tourism!B:B,B3,Tourism!I:I)</f>
-        <v>1775.5500000000002</v>
+        <v>4734.8499999999995</v>
       </c>
       <c r="E3" s="5"/>
       <c r="F3" s="10" t="s">
@@ -1715,14 +1780,14 @@
       <c r="P3" s="5"/>
       <c r="Q3" s="5"/>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="10" t="s">
         <v>10</v>
       </c>
       <c r="C4" s="15">
         <f>SUMIF(Business!B:B,B4,Business!D:D) + SUMIF(School!B:B,B4,School!D:D) + SUMIF(Service!B:B,B4,Service!D:D)+SUMIF(Retail!B:B,B4,Retail!D:D) + SUMIF(Tourism!B:B,B4,Tourism!D:D)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" s="34">
         <f>SUMIF(Business!B:B,B4,Business!I:I) + SUMIF(School!B:B,B4,School!I:I) + SUMIF(Service!B:B,B4,Service!I:I)+SUMIF(Retail!B:B,B4,Retail!I:I) + SUMIF(Tourism!B:B,B4,Tourism!I:I)</f>
@@ -1738,7 +1803,7 @@
       </c>
       <c r="H4" s="34">
         <f>SUM(School!I:I)</f>
-        <v>236.74</v>
+        <v>355.12</v>
       </c>
       <c r="I4" s="5"/>
       <c r="J4" s="4"/>
@@ -1750,7 +1815,7 @@
       <c r="P4" s="5"/>
       <c r="Q4" s="5"/>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="10" t="s">
         <v>8</v>
@@ -1769,11 +1834,11 @@
       </c>
       <c r="G5" s="15">
         <f>SUM(Service!D:D)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H5" s="34">
         <f>SUM(Service!I:I)</f>
-        <v>0</v>
+        <v>2367.44</v>
       </c>
       <c r="I5" s="5"/>
       <c r="J5" s="4"/>
@@ -1785,7 +1850,7 @@
       <c r="P5" s="5"/>
       <c r="Q5" s="5"/>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="10" t="s">
         <v>11</v>
@@ -1804,11 +1869,11 @@
       </c>
       <c r="G6" s="15">
         <f>SUM(Retail!D:D)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H6" s="34">
         <f>SUM(Retail!I:I)</f>
-        <v>0</v>
+        <v>591.86</v>
       </c>
       <c r="I6" s="5"/>
       <c r="J6" s="4"/>
@@ -1820,7 +1885,7 @@
       <c r="P6" s="5"/>
       <c r="Q6" s="5"/>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="10" t="s">
         <v>12</v>
@@ -1855,7 +1920,7 @@
       <c r="P7" s="5"/>
       <c r="Q7" s="5"/>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="10" t="s">
         <v>13</v>
@@ -1874,11 +1939,11 @@
       </c>
       <c r="G8" s="16">
         <f>SUM(G3:G7)</f>
-        <v>9</v>
-      </c>
-      <c r="H8" s="40">
+        <v>15</v>
+      </c>
+      <c r="H8" s="35">
         <f>SUM(H3:H7)</f>
-        <v>2012.2900000000002</v>
+        <v>5089.97</v>
       </c>
       <c r="I8" s="5"/>
       <c r="J8" s="4"/>
@@ -1890,7 +1955,7 @@
       <c r="P8" s="5"/>
       <c r="Q8" s="5"/>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="10" t="s">
         <v>14</v>
@@ -1901,7 +1966,7 @@
       </c>
       <c r="D9" s="34">
         <f>SUMIF(Business!B:B,B9,Business!I:I) + SUMIF(School!B:B,B9,School!I:I) + SUMIF(Service!B:B,B9,Service!I:I)+SUMIF(Retail!B:B,B9,Retail!I:I) + SUMIF(Tourism!B:B,B9,Tourism!I:I)</f>
-        <v>236.74</v>
+        <v>355.12</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="4"/>
@@ -1917,18 +1982,18 @@
       <c r="P9" s="5"/>
       <c r="Q9" s="5"/>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="12" t="s">
         <v>0</v>
       </c>
       <c r="C10" s="16">
         <f>SUM(C3:C9)</f>
-        <v>9</v>
-      </c>
-      <c r="D10" s="40">
+        <v>15</v>
+      </c>
+      <c r="D10" s="35">
         <f>SUM(D3:D9)</f>
-        <v>2012.2900000000002</v>
+        <v>5089.9699999999993</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="4"/>
@@ -1944,7 +2009,7 @@
       <c r="P10" s="5"/>
       <c r="Q10" s="5"/>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="17"/>
@@ -1960,7 +2025,7 @@
       <c r="P11" s="5"/>
       <c r="Q11" s="5"/>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="17"/>
@@ -1976,7 +2041,7 @@
       <c r="P12" s="5"/>
       <c r="Q12" s="5"/>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="17"/>
@@ -1995,7 +2060,7 @@
       <c r="P13" s="5"/>
       <c r="Q13" s="5"/>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="17"/>
@@ -2014,7 +2079,7 @@
       <c r="P14" s="5"/>
       <c r="Q14" s="5"/>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="17"/>
@@ -2033,7 +2098,7 @@
       <c r="P15" s="5"/>
       <c r="Q15" s="5"/>
     </row>
-    <row r="16" spans="1:17">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="17"/>
@@ -2052,7 +2117,7 @@
       <c r="P16" s="5"/>
       <c r="Q16" s="5"/>
     </row>
-    <row r="17" spans="1:17">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="17"/>
@@ -2071,7 +2136,7 @@
       <c r="P17" s="5"/>
       <c r="Q17" s="5"/>
     </row>
-    <row r="18" spans="1:17">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="17"/>
@@ -2104,190 +2169,204 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.140625" style="38" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" style="35" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="35" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" style="30" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="8.5703125" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="9.7109375" style="35" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" style="94" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" style="86" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.140625" style="86" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.28515625" style="86" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" style="95" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="95" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" style="96" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="8.5703125" style="86" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="9.7109375" style="95" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="64" style="97" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="86"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="37" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="98" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="99" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="99" t="s">
         <v>39</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="99" t="s">
         <v>50</v>
       </c>
-      <c r="E1" s="36" t="s">
+      <c r="E1" s="100" t="s">
         <v>57</v>
       </c>
-      <c r="F1" s="36" t="s">
+      <c r="F1" s="100" t="s">
         <v>74</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="99" t="s">
         <v>58</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="99" t="s">
         <v>56</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="99" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="41" t="s">
+      <c r="J1" s="85" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="87" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="88" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="42" t="s">
+      <c r="C2" s="88" t="s">
         <v>40</v>
       </c>
-      <c r="D2" s="43">
+      <c r="D2" s="101">
         <v>5</v>
       </c>
-      <c r="E2" s="39">
+      <c r="E2" s="90">
         <f>IF(ISERROR(MATCH(C2,SkillList,0)),0,MATCH(C2,SkillList,0))</f>
         <v>4</v>
       </c>
-      <c r="F2" s="39">
+      <c r="F2" s="90">
         <f>IF(ISERROR(MATCH(B2,MemberList,0)),0,MATCH(B2,MemberList,0))</f>
         <v>1</v>
       </c>
-      <c r="G2" s="34">
+      <c r="G2" s="91">
         <f>INDEX(CostPerHour,E2)</f>
         <v>355.11</v>
       </c>
-      <c r="H2" s="9">
+      <c r="H2" s="92">
         <f>IF(ISERROR(INDEX(Competency,F2,E2)), 0, INDEX(Competency,F2,E2))</f>
         <v>1</v>
       </c>
-      <c r="I2" s="34">
+      <c r="I2" s="91">
         <f>D2*G2*H2</f>
         <v>1775.5500000000002</v>
       </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="41"/>
-      <c r="B3" s="42"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="39">
+      <c r="J2" s="93" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="87"/>
+      <c r="B3" s="88"/>
+      <c r="C3" s="88"/>
+      <c r="D3" s="101"/>
+      <c r="E3" s="90">
         <f>IF(ISERROR(MATCH(C3,SkillList,0)),0,MATCH(C3,SkillList,0))</f>
         <v>0</v>
       </c>
-      <c r="F3" s="39">
+      <c r="F3" s="90">
         <f>IF(ISERROR(MATCH(B3,MemberList,0)),0,MATCH(B3,MemberList,0))</f>
         <v>0</v>
       </c>
-      <c r="G3" s="34">
+      <c r="G3" s="91">
         <f>INDEX(CostPerHour,E3)</f>
         <v>946.97</v>
       </c>
-      <c r="H3" s="9">
+      <c r="H3" s="92">
         <f>IF(ISERROR(INDEX(Competency,F3,E3)), 0, INDEX(Competency,F3,E3))</f>
         <v>0</v>
       </c>
-      <c r="I3" s="34">
+      <c r="I3" s="91">
         <f t="shared" ref="I3:I6" si="0">D3*G3*H3</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="41"/>
-      <c r="B4" s="42"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="39">
+      <c r="J3" s="93"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="87"/>
+      <c r="B4" s="88"/>
+      <c r="C4" s="88"/>
+      <c r="D4" s="101"/>
+      <c r="E4" s="90">
         <f>IF(ISERROR(MATCH(C4,SkillList,0)),0,MATCH(C4,SkillList,0))</f>
         <v>0</v>
       </c>
-      <c r="F4" s="39">
+      <c r="F4" s="90">
         <f>IF(ISERROR(MATCH(B4,MemberList,0)),0,MATCH(B4,MemberList,0))</f>
         <v>0</v>
       </c>
-      <c r="G4" s="34">
+      <c r="G4" s="91">
         <f>INDEX(CostPerHour,E4)</f>
         <v>946.97</v>
       </c>
-      <c r="H4" s="9">
+      <c r="H4" s="92">
         <f>IF(ISERROR(INDEX(Competency,F4,E4)), 0, INDEX(Competency,F4,E4))</f>
         <v>1</v>
       </c>
-      <c r="I4" s="34">
+      <c r="I4" s="91">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="41"/>
-      <c r="B5" s="42"/>
-      <c r="C5" s="42"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="39">
+      <c r="J4" s="93"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="87"/>
+      <c r="B5" s="88"/>
+      <c r="C5" s="88"/>
+      <c r="D5" s="101"/>
+      <c r="E5" s="90">
         <f>IF(ISERROR(MATCH(C5,SkillList,0)),0,MATCH(C5,SkillList,0))</f>
         <v>0</v>
       </c>
-      <c r="F5" s="39">
+      <c r="F5" s="90">
         <f>IF(ISERROR(MATCH(B5,MemberList,0)),0,MATCH(B5,MemberList,0))</f>
         <v>0</v>
       </c>
-      <c r="G5" s="34">
+      <c r="G5" s="91">
         <f>INDEX(CostPerHour,E5)</f>
         <v>355.11</v>
       </c>
-      <c r="H5" s="9">
+      <c r="H5" s="92">
         <f>IF(ISERROR(INDEX(Competency,F5,E5)), 0, INDEX(Competency,F5,E5))</f>
         <v>0</v>
       </c>
-      <c r="I5" s="34">
+      <c r="I5" s="91">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="41"/>
-      <c r="B6" s="42"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="39">
+      <c r="J5" s="93"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="87"/>
+      <c r="B6" s="88"/>
+      <c r="C6" s="88"/>
+      <c r="D6" s="101"/>
+      <c r="E6" s="90">
         <f>IF(ISERROR(MATCH(C6,SkillList,0)),0,MATCH(C6,SkillList,0))</f>
         <v>0</v>
       </c>
-      <c r="F6" s="39">
+      <c r="F6" s="90">
         <f>IF(ISERROR(MATCH(B6,MemberList,0)),0,MATCH(B6,MemberList,0))</f>
         <v>0</v>
       </c>
-      <c r="G6" s="34">
+      <c r="G6" s="91">
         <f>INDEX(CostPerHour,E6)</f>
         <v>355.11</v>
       </c>
-      <c r="H6" s="9">
+      <c r="H6" s="92">
         <f>IF(ISERROR(INDEX(Competency,F6,E6)), 0, INDEX(Competency,F6,E6))</f>
         <v>0</v>
       </c>
-      <c r="I6" s="34">
+      <c r="I6" s="91">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="J6" s="93"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
@@ -2304,200 +2383,202 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="38" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" style="35" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="35" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" style="30" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="8.5703125" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="9.7109375" style="35" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" style="94" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" style="86" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.140625" style="86" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.28515625" style="86" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" style="95" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="95" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" style="96" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="8.5703125" style="86" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="9.7109375" style="95" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="64" style="97" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="86"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="37" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="83" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="83" t="s">
         <v>50</v>
       </c>
-      <c r="E1" s="36" t="s">
+      <c r="E1" s="84" t="s">
         <v>57</v>
       </c>
-      <c r="F1" s="36" t="s">
+      <c r="F1" s="84" t="s">
         <v>74</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="83" t="s">
         <v>58</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="83" t="s">
         <v>56</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="83" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="41">
-        <v>42298</v>
-      </c>
-      <c r="B2" s="42" t="s">
+      <c r="J1" s="85" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="87">
+        <v>42299</v>
+      </c>
+      <c r="B2" s="88" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="42" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="43">
-        <v>2</v>
-      </c>
-      <c r="E2" s="39">
+      <c r="C2" s="88" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="89">
+        <v>4</v>
+      </c>
+      <c r="E2" s="90">
         <f>IF(ISERROR(MATCH(C2,SkillList,0)),0,MATCH(C2,SkillList,0))</f>
-        <v>8</v>
-      </c>
-      <c r="F2" s="39">
+        <v>9</v>
+      </c>
+      <c r="F2" s="90">
         <f>IF(ISERROR(MATCH(B2,MemberList,0)),0,MATCH(B2,MemberList,0))</f>
         <v>7</v>
       </c>
-      <c r="G2" s="34">
+      <c r="G2" s="91">
         <f>INDEX(CostPerHour,E2)</f>
-        <v>236.74</v>
-      </c>
-      <c r="H2" s="9">
+        <v>177.56</v>
+      </c>
+      <c r="H2" s="92">
         <f>IF(ISERROR(INDEX(Competency,F2,E2)), 0, INDEX(Competency,F2,E2))</f>
-        <v>0.25</v>
-      </c>
-      <c r="I2" s="34">
+        <v>0.5</v>
+      </c>
+      <c r="I2" s="91">
         <f>D2*G2*H2</f>
-        <v>118.37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="41">
-        <v>42299</v>
-      </c>
-      <c r="B3" s="42" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="42" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="43">
-        <v>2</v>
-      </c>
-      <c r="E3" s="39">
+        <v>355.12</v>
+      </c>
+      <c r="J2" s="93"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="87"/>
+      <c r="B3" s="88"/>
+      <c r="C3" s="88"/>
+      <c r="D3" s="89"/>
+      <c r="E3" s="90">
         <f>IF(ISERROR(MATCH(C3,SkillList,0)),0,MATCH(C3,SkillList,0))</f>
-        <v>8</v>
-      </c>
-      <c r="F3" s="39">
+        <v>0</v>
+      </c>
+      <c r="F3" s="90">
         <f>IF(ISERROR(MATCH(B3,MemberList,0)),0,MATCH(B3,MemberList,0))</f>
-        <v>7</v>
-      </c>
-      <c r="G3" s="34">
+        <v>0</v>
+      </c>
+      <c r="G3" s="91">
         <f>INDEX(CostPerHour,E3)</f>
-        <v>236.74</v>
-      </c>
-      <c r="H3" s="9">
+        <v>946.97</v>
+      </c>
+      <c r="H3" s="92">
         <f>IF(ISERROR(INDEX(Competency,F3,E3)), 0, INDEX(Competency,F3,E3))</f>
-        <v>0.25</v>
-      </c>
-      <c r="I3" s="34">
+        <v>0</v>
+      </c>
+      <c r="I3" s="91">
         <f t="shared" ref="I3:I6" si="0">D3*G3*H3</f>
-        <v>118.37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="41"/>
-      <c r="B4" s="42"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="39">
+        <v>0</v>
+      </c>
+      <c r="J3" s="93"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="87"/>
+      <c r="B4" s="88"/>
+      <c r="C4" s="88"/>
+      <c r="D4" s="89"/>
+      <c r="E4" s="90">
         <f>IF(ISERROR(MATCH(C4,SkillList,0)),0,MATCH(C4,SkillList,0))</f>
         <v>0</v>
       </c>
-      <c r="F4" s="39">
+      <c r="F4" s="90">
         <f>IF(ISERROR(MATCH(B4,MemberList,0)),0,MATCH(B4,MemberList,0))</f>
         <v>0</v>
       </c>
-      <c r="G4" s="34">
+      <c r="G4" s="91">
         <f>INDEX(CostPerHour,E4)</f>
         <v>946.97</v>
       </c>
-      <c r="H4" s="9">
+      <c r="H4" s="92">
         <f>IF(ISERROR(INDEX(Competency,F4,E4)), 0, INDEX(Competency,F4,E4))</f>
         <v>1</v>
       </c>
-      <c r="I4" s="34">
+      <c r="I4" s="91">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="41"/>
-      <c r="B5" s="42"/>
-      <c r="C5" s="42"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="39">
+      <c r="J4" s="93"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="87"/>
+      <c r="B5" s="88"/>
+      <c r="C5" s="88"/>
+      <c r="D5" s="89"/>
+      <c r="E5" s="90">
         <f>IF(ISERROR(MATCH(C5,SkillList,0)),0,MATCH(C5,SkillList,0))</f>
         <v>0</v>
       </c>
-      <c r="F5" s="39">
+      <c r="F5" s="90">
         <f>IF(ISERROR(MATCH(B5,MemberList,0)),0,MATCH(B5,MemberList,0))</f>
         <v>0</v>
       </c>
-      <c r="G5" s="34">
+      <c r="G5" s="91">
         <f>INDEX(CostPerHour,E5)</f>
         <v>355.11</v>
       </c>
-      <c r="H5" s="9">
+      <c r="H5" s="92">
         <f>IF(ISERROR(INDEX(Competency,F5,E5)), 0, INDEX(Competency,F5,E5))</f>
         <v>0</v>
       </c>
-      <c r="I5" s="34">
+      <c r="I5" s="91">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="41"/>
-      <c r="B6" s="42"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="39">
+      <c r="J5" s="93"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="87"/>
+      <c r="B6" s="88"/>
+      <c r="C6" s="88"/>
+      <c r="D6" s="89"/>
+      <c r="E6" s="90">
         <f>IF(ISERROR(MATCH(C6,SkillList,0)),0,MATCH(C6,SkillList,0))</f>
         <v>0</v>
       </c>
-      <c r="F6" s="39">
+      <c r="F6" s="90">
         <f>IF(ISERROR(MATCH(B6,MemberList,0)),0,MATCH(B6,MemberList,0))</f>
         <v>0</v>
       </c>
-      <c r="G6" s="34">
+      <c r="G6" s="91">
         <f>INDEX(CostPerHour,E6)</f>
         <v>355.11</v>
       </c>
-      <c r="H6" s="9">
+      <c r="H6" s="92">
         <f>IF(ISERROR(INDEX(Competency,F6,E6)), 0, INDEX(Competency,F6,E6))</f>
         <v>0</v>
       </c>
-      <c r="I6" s="34">
+      <c r="I6" s="91">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="J6" s="93"/>
     </row>
   </sheetData>
   <dataValidations count="2">
@@ -2513,182 +2594,212 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.140625" style="38" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" style="35" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="35" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" style="30" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="8.5703125" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="9.7109375" style="35" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" style="94" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" style="86" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.140625" style="86" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.28515625" style="86" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" style="95" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="95" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" style="96" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="8.5703125" style="86" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="9.7109375" style="95" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="64" style="97" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="86"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="37" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="83" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="83" t="s">
         <v>50</v>
       </c>
-      <c r="E1" s="36" t="s">
+      <c r="E1" s="84" t="s">
         <v>57</v>
       </c>
-      <c r="F1" s="36" t="s">
+      <c r="F1" s="84" t="s">
         <v>74</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="83" t="s">
         <v>58</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="83" t="s">
         <v>56</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="83" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="41"/>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="39">
+      <c r="J1" s="85" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="87"/>
+      <c r="B2" s="88" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="88" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="89"/>
+      <c r="E2" s="90">
         <f>IF(ISERROR(MATCH(C2,SkillList,0)),0,MATCH(C2,SkillList,0))</f>
-        <v>0</v>
-      </c>
-      <c r="F2" s="39">
+        <v>8</v>
+      </c>
+      <c r="F2" s="90">
         <f>IF(ISERROR(MATCH(B2,MemberList,0)),0,MATCH(B2,MemberList,0))</f>
-        <v>0</v>
-      </c>
-      <c r="G2" s="34">
+        <v>3</v>
+      </c>
+      <c r="G2" s="91">
         <f>INDEX(CostPerHour,E2)</f>
-        <v>1183.71</v>
-      </c>
-      <c r="H2" s="9">
+        <v>236.74</v>
+      </c>
+      <c r="H2" s="92">
         <f>IF(ISERROR(INDEX(Competency,F2,E2)), 0, INDEX(Competency,F2,E2))</f>
         <v>0</v>
       </c>
-      <c r="I2" s="34">
+      <c r="I2" s="91">
         <f>D2*G2*H2</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="41"/>
-      <c r="B3" s="42"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="39">
+      <c r="J2" s="93"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="87"/>
+      <c r="B3" s="88" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="88" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="89"/>
+      <c r="E3" s="90">
         <f>IF(ISERROR(MATCH(C3,SkillList,0)),0,MATCH(C3,SkillList,0))</f>
-        <v>0</v>
-      </c>
-      <c r="F3" s="39">
+        <v>8</v>
+      </c>
+      <c r="F3" s="90">
         <f>IF(ISERROR(MATCH(B3,MemberList,0)),0,MATCH(B3,MemberList,0))</f>
-        <v>0</v>
-      </c>
-      <c r="G3" s="34">
+        <v>3</v>
+      </c>
+      <c r="G3" s="91">
         <f>INDEX(CostPerHour,E3)</f>
-        <v>946.97</v>
-      </c>
-      <c r="H3" s="9">
+        <v>236.74</v>
+      </c>
+      <c r="H3" s="92">
         <f>IF(ISERROR(INDEX(Competency,F3,E3)), 0, INDEX(Competency,F3,E3))</f>
         <v>0</v>
       </c>
-      <c r="I3" s="34">
+      <c r="I3" s="91">
         <f t="shared" ref="I3:I6" si="0">D3*G3*H3</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="41"/>
-      <c r="B4" s="42"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="39">
+      <c r="J3" s="93"/>
+    </row>
+    <row r="4" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="87" t="s">
+        <v>77</v>
+      </c>
+      <c r="B4" s="88" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="88" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="89">
+        <v>4</v>
+      </c>
+      <c r="E4" s="90">
         <f>IF(ISERROR(MATCH(C4,SkillList,0)),0,MATCH(C4,SkillList,0))</f>
-        <v>0</v>
-      </c>
-      <c r="F4" s="39">
+        <v>10</v>
+      </c>
+      <c r="F4" s="90">
         <f>IF(ISERROR(MATCH(B4,MemberList,0)),0,MATCH(B4,MemberList,0))</f>
-        <v>0</v>
-      </c>
-      <c r="G4" s="34">
+        <v>1</v>
+      </c>
+      <c r="G4" s="91">
         <f>INDEX(CostPerHour,E4)</f>
-        <v>946.97</v>
-      </c>
-      <c r="H4" s="9">
+        <v>591.86</v>
+      </c>
+      <c r="H4" s="92">
         <f>IF(ISERROR(INDEX(Competency,F4,E4)), 0, INDEX(Competency,F4,E4))</f>
         <v>1</v>
       </c>
-      <c r="I4" s="34">
+      <c r="I4" s="91">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="41"/>
-      <c r="B5" s="42"/>
-      <c r="C5" s="42"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="39">
+        <v>2367.44</v>
+      </c>
+      <c r="J4" s="93" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="87"/>
+      <c r="B5" s="88"/>
+      <c r="C5" s="88"/>
+      <c r="D5" s="89"/>
+      <c r="E5" s="90">
         <f>IF(ISERROR(MATCH(C5,SkillList,0)),0,MATCH(C5,SkillList,0))</f>
         <v>0</v>
       </c>
-      <c r="F5" s="39">
+      <c r="F5" s="90">
         <f>IF(ISERROR(MATCH(B5,MemberList,0)),0,MATCH(B5,MemberList,0))</f>
         <v>0</v>
       </c>
-      <c r="G5" s="34">
+      <c r="G5" s="91">
         <f>INDEX(CostPerHour,E5)</f>
         <v>355.11</v>
       </c>
-      <c r="H5" s="9">
+      <c r="H5" s="92">
         <f>IF(ISERROR(INDEX(Competency,F5,E5)), 0, INDEX(Competency,F5,E5))</f>
         <v>0</v>
       </c>
-      <c r="I5" s="34">
+      <c r="I5" s="91">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="41"/>
-      <c r="B6" s="42"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="39">
+      <c r="J5" s="93"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="87"/>
+      <c r="B6" s="88"/>
+      <c r="C6" s="88"/>
+      <c r="D6" s="89"/>
+      <c r="E6" s="90">
         <f>IF(ISERROR(MATCH(C6,SkillList,0)),0,MATCH(C6,SkillList,0))</f>
         <v>0</v>
       </c>
-      <c r="F6" s="39">
+      <c r="F6" s="90">
         <f>IF(ISERROR(MATCH(B6,MemberList,0)),0,MATCH(B6,MemberList,0))</f>
         <v>0</v>
       </c>
-      <c r="G6" s="34">
+      <c r="G6" s="91">
         <f>INDEX(CostPerHour,E6)</f>
         <v>355.11</v>
       </c>
-      <c r="H6" s="9">
+      <c r="H6" s="92">
         <f>IF(ISERROR(INDEX(Competency,F6,E6)), 0, INDEX(Competency,F6,E6))</f>
         <v>0</v>
       </c>
-      <c r="I6" s="34">
+      <c r="I6" s="91">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="J6" s="93"/>
     </row>
   </sheetData>
   <dataValidations count="2">
@@ -2704,182 +2815,214 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.140625" style="38" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" style="35" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="35" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" style="30" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="8.5703125" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="9.7109375" style="35" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" style="94" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" style="86" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.140625" style="86" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.28515625" style="86" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" style="95" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="95" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" style="96" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="8.5703125" style="86" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="9.7109375" style="95" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="64" style="97" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="86"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="37" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="83" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="83" t="s">
         <v>50</v>
       </c>
-      <c r="E1" s="36" t="s">
+      <c r="E1" s="84" t="s">
         <v>57</v>
       </c>
-      <c r="F1" s="36" t="s">
+      <c r="F1" s="84" t="s">
         <v>74</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="83" t="s">
         <v>58</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="83" t="s">
         <v>56</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="83" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="41"/>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="39">
+      <c r="J1" s="85" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="87" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" s="88" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="88" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="89">
+        <v>1</v>
+      </c>
+      <c r="E2" s="90">
         <f>IF(ISERROR(MATCH(C2,SkillList,0)),0,MATCH(C2,SkillList,0))</f>
-        <v>0</v>
-      </c>
-      <c r="F2" s="39">
+        <v>7</v>
+      </c>
+      <c r="F2" s="90">
         <f>IF(ISERROR(MATCH(B2,MemberList,0)),0,MATCH(B2,MemberList,0))</f>
-        <v>0</v>
-      </c>
-      <c r="G2" s="34">
+        <v>2</v>
+      </c>
+      <c r="G2" s="91">
         <f>INDEX(CostPerHour,E2)</f>
-        <v>1183.71</v>
-      </c>
-      <c r="H2" s="9">
+        <v>591.86</v>
+      </c>
+      <c r="H2" s="92">
         <f>IF(ISERROR(INDEX(Competency,F2,E2)), 0, INDEX(Competency,F2,E2))</f>
         <v>0</v>
       </c>
-      <c r="I2" s="34">
+      <c r="I2" s="91">
         <f>D2*G2*H2</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="41"/>
-      <c r="B3" s="42"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="39">
+      <c r="J2" s="93" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="87" t="s">
+        <v>77</v>
+      </c>
+      <c r="B3" s="88" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="88" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="89">
+        <v>1</v>
+      </c>
+      <c r="E3" s="90">
         <f>IF(ISERROR(MATCH(C3,SkillList,0)),0,MATCH(C3,SkillList,0))</f>
-        <v>0</v>
-      </c>
-      <c r="F3" s="39">
+        <v>7</v>
+      </c>
+      <c r="F3" s="90">
         <f>IF(ISERROR(MATCH(B3,MemberList,0)),0,MATCH(B3,MemberList,0))</f>
-        <v>0</v>
-      </c>
-      <c r="G3" s="34">
+        <v>1</v>
+      </c>
+      <c r="G3" s="91">
         <f>INDEX(CostPerHour,E3)</f>
-        <v>946.97</v>
-      </c>
-      <c r="H3" s="9">
+        <v>591.86</v>
+      </c>
+      <c r="H3" s="92">
         <f>IF(ISERROR(INDEX(Competency,F3,E3)), 0, INDEX(Competency,F3,E3))</f>
-        <v>0</v>
-      </c>
-      <c r="I3" s="34">
+        <v>1</v>
+      </c>
+      <c r="I3" s="91">
         <f t="shared" ref="I3:I6" si="0">D3*G3*H3</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="41"/>
-      <c r="B4" s="42"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="39">
+        <v>591.86</v>
+      </c>
+      <c r="J3" s="93" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="87"/>
+      <c r="B4" s="88"/>
+      <c r="C4" s="88"/>
+      <c r="D4" s="89"/>
+      <c r="E4" s="90">
         <f>IF(ISERROR(MATCH(C4,SkillList,0)),0,MATCH(C4,SkillList,0))</f>
         <v>0</v>
       </c>
-      <c r="F4" s="39">
+      <c r="F4" s="90">
         <f>IF(ISERROR(MATCH(B4,MemberList,0)),0,MATCH(B4,MemberList,0))</f>
         <v>0</v>
       </c>
-      <c r="G4" s="34">
+      <c r="G4" s="91">
         <f>INDEX(CostPerHour,E4)</f>
         <v>946.97</v>
       </c>
-      <c r="H4" s="9">
+      <c r="H4" s="92">
         <f>IF(ISERROR(INDEX(Competency,F4,E4)), 0, INDEX(Competency,F4,E4))</f>
         <v>1</v>
       </c>
-      <c r="I4" s="34">
+      <c r="I4" s="91">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="41"/>
-      <c r="B5" s="42"/>
-      <c r="C5" s="42"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="39">
+      <c r="J4" s="93"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="87"/>
+      <c r="B5" s="88"/>
+      <c r="C5" s="88"/>
+      <c r="D5" s="89"/>
+      <c r="E5" s="90">
         <f>IF(ISERROR(MATCH(C5,SkillList,0)),0,MATCH(C5,SkillList,0))</f>
         <v>0</v>
       </c>
-      <c r="F5" s="39">
+      <c r="F5" s="90">
         <f>IF(ISERROR(MATCH(B5,MemberList,0)),0,MATCH(B5,MemberList,0))</f>
         <v>0</v>
       </c>
-      <c r="G5" s="34">
+      <c r="G5" s="91">
         <f>INDEX(CostPerHour,E5)</f>
         <v>355.11</v>
       </c>
-      <c r="H5" s="9">
+      <c r="H5" s="92">
         <f>IF(ISERROR(INDEX(Competency,F5,E5)), 0, INDEX(Competency,F5,E5))</f>
         <v>0</v>
       </c>
-      <c r="I5" s="34">
+      <c r="I5" s="91">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="41"/>
-      <c r="B6" s="42"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="39">
+      <c r="J5" s="93"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="87"/>
+      <c r="B6" s="88"/>
+      <c r="C6" s="88"/>
+      <c r="D6" s="89"/>
+      <c r="E6" s="90">
         <f>IF(ISERROR(MATCH(C6,SkillList,0)),0,MATCH(C6,SkillList,0))</f>
         <v>0</v>
       </c>
-      <c r="F6" s="39">
+      <c r="F6" s="90">
         <f>IF(ISERROR(MATCH(B6,MemberList,0)),0,MATCH(B6,MemberList,0))</f>
         <v>0</v>
       </c>
-      <c r="G6" s="34">
+      <c r="G6" s="91">
         <f>INDEX(CostPerHour,E6)</f>
         <v>355.11</v>
       </c>
-      <c r="H6" s="9">
+      <c r="H6" s="92">
         <f>IF(ISERROR(INDEX(Competency,F6,E6)), 0, INDEX(Competency,F6,E6))</f>
         <v>0</v>
       </c>
-      <c r="I6" s="34">
+      <c r="I6" s="91">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="J6" s="93"/>
     </row>
   </sheetData>
   <dataValidations count="2">
@@ -2895,182 +3038,194 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.140625" style="38" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" style="35" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="35" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" style="30" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="8.5703125" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="9.7109375" style="35" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" style="94" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" style="86" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.140625" style="86" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.28515625" style="86" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" style="95" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="95" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" style="96" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="8.5703125" style="86" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="9.7109375" style="95" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="64" style="97" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="86"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="37" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="83" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="83" t="s">
         <v>50</v>
       </c>
-      <c r="E1" s="36" t="s">
+      <c r="E1" s="84" t="s">
         <v>57</v>
       </c>
-      <c r="F1" s="36" t="s">
+      <c r="F1" s="84" t="s">
         <v>74</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="83" t="s">
         <v>58</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="83" t="s">
         <v>56</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="83" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="41"/>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="39">
+      <c r="J1" s="85" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="87"/>
+      <c r="B2" s="88"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="90">
         <f>IF(ISERROR(MATCH(C2,SkillList,0)),0,MATCH(C2,SkillList,0))</f>
         <v>0</v>
       </c>
-      <c r="F2" s="39">
+      <c r="F2" s="90">
         <f>IF(ISERROR(MATCH(B2,MemberList,0)),0,MATCH(B2,MemberList,0))</f>
         <v>0</v>
       </c>
-      <c r="G2" s="34">
+      <c r="G2" s="91">
         <f>INDEX(CostPerHour,E2)</f>
         <v>1183.71</v>
       </c>
-      <c r="H2" s="9">
+      <c r="H2" s="92">
         <f>IF(ISERROR(INDEX(Competency,F2,E2)), 0, INDEX(Competency,F2,E2))</f>
         <v>0</v>
       </c>
-      <c r="I2" s="34">
+      <c r="I2" s="91">
         <f>D2*G2*H2</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="41"/>
-      <c r="B3" s="42"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="39">
+      <c r="J2" s="93"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="87"/>
+      <c r="B3" s="88"/>
+      <c r="C3" s="88"/>
+      <c r="D3" s="89"/>
+      <c r="E3" s="90">
         <f>IF(ISERROR(MATCH(C3,SkillList,0)),0,MATCH(C3,SkillList,0))</f>
         <v>0</v>
       </c>
-      <c r="F3" s="39">
+      <c r="F3" s="90">
         <f>IF(ISERROR(MATCH(B3,MemberList,0)),0,MATCH(B3,MemberList,0))</f>
         <v>0</v>
       </c>
-      <c r="G3" s="34">
+      <c r="G3" s="91">
         <f>INDEX(CostPerHour,E3)</f>
         <v>946.97</v>
       </c>
-      <c r="H3" s="9">
+      <c r="H3" s="92">
         <f>IF(ISERROR(INDEX(Competency,F3,E3)), 0, INDEX(Competency,F3,E3))</f>
         <v>0</v>
       </c>
-      <c r="I3" s="34">
+      <c r="I3" s="91">
         <f t="shared" ref="I3:I6" si="0">D3*G3*H3</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="41"/>
-      <c r="B4" s="42"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="39">
+      <c r="J3" s="93"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="87"/>
+      <c r="B4" s="88"/>
+      <c r="C4" s="88"/>
+      <c r="D4" s="89"/>
+      <c r="E4" s="90">
         <f>IF(ISERROR(MATCH(C4,SkillList,0)),0,MATCH(C4,SkillList,0))</f>
         <v>0</v>
       </c>
-      <c r="F4" s="39">
+      <c r="F4" s="90">
         <f>IF(ISERROR(MATCH(B4,MemberList,0)),0,MATCH(B4,MemberList,0))</f>
         <v>0</v>
       </c>
-      <c r="G4" s="34">
+      <c r="G4" s="91">
         <f>INDEX(CostPerHour,E4)</f>
         <v>946.97</v>
       </c>
-      <c r="H4" s="9">
+      <c r="H4" s="92">
         <f>IF(ISERROR(INDEX(Competency,F4,E4)), 0, INDEX(Competency,F4,E4))</f>
         <v>1</v>
       </c>
-      <c r="I4" s="34">
+      <c r="I4" s="91">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="41"/>
-      <c r="B5" s="42"/>
-      <c r="C5" s="42"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="39">
+      <c r="J4" s="93"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="87"/>
+      <c r="B5" s="88"/>
+      <c r="C5" s="88"/>
+      <c r="D5" s="89"/>
+      <c r="E5" s="90">
         <f>IF(ISERROR(MATCH(C5,SkillList,0)),0,MATCH(C5,SkillList,0))</f>
         <v>0</v>
       </c>
-      <c r="F5" s="39">
+      <c r="F5" s="90">
         <f>IF(ISERROR(MATCH(B5,MemberList,0)),0,MATCH(B5,MemberList,0))</f>
         <v>0</v>
       </c>
-      <c r="G5" s="34">
+      <c r="G5" s="91">
         <f>INDEX(CostPerHour,E5)</f>
         <v>355.11</v>
       </c>
-      <c r="H5" s="9">
+      <c r="H5" s="92">
         <f>IF(ISERROR(INDEX(Competency,F5,E5)), 0, INDEX(Competency,F5,E5))</f>
         <v>0</v>
       </c>
-      <c r="I5" s="34">
+      <c r="I5" s="91">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="41"/>
-      <c r="B6" s="42"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="39">
+      <c r="J5" s="93"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="87"/>
+      <c r="B6" s="88"/>
+      <c r="C6" s="88"/>
+      <c r="D6" s="89"/>
+      <c r="E6" s="90">
         <f>IF(ISERROR(MATCH(C6,SkillList,0)),0,MATCH(C6,SkillList,0))</f>
         <v>0</v>
       </c>
-      <c r="F6" s="39">
+      <c r="F6" s="90">
         <f>IF(ISERROR(MATCH(B6,MemberList,0)),0,MATCH(B6,MemberList,0))</f>
         <v>0</v>
       </c>
-      <c r="G6" s="34">
+      <c r="G6" s="91">
         <f>INDEX(CostPerHour,E6)</f>
         <v>355.11</v>
       </c>
-      <c r="H6" s="9">
+      <c r="H6" s="92">
         <f>IF(ISERROR(INDEX(Competency,F6,E6)), 0, INDEX(Competency,F6,E6))</f>
         <v>0</v>
       </c>
-      <c r="I6" s="34">
+      <c r="I6" s="91">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="J6" s="93"/>
     </row>
   </sheetData>
   <dataValidations count="2">
@@ -3086,14 +3241,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.42578125" bestFit="1" customWidth="1"/>
@@ -3106,100 +3261,102 @@
     <col min="30" max="35" width="4.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="15" customHeight="1" thickBot="1">
-      <c r="A1" s="78"/>
-      <c r="B1" s="78"/>
-      <c r="C1" s="75" t="s">
+    <row r="1" spans="1:35" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="71" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" s="71"/>
+      <c r="C1" s="68" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
-      <c r="L1" s="76"/>
-      <c r="M1" s="76"/>
-      <c r="N1" s="76"/>
-      <c r="O1" s="76"/>
-      <c r="P1" s="76"/>
-      <c r="Q1" s="76"/>
-      <c r="R1" s="76"/>
-      <c r="S1" s="76"/>
-      <c r="T1" s="76"/>
-      <c r="U1" s="76"/>
-      <c r="V1" s="76"/>
-      <c r="W1" s="76"/>
-      <c r="X1" s="76"/>
-      <c r="Y1" s="76"/>
-      <c r="Z1" s="76"/>
-      <c r="AA1" s="76"/>
-      <c r="AB1" s="76"/>
-      <c r="AC1" s="76"/>
-      <c r="AD1" s="76"/>
-      <c r="AE1" s="76"/>
-      <c r="AF1" s="76"/>
-      <c r="AG1" s="76"/>
-      <c r="AH1" s="76"/>
-      <c r="AI1" s="77"/>
-    </row>
-    <row r="2" spans="1:35" s="27" customFormat="1" ht="15" customHeight="1">
-      <c r="A2" s="79"/>
-      <c r="B2" s="79"/>
-      <c r="C2" s="80" t="s">
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="69"/>
+      <c r="L1" s="69"/>
+      <c r="M1" s="69"/>
+      <c r="N1" s="69"/>
+      <c r="O1" s="69"/>
+      <c r="P1" s="69"/>
+      <c r="Q1" s="69"/>
+      <c r="R1" s="69"/>
+      <c r="S1" s="69"/>
+      <c r="T1" s="69"/>
+      <c r="U1" s="69"/>
+      <c r="V1" s="69"/>
+      <c r="W1" s="69"/>
+      <c r="X1" s="69"/>
+      <c r="Y1" s="69"/>
+      <c r="Z1" s="69"/>
+      <c r="AA1" s="69"/>
+      <c r="AB1" s="69"/>
+      <c r="AC1" s="69"/>
+      <c r="AD1" s="69"/>
+      <c r="AE1" s="69"/>
+      <c r="AF1" s="69"/>
+      <c r="AG1" s="69"/>
+      <c r="AH1" s="69"/>
+      <c r="AI1" s="70"/>
+    </row>
+    <row r="2" spans="1:35" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="72"/>
+      <c r="B2" s="72"/>
+      <c r="C2" s="73" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
-      <c r="G2" s="81"/>
-      <c r="H2" s="82"/>
-      <c r="I2" s="80" t="s">
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="75"/>
+      <c r="I2" s="73" t="s">
         <v>29</v>
       </c>
-      <c r="J2" s="81"/>
-      <c r="K2" s="81"/>
-      <c r="L2" s="81"/>
-      <c r="M2" s="81"/>
-      <c r="N2" s="81"/>
-      <c r="O2" s="81"/>
-      <c r="P2" s="81"/>
-      <c r="Q2" s="82"/>
-      <c r="R2" s="81" t="s">
+      <c r="J2" s="74"/>
+      <c r="K2" s="74"/>
+      <c r="L2" s="74"/>
+      <c r="M2" s="74"/>
+      <c r="N2" s="74"/>
+      <c r="O2" s="74"/>
+      <c r="P2" s="74"/>
+      <c r="Q2" s="75"/>
+      <c r="R2" s="74" t="s">
         <v>23</v>
       </c>
-      <c r="S2" s="81"/>
-      <c r="T2" s="81"/>
-      <c r="U2" s="81"/>
-      <c r="V2" s="81"/>
-      <c r="W2" s="81"/>
-      <c r="X2" s="81"/>
-      <c r="Y2" s="81"/>
-      <c r="Z2" s="81"/>
-      <c r="AA2" s="82"/>
-      <c r="AB2" s="83" t="s">
+      <c r="S2" s="74"/>
+      <c r="T2" s="74"/>
+      <c r="U2" s="74"/>
+      <c r="V2" s="74"/>
+      <c r="W2" s="74"/>
+      <c r="X2" s="74"/>
+      <c r="Y2" s="74"/>
+      <c r="Z2" s="74"/>
+      <c r="AA2" s="75"/>
+      <c r="AB2" s="76" t="s">
         <v>26</v>
       </c>
-      <c r="AC2" s="84"/>
-      <c r="AD2" s="84"/>
-      <c r="AE2" s="85"/>
-      <c r="AF2" s="72" t="s">
+      <c r="AC2" s="77"/>
+      <c r="AD2" s="77"/>
+      <c r="AE2" s="78"/>
+      <c r="AF2" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="AG2" s="73"/>
-      <c r="AH2" s="73"/>
-      <c r="AI2" s="74"/>
-    </row>
-    <row r="3" spans="1:35" ht="180">
+      <c r="AG2" s="66"/>
+      <c r="AH2" s="66"/>
+      <c r="AI2" s="67"/>
+    </row>
+    <row r="3" spans="1:35" ht="180" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="49" t="s">
+      <c r="C3" s="42" t="s">
         <v>43</v>
       </c>
       <c r="D3" s="25" t="s">
@@ -3214,10 +3371,10 @@
       <c r="G3" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="H3" s="50" t="s">
+      <c r="H3" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="I3" s="49" t="s">
+      <c r="I3" s="42" t="s">
         <v>15</v>
       </c>
       <c r="J3" s="25" t="s">
@@ -3235,16 +3392,16 @@
       <c r="N3" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="O3" s="58" t="s">
+      <c r="O3" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="P3" s="58" t="s">
+      <c r="P3" s="51" t="s">
         <v>73</v>
       </c>
-      <c r="Q3" s="50" t="s">
+      <c r="Q3" s="43" t="s">
         <v>72</v>
       </c>
-      <c r="R3" s="46" t="s">
+      <c r="R3" s="39" t="s">
         <v>24</v>
       </c>
       <c r="S3" s="25" t="s">
@@ -3271,10 +3428,10 @@
       <c r="Z3" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="AA3" s="50" t="s">
+      <c r="AA3" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="AB3" s="49" t="s">
+      <c r="AB3" s="42" t="s">
         <v>21</v>
       </c>
       <c r="AC3" s="25" t="s">
@@ -3283,10 +3440,10 @@
       <c r="AD3" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="AE3" s="50" t="s">
+      <c r="AE3" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="AF3" s="49" t="s">
+      <c r="AF3" s="42" t="s">
         <v>30</v>
       </c>
       <c r="AG3" s="25" t="s">
@@ -3295,434 +3452,434 @@
       <c r="AH3" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="AI3" s="50" t="s">
+      <c r="AI3" s="43" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:35">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" s="24">
         <v>1</v>
       </c>
-      <c r="B4" s="45" t="s">
+      <c r="B4" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="51">
+      <c r="C4" s="44">
         <v>1</v>
       </c>
-      <c r="D4" s="43">
+      <c r="D4" s="36">
         <v>1</v>
       </c>
-      <c r="E4" s="43">
+      <c r="E4" s="36">
         <v>1</v>
       </c>
-      <c r="F4" s="43">
+      <c r="F4" s="36">
         <v>1</v>
       </c>
-      <c r="G4" s="43">
+      <c r="G4" s="36">
         <v>1</v>
       </c>
-      <c r="H4" s="52">
+      <c r="H4" s="45">
         <v>1</v>
       </c>
-      <c r="I4" s="51">
+      <c r="I4" s="44">
         <v>1</v>
       </c>
-      <c r="J4" s="43">
+      <c r="J4" s="36">
         <v>0.5</v>
       </c>
-      <c r="K4" s="43">
+      <c r="K4" s="36">
         <v>1</v>
       </c>
-      <c r="L4" s="43">
+      <c r="L4" s="36">
         <v>1</v>
       </c>
-      <c r="M4" s="43">
+      <c r="M4" s="36">
         <v>1</v>
       </c>
-      <c r="N4" s="43">
+      <c r="N4" s="36">
         <v>1</v>
       </c>
-      <c r="O4" s="59">
+      <c r="O4" s="52">
         <v>0.8</v>
       </c>
-      <c r="P4" s="52">
+      <c r="P4" s="45">
         <v>1</v>
       </c>
-      <c r="Q4" s="52">
+      <c r="Q4" s="45">
         <v>0.8</v>
       </c>
-      <c r="R4" s="47">
-        <v>0</v>
-      </c>
-      <c r="S4" s="43">
-        <v>0</v>
-      </c>
-      <c r="T4" s="43">
+      <c r="R4" s="40">
+        <v>0</v>
+      </c>
+      <c r="S4" s="36">
+        <v>0</v>
+      </c>
+      <c r="T4" s="36">
         <v>1</v>
       </c>
-      <c r="U4" s="43">
+      <c r="U4" s="36">
         <v>1</v>
       </c>
-      <c r="V4" s="43">
-        <v>0</v>
-      </c>
-      <c r="W4" s="43">
-        <v>0</v>
-      </c>
-      <c r="X4" s="43">
-        <v>0</v>
-      </c>
-      <c r="Y4" s="43">
-        <v>0</v>
-      </c>
-      <c r="Z4" s="43">
-        <v>0</v>
-      </c>
-      <c r="AA4" s="52">
+      <c r="V4" s="36">
+        <v>0</v>
+      </c>
+      <c r="W4" s="36">
+        <v>0</v>
+      </c>
+      <c r="X4" s="36">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="36">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="36">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="45">
         <v>1</v>
       </c>
-      <c r="AB4" s="51">
+      <c r="AB4" s="44">
         <v>1</v>
       </c>
-      <c r="AC4" s="47">
-        <v>0</v>
-      </c>
-      <c r="AD4" s="43">
-        <v>0</v>
-      </c>
-      <c r="AE4" s="52">
+      <c r="AC4" s="40">
+        <v>0</v>
+      </c>
+      <c r="AD4" s="36">
+        <v>0</v>
+      </c>
+      <c r="AE4" s="45">
         <v>1</v>
       </c>
-      <c r="AF4" s="51">
-        <v>0</v>
-      </c>
-      <c r="AG4" s="43">
-        <v>0</v>
-      </c>
-      <c r="AH4" s="43">
-        <v>0</v>
-      </c>
-      <c r="AI4" s="52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:35">
+      <c r="AF4" s="44">
+        <v>0</v>
+      </c>
+      <c r="AG4" s="36">
+        <v>0</v>
+      </c>
+      <c r="AH4" s="36">
+        <v>0</v>
+      </c>
+      <c r="AI4" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" s="24">
         <v>2</v>
       </c>
-      <c r="B5" s="45" t="s">
+      <c r="B5" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="53">
-        <v>0</v>
-      </c>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="54"/>
-      <c r="I5" s="53"/>
-      <c r="J5" s="44"/>
-      <c r="K5" s="44"/>
-      <c r="L5" s="44"/>
-      <c r="M5" s="44">
+      <c r="C5" s="46">
+        <v>0</v>
+      </c>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="46"/>
+      <c r="J5" s="37"/>
+      <c r="K5" s="37"/>
+      <c r="L5" s="37"/>
+      <c r="M5" s="37">
         <v>1</v>
       </c>
-      <c r="N5" s="44">
+      <c r="N5" s="37">
         <v>1</v>
       </c>
-      <c r="O5" s="60">
+      <c r="O5" s="53">
         <v>1</v>
       </c>
-      <c r="P5" s="60"/>
-      <c r="Q5" s="54"/>
-      <c r="R5" s="48"/>
-      <c r="S5" s="44"/>
-      <c r="T5" s="43"/>
-      <c r="U5" s="43"/>
-      <c r="V5" s="43"/>
-      <c r="W5" s="43"/>
-      <c r="X5" s="43"/>
-      <c r="Y5" s="43"/>
-      <c r="Z5" s="43"/>
-      <c r="AA5" s="52"/>
-      <c r="AB5" s="51"/>
-      <c r="AC5" s="47"/>
-      <c r="AD5" s="43"/>
-      <c r="AE5" s="52"/>
-      <c r="AF5" s="51"/>
-      <c r="AG5" s="43"/>
-      <c r="AH5" s="43"/>
-      <c r="AI5" s="52"/>
-    </row>
-    <row r="6" spans="1:35">
+      <c r="P5" s="53"/>
+      <c r="Q5" s="47"/>
+      <c r="R5" s="41"/>
+      <c r="S5" s="37"/>
+      <c r="T5" s="36"/>
+      <c r="U5" s="36"/>
+      <c r="V5" s="36"/>
+      <c r="W5" s="36"/>
+      <c r="X5" s="36"/>
+      <c r="Y5" s="36"/>
+      <c r="Z5" s="36"/>
+      <c r="AA5" s="45"/>
+      <c r="AB5" s="44"/>
+      <c r="AC5" s="40"/>
+      <c r="AD5" s="36"/>
+      <c r="AE5" s="45"/>
+      <c r="AF5" s="44"/>
+      <c r="AG5" s="36"/>
+      <c r="AH5" s="36"/>
+      <c r="AI5" s="45"/>
+    </row>
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" s="24">
         <v>3</v>
       </c>
-      <c r="B6" s="45" t="s">
+      <c r="B6" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="53"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="44"/>
-      <c r="G6" s="44"/>
-      <c r="H6" s="54"/>
-      <c r="I6" s="53"/>
-      <c r="J6" s="44"/>
-      <c r="K6" s="44"/>
-      <c r="L6" s="44"/>
-      <c r="M6" s="44"/>
-      <c r="N6" s="44"/>
-      <c r="O6" s="60"/>
-      <c r="P6" s="60"/>
-      <c r="Q6" s="54"/>
-      <c r="R6" s="48"/>
-      <c r="S6" s="44"/>
-      <c r="T6" s="43"/>
-      <c r="U6" s="43"/>
-      <c r="V6" s="43"/>
-      <c r="W6" s="43"/>
-      <c r="X6" s="43"/>
-      <c r="Y6" s="43"/>
-      <c r="Z6" s="43"/>
-      <c r="AA6" s="52"/>
-      <c r="AB6" s="51"/>
-      <c r="AC6" s="47"/>
-      <c r="AD6" s="43"/>
-      <c r="AE6" s="52"/>
-      <c r="AF6" s="51"/>
-      <c r="AG6" s="43"/>
-      <c r="AH6" s="43"/>
-      <c r="AI6" s="52"/>
-    </row>
-    <row r="7" spans="1:35">
+      <c r="C6" s="46"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="47"/>
+      <c r="I6" s="46"/>
+      <c r="J6" s="37"/>
+      <c r="K6" s="37"/>
+      <c r="L6" s="37"/>
+      <c r="M6" s="37"/>
+      <c r="N6" s="37"/>
+      <c r="O6" s="53"/>
+      <c r="P6" s="53"/>
+      <c r="Q6" s="47"/>
+      <c r="R6" s="41"/>
+      <c r="S6" s="37"/>
+      <c r="T6" s="36"/>
+      <c r="U6" s="36"/>
+      <c r="V6" s="36"/>
+      <c r="W6" s="36"/>
+      <c r="X6" s="36"/>
+      <c r="Y6" s="36"/>
+      <c r="Z6" s="36"/>
+      <c r="AA6" s="45"/>
+      <c r="AB6" s="44"/>
+      <c r="AC6" s="40"/>
+      <c r="AD6" s="36"/>
+      <c r="AE6" s="45"/>
+      <c r="AF6" s="44"/>
+      <c r="AG6" s="36"/>
+      <c r="AH6" s="36"/>
+      <c r="AI6" s="45"/>
+    </row>
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" s="24">
         <v>4</v>
       </c>
-      <c r="B7" s="45" t="s">
+      <c r="B7" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="53"/>
-      <c r="D7" s="44"/>
-      <c r="E7" s="44"/>
-      <c r="F7" s="44"/>
-      <c r="G7" s="44"/>
-      <c r="H7" s="54"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="44"/>
-      <c r="K7" s="44"/>
-      <c r="L7" s="44"/>
-      <c r="M7" s="44"/>
-      <c r="N7" s="44"/>
-      <c r="O7" s="60"/>
-      <c r="P7" s="60"/>
-      <c r="Q7" s="54"/>
-      <c r="R7" s="48"/>
-      <c r="S7" s="44"/>
-      <c r="T7" s="43"/>
-      <c r="U7" s="43"/>
-      <c r="V7" s="43"/>
-      <c r="W7" s="43"/>
-      <c r="X7" s="43"/>
-      <c r="Y7" s="43"/>
-      <c r="Z7" s="43"/>
-      <c r="AA7" s="52"/>
-      <c r="AB7" s="51"/>
-      <c r="AC7" s="47"/>
-      <c r="AD7" s="43"/>
-      <c r="AE7" s="52"/>
-      <c r="AF7" s="51"/>
-      <c r="AG7" s="43"/>
-      <c r="AH7" s="43"/>
-      <c r="AI7" s="52"/>
-    </row>
-    <row r="8" spans="1:35">
+      <c r="C7" s="46"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="47"/>
+      <c r="I7" s="46"/>
+      <c r="J7" s="37"/>
+      <c r="K7" s="37"/>
+      <c r="L7" s="37"/>
+      <c r="M7" s="37"/>
+      <c r="N7" s="37"/>
+      <c r="O7" s="53"/>
+      <c r="P7" s="53"/>
+      <c r="Q7" s="47"/>
+      <c r="R7" s="41"/>
+      <c r="S7" s="37"/>
+      <c r="T7" s="36"/>
+      <c r="U7" s="36"/>
+      <c r="V7" s="36"/>
+      <c r="W7" s="36"/>
+      <c r="X7" s="36"/>
+      <c r="Y7" s="36"/>
+      <c r="Z7" s="36"/>
+      <c r="AA7" s="45"/>
+      <c r="AB7" s="44"/>
+      <c r="AC7" s="40"/>
+      <c r="AD7" s="36"/>
+      <c r="AE7" s="45"/>
+      <c r="AF7" s="44"/>
+      <c r="AG7" s="36"/>
+      <c r="AH7" s="36"/>
+      <c r="AI7" s="45"/>
+    </row>
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" s="24">
         <v>5</v>
       </c>
-      <c r="B8" s="45" t="s">
+      <c r="B8" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="53"/>
-      <c r="D8" s="44"/>
-      <c r="E8" s="44"/>
-      <c r="F8" s="44"/>
-      <c r="G8" s="44"/>
-      <c r="H8" s="54"/>
-      <c r="I8" s="53"/>
-      <c r="J8" s="44"/>
-      <c r="K8" s="44"/>
-      <c r="L8" s="44"/>
-      <c r="M8" s="44"/>
-      <c r="N8" s="44"/>
-      <c r="O8" s="60"/>
-      <c r="P8" s="60"/>
-      <c r="Q8" s="54"/>
-      <c r="R8" s="48"/>
-      <c r="S8" s="44"/>
-      <c r="T8" s="43"/>
-      <c r="U8" s="43"/>
-      <c r="V8" s="43"/>
-      <c r="W8" s="43"/>
-      <c r="X8" s="43"/>
-      <c r="Y8" s="43"/>
-      <c r="Z8" s="43"/>
-      <c r="AA8" s="52"/>
-      <c r="AB8" s="51"/>
-      <c r="AC8" s="47"/>
-      <c r="AD8" s="43"/>
-      <c r="AE8" s="52"/>
-      <c r="AF8" s="51"/>
-      <c r="AG8" s="43"/>
-      <c r="AH8" s="43"/>
-      <c r="AI8" s="52"/>
-    </row>
-    <row r="9" spans="1:35">
+      <c r="C8" s="46"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="47"/>
+      <c r="I8" s="46"/>
+      <c r="J8" s="37"/>
+      <c r="K8" s="37"/>
+      <c r="L8" s="37"/>
+      <c r="M8" s="37"/>
+      <c r="N8" s="37"/>
+      <c r="O8" s="53"/>
+      <c r="P8" s="53"/>
+      <c r="Q8" s="47"/>
+      <c r="R8" s="41"/>
+      <c r="S8" s="37"/>
+      <c r="T8" s="36"/>
+      <c r="U8" s="36"/>
+      <c r="V8" s="36"/>
+      <c r="W8" s="36"/>
+      <c r="X8" s="36"/>
+      <c r="Y8" s="36"/>
+      <c r="Z8" s="36"/>
+      <c r="AA8" s="45"/>
+      <c r="AB8" s="44"/>
+      <c r="AC8" s="40"/>
+      <c r="AD8" s="36"/>
+      <c r="AE8" s="45"/>
+      <c r="AF8" s="44"/>
+      <c r="AG8" s="36"/>
+      <c r="AH8" s="36"/>
+      <c r="AI8" s="45"/>
+    </row>
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" s="24">
         <v>6</v>
       </c>
-      <c r="B9" s="45" t="s">
+      <c r="B9" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="53"/>
-      <c r="D9" s="44"/>
-      <c r="E9" s="44"/>
-      <c r="F9" s="44"/>
-      <c r="G9" s="44"/>
-      <c r="H9" s="54"/>
-      <c r="I9" s="53"/>
-      <c r="J9" s="44"/>
-      <c r="K9" s="44"/>
-      <c r="L9" s="44"/>
-      <c r="M9" s="44"/>
-      <c r="N9" s="44"/>
-      <c r="O9" s="60"/>
-      <c r="P9" s="60"/>
-      <c r="Q9" s="54"/>
-      <c r="R9" s="48"/>
-      <c r="S9" s="44"/>
-      <c r="T9" s="43"/>
-      <c r="U9" s="43"/>
-      <c r="V9" s="43"/>
-      <c r="W9" s="43"/>
-      <c r="X9" s="43"/>
-      <c r="Y9" s="43"/>
-      <c r="Z9" s="43"/>
-      <c r="AA9" s="52"/>
-      <c r="AB9" s="51"/>
-      <c r="AC9" s="47"/>
-      <c r="AD9" s="43"/>
-      <c r="AE9" s="52"/>
-      <c r="AF9" s="51"/>
-      <c r="AG9" s="43"/>
-      <c r="AH9" s="43"/>
-      <c r="AI9" s="52"/>
-    </row>
-    <row r="10" spans="1:35" ht="15.75" thickBot="1">
+      <c r="C9" s="46"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="47"/>
+      <c r="I9" s="46"/>
+      <c r="J9" s="37"/>
+      <c r="K9" s="37"/>
+      <c r="L9" s="37"/>
+      <c r="M9" s="37"/>
+      <c r="N9" s="37"/>
+      <c r="O9" s="53"/>
+      <c r="P9" s="53"/>
+      <c r="Q9" s="47"/>
+      <c r="R9" s="41"/>
+      <c r="S9" s="37"/>
+      <c r="T9" s="36"/>
+      <c r="U9" s="36"/>
+      <c r="V9" s="36"/>
+      <c r="W9" s="36"/>
+      <c r="X9" s="36"/>
+      <c r="Y9" s="36"/>
+      <c r="Z9" s="36"/>
+      <c r="AA9" s="45"/>
+      <c r="AB9" s="44"/>
+      <c r="AC9" s="40"/>
+      <c r="AD9" s="36"/>
+      <c r="AE9" s="45"/>
+      <c r="AF9" s="44"/>
+      <c r="AG9" s="36"/>
+      <c r="AH9" s="36"/>
+      <c r="AI9" s="45"/>
+    </row>
+    <row r="10" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="24">
         <v>7</v>
       </c>
-      <c r="B10" s="45" t="s">
+      <c r="B10" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="55">
+      <c r="C10" s="48">
         <v>0.25</v>
       </c>
-      <c r="D10" s="56">
+      <c r="D10" s="49">
         <v>0.25</v>
       </c>
-      <c r="E10" s="56">
-        <v>0</v>
-      </c>
-      <c r="F10" s="56">
+      <c r="E10" s="49">
+        <v>0</v>
+      </c>
+      <c r="F10" s="49">
         <v>0.25</v>
       </c>
-      <c r="G10" s="56">
+      <c r="G10" s="49">
         <v>0.25</v>
       </c>
-      <c r="H10" s="57">
+      <c r="H10" s="50">
         <v>0.25</v>
       </c>
-      <c r="I10" s="55">
-        <v>0</v>
-      </c>
-      <c r="J10" s="55">
+      <c r="I10" s="48">
+        <v>0</v>
+      </c>
+      <c r="J10" s="48">
         <v>0.25</v>
       </c>
-      <c r="K10" s="55">
+      <c r="K10" s="48">
         <v>0.5</v>
       </c>
-      <c r="L10" s="55">
-        <v>0</v>
-      </c>
-      <c r="M10" s="55">
+      <c r="L10" s="48">
+        <v>0</v>
+      </c>
+      <c r="M10" s="48">
         <v>0.25</v>
       </c>
-      <c r="N10" s="55">
-        <v>0</v>
-      </c>
-      <c r="O10" s="55">
+      <c r="N10" s="48">
+        <v>0</v>
+      </c>
+      <c r="O10" s="48">
         <v>0.5</v>
       </c>
-      <c r="P10" s="55">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="55">
-        <v>0</v>
-      </c>
-      <c r="R10" s="55">
+      <c r="P10" s="48">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="48">
+        <v>0</v>
+      </c>
+      <c r="R10" s="48">
         <v>0.25</v>
       </c>
-      <c r="S10" s="55">
-        <v>0</v>
-      </c>
-      <c r="T10" s="55">
-        <v>0</v>
-      </c>
-      <c r="U10" s="55">
-        <v>0</v>
-      </c>
-      <c r="V10" s="55">
-        <v>0</v>
-      </c>
-      <c r="W10" s="55">
-        <v>0</v>
-      </c>
-      <c r="X10" s="55">
-        <v>0</v>
-      </c>
-      <c r="Y10" s="55">
-        <v>0</v>
-      </c>
-      <c r="Z10" s="55">
-        <v>0</v>
-      </c>
-      <c r="AA10" s="55">
+      <c r="S10" s="48">
+        <v>0</v>
+      </c>
+      <c r="T10" s="48">
+        <v>0</v>
+      </c>
+      <c r="U10" s="48">
+        <v>0</v>
+      </c>
+      <c r="V10" s="48">
+        <v>0</v>
+      </c>
+      <c r="W10" s="48">
+        <v>0</v>
+      </c>
+      <c r="X10" s="48">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="48">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="48">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="48">
         <v>1</v>
       </c>
-      <c r="AB10" s="55">
-        <v>0</v>
-      </c>
-      <c r="AC10" s="55">
+      <c r="AB10" s="48">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="48">
         <v>0.25</v>
       </c>
-      <c r="AD10" s="55">
+      <c r="AD10" s="48">
         <v>0.25</v>
       </c>
-      <c r="AE10" s="55">
+      <c r="AE10" s="48">
         <v>0.5</v>
       </c>
-      <c r="AF10" s="55">
-        <v>0</v>
-      </c>
-      <c r="AG10" s="55">
+      <c r="AF10" s="48">
+        <v>0</v>
+      </c>
+      <c r="AG10" s="48">
         <v>1</v>
       </c>
-      <c r="AH10" s="55">
-        <v>0</v>
-      </c>
-      <c r="AI10" s="55">
+      <c r="AH10" s="48">
+        <v>0</v>
+      </c>
+      <c r="AI10" s="48">
         <v>0</v>
       </c>
     </row>
@@ -3742,14 +3899,14 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.42578125" style="28" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="3" bestFit="1" customWidth="1"/>
@@ -3759,7 +3916,7 @@
     <col min="7" max="7" width="13.140625" style="30" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>71</v>
       </c>
@@ -3782,8 +3939,8 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="86" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="79" t="s">
         <v>25</v>
       </c>
       <c r="B2" s="9">
@@ -3807,10 +3964,10 @@
         <f>ROUND(F2/22/8,2)</f>
         <v>1183.71</v>
       </c>
-      <c r="H2" s="88"/>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="87"/>
+      <c r="H2" s="102"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="80"/>
       <c r="B3" s="9">
         <v>2</v>
       </c>
@@ -3832,10 +3989,10 @@
         <f t="shared" ref="G3:G34" si="2">ROUND(F3/22/8,2)</f>
         <v>946.97</v>
       </c>
-      <c r="H3" s="88"/>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="87"/>
+      <c r="H3" s="102"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="80"/>
       <c r="B4" s="9">
         <v>3</v>
       </c>
@@ -3857,10 +4014,10 @@
         <f t="shared" si="2"/>
         <v>946.97</v>
       </c>
-      <c r="H4" s="88"/>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="87"/>
+      <c r="H4" s="102"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="80"/>
       <c r="B5" s="9">
         <v>4</v>
       </c>
@@ -3882,10 +4039,10 @@
         <f t="shared" si="2"/>
         <v>355.11</v>
       </c>
-      <c r="H5" s="88"/>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="87"/>
+      <c r="H5" s="102"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="80"/>
       <c r="B6" s="9">
         <v>5</v>
       </c>
@@ -3907,10 +4064,10 @@
         <f t="shared" si="2"/>
         <v>355.11</v>
       </c>
-      <c r="H6" s="88"/>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="89"/>
+      <c r="H6" s="102"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="81"/>
       <c r="B7" s="9">
         <v>6</v>
       </c>
@@ -3932,10 +4089,10 @@
         <f t="shared" si="2"/>
         <v>946.97</v>
       </c>
-      <c r="H7" s="88"/>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="86" t="s">
+      <c r="H7" s="102"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="79" t="s">
         <v>29</v>
       </c>
       <c r="B8" s="9">
@@ -3960,8 +4117,8 @@
         <v>591.86</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="87"/>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="80"/>
       <c r="B9" s="9">
         <v>8</v>
       </c>
@@ -3984,8 +4141,8 @@
         <v>236.74</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="87"/>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="80"/>
       <c r="B10" s="9">
         <v>9</v>
       </c>
@@ -4008,8 +4165,8 @@
         <v>177.56</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="87"/>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="80"/>
       <c r="B11" s="9">
         <v>10</v>
       </c>
@@ -4032,8 +4189,8 @@
         <v>591.86</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="87"/>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="80"/>
       <c r="B12" s="9">
         <v>11</v>
       </c>
@@ -4056,8 +4213,8 @@
         <v>177.56</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="87"/>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="80"/>
       <c r="B13" s="9">
         <v>12</v>
       </c>
@@ -4080,8 +4237,8 @@
         <v>118.37</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="87"/>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="80"/>
       <c r="B14" s="9">
         <v>13</v>
       </c>
@@ -4104,8 +4261,8 @@
         <v>118.37</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="87"/>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="80"/>
       <c r="B15" s="9">
         <v>14</v>
       </c>
@@ -4128,8 +4285,8 @@
         <v>295.93</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="87"/>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="80"/>
       <c r="B16" s="9">
         <v>15</v>
       </c>
@@ -4152,8 +4309,8 @@
         <v>118.37</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="86" t="s">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="79" t="s">
         <v>69</v>
       </c>
       <c r="B17" s="9">
@@ -4178,8 +4335,8 @@
         <v>177.56</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="87"/>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="80"/>
       <c r="B18" s="9">
         <v>17</v>
       </c>
@@ -4202,8 +4359,8 @@
         <v>71.02</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="87"/>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="80"/>
       <c r="B19" s="9">
         <v>18</v>
       </c>
@@ -4226,8 +4383,8 @@
         <v>35.51</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="87"/>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="80"/>
       <c r="B20" s="9">
         <v>19</v>
       </c>
@@ -4250,8 +4407,8 @@
         <v>236.74</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="87"/>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="80"/>
       <c r="B21" s="9">
         <v>20</v>
       </c>
@@ -4274,8 +4431,8 @@
         <v>71.02</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="87"/>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="80"/>
       <c r="B22" s="9">
         <v>21</v>
       </c>
@@ -4298,8 +4455,8 @@
         <v>35.51</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="87"/>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="80"/>
       <c r="B23" s="9">
         <v>22</v>
       </c>
@@ -4322,8 +4479,8 @@
         <v>71.02</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="87"/>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="80"/>
       <c r="B24" s="9">
         <v>23</v>
       </c>
@@ -4346,8 +4503,8 @@
         <v>35.51</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="87"/>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="80"/>
       <c r="B25" s="9">
         <v>24</v>
       </c>
@@ -4370,8 +4527,8 @@
         <v>35.51</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="89"/>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="81"/>
       <c r="B26" s="9">
         <v>25</v>
       </c>
@@ -4394,8 +4551,8 @@
         <v>71.02</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="86" t="s">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="79" t="s">
         <v>70</v>
       </c>
       <c r="B27" s="9">
@@ -4420,8 +4577,8 @@
         <v>295.93</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="87"/>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="80"/>
       <c r="B28" s="9">
         <v>27</v>
       </c>
@@ -4444,8 +4601,8 @@
         <v>71.02</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="87"/>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="80"/>
       <c r="B29" s="9">
         <v>28</v>
       </c>
@@ -4468,8 +4625,8 @@
         <v>177.56</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="89"/>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="81"/>
       <c r="B30" s="9">
         <v>29</v>
       </c>
@@ -4492,8 +4649,8 @@
         <v>71.02</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="86" t="s">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="79" t="s">
         <v>28</v>
       </c>
       <c r="B31" s="9">
@@ -4518,8 +4675,8 @@
         <v>35.51</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
-      <c r="A32" s="87"/>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="80"/>
       <c r="B32" s="9">
         <v>31</v>
       </c>
@@ -4542,8 +4699,8 @@
         <v>35.51</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
-      <c r="A33" s="87"/>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="80"/>
       <c r="B33" s="9">
         <v>32</v>
       </c>
@@ -4566,8 +4723,8 @@
         <v>71.02</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
-      <c r="A34" s="87"/>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="80"/>
       <c r="B34" s="9">
         <v>33</v>
       </c>
@@ -4591,9 +4748,8 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="5">
     <mergeCell ref="A31:A34"/>
-    <mergeCell ref="H2:H7"/>
     <mergeCell ref="A2:A7"/>
     <mergeCell ref="A8:A16"/>
     <mergeCell ref="A17:A26"/>

--- a/Project Management/Effort Calculation.xlsx
+++ b/Project Management/Effort Calculation.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="330" windowWidth="18795" windowHeight="11700" tabRatio="785" activeTab="7"/>
+    <workbookView xWindow="360" yWindow="330" windowWidth="18795" windowHeight="11700" tabRatio="785"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="8" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="84">
   <si>
     <t>Total</t>
   </si>
@@ -818,6 +818,67 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -902,67 +963,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1317,7 +1317,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:O20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1461,13 +1461,13 @@
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
-      <c r="F10" s="54" t="s">
+      <c r="F10" s="75" t="s">
         <v>68</v>
       </c>
-      <c r="G10" s="55"/>
-      <c r="H10" s="55"/>
-      <c r="I10" s="55"/>
-      <c r="J10" s="55"/>
+      <c r="G10" s="76"/>
+      <c r="H10" s="76"/>
+      <c r="I10" s="76"/>
+      <c r="J10" s="76"/>
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
       <c r="M10" s="4"/>
@@ -1479,16 +1479,16 @@
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
-      <c r="F11" s="56" t="s">
+      <c r="F11" s="77" t="s">
         <v>59</v>
       </c>
-      <c r="G11" s="57"/>
-      <c r="H11" s="61">
+      <c r="G11" s="78"/>
+      <c r="H11" s="82">
         <f>Summery!D10</f>
-        <v>5089.9699999999993</v>
-      </c>
-      <c r="I11" s="62"/>
-      <c r="J11" s="63"/>
+        <v>4734.8499999999995</v>
+      </c>
+      <c r="I11" s="83"/>
+      <c r="J11" s="84"/>
       <c r="K11" s="4"/>
       <c r="L11" s="4"/>
       <c r="M11" s="4"/>
@@ -1500,16 +1500,16 @@
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
-      <c r="F12" s="56" t="s">
+      <c r="F12" s="77" t="s">
         <v>78</v>
       </c>
-      <c r="G12" s="57"/>
-      <c r="H12" s="58">
+      <c r="G12" s="78"/>
+      <c r="H12" s="79">
         <f>Summery!C10</f>
         <v>15</v>
       </c>
-      <c r="I12" s="59"/>
-      <c r="J12" s="60"/>
+      <c r="I12" s="80"/>
+      <c r="J12" s="81"/>
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
       <c r="M12" s="4"/>
@@ -1521,16 +1521,16 @@
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
-      <c r="F13" s="56" t="s">
+      <c r="F13" s="77" t="s">
         <v>60</v>
       </c>
-      <c r="G13" s="57"/>
-      <c r="H13" s="58">
+      <c r="G13" s="78"/>
+      <c r="H13" s="79">
         <f>H12/8</f>
         <v>1.875</v>
       </c>
-      <c r="I13" s="59"/>
-      <c r="J13" s="60"/>
+      <c r="I13" s="80"/>
+      <c r="J13" s="81"/>
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
       <c r="M13" s="4"/>
@@ -1693,11 +1693,11 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="4"/>
-      <c r="B1" s="64" t="s">
+      <c r="B1" s="85" t="s">
         <v>62</v>
       </c>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
       <c r="E1" s="8"/>
       <c r="F1" s="8"/>
       <c r="G1" s="13"/>
@@ -1803,7 +1803,7 @@
       </c>
       <c r="H4" s="34">
         <f>SUM(School!I:I)</f>
-        <v>355.12</v>
+        <v>0</v>
       </c>
       <c r="I4" s="5"/>
       <c r="J4" s="4"/>
@@ -1943,7 +1943,7 @@
       </c>
       <c r="H8" s="35">
         <f>SUM(H3:H7)</f>
-        <v>5089.97</v>
+        <v>4734.8499999999995</v>
       </c>
       <c r="I8" s="5"/>
       <c r="J8" s="4"/>
@@ -1966,7 +1966,7 @@
       </c>
       <c r="D9" s="34">
         <f>SUMIF(Business!B:B,B9,Business!I:I) + SUMIF(School!B:B,B9,School!I:I) + SUMIF(Service!B:B,B9,Service!I:I)+SUMIF(Retail!B:B,B9,Retail!I:I) + SUMIF(Tourism!B:B,B9,Tourism!I:I)</f>
-        <v>355.12</v>
+        <v>0</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="4"/>
@@ -1993,7 +1993,7 @@
       </c>
       <c r="D10" s="35">
         <f>SUM(D3:D9)</f>
-        <v>5089.9699999999993</v>
+        <v>4734.8499999999995</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="4"/>
@@ -2178,195 +2178,195 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.140625" style="94" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.42578125" style="86" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.140625" style="86" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.28515625" style="86" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" style="95" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="95" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" style="96" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="8.5703125" style="86" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="9.7109375" style="95" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="64" style="97" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="86"/>
+    <col min="1" max="1" width="10.140625" style="66" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" style="58" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.140625" style="58" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.28515625" style="58" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" style="67" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="67" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" style="68" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="8.5703125" style="58" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="9.7109375" style="67" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="64" style="69" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="58"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="98" t="s">
+      <c r="A1" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="99" t="s">
+      <c r="B1" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="99" t="s">
+      <c r="C1" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="D1" s="99" t="s">
+      <c r="D1" s="71" t="s">
         <v>50</v>
       </c>
-      <c r="E1" s="100" t="s">
+      <c r="E1" s="72" t="s">
         <v>57</v>
       </c>
-      <c r="F1" s="100" t="s">
+      <c r="F1" s="72" t="s">
         <v>74</v>
       </c>
-      <c r="G1" s="99" t="s">
+      <c r="G1" s="71" t="s">
         <v>58</v>
       </c>
-      <c r="H1" s="99" t="s">
+      <c r="H1" s="71" t="s">
         <v>56</v>
       </c>
-      <c r="I1" s="99" t="s">
+      <c r="I1" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="85" t="s">
+      <c r="J1" s="57" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="87" t="s">
+      <c r="A2" s="59" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="88" t="s">
+      <c r="B2" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="88" t="s">
+      <c r="C2" s="60" t="s">
         <v>40</v>
       </c>
-      <c r="D2" s="101">
+      <c r="D2" s="73">
         <v>5</v>
       </c>
-      <c r="E2" s="90">
+      <c r="E2" s="62">
         <f>IF(ISERROR(MATCH(C2,SkillList,0)),0,MATCH(C2,SkillList,0))</f>
         <v>4</v>
       </c>
-      <c r="F2" s="90">
+      <c r="F2" s="62">
         <f>IF(ISERROR(MATCH(B2,MemberList,0)),0,MATCH(B2,MemberList,0))</f>
         <v>1</v>
       </c>
-      <c r="G2" s="91">
+      <c r="G2" s="63">
         <f>INDEX(CostPerHour,E2)</f>
         <v>355.11</v>
       </c>
-      <c r="H2" s="92">
+      <c r="H2" s="64">
         <f>IF(ISERROR(INDEX(Competency,F2,E2)), 0, INDEX(Competency,F2,E2))</f>
         <v>1</v>
       </c>
-      <c r="I2" s="91">
+      <c r="I2" s="63">
         <f>D2*G2*H2</f>
         <v>1775.5500000000002</v>
       </c>
-      <c r="J2" s="93" t="s">
+      <c r="J2" s="65" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="87"/>
-      <c r="B3" s="88"/>
-      <c r="C3" s="88"/>
-      <c r="D3" s="101"/>
-      <c r="E3" s="90">
+      <c r="A3" s="59"/>
+      <c r="B3" s="60"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="62">
         <f>IF(ISERROR(MATCH(C3,SkillList,0)),0,MATCH(C3,SkillList,0))</f>
         <v>0</v>
       </c>
-      <c r="F3" s="90">
+      <c r="F3" s="62">
         <f>IF(ISERROR(MATCH(B3,MemberList,0)),0,MATCH(B3,MemberList,0))</f>
         <v>0</v>
       </c>
-      <c r="G3" s="91">
+      <c r="G3" s="63">
         <f>INDEX(CostPerHour,E3)</f>
         <v>946.97</v>
       </c>
-      <c r="H3" s="92">
+      <c r="H3" s="64">
         <f>IF(ISERROR(INDEX(Competency,F3,E3)), 0, INDEX(Competency,F3,E3))</f>
         <v>0</v>
       </c>
-      <c r="I3" s="91">
+      <c r="I3" s="63">
         <f t="shared" ref="I3:I6" si="0">D3*G3*H3</f>
         <v>0</v>
       </c>
-      <c r="J3" s="93"/>
+      <c r="J3" s="65"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="87"/>
-      <c r="B4" s="88"/>
-      <c r="C4" s="88"/>
-      <c r="D4" s="101"/>
-      <c r="E4" s="90">
+      <c r="A4" s="59"/>
+      <c r="B4" s="60"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="62">
         <f>IF(ISERROR(MATCH(C4,SkillList,0)),0,MATCH(C4,SkillList,0))</f>
         <v>0</v>
       </c>
-      <c r="F4" s="90">
+      <c r="F4" s="62">
         <f>IF(ISERROR(MATCH(B4,MemberList,0)),0,MATCH(B4,MemberList,0))</f>
         <v>0</v>
       </c>
-      <c r="G4" s="91">
+      <c r="G4" s="63">
         <f>INDEX(CostPerHour,E4)</f>
         <v>946.97</v>
       </c>
-      <c r="H4" s="92">
+      <c r="H4" s="64">
         <f>IF(ISERROR(INDEX(Competency,F4,E4)), 0, INDEX(Competency,F4,E4))</f>
         <v>1</v>
       </c>
-      <c r="I4" s="91">
+      <c r="I4" s="63">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J4" s="93"/>
+      <c r="J4" s="65"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="87"/>
-      <c r="B5" s="88"/>
-      <c r="C5" s="88"/>
-      <c r="D5" s="101"/>
-      <c r="E5" s="90">
+      <c r="A5" s="59"/>
+      <c r="B5" s="60"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="73"/>
+      <c r="E5" s="62">
         <f>IF(ISERROR(MATCH(C5,SkillList,0)),0,MATCH(C5,SkillList,0))</f>
         <v>0</v>
       </c>
-      <c r="F5" s="90">
+      <c r="F5" s="62">
         <f>IF(ISERROR(MATCH(B5,MemberList,0)),0,MATCH(B5,MemberList,0))</f>
         <v>0</v>
       </c>
-      <c r="G5" s="91">
+      <c r="G5" s="63">
         <f>INDEX(CostPerHour,E5)</f>
         <v>355.11</v>
       </c>
-      <c r="H5" s="92">
+      <c r="H5" s="64">
         <f>IF(ISERROR(INDEX(Competency,F5,E5)), 0, INDEX(Competency,F5,E5))</f>
         <v>0</v>
       </c>
-      <c r="I5" s="91">
+      <c r="I5" s="63">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J5" s="93"/>
+      <c r="J5" s="65"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="87"/>
-      <c r="B6" s="88"/>
-      <c r="C6" s="88"/>
-      <c r="D6" s="101"/>
-      <c r="E6" s="90">
+      <c r="A6" s="59"/>
+      <c r="B6" s="60"/>
+      <c r="C6" s="60"/>
+      <c r="D6" s="73"/>
+      <c r="E6" s="62">
         <f>IF(ISERROR(MATCH(C6,SkillList,0)),0,MATCH(C6,SkillList,0))</f>
         <v>0</v>
       </c>
-      <c r="F6" s="90">
+      <c r="F6" s="62">
         <f>IF(ISERROR(MATCH(B6,MemberList,0)),0,MATCH(B6,MemberList,0))</f>
         <v>0</v>
       </c>
-      <c r="G6" s="91">
+      <c r="G6" s="63">
         <f>INDEX(CostPerHour,E6)</f>
         <v>355.11</v>
       </c>
-      <c r="H6" s="92">
+      <c r="H6" s="64">
         <f>IF(ISERROR(INDEX(Competency,F6,E6)), 0, INDEX(Competency,F6,E6))</f>
         <v>0</v>
       </c>
-      <c r="I6" s="91">
+      <c r="I6" s="63">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J6" s="93"/>
+      <c r="J6" s="65"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
@@ -2387,198 +2387,206 @@
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="94" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.42578125" style="86" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.140625" style="86" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.28515625" style="86" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" style="95" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="95" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" style="96" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="8.5703125" style="86" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="9.7109375" style="95" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="64" style="97" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="86"/>
+    <col min="1" max="1" width="10.7109375" style="66" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" style="58" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.140625" style="58" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.28515625" style="58" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" style="67" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="67" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" style="68" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="8.5703125" style="58" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="9.7109375" style="67" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="64" style="69" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="58"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="83" t="s">
+      <c r="B1" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="83" t="s">
+      <c r="C1" s="55" t="s">
         <v>39</v>
       </c>
-      <c r="D1" s="83" t="s">
+      <c r="D1" s="55" t="s">
         <v>50</v>
       </c>
-      <c r="E1" s="84" t="s">
+      <c r="E1" s="56" t="s">
         <v>57</v>
       </c>
-      <c r="F1" s="84" t="s">
+      <c r="F1" s="56" t="s">
         <v>74</v>
       </c>
-      <c r="G1" s="83" t="s">
+      <c r="G1" s="55" t="s">
         <v>58</v>
       </c>
-      <c r="H1" s="83" t="s">
+      <c r="H1" s="55" t="s">
         <v>56</v>
       </c>
-      <c r="I1" s="83" t="s">
+      <c r="I1" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="85" t="s">
+      <c r="J1" s="57" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="87">
-        <v>42299</v>
-      </c>
-      <c r="B2" s="88" t="s">
+      <c r="A2" s="59">
+        <v>42298</v>
+      </c>
+      <c r="B2" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="88" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="89">
-        <v>4</v>
-      </c>
-      <c r="E2" s="90">
+      <c r="C2" s="60" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="61">
+        <v>2</v>
+      </c>
+      <c r="E2" s="62">
         <f>IF(ISERROR(MATCH(C2,SkillList,0)),0,MATCH(C2,SkillList,0))</f>
-        <v>9</v>
-      </c>
-      <c r="F2" s="90">
+        <v>7</v>
+      </c>
+      <c r="F2" s="62">
         <f>IF(ISERROR(MATCH(B2,MemberList,0)),0,MATCH(B2,MemberList,0))</f>
         <v>7</v>
       </c>
-      <c r="G2" s="91">
+      <c r="G2" s="63">
         <f>INDEX(CostPerHour,E2)</f>
-        <v>177.56</v>
-      </c>
-      <c r="H2" s="92">
+        <v>591.86</v>
+      </c>
+      <c r="H2" s="64">
         <f>IF(ISERROR(INDEX(Competency,F2,E2)), 0, INDEX(Competency,F2,E2))</f>
-        <v>0.5</v>
-      </c>
-      <c r="I2" s="91">
+        <v>0</v>
+      </c>
+      <c r="I2" s="63">
         <f>D2*G2*H2</f>
-        <v>355.12</v>
-      </c>
-      <c r="J2" s="93"/>
+        <v>0</v>
+      </c>
+      <c r="J2" s="65"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="87"/>
-      <c r="B3" s="88"/>
-      <c r="C3" s="88"/>
-      <c r="D3" s="89"/>
-      <c r="E3" s="90">
+      <c r="A3" s="59">
+        <v>42299</v>
+      </c>
+      <c r="B3" s="60" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="60" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="61">
+        <v>2</v>
+      </c>
+      <c r="E3" s="62">
         <f>IF(ISERROR(MATCH(C3,SkillList,0)),0,MATCH(C3,SkillList,0))</f>
-        <v>0</v>
-      </c>
-      <c r="F3" s="90">
+        <v>7</v>
+      </c>
+      <c r="F3" s="62">
         <f>IF(ISERROR(MATCH(B3,MemberList,0)),0,MATCH(B3,MemberList,0))</f>
-        <v>0</v>
-      </c>
-      <c r="G3" s="91">
+        <v>7</v>
+      </c>
+      <c r="G3" s="63">
         <f>INDEX(CostPerHour,E3)</f>
-        <v>946.97</v>
-      </c>
-      <c r="H3" s="92">
+        <v>591.86</v>
+      </c>
+      <c r="H3" s="64">
         <f>IF(ISERROR(INDEX(Competency,F3,E3)), 0, INDEX(Competency,F3,E3))</f>
         <v>0</v>
       </c>
-      <c r="I3" s="91">
+      <c r="I3" s="63">
         <f t="shared" ref="I3:I6" si="0">D3*G3*H3</f>
         <v>0</v>
       </c>
-      <c r="J3" s="93"/>
+      <c r="J3" s="65"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="87"/>
-      <c r="B4" s="88"/>
-      <c r="C4" s="88"/>
-      <c r="D4" s="89"/>
-      <c r="E4" s="90">
+      <c r="A4" s="59"/>
+      <c r="B4" s="60"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="62">
         <f>IF(ISERROR(MATCH(C4,SkillList,0)),0,MATCH(C4,SkillList,0))</f>
         <v>0</v>
       </c>
-      <c r="F4" s="90">
+      <c r="F4" s="62">
         <f>IF(ISERROR(MATCH(B4,MemberList,0)),0,MATCH(B4,MemberList,0))</f>
         <v>0</v>
       </c>
-      <c r="G4" s="91">
+      <c r="G4" s="63">
         <f>INDEX(CostPerHour,E4)</f>
         <v>946.97</v>
       </c>
-      <c r="H4" s="92">
+      <c r="H4" s="64">
         <f>IF(ISERROR(INDEX(Competency,F4,E4)), 0, INDEX(Competency,F4,E4))</f>
         <v>1</v>
       </c>
-      <c r="I4" s="91">
+      <c r="I4" s="63">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J4" s="93"/>
+      <c r="J4" s="65"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="87"/>
-      <c r="B5" s="88"/>
-      <c r="C5" s="88"/>
-      <c r="D5" s="89"/>
-      <c r="E5" s="90">
+      <c r="A5" s="59"/>
+      <c r="B5" s="60"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="62">
         <f>IF(ISERROR(MATCH(C5,SkillList,0)),0,MATCH(C5,SkillList,0))</f>
         <v>0</v>
       </c>
-      <c r="F5" s="90">
+      <c r="F5" s="62">
         <f>IF(ISERROR(MATCH(B5,MemberList,0)),0,MATCH(B5,MemberList,0))</f>
         <v>0</v>
       </c>
-      <c r="G5" s="91">
+      <c r="G5" s="63">
         <f>INDEX(CostPerHour,E5)</f>
         <v>355.11</v>
       </c>
-      <c r="H5" s="92">
+      <c r="H5" s="64">
         <f>IF(ISERROR(INDEX(Competency,F5,E5)), 0, INDEX(Competency,F5,E5))</f>
         <v>0</v>
       </c>
-      <c r="I5" s="91">
+      <c r="I5" s="63">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J5" s="93"/>
+      <c r="J5" s="65"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="87"/>
-      <c r="B6" s="88"/>
-      <c r="C6" s="88"/>
-      <c r="D6" s="89"/>
-      <c r="E6" s="90">
+      <c r="A6" s="59"/>
+      <c r="B6" s="60"/>
+      <c r="C6" s="60"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="62">
         <f>IF(ISERROR(MATCH(C6,SkillList,0)),0,MATCH(C6,SkillList,0))</f>
         <v>0</v>
       </c>
-      <c r="F6" s="90">
+      <c r="F6" s="62">
         <f>IF(ISERROR(MATCH(B6,MemberList,0)),0,MATCH(B6,MemberList,0))</f>
         <v>0</v>
       </c>
-      <c r="G6" s="91">
+      <c r="G6" s="63">
         <f>INDEX(CostPerHour,E6)</f>
         <v>355.11</v>
       </c>
-      <c r="H6" s="92">
+      <c r="H6" s="64">
         <f>IF(ISERROR(INDEX(Competency,F6,E6)), 0, INDEX(Competency,F6,E6))</f>
         <v>0</v>
       </c>
-      <c r="I6" s="91">
+      <c r="I6" s="63">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J6" s="93"/>
+      <c r="J6" s="65"/>
     </row>
   </sheetData>
   <dataValidations count="2">
@@ -2603,203 +2611,203 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.140625" style="94" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.42578125" style="86" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.140625" style="86" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.28515625" style="86" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" style="95" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="95" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" style="96" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="8.5703125" style="86" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="9.7109375" style="95" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="64" style="97" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="86"/>
+    <col min="1" max="1" width="10.140625" style="66" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" style="58" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.140625" style="58" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.28515625" style="58" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" style="67" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="67" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" style="68" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="8.5703125" style="58" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="9.7109375" style="67" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="64" style="69" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="58"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="83" t="s">
+      <c r="B1" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="83" t="s">
+      <c r="C1" s="55" t="s">
         <v>39</v>
       </c>
-      <c r="D1" s="83" t="s">
+      <c r="D1" s="55" t="s">
         <v>50</v>
       </c>
-      <c r="E1" s="84" t="s">
+      <c r="E1" s="56" t="s">
         <v>57</v>
       </c>
-      <c r="F1" s="84" t="s">
+      <c r="F1" s="56" t="s">
         <v>74</v>
       </c>
-      <c r="G1" s="83" t="s">
+      <c r="G1" s="55" t="s">
         <v>58</v>
       </c>
-      <c r="H1" s="83" t="s">
+      <c r="H1" s="55" t="s">
         <v>56</v>
       </c>
-      <c r="I1" s="83" t="s">
+      <c r="I1" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="85" t="s">
+      <c r="J1" s="57" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="87"/>
-      <c r="B2" s="88" t="s">
+      <c r="A2" s="59"/>
+      <c r="B2" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="88" t="s">
+      <c r="C2" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="89"/>
-      <c r="E2" s="90">
+      <c r="D2" s="61"/>
+      <c r="E2" s="62">
         <f>IF(ISERROR(MATCH(C2,SkillList,0)),0,MATCH(C2,SkillList,0))</f>
         <v>8</v>
       </c>
-      <c r="F2" s="90">
+      <c r="F2" s="62">
         <f>IF(ISERROR(MATCH(B2,MemberList,0)),0,MATCH(B2,MemberList,0))</f>
         <v>3</v>
       </c>
-      <c r="G2" s="91">
+      <c r="G2" s="63">
         <f>INDEX(CostPerHour,E2)</f>
         <v>236.74</v>
       </c>
-      <c r="H2" s="92">
+      <c r="H2" s="64">
         <f>IF(ISERROR(INDEX(Competency,F2,E2)), 0, INDEX(Competency,F2,E2))</f>
         <v>0</v>
       </c>
-      <c r="I2" s="91">
+      <c r="I2" s="63">
         <f>D2*G2*H2</f>
         <v>0</v>
       </c>
-      <c r="J2" s="93"/>
+      <c r="J2" s="65"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="87"/>
-      <c r="B3" s="88" t="s">
+      <c r="A3" s="59"/>
+      <c r="B3" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="88" t="s">
+      <c r="C3" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="89"/>
-      <c r="E3" s="90">
+      <c r="D3" s="61"/>
+      <c r="E3" s="62">
         <f>IF(ISERROR(MATCH(C3,SkillList,0)),0,MATCH(C3,SkillList,0))</f>
         <v>8</v>
       </c>
-      <c r="F3" s="90">
+      <c r="F3" s="62">
         <f>IF(ISERROR(MATCH(B3,MemberList,0)),0,MATCH(B3,MemberList,0))</f>
         <v>3</v>
       </c>
-      <c r="G3" s="91">
+      <c r="G3" s="63">
         <f>INDEX(CostPerHour,E3)</f>
         <v>236.74</v>
       </c>
-      <c r="H3" s="92">
+      <c r="H3" s="64">
         <f>IF(ISERROR(INDEX(Competency,F3,E3)), 0, INDEX(Competency,F3,E3))</f>
         <v>0</v>
       </c>
-      <c r="I3" s="91">
+      <c r="I3" s="63">
         <f t="shared" ref="I3:I6" si="0">D3*G3*H3</f>
         <v>0</v>
       </c>
-      <c r="J3" s="93"/>
+      <c r="J3" s="65"/>
     </row>
     <row r="4" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="87" t="s">
+      <c r="A4" s="59" t="s">
         <v>77</v>
       </c>
-      <c r="B4" s="88" t="s">
+      <c r="B4" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="88" t="s">
+      <c r="C4" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="89">
+      <c r="D4" s="61">
         <v>4</v>
       </c>
-      <c r="E4" s="90">
+      <c r="E4" s="62">
         <f>IF(ISERROR(MATCH(C4,SkillList,0)),0,MATCH(C4,SkillList,0))</f>
         <v>10</v>
       </c>
-      <c r="F4" s="90">
+      <c r="F4" s="62">
         <f>IF(ISERROR(MATCH(B4,MemberList,0)),0,MATCH(B4,MemberList,0))</f>
         <v>1</v>
       </c>
-      <c r="G4" s="91">
+      <c r="G4" s="63">
         <f>INDEX(CostPerHour,E4)</f>
         <v>591.86</v>
       </c>
-      <c r="H4" s="92">
+      <c r="H4" s="64">
         <f>IF(ISERROR(INDEX(Competency,F4,E4)), 0, INDEX(Competency,F4,E4))</f>
         <v>1</v>
       </c>
-      <c r="I4" s="91">
+      <c r="I4" s="63">
         <f t="shared" si="0"/>
         <v>2367.44</v>
       </c>
-      <c r="J4" s="93" t="s">
+      <c r="J4" s="65" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="87"/>
-      <c r="B5" s="88"/>
-      <c r="C5" s="88"/>
-      <c r="D5" s="89"/>
-      <c r="E5" s="90">
+      <c r="A5" s="59"/>
+      <c r="B5" s="60"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="62">
         <f>IF(ISERROR(MATCH(C5,SkillList,0)),0,MATCH(C5,SkillList,0))</f>
         <v>0</v>
       </c>
-      <c r="F5" s="90">
+      <c r="F5" s="62">
         <f>IF(ISERROR(MATCH(B5,MemberList,0)),0,MATCH(B5,MemberList,0))</f>
         <v>0</v>
       </c>
-      <c r="G5" s="91">
+      <c r="G5" s="63">
         <f>INDEX(CostPerHour,E5)</f>
         <v>355.11</v>
       </c>
-      <c r="H5" s="92">
+      <c r="H5" s="64">
         <f>IF(ISERROR(INDEX(Competency,F5,E5)), 0, INDEX(Competency,F5,E5))</f>
         <v>0</v>
       </c>
-      <c r="I5" s="91">
+      <c r="I5" s="63">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J5" s="93"/>
+      <c r="J5" s="65"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="87"/>
-      <c r="B6" s="88"/>
-      <c r="C6" s="88"/>
-      <c r="D6" s="89"/>
-      <c r="E6" s="90">
+      <c r="A6" s="59"/>
+      <c r="B6" s="60"/>
+      <c r="C6" s="60"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="62">
         <f>IF(ISERROR(MATCH(C6,SkillList,0)),0,MATCH(C6,SkillList,0))</f>
         <v>0</v>
       </c>
-      <c r="F6" s="90">
+      <c r="F6" s="62">
         <f>IF(ISERROR(MATCH(B6,MemberList,0)),0,MATCH(B6,MemberList,0))</f>
         <v>0</v>
       </c>
-      <c r="G6" s="91">
+      <c r="G6" s="63">
         <f>INDEX(CostPerHour,E6)</f>
         <v>355.11</v>
       </c>
-      <c r="H6" s="92">
+      <c r="H6" s="64">
         <f>IF(ISERROR(INDEX(Competency,F6,E6)), 0, INDEX(Competency,F6,E6))</f>
         <v>0</v>
       </c>
-      <c r="I6" s="91">
+      <c r="I6" s="63">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J6" s="93"/>
+      <c r="J6" s="65"/>
     </row>
   </sheetData>
   <dataValidations count="2">
@@ -2824,205 +2832,205 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.140625" style="94" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.42578125" style="86" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.140625" style="86" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.28515625" style="86" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" style="95" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="95" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" style="96" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="8.5703125" style="86" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="9.7109375" style="95" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="64" style="97" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="86"/>
+    <col min="1" max="1" width="10.140625" style="66" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" style="58" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.140625" style="58" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.28515625" style="58" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" style="67" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="67" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" style="68" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="8.5703125" style="58" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="9.7109375" style="67" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="64" style="69" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="58"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="83" t="s">
+      <c r="B1" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="83" t="s">
+      <c r="C1" s="55" t="s">
         <v>39</v>
       </c>
-      <c r="D1" s="83" t="s">
+      <c r="D1" s="55" t="s">
         <v>50</v>
       </c>
-      <c r="E1" s="84" t="s">
+      <c r="E1" s="56" t="s">
         <v>57</v>
       </c>
-      <c r="F1" s="84" t="s">
+      <c r="F1" s="56" t="s">
         <v>74</v>
       </c>
-      <c r="G1" s="83" t="s">
+      <c r="G1" s="55" t="s">
         <v>58</v>
       </c>
-      <c r="H1" s="83" t="s">
+      <c r="H1" s="55" t="s">
         <v>56</v>
       </c>
-      <c r="I1" s="83" t="s">
+      <c r="I1" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="85" t="s">
+      <c r="J1" s="57" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="87" t="s">
+      <c r="A2" s="59" t="s">
         <v>77</v>
       </c>
-      <c r="B2" s="88" t="s">
+      <c r="B2" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="88" t="s">
+      <c r="C2" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="89">
+      <c r="D2" s="61">
         <v>1</v>
       </c>
-      <c r="E2" s="90">
+      <c r="E2" s="62">
         <f>IF(ISERROR(MATCH(C2,SkillList,0)),0,MATCH(C2,SkillList,0))</f>
         <v>7</v>
       </c>
-      <c r="F2" s="90">
+      <c r="F2" s="62">
         <f>IF(ISERROR(MATCH(B2,MemberList,0)),0,MATCH(B2,MemberList,0))</f>
         <v>2</v>
       </c>
-      <c r="G2" s="91">
+      <c r="G2" s="63">
         <f>INDEX(CostPerHour,E2)</f>
         <v>591.86</v>
       </c>
-      <c r="H2" s="92">
+      <c r="H2" s="64">
         <f>IF(ISERROR(INDEX(Competency,F2,E2)), 0, INDEX(Competency,F2,E2))</f>
         <v>0</v>
       </c>
-      <c r="I2" s="91">
+      <c r="I2" s="63">
         <f>D2*G2*H2</f>
         <v>0</v>
       </c>
-      <c r="J2" s="93" t="s">
+      <c r="J2" s="65" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="87" t="s">
+      <c r="A3" s="59" t="s">
         <v>77</v>
       </c>
-      <c r="B3" s="88" t="s">
+      <c r="B3" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="88" t="s">
+      <c r="C3" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="89">
+      <c r="D3" s="61">
         <v>1</v>
       </c>
-      <c r="E3" s="90">
+      <c r="E3" s="62">
         <f>IF(ISERROR(MATCH(C3,SkillList,0)),0,MATCH(C3,SkillList,0))</f>
         <v>7</v>
       </c>
-      <c r="F3" s="90">
+      <c r="F3" s="62">
         <f>IF(ISERROR(MATCH(B3,MemberList,0)),0,MATCH(B3,MemberList,0))</f>
         <v>1</v>
       </c>
-      <c r="G3" s="91">
+      <c r="G3" s="63">
         <f>INDEX(CostPerHour,E3)</f>
         <v>591.86</v>
       </c>
-      <c r="H3" s="92">
+      <c r="H3" s="64">
         <f>IF(ISERROR(INDEX(Competency,F3,E3)), 0, INDEX(Competency,F3,E3))</f>
         <v>1</v>
       </c>
-      <c r="I3" s="91">
+      <c r="I3" s="63">
         <f t="shared" ref="I3:I6" si="0">D3*G3*H3</f>
         <v>591.86</v>
       </c>
-      <c r="J3" s="93" t="s">
+      <c r="J3" s="65" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="87"/>
-      <c r="B4" s="88"/>
-      <c r="C4" s="88"/>
-      <c r="D4" s="89"/>
-      <c r="E4" s="90">
+      <c r="A4" s="59"/>
+      <c r="B4" s="60"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="62">
         <f>IF(ISERROR(MATCH(C4,SkillList,0)),0,MATCH(C4,SkillList,0))</f>
         <v>0</v>
       </c>
-      <c r="F4" s="90">
+      <c r="F4" s="62">
         <f>IF(ISERROR(MATCH(B4,MemberList,0)),0,MATCH(B4,MemberList,0))</f>
         <v>0</v>
       </c>
-      <c r="G4" s="91">
+      <c r="G4" s="63">
         <f>INDEX(CostPerHour,E4)</f>
         <v>946.97</v>
       </c>
-      <c r="H4" s="92">
+      <c r="H4" s="64">
         <f>IF(ISERROR(INDEX(Competency,F4,E4)), 0, INDEX(Competency,F4,E4))</f>
         <v>1</v>
       </c>
-      <c r="I4" s="91">
+      <c r="I4" s="63">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J4" s="93"/>
+      <c r="J4" s="65"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="87"/>
-      <c r="B5" s="88"/>
-      <c r="C5" s="88"/>
-      <c r="D5" s="89"/>
-      <c r="E5" s="90">
+      <c r="A5" s="59"/>
+      <c r="B5" s="60"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="62">
         <f>IF(ISERROR(MATCH(C5,SkillList,0)),0,MATCH(C5,SkillList,0))</f>
         <v>0</v>
       </c>
-      <c r="F5" s="90">
+      <c r="F5" s="62">
         <f>IF(ISERROR(MATCH(B5,MemberList,0)),0,MATCH(B5,MemberList,0))</f>
         <v>0</v>
       </c>
-      <c r="G5" s="91">
+      <c r="G5" s="63">
         <f>INDEX(CostPerHour,E5)</f>
         <v>355.11</v>
       </c>
-      <c r="H5" s="92">
+      <c r="H5" s="64">
         <f>IF(ISERROR(INDEX(Competency,F5,E5)), 0, INDEX(Competency,F5,E5))</f>
         <v>0</v>
       </c>
-      <c r="I5" s="91">
+      <c r="I5" s="63">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J5" s="93"/>
+      <c r="J5" s="65"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="87"/>
-      <c r="B6" s="88"/>
-      <c r="C6" s="88"/>
-      <c r="D6" s="89"/>
-      <c r="E6" s="90">
+      <c r="A6" s="59"/>
+      <c r="B6" s="60"/>
+      <c r="C6" s="60"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="62">
         <f>IF(ISERROR(MATCH(C6,SkillList,0)),0,MATCH(C6,SkillList,0))</f>
         <v>0</v>
       </c>
-      <c r="F6" s="90">
+      <c r="F6" s="62">
         <f>IF(ISERROR(MATCH(B6,MemberList,0)),0,MATCH(B6,MemberList,0))</f>
         <v>0</v>
       </c>
-      <c r="G6" s="91">
+      <c r="G6" s="63">
         <f>INDEX(CostPerHour,E6)</f>
         <v>355.11</v>
       </c>
-      <c r="H6" s="92">
+      <c r="H6" s="64">
         <f>IF(ISERROR(INDEX(Competency,F6,E6)), 0, INDEX(Competency,F6,E6))</f>
         <v>0</v>
       </c>
-      <c r="I6" s="91">
+      <c r="I6" s="63">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J6" s="93"/>
+      <c r="J6" s="65"/>
     </row>
   </sheetData>
   <dataValidations count="2">
@@ -3047,185 +3055,185 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.140625" style="94" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.42578125" style="86" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.140625" style="86" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.28515625" style="86" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" style="95" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="95" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" style="96" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="8.5703125" style="86" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="9.7109375" style="95" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="64" style="97" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="86"/>
+    <col min="1" max="1" width="10.140625" style="66" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" style="58" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.140625" style="58" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.28515625" style="58" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" style="67" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="67" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" style="68" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="8.5703125" style="58" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="9.7109375" style="67" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="64" style="69" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="58"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="83" t="s">
+      <c r="B1" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="83" t="s">
+      <c r="C1" s="55" t="s">
         <v>39</v>
       </c>
-      <c r="D1" s="83" t="s">
+      <c r="D1" s="55" t="s">
         <v>50</v>
       </c>
-      <c r="E1" s="84" t="s">
+      <c r="E1" s="56" t="s">
         <v>57</v>
       </c>
-      <c r="F1" s="84" t="s">
+      <c r="F1" s="56" t="s">
         <v>74</v>
       </c>
-      <c r="G1" s="83" t="s">
+      <c r="G1" s="55" t="s">
         <v>58</v>
       </c>
-      <c r="H1" s="83" t="s">
+      <c r="H1" s="55" t="s">
         <v>56</v>
       </c>
-      <c r="I1" s="83" t="s">
+      <c r="I1" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="85" t="s">
+      <c r="J1" s="57" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="87"/>
-      <c r="B2" s="88"/>
-      <c r="C2" s="88"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="90">
+      <c r="A2" s="59"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="62">
         <f>IF(ISERROR(MATCH(C2,SkillList,0)),0,MATCH(C2,SkillList,0))</f>
         <v>0</v>
       </c>
-      <c r="F2" s="90">
+      <c r="F2" s="62">
         <f>IF(ISERROR(MATCH(B2,MemberList,0)),0,MATCH(B2,MemberList,0))</f>
         <v>0</v>
       </c>
-      <c r="G2" s="91">
+      <c r="G2" s="63">
         <f>INDEX(CostPerHour,E2)</f>
         <v>1183.71</v>
       </c>
-      <c r="H2" s="92">
+      <c r="H2" s="64">
         <f>IF(ISERROR(INDEX(Competency,F2,E2)), 0, INDEX(Competency,F2,E2))</f>
         <v>0</v>
       </c>
-      <c r="I2" s="91">
+      <c r="I2" s="63">
         <f>D2*G2*H2</f>
         <v>0</v>
       </c>
-      <c r="J2" s="93"/>
+      <c r="J2" s="65"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="87"/>
-      <c r="B3" s="88"/>
-      <c r="C3" s="88"/>
-      <c r="D3" s="89"/>
-      <c r="E3" s="90">
+      <c r="A3" s="59"/>
+      <c r="B3" s="60"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="62">
         <f>IF(ISERROR(MATCH(C3,SkillList,0)),0,MATCH(C3,SkillList,0))</f>
         <v>0</v>
       </c>
-      <c r="F3" s="90">
+      <c r="F3" s="62">
         <f>IF(ISERROR(MATCH(B3,MemberList,0)),0,MATCH(B3,MemberList,0))</f>
         <v>0</v>
       </c>
-      <c r="G3" s="91">
+      <c r="G3" s="63">
         <f>INDEX(CostPerHour,E3)</f>
         <v>946.97</v>
       </c>
-      <c r="H3" s="92">
+      <c r="H3" s="64">
         <f>IF(ISERROR(INDEX(Competency,F3,E3)), 0, INDEX(Competency,F3,E3))</f>
         <v>0</v>
       </c>
-      <c r="I3" s="91">
+      <c r="I3" s="63">
         <f t="shared" ref="I3:I6" si="0">D3*G3*H3</f>
         <v>0</v>
       </c>
-      <c r="J3" s="93"/>
+      <c r="J3" s="65"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="87"/>
-      <c r="B4" s="88"/>
-      <c r="C4" s="88"/>
-      <c r="D4" s="89"/>
-      <c r="E4" s="90">
+      <c r="A4" s="59"/>
+      <c r="B4" s="60"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="62">
         <f>IF(ISERROR(MATCH(C4,SkillList,0)),0,MATCH(C4,SkillList,0))</f>
         <v>0</v>
       </c>
-      <c r="F4" s="90">
+      <c r="F4" s="62">
         <f>IF(ISERROR(MATCH(B4,MemberList,0)),0,MATCH(B4,MemberList,0))</f>
         <v>0</v>
       </c>
-      <c r="G4" s="91">
+      <c r="G4" s="63">
         <f>INDEX(CostPerHour,E4)</f>
         <v>946.97</v>
       </c>
-      <c r="H4" s="92">
+      <c r="H4" s="64">
         <f>IF(ISERROR(INDEX(Competency,F4,E4)), 0, INDEX(Competency,F4,E4))</f>
         <v>1</v>
       </c>
-      <c r="I4" s="91">
+      <c r="I4" s="63">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J4" s="93"/>
+      <c r="J4" s="65"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="87"/>
-      <c r="B5" s="88"/>
-      <c r="C5" s="88"/>
-      <c r="D5" s="89"/>
-      <c r="E5" s="90">
+      <c r="A5" s="59"/>
+      <c r="B5" s="60"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="62">
         <f>IF(ISERROR(MATCH(C5,SkillList,0)),0,MATCH(C5,SkillList,0))</f>
         <v>0</v>
       </c>
-      <c r="F5" s="90">
+      <c r="F5" s="62">
         <f>IF(ISERROR(MATCH(B5,MemberList,0)),0,MATCH(B5,MemberList,0))</f>
         <v>0</v>
       </c>
-      <c r="G5" s="91">
+      <c r="G5" s="63">
         <f>INDEX(CostPerHour,E5)</f>
         <v>355.11</v>
       </c>
-      <c r="H5" s="92">
+      <c r="H5" s="64">
         <f>IF(ISERROR(INDEX(Competency,F5,E5)), 0, INDEX(Competency,F5,E5))</f>
         <v>0</v>
       </c>
-      <c r="I5" s="91">
+      <c r="I5" s="63">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J5" s="93"/>
+      <c r="J5" s="65"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="87"/>
-      <c r="B6" s="88"/>
-      <c r="C6" s="88"/>
-      <c r="D6" s="89"/>
-      <c r="E6" s="90">
+      <c r="A6" s="59"/>
+      <c r="B6" s="60"/>
+      <c r="C6" s="60"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="62">
         <f>IF(ISERROR(MATCH(C6,SkillList,0)),0,MATCH(C6,SkillList,0))</f>
         <v>0</v>
       </c>
-      <c r="F6" s="90">
+      <c r="F6" s="62">
         <f>IF(ISERROR(MATCH(B6,MemberList,0)),0,MATCH(B6,MemberList,0))</f>
         <v>0</v>
       </c>
-      <c r="G6" s="91">
+      <c r="G6" s="63">
         <f>INDEX(CostPerHour,E6)</f>
         <v>355.11</v>
       </c>
-      <c r="H6" s="92">
+      <c r="H6" s="64">
         <f>IF(ISERROR(INDEX(Competency,F6,E6)), 0, INDEX(Competency,F6,E6))</f>
         <v>0</v>
       </c>
-      <c r="I6" s="91">
+      <c r="I6" s="63">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J6" s="93"/>
+      <c r="J6" s="65"/>
     </row>
   </sheetData>
   <dataValidations count="2">
@@ -3244,8 +3252,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3262,92 +3270,92 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="92" t="s">
         <v>83</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="68" t="s">
+      <c r="B1" s="92"/>
+      <c r="C1" s="89" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="69"/>
-      <c r="L1" s="69"/>
-      <c r="M1" s="69"/>
-      <c r="N1" s="69"/>
-      <c r="O1" s="69"/>
-      <c r="P1" s="69"/>
-      <c r="Q1" s="69"/>
-      <c r="R1" s="69"/>
-      <c r="S1" s="69"/>
-      <c r="T1" s="69"/>
-      <c r="U1" s="69"/>
-      <c r="V1" s="69"/>
-      <c r="W1" s="69"/>
-      <c r="X1" s="69"/>
-      <c r="Y1" s="69"/>
-      <c r="Z1" s="69"/>
-      <c r="AA1" s="69"/>
-      <c r="AB1" s="69"/>
-      <c r="AC1" s="69"/>
-      <c r="AD1" s="69"/>
-      <c r="AE1" s="69"/>
-      <c r="AF1" s="69"/>
-      <c r="AG1" s="69"/>
-      <c r="AH1" s="69"/>
-      <c r="AI1" s="70"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="90"/>
+      <c r="H1" s="90"/>
+      <c r="I1" s="90"/>
+      <c r="J1" s="90"/>
+      <c r="K1" s="90"/>
+      <c r="L1" s="90"/>
+      <c r="M1" s="90"/>
+      <c r="N1" s="90"/>
+      <c r="O1" s="90"/>
+      <c r="P1" s="90"/>
+      <c r="Q1" s="90"/>
+      <c r="R1" s="90"/>
+      <c r="S1" s="90"/>
+      <c r="T1" s="90"/>
+      <c r="U1" s="90"/>
+      <c r="V1" s="90"/>
+      <c r="W1" s="90"/>
+      <c r="X1" s="90"/>
+      <c r="Y1" s="90"/>
+      <c r="Z1" s="90"/>
+      <c r="AA1" s="90"/>
+      <c r="AB1" s="90"/>
+      <c r="AC1" s="90"/>
+      <c r="AD1" s="90"/>
+      <c r="AE1" s="90"/>
+      <c r="AF1" s="90"/>
+      <c r="AG1" s="90"/>
+      <c r="AH1" s="90"/>
+      <c r="AI1" s="91"/>
     </row>
     <row r="2" spans="1:35" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="72"/>
-      <c r="B2" s="72"/>
-      <c r="C2" s="73" t="s">
+      <c r="A2" s="93"/>
+      <c r="B2" s="93"/>
+      <c r="C2" s="94" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="75"/>
-      <c r="I2" s="73" t="s">
+      <c r="D2" s="95"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="95"/>
+      <c r="G2" s="95"/>
+      <c r="H2" s="96"/>
+      <c r="I2" s="94" t="s">
         <v>29</v>
       </c>
-      <c r="J2" s="74"/>
-      <c r="K2" s="74"/>
-      <c r="L2" s="74"/>
-      <c r="M2" s="74"/>
-      <c r="N2" s="74"/>
-      <c r="O2" s="74"/>
-      <c r="P2" s="74"/>
-      <c r="Q2" s="75"/>
-      <c r="R2" s="74" t="s">
+      <c r="J2" s="95"/>
+      <c r="K2" s="95"/>
+      <c r="L2" s="95"/>
+      <c r="M2" s="95"/>
+      <c r="N2" s="95"/>
+      <c r="O2" s="95"/>
+      <c r="P2" s="95"/>
+      <c r="Q2" s="96"/>
+      <c r="R2" s="95" t="s">
         <v>23</v>
       </c>
-      <c r="S2" s="74"/>
-      <c r="T2" s="74"/>
-      <c r="U2" s="74"/>
-      <c r="V2" s="74"/>
-      <c r="W2" s="74"/>
-      <c r="X2" s="74"/>
-      <c r="Y2" s="74"/>
-      <c r="Z2" s="74"/>
-      <c r="AA2" s="75"/>
-      <c r="AB2" s="76" t="s">
+      <c r="S2" s="95"/>
+      <c r="T2" s="95"/>
+      <c r="U2" s="95"/>
+      <c r="V2" s="95"/>
+      <c r="W2" s="95"/>
+      <c r="X2" s="95"/>
+      <c r="Y2" s="95"/>
+      <c r="Z2" s="95"/>
+      <c r="AA2" s="96"/>
+      <c r="AB2" s="97" t="s">
         <v>26</v>
       </c>
-      <c r="AC2" s="77"/>
-      <c r="AD2" s="77"/>
-      <c r="AE2" s="78"/>
-      <c r="AF2" s="65" t="s">
+      <c r="AC2" s="98"/>
+      <c r="AD2" s="98"/>
+      <c r="AE2" s="99"/>
+      <c r="AF2" s="86" t="s">
         <v>28</v>
       </c>
-      <c r="AG2" s="66"/>
-      <c r="AH2" s="66"/>
-      <c r="AI2" s="67"/>
+      <c r="AG2" s="87"/>
+      <c r="AH2" s="87"/>
+      <c r="AI2" s="88"/>
     </row>
     <row r="3" spans="1:35" ht="180" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
@@ -3940,7 +3948,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="79" t="s">
+      <c r="A2" s="100" t="s">
         <v>25</v>
       </c>
       <c r="B2" s="9">
@@ -3964,10 +3972,10 @@
         <f>ROUND(F2/22/8,2)</f>
         <v>1183.71</v>
       </c>
-      <c r="H2" s="102"/>
+      <c r="H2" s="74"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="80"/>
+      <c r="A3" s="101"/>
       <c r="B3" s="9">
         <v>2</v>
       </c>
@@ -3989,10 +3997,10 @@
         <f t="shared" ref="G3:G34" si="2">ROUND(F3/22/8,2)</f>
         <v>946.97</v>
       </c>
-      <c r="H3" s="102"/>
+      <c r="H3" s="74"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="80"/>
+      <c r="A4" s="101"/>
       <c r="B4" s="9">
         <v>3</v>
       </c>
@@ -4014,10 +4022,10 @@
         <f t="shared" si="2"/>
         <v>946.97</v>
       </c>
-      <c r="H4" s="102"/>
+      <c r="H4" s="74"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="80"/>
+      <c r="A5" s="101"/>
       <c r="B5" s="9">
         <v>4</v>
       </c>
@@ -4039,10 +4047,10 @@
         <f t="shared" si="2"/>
         <v>355.11</v>
       </c>
-      <c r="H5" s="102"/>
+      <c r="H5" s="74"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="80"/>
+      <c r="A6" s="101"/>
       <c r="B6" s="9">
         <v>5</v>
       </c>
@@ -4064,10 +4072,10 @@
         <f t="shared" si="2"/>
         <v>355.11</v>
       </c>
-      <c r="H6" s="102"/>
+      <c r="H6" s="74"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="81"/>
+      <c r="A7" s="102"/>
       <c r="B7" s="9">
         <v>6</v>
       </c>
@@ -4089,10 +4097,10 @@
         <f t="shared" si="2"/>
         <v>946.97</v>
       </c>
-      <c r="H7" s="102"/>
+      <c r="H7" s="74"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="79" t="s">
+      <c r="A8" s="100" t="s">
         <v>29</v>
       </c>
       <c r="B8" s="9">
@@ -4118,7 +4126,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="80"/>
+      <c r="A9" s="101"/>
       <c r="B9" s="9">
         <v>8</v>
       </c>
@@ -4142,7 +4150,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="80"/>
+      <c r="A10" s="101"/>
       <c r="B10" s="9">
         <v>9</v>
       </c>
@@ -4166,7 +4174,7 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="80"/>
+      <c r="A11" s="101"/>
       <c r="B11" s="9">
         <v>10</v>
       </c>
@@ -4190,7 +4198,7 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="80"/>
+      <c r="A12" s="101"/>
       <c r="B12" s="9">
         <v>11</v>
       </c>
@@ -4214,7 +4222,7 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="80"/>
+      <c r="A13" s="101"/>
       <c r="B13" s="9">
         <v>12</v>
       </c>
@@ -4238,7 +4246,7 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="80"/>
+      <c r="A14" s="101"/>
       <c r="B14" s="9">
         <v>13</v>
       </c>
@@ -4262,7 +4270,7 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="80"/>
+      <c r="A15" s="101"/>
       <c r="B15" s="9">
         <v>14</v>
       </c>
@@ -4286,7 +4294,7 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="80"/>
+      <c r="A16" s="101"/>
       <c r="B16" s="9">
         <v>15</v>
       </c>
@@ -4310,7 +4318,7 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="79" t="s">
+      <c r="A17" s="100" t="s">
         <v>69</v>
       </c>
       <c r="B17" s="9">
@@ -4336,7 +4344,7 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="80"/>
+      <c r="A18" s="101"/>
       <c r="B18" s="9">
         <v>17</v>
       </c>
@@ -4360,7 +4368,7 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="80"/>
+      <c r="A19" s="101"/>
       <c r="B19" s="9">
         <v>18</v>
       </c>
@@ -4384,7 +4392,7 @@
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="80"/>
+      <c r="A20" s="101"/>
       <c r="B20" s="9">
         <v>19</v>
       </c>
@@ -4408,7 +4416,7 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="80"/>
+      <c r="A21" s="101"/>
       <c r="B21" s="9">
         <v>20</v>
       </c>
@@ -4432,7 +4440,7 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="80"/>
+      <c r="A22" s="101"/>
       <c r="B22" s="9">
         <v>21</v>
       </c>
@@ -4456,7 +4464,7 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="80"/>
+      <c r="A23" s="101"/>
       <c r="B23" s="9">
         <v>22</v>
       </c>
@@ -4480,7 +4488,7 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="80"/>
+      <c r="A24" s="101"/>
       <c r="B24" s="9">
         <v>23</v>
       </c>
@@ -4504,7 +4512,7 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="80"/>
+      <c r="A25" s="101"/>
       <c r="B25" s="9">
         <v>24</v>
       </c>
@@ -4528,7 +4536,7 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="81"/>
+      <c r="A26" s="102"/>
       <c r="B26" s="9">
         <v>25</v>
       </c>
@@ -4552,7 +4560,7 @@
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="79" t="s">
+      <c r="A27" s="100" t="s">
         <v>70</v>
       </c>
       <c r="B27" s="9">
@@ -4578,7 +4586,7 @@
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="80"/>
+      <c r="A28" s="101"/>
       <c r="B28" s="9">
         <v>27</v>
       </c>
@@ -4602,7 +4610,7 @@
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="80"/>
+      <c r="A29" s="101"/>
       <c r="B29" s="9">
         <v>28</v>
       </c>
@@ -4626,7 +4634,7 @@
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="81"/>
+      <c r="A30" s="102"/>
       <c r="B30" s="9">
         <v>29</v>
       </c>
@@ -4650,7 +4658,7 @@
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="79" t="s">
+      <c r="A31" s="100" t="s">
         <v>28</v>
       </c>
       <c r="B31" s="9">
@@ -4676,7 +4684,7 @@
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="80"/>
+      <c r="A32" s="101"/>
       <c r="B32" s="9">
         <v>31</v>
       </c>
@@ -4700,7 +4708,7 @@
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="80"/>
+      <c r="A33" s="101"/>
       <c r="B33" s="9">
         <v>32</v>
       </c>
@@ -4724,7 +4732,7 @@
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="80"/>
+      <c r="A34" s="101"/>
       <c r="B34" s="9">
         <v>33</v>
       </c>

--- a/Project Management/Effort Calculation.xlsx
+++ b/Project Management/Effort Calculation.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="330" windowWidth="18795" windowHeight="11700" tabRatio="785"/>
+    <workbookView xWindow="360" yWindow="330" windowWidth="18795" windowHeight="11700" tabRatio="785" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="8" r:id="rId1"/>
@@ -24,7 +24,7 @@
     <definedName name="MemberList">'Team Member'!$B$4:$B$10</definedName>
     <definedName name="SkillList">'Skill Set'!$C$2:$C$34</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -286,11 +286,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;₹&quot;\ #,##0.00"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1103,7 +1103,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1138,7 +1137,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1314,12 +1312,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:O20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="2.85546875" style="1" customWidth="1"/>
     <col min="2" max="4" width="9.140625" style="1"/>
@@ -1327,8 +1325,8 @@
     <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:15" ht="15.75" thickBot="1"/>
+    <row r="2" spans="2:15">
       <c r="B2" s="19"/>
       <c r="C2" s="20"/>
       <c r="D2" s="20"/>
@@ -1344,7 +1342,7 @@
       <c r="N2" s="20"/>
       <c r="O2" s="21"/>
     </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:15">
       <c r="B3" s="3"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
@@ -1360,7 +1358,7 @@
       <c r="N3" s="4"/>
       <c r="O3" s="22"/>
     </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:15">
       <c r="B4" s="3"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -1376,7 +1374,7 @@
       <c r="N4" s="4"/>
       <c r="O4" s="22"/>
     </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:15">
       <c r="B5" s="3"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -1392,7 +1390,7 @@
       <c r="N5" s="4"/>
       <c r="O5" s="22"/>
     </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:15">
       <c r="B6" s="3"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
@@ -1408,7 +1406,7 @@
       <c r="N6" s="4"/>
       <c r="O6" s="22"/>
     </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:15">
       <c r="B7" s="3"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
@@ -1424,7 +1422,7 @@
       <c r="N7" s="4"/>
       <c r="O7" s="22"/>
     </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:15">
       <c r="B8" s="3"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
@@ -1440,7 +1438,7 @@
       <c r="N8" s="4"/>
       <c r="O8" s="22"/>
     </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:15">
       <c r="B9" s="3"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
@@ -1456,7 +1454,7 @@
       <c r="N9" s="4"/>
       <c r="O9" s="22"/>
     </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:15">
       <c r="B10" s="3"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
@@ -1474,7 +1472,7 @@
       <c r="N10" s="4"/>
       <c r="O10" s="22"/>
     </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:15">
       <c r="B11" s="3"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -1485,7 +1483,7 @@
       <c r="G11" s="78"/>
       <c r="H11" s="82">
         <f>Summery!D10</f>
-        <v>4734.8499999999995</v>
+        <v>5918.57</v>
       </c>
       <c r="I11" s="83"/>
       <c r="J11" s="84"/>
@@ -1495,7 +1493,7 @@
       <c r="N11" s="4"/>
       <c r="O11" s="22"/>
     </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:15">
       <c r="B12" s="3"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
@@ -1516,7 +1514,7 @@
       <c r="N12" s="4"/>
       <c r="O12" s="22"/>
     </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:15">
       <c r="B13" s="3"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -1537,7 +1535,7 @@
       <c r="N13" s="4"/>
       <c r="O13" s="22"/>
     </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:15">
       <c r="B14" s="3"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
@@ -1553,7 +1551,7 @@
       <c r="N14" s="4"/>
       <c r="O14" s="22"/>
     </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:15">
       <c r="B15" s="3"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -1569,7 +1567,7 @@
       <c r="N15" s="4"/>
       <c r="O15" s="22"/>
     </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:15">
       <c r="B16" s="3"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -1585,7 +1583,7 @@
       <c r="N16" s="4"/>
       <c r="O16" s="22"/>
     </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:15">
       <c r="B17" s="3"/>
       <c r="D17" s="4"/>
       <c r="E17" s="5"/>
@@ -1600,7 +1598,7 @@
       <c r="N17" s="4"/>
       <c r="O17" s="22"/>
     </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:15">
       <c r="B18" s="3"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
@@ -1615,7 +1613,7 @@
       <c r="N18" s="4"/>
       <c r="O18" s="22"/>
     </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:15">
       <c r="B19" s="3"/>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
@@ -1631,7 +1629,7 @@
       <c r="N19" s="4"/>
       <c r="O19" s="22"/>
     </row>
-    <row r="20" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:15" ht="15.75" thickBot="1">
       <c r="B20" s="6"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -1664,12 +1662,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="2.85546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="28.5703125" style="1" customWidth="1"/>
@@ -1691,7 +1689,7 @@
     <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17">
       <c r="A1" s="4"/>
       <c r="B1" s="85" t="s">
         <v>62</v>
@@ -1712,7 +1710,7 @@
       <c r="P1" s="8"/>
       <c r="Q1" s="8"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17">
       <c r="A2" s="4"/>
       <c r="B2" s="11" t="s">
         <v>6</v>
@@ -1745,7 +1743,7 @@
       <c r="P2" s="8"/>
       <c r="Q2" s="8"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17">
       <c r="A3" s="4"/>
       <c r="B3" s="10" t="s">
         <v>7</v>
@@ -1780,7 +1778,7 @@
       <c r="P3" s="5"/>
       <c r="Q3" s="5"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17">
       <c r="A4" s="4"/>
       <c r="B4" s="10" t="s">
         <v>10</v>
@@ -1803,7 +1801,7 @@
       </c>
       <c r="H4" s="34">
         <f>SUM(School!I:I)</f>
-        <v>0</v>
+        <v>1183.72</v>
       </c>
       <c r="I4" s="5"/>
       <c r="J4" s="4"/>
@@ -1815,7 +1813,7 @@
       <c r="P4" s="5"/>
       <c r="Q4" s="5"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17">
       <c r="A5" s="4"/>
       <c r="B5" s="10" t="s">
         <v>8</v>
@@ -1850,7 +1848,7 @@
       <c r="P5" s="5"/>
       <c r="Q5" s="5"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17">
       <c r="A6" s="4"/>
       <c r="B6" s="10" t="s">
         <v>11</v>
@@ -1885,7 +1883,7 @@
       <c r="P6" s="5"/>
       <c r="Q6" s="5"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17">
       <c r="A7" s="4"/>
       <c r="B7" s="10" t="s">
         <v>12</v>
@@ -1920,7 +1918,7 @@
       <c r="P7" s="5"/>
       <c r="Q7" s="5"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17">
       <c r="A8" s="4"/>
       <c r="B8" s="10" t="s">
         <v>13</v>
@@ -1943,7 +1941,7 @@
       </c>
       <c r="H8" s="35">
         <f>SUM(H3:H7)</f>
-        <v>4734.8499999999995</v>
+        <v>5918.5700000000006</v>
       </c>
       <c r="I8" s="5"/>
       <c r="J8" s="4"/>
@@ -1955,7 +1953,7 @@
       <c r="P8" s="5"/>
       <c r="Q8" s="5"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17">
       <c r="A9" s="4"/>
       <c r="B9" s="10" t="s">
         <v>14</v>
@@ -1966,7 +1964,7 @@
       </c>
       <c r="D9" s="34">
         <f>SUMIF(Business!B:B,B9,Business!I:I) + SUMIF(School!B:B,B9,School!I:I) + SUMIF(Service!B:B,B9,Service!I:I)+SUMIF(Retail!B:B,B9,Retail!I:I) + SUMIF(Tourism!B:B,B9,Tourism!I:I)</f>
-        <v>0</v>
+        <v>1183.72</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="4"/>
@@ -1982,7 +1980,7 @@
       <c r="P9" s="5"/>
       <c r="Q9" s="5"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17">
       <c r="A10" s="4"/>
       <c r="B10" s="12" t="s">
         <v>0</v>
@@ -1993,7 +1991,7 @@
       </c>
       <c r="D10" s="35">
         <f>SUM(D3:D9)</f>
-        <v>4734.8499999999995</v>
+        <v>5918.57</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="4"/>
@@ -2009,7 +2007,7 @@
       <c r="P10" s="5"/>
       <c r="Q10" s="5"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="17"/>
@@ -2025,7 +2023,7 @@
       <c r="P11" s="5"/>
       <c r="Q11" s="5"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="17"/>
@@ -2041,7 +2039,7 @@
       <c r="P12" s="5"/>
       <c r="Q12" s="5"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="17"/>
@@ -2060,7 +2058,7 @@
       <c r="P13" s="5"/>
       <c r="Q13" s="5"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="17"/>
@@ -2079,7 +2077,7 @@
       <c r="P14" s="5"/>
       <c r="Q14" s="5"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="17"/>
@@ -2098,7 +2096,7 @@
       <c r="P15" s="5"/>
       <c r="Q15" s="5"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="17"/>
@@ -2117,7 +2115,7 @@
       <c r="P16" s="5"/>
       <c r="Q16" s="5"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="17"/>
@@ -2136,7 +2134,7 @@
       <c r="P17" s="5"/>
       <c r="Q17" s="5"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="17"/>
@@ -2169,14 +2167,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.140625" style="66" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.42578125" style="58" bestFit="1" customWidth="1"/>
@@ -2191,7 +2189,7 @@
     <col min="11" max="16384" width="9.140625" style="58"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10">
       <c r="A1" s="70" t="s">
         <v>4</v>
       </c>
@@ -2223,7 +2221,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10">
       <c r="A2" s="59" t="s">
         <v>51</v>
       </c>
@@ -2260,7 +2258,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10">
       <c r="A3" s="59"/>
       <c r="B3" s="60"/>
       <c r="C3" s="60"/>
@@ -2287,7 +2285,7 @@
       </c>
       <c r="J3" s="65"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10">
       <c r="A4" s="59"/>
       <c r="B4" s="60"/>
       <c r="C4" s="60"/>
@@ -2314,7 +2312,7 @@
       </c>
       <c r="J4" s="65"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10">
       <c r="A5" s="59"/>
       <c r="B5" s="60"/>
       <c r="C5" s="60"/>
@@ -2341,7 +2339,7 @@
       </c>
       <c r="J5" s="65"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10">
       <c r="A6" s="59"/>
       <c r="B6" s="60"/>
       <c r="C6" s="60"/>
@@ -2383,14 +2381,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.7109375" style="66" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.42578125" style="58" bestFit="1" customWidth="1"/>
@@ -2405,7 +2403,7 @@
     <col min="11" max="16384" width="9.140625" style="58"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10">
       <c r="A1" s="54" t="s">
         <v>4</v>
       </c>
@@ -2437,7 +2435,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10">
       <c r="A2" s="59">
         <v>42298</v>
       </c>
@@ -2464,15 +2462,15 @@
       </c>
       <c r="H2" s="64">
         <f>IF(ISERROR(INDEX(Competency,F2,E2)), 0, INDEX(Competency,F2,E2))</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I2" s="63">
         <f>D2*G2*H2</f>
-        <v>0</v>
+        <v>591.86</v>
       </c>
       <c r="J2" s="65"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10">
       <c r="A3" s="59">
         <v>42299</v>
       </c>
@@ -2499,15 +2497,15 @@
       </c>
       <c r="H3" s="64">
         <f>IF(ISERROR(INDEX(Competency,F3,E3)), 0, INDEX(Competency,F3,E3))</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I3" s="63">
         <f t="shared" ref="I3:I6" si="0">D3*G3*H3</f>
-        <v>0</v>
+        <v>591.86</v>
       </c>
       <c r="J3" s="65"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10">
       <c r="A4" s="59"/>
       <c r="B4" s="60"/>
       <c r="C4" s="60"/>
@@ -2534,7 +2532,7 @@
       </c>
       <c r="J4" s="65"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10">
       <c r="A5" s="59"/>
       <c r="B5" s="60"/>
       <c r="C5" s="60"/>
@@ -2561,7 +2559,7 @@
       </c>
       <c r="J5" s="65"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10">
       <c r="A6" s="59"/>
       <c r="B6" s="60"/>
       <c r="C6" s="60"/>
@@ -2602,14 +2600,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.140625" style="66" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.42578125" style="58" bestFit="1" customWidth="1"/>
@@ -2624,7 +2622,7 @@
     <col min="11" max="16384" width="9.140625" style="58"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10">
       <c r="A1" s="54" t="s">
         <v>4</v>
       </c>
@@ -2656,7 +2654,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10">
       <c r="A2" s="59"/>
       <c r="B2" s="60" t="s">
         <v>8</v>
@@ -2687,7 +2685,7 @@
       </c>
       <c r="J2" s="65"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10">
       <c r="A3" s="59"/>
       <c r="B3" s="60" t="s">
         <v>8</v>
@@ -2718,7 +2716,7 @@
       </c>
       <c r="J3" s="65"/>
     </row>
-    <row r="4" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="30">
       <c r="A4" s="59" t="s">
         <v>77</v>
       </c>
@@ -2755,7 +2753,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10">
       <c r="A5" s="59"/>
       <c r="B5" s="60"/>
       <c r="C5" s="60"/>
@@ -2782,7 +2780,7 @@
       </c>
       <c r="J5" s="65"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10">
       <c r="A6" s="59"/>
       <c r="B6" s="60"/>
       <c r="C6" s="60"/>
@@ -2823,14 +2821,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.140625" style="66" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.42578125" style="58" bestFit="1" customWidth="1"/>
@@ -2845,7 +2843,7 @@
     <col min="11" max="16384" width="9.140625" style="58"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10">
       <c r="A1" s="54" t="s">
         <v>4</v>
       </c>
@@ -2877,7 +2875,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10">
       <c r="A2" s="59" t="s">
         <v>77</v>
       </c>
@@ -2914,7 +2912,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10">
       <c r="A3" s="59" t="s">
         <v>77</v>
       </c>
@@ -2951,7 +2949,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10">
       <c r="A4" s="59"/>
       <c r="B4" s="60"/>
       <c r="C4" s="60"/>
@@ -2978,7 +2976,7 @@
       </c>
       <c r="J4" s="65"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10">
       <c r="A5" s="59"/>
       <c r="B5" s="60"/>
       <c r="C5" s="60"/>
@@ -3005,7 +3003,7 @@
       </c>
       <c r="J5" s="65"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10">
       <c r="A6" s="59"/>
       <c r="B6" s="60"/>
       <c r="C6" s="60"/>
@@ -3046,14 +3044,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.140625" style="66" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.42578125" style="58" bestFit="1" customWidth="1"/>
@@ -3068,7 +3066,7 @@
     <col min="11" max="16384" width="9.140625" style="58"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10">
       <c r="A1" s="54" t="s">
         <v>4</v>
       </c>
@@ -3100,7 +3098,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10">
       <c r="A2" s="59"/>
       <c r="B2" s="60"/>
       <c r="C2" s="60"/>
@@ -3127,7 +3125,7 @@
       </c>
       <c r="J2" s="65"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10">
       <c r="A3" s="59"/>
       <c r="B3" s="60"/>
       <c r="C3" s="60"/>
@@ -3154,7 +3152,7 @@
       </c>
       <c r="J3" s="65"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10">
       <c r="A4" s="59"/>
       <c r="B4" s="60"/>
       <c r="C4" s="60"/>
@@ -3181,7 +3179,7 @@
       </c>
       <c r="J4" s="65"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10">
       <c r="A5" s="59"/>
       <c r="B5" s="60"/>
       <c r="C5" s="60"/>
@@ -3208,7 +3206,7 @@
       </c>
       <c r="J5" s="65"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10">
       <c r="A6" s="59"/>
       <c r="B6" s="60"/>
       <c r="C6" s="60"/>
@@ -3249,14 +3247,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AI10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="4.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.42578125" bestFit="1" customWidth="1"/>
@@ -3269,7 +3267,7 @@
     <col min="30" max="35" width="4.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:35" ht="15" customHeight="1" thickBot="1">
       <c r="A1" s="92" t="s">
         <v>83</v>
       </c>
@@ -3310,7 +3308,7 @@
       <c r="AH1" s="90"/>
       <c r="AI1" s="91"/>
     </row>
-    <row r="2" spans="1:35" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A2" s="93"/>
       <c r="B2" s="93"/>
       <c r="C2" s="94" t="s">
@@ -3357,7 +3355,7 @@
       <c r="AH2" s="87"/>
       <c r="AI2" s="88"/>
     </row>
-    <row r="3" spans="1:35" ht="180" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" ht="180">
       <c r="A3" s="11" t="s">
         <v>5</v>
       </c>
@@ -3464,7 +3462,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35">
       <c r="A4" s="24">
         <v>1</v>
       </c>
@@ -3571,7 +3569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35">
       <c r="A5" s="24">
         <v>2</v>
       </c>
@@ -3620,7 +3618,7 @@
       <c r="AH5" s="36"/>
       <c r="AI5" s="45"/>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35">
       <c r="A6" s="24">
         <v>3</v>
       </c>
@@ -3661,7 +3659,7 @@
       <c r="AH6" s="36"/>
       <c r="AI6" s="45"/>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35">
       <c r="A7" s="24">
         <v>4</v>
       </c>
@@ -3702,7 +3700,7 @@
       <c r="AH7" s="36"/>
       <c r="AI7" s="45"/>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35">
       <c r="A8" s="24">
         <v>5</v>
       </c>
@@ -3743,7 +3741,7 @@
       <c r="AH8" s="36"/>
       <c r="AI8" s="45"/>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35">
       <c r="A9" s="24">
         <v>6</v>
       </c>
@@ -3784,7 +3782,7 @@
       <c r="AH9" s="36"/>
       <c r="AI9" s="45"/>
     </row>
-    <row r="10" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:35" ht="15.75" thickBot="1">
       <c r="A10" s="24">
         <v>7</v>
       </c>
@@ -3810,13 +3808,13 @@
         <v>0.25</v>
       </c>
       <c r="I10" s="48">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="J10" s="48">
         <v>0.25</v>
       </c>
       <c r="K10" s="48">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="L10" s="48">
         <v>0</v>
@@ -3907,14 +3905,14 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="17.42578125" style="28" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="3" bestFit="1" customWidth="1"/>
@@ -3924,7 +3922,7 @@
     <col min="7" max="7" width="13.140625" style="30" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" s="11" t="s">
         <v>71</v>
       </c>
@@ -3947,7 +3945,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="A2" s="100" t="s">
         <v>25</v>
       </c>
@@ -3974,7 +3972,7 @@
       </c>
       <c r="H2" s="74"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="A3" s="101"/>
       <c r="B3" s="9">
         <v>2</v>
@@ -3999,7 +3997,7 @@
       </c>
       <c r="H3" s="74"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8">
       <c r="A4" s="101"/>
       <c r="B4" s="9">
         <v>3</v>
@@ -4024,7 +4022,7 @@
       </c>
       <c r="H4" s="74"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8">
       <c r="A5" s="101"/>
       <c r="B5" s="9">
         <v>4</v>
@@ -4049,7 +4047,7 @@
       </c>
       <c r="H5" s="74"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8">
       <c r="A6" s="101"/>
       <c r="B6" s="9">
         <v>5</v>
@@ -4074,7 +4072,7 @@
       </c>
       <c r="H6" s="74"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8">
       <c r="A7" s="102"/>
       <c r="B7" s="9">
         <v>6</v>
@@ -4099,7 +4097,7 @@
       </c>
       <c r="H7" s="74"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8">
       <c r="A8" s="100" t="s">
         <v>29</v>
       </c>
@@ -4125,7 +4123,7 @@
         <v>591.86</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8">
       <c r="A9" s="101"/>
       <c r="B9" s="9">
         <v>8</v>
@@ -4149,7 +4147,7 @@
         <v>236.74</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8">
       <c r="A10" s="101"/>
       <c r="B10" s="9">
         <v>9</v>
@@ -4173,7 +4171,7 @@
         <v>177.56</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8">
       <c r="A11" s="101"/>
       <c r="B11" s="9">
         <v>10</v>
@@ -4197,7 +4195,7 @@
         <v>591.86</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8">
       <c r="A12" s="101"/>
       <c r="B12" s="9">
         <v>11</v>
@@ -4221,7 +4219,7 @@
         <v>177.56</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8">
       <c r="A13" s="101"/>
       <c r="B13" s="9">
         <v>12</v>
@@ -4245,7 +4243,7 @@
         <v>118.37</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8">
       <c r="A14" s="101"/>
       <c r="B14" s="9">
         <v>13</v>
@@ -4269,7 +4267,7 @@
         <v>118.37</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8">
       <c r="A15" s="101"/>
       <c r="B15" s="9">
         <v>14</v>
@@ -4293,7 +4291,7 @@
         <v>295.93</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8">
       <c r="A16" s="101"/>
       <c r="B16" s="9">
         <v>15</v>
@@ -4317,7 +4315,7 @@
         <v>118.37</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7">
       <c r="A17" s="100" t="s">
         <v>69</v>
       </c>
@@ -4343,7 +4341,7 @@
         <v>177.56</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7">
       <c r="A18" s="101"/>
       <c r="B18" s="9">
         <v>17</v>
@@ -4367,7 +4365,7 @@
         <v>71.02</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7">
       <c r="A19" s="101"/>
       <c r="B19" s="9">
         <v>18</v>
@@ -4391,7 +4389,7 @@
         <v>35.51</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7">
       <c r="A20" s="101"/>
       <c r="B20" s="9">
         <v>19</v>
@@ -4415,7 +4413,7 @@
         <v>236.74</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7">
       <c r="A21" s="101"/>
       <c r="B21" s="9">
         <v>20</v>
@@ -4439,7 +4437,7 @@
         <v>71.02</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7">
       <c r="A22" s="101"/>
       <c r="B22" s="9">
         <v>21</v>
@@ -4463,7 +4461,7 @@
         <v>35.51</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7">
       <c r="A23" s="101"/>
       <c r="B23" s="9">
         <v>22</v>
@@ -4487,7 +4485,7 @@
         <v>71.02</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7">
       <c r="A24" s="101"/>
       <c r="B24" s="9">
         <v>23</v>
@@ -4511,7 +4509,7 @@
         <v>35.51</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7">
       <c r="A25" s="101"/>
       <c r="B25" s="9">
         <v>24</v>
@@ -4535,7 +4533,7 @@
         <v>35.51</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7">
       <c r="A26" s="102"/>
       <c r="B26" s="9">
         <v>25</v>
@@ -4559,7 +4557,7 @@
         <v>71.02</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7">
       <c r="A27" s="100" t="s">
         <v>70</v>
       </c>
@@ -4585,7 +4583,7 @@
         <v>295.93</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7">
       <c r="A28" s="101"/>
       <c r="B28" s="9">
         <v>27</v>
@@ -4609,7 +4607,7 @@
         <v>71.02</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7">
       <c r="A29" s="101"/>
       <c r="B29" s="9">
         <v>28</v>
@@ -4633,7 +4631,7 @@
         <v>177.56</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7">
       <c r="A30" s="102"/>
       <c r="B30" s="9">
         <v>29</v>
@@ -4657,7 +4655,7 @@
         <v>71.02</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7">
       <c r="A31" s="100" t="s">
         <v>28</v>
       </c>
@@ -4683,7 +4681,7 @@
         <v>35.51</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7">
       <c r="A32" s="101"/>
       <c r="B32" s="9">
         <v>31</v>
@@ -4707,7 +4705,7 @@
         <v>35.51</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7">
       <c r="A33" s="101"/>
       <c r="B33" s="9">
         <v>32</v>
@@ -4731,7 +4729,7 @@
         <v>71.02</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7">
       <c r="A34" s="101"/>
       <c r="B34" s="9">
         <v>33</v>

--- a/Project Management/Effort Calculation.xlsx
+++ b/Project Management/Effort Calculation.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="330" windowWidth="18795" windowHeight="11700" tabRatio="785" activeTab="7"/>
@@ -24,7 +24,7 @@
     <definedName name="MemberList">'Team Member'!$B$4:$B$10</definedName>
     <definedName name="SkillList">'Skill Set'!$C$2:$C$34</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -3251,7 +3251,7 @@
   <dimension ref="A1:AI10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="C5" sqref="C5:AI5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3577,17 +3577,35 @@
         <v>10</v>
       </c>
       <c r="C5" s="46">
-        <v>0</v>
-      </c>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="47"/>
-      <c r="I5" s="46"/>
-      <c r="J5" s="37"/>
-      <c r="K5" s="37"/>
-      <c r="L5" s="37"/>
+        <v>0.5</v>
+      </c>
+      <c r="D5" s="37">
+        <v>0.2</v>
+      </c>
+      <c r="E5" s="37">
+        <v>0</v>
+      </c>
+      <c r="F5" s="37">
+        <v>0</v>
+      </c>
+      <c r="G5" s="37">
+        <v>0</v>
+      </c>
+      <c r="H5" s="47">
+        <v>0</v>
+      </c>
+      <c r="I5" s="46">
+        <v>0</v>
+      </c>
+      <c r="J5" s="37">
+        <v>0.2</v>
+      </c>
+      <c r="K5" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="L5" s="37">
+        <v>0.3</v>
+      </c>
       <c r="M5" s="37">
         <v>1</v>
       </c>
@@ -3595,28 +3613,68 @@
         <v>1</v>
       </c>
       <c r="O5" s="53">
-        <v>1</v>
-      </c>
-      <c r="P5" s="53"/>
-      <c r="Q5" s="47"/>
-      <c r="R5" s="41"/>
-      <c r="S5" s="37"/>
-      <c r="T5" s="36"/>
-      <c r="U5" s="36"/>
-      <c r="V5" s="36"/>
-      <c r="W5" s="36"/>
-      <c r="X5" s="36"/>
-      <c r="Y5" s="36"/>
-      <c r="Z5" s="36"/>
-      <c r="AA5" s="45"/>
-      <c r="AB5" s="44"/>
-      <c r="AC5" s="40"/>
-      <c r="AD5" s="36"/>
-      <c r="AE5" s="45"/>
-      <c r="AF5" s="44"/>
-      <c r="AG5" s="36"/>
-      <c r="AH5" s="36"/>
-      <c r="AI5" s="45"/>
+        <v>0.5</v>
+      </c>
+      <c r="P5" s="53">
+        <v>0.8</v>
+      </c>
+      <c r="Q5" s="47">
+        <v>0.5</v>
+      </c>
+      <c r="R5" s="41">
+        <v>0</v>
+      </c>
+      <c r="S5" s="37">
+        <v>0</v>
+      </c>
+      <c r="T5" s="36">
+        <v>0</v>
+      </c>
+      <c r="U5" s="36">
+        <v>0</v>
+      </c>
+      <c r="V5" s="36">
+        <v>0</v>
+      </c>
+      <c r="W5" s="36">
+        <v>0</v>
+      </c>
+      <c r="X5" s="36">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="36">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="36">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="45">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="44">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="40">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="36">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="45">
+        <v>0</v>
+      </c>
+      <c r="AF5" s="44">
+        <v>0</v>
+      </c>
+      <c r="AG5" s="36">
+        <v>0</v>
+      </c>
+      <c r="AH5" s="36">
+        <v>0</v>
+      </c>
+      <c r="AI5" s="45">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:35">
       <c r="A6" s="24">

--- a/Project Management/Effort Calculation.xlsx
+++ b/Project Management/Effort Calculation.xlsx
@@ -1483,7 +1483,7 @@
       <c r="G11" s="78"/>
       <c r="H11" s="82">
         <f>Summery!D10</f>
-        <v>5918.57</v>
+        <v>6066.5349999999999</v>
       </c>
       <c r="I11" s="83"/>
       <c r="J11" s="84"/>
@@ -1789,7 +1789,7 @@
       </c>
       <c r="D4" s="34">
         <f>SUMIF(Business!B:B,B4,Business!I:I) + SUMIF(School!B:B,B4,School!I:I) + SUMIF(Service!B:B,B4,Service!I:I)+SUMIF(Retail!B:B,B4,Retail!I:I) + SUMIF(Tourism!B:B,B4,Tourism!I:I)</f>
-        <v>0</v>
+        <v>147.965</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="10" t="s">
@@ -1871,7 +1871,7 @@
       </c>
       <c r="H6" s="34">
         <f>SUM(Retail!I:I)</f>
-        <v>591.86</v>
+        <v>739.82500000000005</v>
       </c>
       <c r="I6" s="5"/>
       <c r="J6" s="4"/>
@@ -1941,7 +1941,7 @@
       </c>
       <c r="H8" s="35">
         <f>SUM(H3:H7)</f>
-        <v>5918.5700000000006</v>
+        <v>6066.5350000000008</v>
       </c>
       <c r="I8" s="5"/>
       <c r="J8" s="4"/>
@@ -1991,7 +1991,7 @@
       </c>
       <c r="D10" s="35">
         <f>SUM(D3:D9)</f>
-        <v>5918.57</v>
+        <v>6066.5349999999999</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="4"/>
@@ -2902,11 +2902,11 @@
       </c>
       <c r="H2" s="64">
         <f>IF(ISERROR(INDEX(Competency,F2,E2)), 0, INDEX(Competency,F2,E2))</f>
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="I2" s="63">
         <f>D2*G2*H2</f>
-        <v>0</v>
+        <v>147.965</v>
       </c>
       <c r="J2" s="65" t="s">
         <v>81</v>
@@ -3251,7 +3251,7 @@
   <dimension ref="A1:AI10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:AI5"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3595,7 +3595,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="46">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="J5" s="37">
         <v>0.2</v>

--- a/Project Management/Effort Calculation.xlsx
+++ b/Project Management/Effort Calculation.xlsx
@@ -1483,7 +1483,7 @@
       <c r="G11" s="78"/>
       <c r="H11" s="82">
         <f>Summery!D10</f>
-        <v>6066.5349999999999</v>
+        <v>6392.058</v>
       </c>
       <c r="I11" s="83"/>
       <c r="J11" s="84"/>
@@ -1789,7 +1789,7 @@
       </c>
       <c r="D4" s="34">
         <f>SUMIF(Business!B:B,B4,Business!I:I) + SUMIF(School!B:B,B4,School!I:I) + SUMIF(Service!B:B,B4,Service!I:I)+SUMIF(Retail!B:B,B4,Retail!I:I) + SUMIF(Tourism!B:B,B4,Tourism!I:I)</f>
-        <v>147.965</v>
+        <v>473.48800000000006</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="10" t="s">
@@ -1871,7 +1871,7 @@
       </c>
       <c r="H6" s="34">
         <f>SUM(Retail!I:I)</f>
-        <v>739.82500000000005</v>
+        <v>1065.348</v>
       </c>
       <c r="I6" s="5"/>
       <c r="J6" s="4"/>
@@ -1941,7 +1941,7 @@
       </c>
       <c r="H8" s="35">
         <f>SUM(H3:H7)</f>
-        <v>6066.5350000000008</v>
+        <v>6392.0580000000009</v>
       </c>
       <c r="I8" s="5"/>
       <c r="J8" s="4"/>
@@ -1991,7 +1991,7 @@
       </c>
       <c r="D10" s="35">
         <f>SUM(D3:D9)</f>
-        <v>6066.5349999999999</v>
+        <v>6392.058</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="4"/>
@@ -2902,11 +2902,11 @@
       </c>
       <c r="H2" s="64">
         <f>IF(ISERROR(INDEX(Competency,F2,E2)), 0, INDEX(Competency,F2,E2))</f>
-        <v>0.25</v>
+        <v>0.8</v>
       </c>
       <c r="I2" s="63">
         <f>D2*G2*H2</f>
-        <v>147.965</v>
+        <v>473.48800000000006</v>
       </c>
       <c r="J2" s="65" t="s">
         <v>81</v>
@@ -3251,7 +3251,7 @@
   <dimension ref="A1:AI10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3595,7 +3595,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="46">
-        <v>0.25</v>
+        <v>0.8</v>
       </c>
       <c r="J5" s="37">
         <v>0.2</v>

--- a/Project Management/Effort Calculation.xlsx
+++ b/Project Management/Effort Calculation.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="330" windowWidth="18795" windowHeight="11700" tabRatio="785" activeTab="7"/>
+    <workbookView xWindow="360" yWindow="330" windowWidth="18795" windowHeight="11700" tabRatio="785" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="8" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="86">
   <si>
     <t>Total</t>
   </si>
@@ -281,6 +281,12 @@
   </si>
   <si>
     <t>Till March 2016</t>
+  </si>
+  <si>
+    <t>Preparation of Business model</t>
+  </si>
+  <si>
+    <t>Discussion of project</t>
   </si>
 </sst>
 </file>
@@ -1483,7 +1489,7 @@
       <c r="G11" s="78"/>
       <c r="H11" s="82">
         <f>Summery!D10</f>
-        <v>6392.058</v>
+        <v>9232.985999999999</v>
       </c>
       <c r="I11" s="83"/>
       <c r="J11" s="84"/>
@@ -1504,7 +1510,7 @@
       <c r="G12" s="78"/>
       <c r="H12" s="79">
         <f>Summery!C10</f>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="I12" s="80"/>
       <c r="J12" s="81"/>
@@ -1525,7 +1531,7 @@
       <c r="G13" s="78"/>
       <c r="H13" s="79">
         <f>H12/8</f>
-        <v>1.875</v>
+        <v>2.625</v>
       </c>
       <c r="I13" s="80"/>
       <c r="J13" s="81"/>
@@ -1785,11 +1791,11 @@
       </c>
       <c r="C4" s="15">
         <f>SUMIF(Business!B:B,B4,Business!D:D) + SUMIF(School!B:B,B4,School!D:D) + SUMIF(Service!B:B,B4,Service!D:D)+SUMIF(Retail!B:B,B4,Retail!D:D) + SUMIF(Tourism!B:B,B4,Tourism!D:D)</f>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D4" s="34">
         <f>SUMIF(Business!B:B,B4,Business!I:I) + SUMIF(School!B:B,B4,School!I:I) + SUMIF(Service!B:B,B4,Service!I:I)+SUMIF(Retail!B:B,B4,Retail!I:I) + SUMIF(Tourism!B:B,B4,Tourism!I:I)</f>
-        <v>473.48800000000006</v>
+        <v>3314.4160000000002</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="10" t="s">
@@ -1832,11 +1838,11 @@
       </c>
       <c r="G5" s="15">
         <f>SUM(Service!D:D)</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H5" s="34">
         <f>SUM(Service!I:I)</f>
-        <v>2367.44</v>
+        <v>4261.3919999999998</v>
       </c>
       <c r="I5" s="5"/>
       <c r="J5" s="4"/>
@@ -1867,11 +1873,11 @@
       </c>
       <c r="G6" s="15">
         <f>SUM(Retail!D:D)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H6" s="34">
         <f>SUM(Retail!I:I)</f>
-        <v>1065.348</v>
+        <v>2012.3240000000001</v>
       </c>
       <c r="I6" s="5"/>
       <c r="J6" s="4"/>
@@ -1937,11 +1943,11 @@
       </c>
       <c r="G8" s="16">
         <f>SUM(G3:G7)</f>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="H8" s="35">
         <f>SUM(H3:H7)</f>
-        <v>6392.0580000000009</v>
+        <v>9232.9860000000008</v>
       </c>
       <c r="I8" s="5"/>
       <c r="J8" s="4"/>
@@ -1987,11 +1993,11 @@
       </c>
       <c r="C10" s="16">
         <f>SUM(C3:C9)</f>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D10" s="35">
         <f>SUM(D3:D9)</f>
-        <v>6392.058</v>
+        <v>9232.985999999999</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="4"/>
@@ -2603,8 +2609,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2754,31 +2760,41 @@
       </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="59"/>
-      <c r="B5" s="60"/>
-      <c r="C5" s="60"/>
-      <c r="D5" s="61"/>
+      <c r="A5" s="59" t="s">
+        <v>77</v>
+      </c>
+      <c r="B5" s="60" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="60" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="61">
+        <v>4</v>
+      </c>
       <c r="E5" s="62">
         <f>IF(ISERROR(MATCH(C5,SkillList,0)),0,MATCH(C5,SkillList,0))</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F5" s="62">
         <f>IF(ISERROR(MATCH(B5,MemberList,0)),0,MATCH(B5,MemberList,0))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G5" s="63">
         <f>INDEX(CostPerHour,E5)</f>
-        <v>355.11</v>
+        <v>591.86</v>
       </c>
       <c r="H5" s="64">
         <f>IF(ISERROR(INDEX(Competency,F5,E5)), 0, INDEX(Competency,F5,E5))</f>
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="I5" s="63">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J5" s="65"/>
+        <v>1893.9520000000002</v>
+      </c>
+      <c r="J5" s="65" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="59"/>
@@ -2825,7 +2841,7 @@
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A4" sqref="A4:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2950,31 +2966,41 @@
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="59"/>
-      <c r="B4" s="60"/>
-      <c r="C4" s="60"/>
-      <c r="D4" s="61"/>
+      <c r="A4" s="59" t="s">
+        <v>77</v>
+      </c>
+      <c r="B4" s="60" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="60" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="61">
+        <v>2</v>
+      </c>
       <c r="E4" s="62">
         <f>IF(ISERROR(MATCH(C4,SkillList,0)),0,MATCH(C4,SkillList,0))</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F4" s="62">
         <f>IF(ISERROR(MATCH(B4,MemberList,0)),0,MATCH(B4,MemberList,0))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G4" s="63">
         <f>INDEX(CostPerHour,E4)</f>
-        <v>946.97</v>
+        <v>591.86</v>
       </c>
       <c r="H4" s="64">
         <f>IF(ISERROR(INDEX(Competency,F4,E4)), 0, INDEX(Competency,F4,E4))</f>
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="I4" s="63">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J4" s="65"/>
+        <v>946.97600000000011</v>
+      </c>
+      <c r="J4" s="65" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="59"/>
@@ -3250,7 +3276,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AI10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>

--- a/Project Management/Effort Calculation.xlsx
+++ b/Project Management/Effort Calculation.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="330" windowWidth="18795" windowHeight="11700" tabRatio="785" activeTab="4"/>
+    <workbookView xWindow="360" yWindow="330" windowWidth="18795" windowHeight="11700" tabRatio="785"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="8" r:id="rId1"/>
@@ -24,12 +24,12 @@
     <definedName name="MemberList">'Team Member'!$B$4:$B$10</definedName>
     <definedName name="SkillList">'Skill Set'!$C$2:$C$34</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="88">
   <si>
     <t>Total</t>
   </si>
@@ -287,16 +287,22 @@
   </si>
   <si>
     <t>Discussion of project</t>
+  </si>
+  <si>
+    <t>23.10.2016</t>
+  </si>
+  <si>
+    <t>Updating business model to target April 2016 launch</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;₹&quot;\ #,##0.00"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1109,6 +1115,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1143,6 +1150,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1318,12 +1326,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:O20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.85546875" style="1" customWidth="1"/>
     <col min="2" max="4" width="9.140625" style="1"/>
@@ -1331,8 +1339,8 @@
     <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" ht="15.75" thickBot="1"/>
-    <row r="2" spans="2:15">
+    <row r="1" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B2" s="19"/>
       <c r="C2" s="20"/>
       <c r="D2" s="20"/>
@@ -1348,7 +1356,7 @@
       <c r="N2" s="20"/>
       <c r="O2" s="21"/>
     </row>
-    <row r="3" spans="2:15">
+    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B3" s="3"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
@@ -1364,7 +1372,7 @@
       <c r="N3" s="4"/>
       <c r="O3" s="22"/>
     </row>
-    <row r="4" spans="2:15">
+    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B4" s="3"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -1380,7 +1388,7 @@
       <c r="N4" s="4"/>
       <c r="O4" s="22"/>
     </row>
-    <row r="5" spans="2:15">
+    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B5" s="3"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -1396,7 +1404,7 @@
       <c r="N5" s="4"/>
       <c r="O5" s="22"/>
     </row>
-    <row r="6" spans="2:15">
+    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B6" s="3"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
@@ -1412,7 +1420,7 @@
       <c r="N6" s="4"/>
       <c r="O6" s="22"/>
     </row>
-    <row r="7" spans="2:15">
+    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B7" s="3"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
@@ -1428,7 +1436,7 @@
       <c r="N7" s="4"/>
       <c r="O7" s="22"/>
     </row>
-    <row r="8" spans="2:15">
+    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B8" s="3"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
@@ -1444,7 +1452,7 @@
       <c r="N8" s="4"/>
       <c r="O8" s="22"/>
     </row>
-    <row r="9" spans="2:15">
+    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B9" s="3"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
@@ -1460,7 +1468,7 @@
       <c r="N9" s="4"/>
       <c r="O9" s="22"/>
     </row>
-    <row r="10" spans="2:15">
+    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B10" s="3"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
@@ -1478,7 +1486,7 @@
       <c r="N10" s="4"/>
       <c r="O10" s="22"/>
     </row>
-    <row r="11" spans="2:15">
+    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B11" s="3"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -1489,7 +1497,7 @@
       <c r="G11" s="78"/>
       <c r="H11" s="82">
         <f>Summery!D10</f>
-        <v>9232.985999999999</v>
+        <v>9304.0059999999994</v>
       </c>
       <c r="I11" s="83"/>
       <c r="J11" s="84"/>
@@ -1499,7 +1507,7 @@
       <c r="N11" s="4"/>
       <c r="O11" s="22"/>
     </row>
-    <row r="12" spans="2:15">
+    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B12" s="3"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
@@ -1510,7 +1518,7 @@
       <c r="G12" s="78"/>
       <c r="H12" s="79">
         <f>Summery!C10</f>
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="I12" s="80"/>
       <c r="J12" s="81"/>
@@ -1520,7 +1528,7 @@
       <c r="N12" s="4"/>
       <c r="O12" s="22"/>
     </row>
-    <row r="13" spans="2:15">
+    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B13" s="3"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -1531,7 +1539,7 @@
       <c r="G13" s="78"/>
       <c r="H13" s="79">
         <f>H12/8</f>
-        <v>2.625</v>
+        <v>3</v>
       </c>
       <c r="I13" s="80"/>
       <c r="J13" s="81"/>
@@ -1541,7 +1549,7 @@
       <c r="N13" s="4"/>
       <c r="O13" s="22"/>
     </row>
-    <row r="14" spans="2:15">
+    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B14" s="3"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
@@ -1557,7 +1565,7 @@
       <c r="N14" s="4"/>
       <c r="O14" s="22"/>
     </row>
-    <row r="15" spans="2:15">
+    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B15" s="3"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -1573,7 +1581,7 @@
       <c r="N15" s="4"/>
       <c r="O15" s="22"/>
     </row>
-    <row r="16" spans="2:15">
+    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B16" s="3"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -1589,7 +1597,7 @@
       <c r="N16" s="4"/>
       <c r="O16" s="22"/>
     </row>
-    <row r="17" spans="2:15">
+    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B17" s="3"/>
       <c r="D17" s="4"/>
       <c r="E17" s="5"/>
@@ -1604,7 +1612,7 @@
       <c r="N17" s="4"/>
       <c r="O17" s="22"/>
     </row>
-    <row r="18" spans="2:15">
+    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B18" s="3"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
@@ -1619,7 +1627,7 @@
       <c r="N18" s="4"/>
       <c r="O18" s="22"/>
     </row>
-    <row r="19" spans="2:15">
+    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B19" s="3"/>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
@@ -1635,7 +1643,7 @@
       <c r="N19" s="4"/>
       <c r="O19" s="22"/>
     </row>
-    <row r="20" spans="2:15" ht="15.75" thickBot="1">
+    <row r="20" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="6"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -1668,12 +1676,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.85546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="28.5703125" style="1" customWidth="1"/>
@@ -1695,7 +1703,7 @@
     <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="4"/>
       <c r="B1" s="85" t="s">
         <v>62</v>
@@ -1716,7 +1724,7 @@
       <c r="P1" s="8"/>
       <c r="Q1" s="8"/>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
       <c r="B2" s="11" t="s">
         <v>6</v>
@@ -1749,18 +1757,18 @@
       <c r="P2" s="8"/>
       <c r="Q2" s="8"/>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="10" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="15">
         <f>SUMIF(Business!B:B,B3,Business!D:D) + SUMIF(School!B:B,B3,School!D:D) + SUMIF(Service!B:B,B3,Service!D:D)+SUMIF(Retail!B:B,B3,Retail!D:D) + SUMIF(Tourism!B:B,B3,Tourism!D:D)</f>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D3" s="34">
         <f>SUMIF(Business!B:B,B3,Business!I:I) + SUMIF(School!B:B,B3,School!I:I) + SUMIF(Service!B:B,B3,Service!I:I)+SUMIF(Retail!B:B,B3,Retail!I:I) + SUMIF(Tourism!B:B,B3,Tourism!I:I)</f>
-        <v>4734.8499999999995</v>
+        <v>6510.4299999999994</v>
       </c>
       <c r="E3" s="5"/>
       <c r="F3" s="10" t="s">
@@ -1784,7 +1792,7 @@
       <c r="P3" s="5"/>
       <c r="Q3" s="5"/>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="10" t="s">
         <v>10</v>
@@ -1795,7 +1803,7 @@
       </c>
       <c r="D4" s="34">
         <f>SUMIF(Business!B:B,B4,Business!I:I) + SUMIF(School!B:B,B4,School!I:I) + SUMIF(Service!B:B,B4,Service!I:I)+SUMIF(Retail!B:B,B4,Retail!I:I) + SUMIF(Tourism!B:B,B4,Tourism!I:I)</f>
-        <v>3314.4160000000002</v>
+        <v>1609.8560000000002</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="10" t="s">
@@ -1819,7 +1827,7 @@
       <c r="P4" s="5"/>
       <c r="Q4" s="5"/>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="10" t="s">
         <v>8</v>
@@ -1842,7 +1850,7 @@
       </c>
       <c r="H5" s="34">
         <f>SUM(Service!I:I)</f>
-        <v>4261.3919999999998</v>
+        <v>2556.8319999999999</v>
       </c>
       <c r="I5" s="5"/>
       <c r="J5" s="4"/>
@@ -1854,7 +1862,7 @@
       <c r="P5" s="5"/>
       <c r="Q5" s="5"/>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="10" t="s">
         <v>11</v>
@@ -1889,7 +1897,7 @@
       <c r="P6" s="5"/>
       <c r="Q6" s="5"/>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="10" t="s">
         <v>12</v>
@@ -1908,11 +1916,11 @@
       </c>
       <c r="G7" s="15">
         <f>SUM(Tourism!D:D)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H7" s="34">
         <f>SUM(Tourism!I:I)</f>
-        <v>0</v>
+        <v>1775.58</v>
       </c>
       <c r="I7" s="5"/>
       <c r="J7" s="4"/>
@@ -1924,7 +1932,7 @@
       <c r="P7" s="5"/>
       <c r="Q7" s="5"/>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="10" t="s">
         <v>13</v>
@@ -1943,11 +1951,11 @@
       </c>
       <c r="G8" s="16">
         <f>SUM(G3:G7)</f>
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H8" s="35">
         <f>SUM(H3:H7)</f>
-        <v>9232.9860000000008</v>
+        <v>9304.0060000000012</v>
       </c>
       <c r="I8" s="5"/>
       <c r="J8" s="4"/>
@@ -1959,7 +1967,7 @@
       <c r="P8" s="5"/>
       <c r="Q8" s="5"/>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="10" t="s">
         <v>14</v>
@@ -1986,18 +1994,18 @@
       <c r="P9" s="5"/>
       <c r="Q9" s="5"/>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="12" t="s">
         <v>0</v>
       </c>
       <c r="C10" s="16">
         <f>SUM(C3:C9)</f>
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D10" s="35">
         <f>SUM(D3:D9)</f>
-        <v>9232.985999999999</v>
+        <v>9304.0059999999994</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="4"/>
@@ -2013,7 +2021,7 @@
       <c r="P10" s="5"/>
       <c r="Q10" s="5"/>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="17"/>
@@ -2029,7 +2037,7 @@
       <c r="P11" s="5"/>
       <c r="Q11" s="5"/>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="17"/>
@@ -2045,7 +2053,7 @@
       <c r="P12" s="5"/>
       <c r="Q12" s="5"/>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="17"/>
@@ -2064,7 +2072,7 @@
       <c r="P13" s="5"/>
       <c r="Q13" s="5"/>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="17"/>
@@ -2083,7 +2091,7 @@
       <c r="P14" s="5"/>
       <c r="Q14" s="5"/>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="17"/>
@@ -2102,7 +2110,7 @@
       <c r="P15" s="5"/>
       <c r="Q15" s="5"/>
     </row>
-    <row r="16" spans="1:17">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="17"/>
@@ -2121,7 +2129,7 @@
       <c r="P16" s="5"/>
       <c r="Q16" s="5"/>
     </row>
-    <row r="17" spans="1:17">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="17"/>
@@ -2140,7 +2148,7 @@
       <c r="P17" s="5"/>
       <c r="Q17" s="5"/>
     </row>
-    <row r="18" spans="1:17">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="17"/>
@@ -2173,14 +2181,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.140625" style="66" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.42578125" style="58" bestFit="1" customWidth="1"/>
@@ -2195,7 +2203,7 @@
     <col min="11" max="16384" width="9.140625" style="58"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="70" t="s">
         <v>4</v>
       </c>
@@ -2227,7 +2235,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="59" t="s">
         <v>51</v>
       </c>
@@ -2264,7 +2272,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="59"/>
       <c r="B3" s="60"/>
       <c r="C3" s="60"/>
@@ -2291,7 +2299,7 @@
       </c>
       <c r="J3" s="65"/>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="59"/>
       <c r="B4" s="60"/>
       <c r="C4" s="60"/>
@@ -2318,7 +2326,7 @@
       </c>
       <c r="J4" s="65"/>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="59"/>
       <c r="B5" s="60"/>
       <c r="C5" s="60"/>
@@ -2345,7 +2353,7 @@
       </c>
       <c r="J5" s="65"/>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="59"/>
       <c r="B6" s="60"/>
       <c r="C6" s="60"/>
@@ -2387,14 +2395,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.7109375" style="66" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.42578125" style="58" bestFit="1" customWidth="1"/>
@@ -2409,7 +2417,7 @@
     <col min="11" max="16384" width="9.140625" style="58"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="54" t="s">
         <v>4</v>
       </c>
@@ -2441,7 +2449,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="59">
         <v>42298</v>
       </c>
@@ -2476,7 +2484,7 @@
       </c>
       <c r="J2" s="65"/>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="59">
         <v>42299</v>
       </c>
@@ -2511,7 +2519,7 @@
       </c>
       <c r="J3" s="65"/>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="59"/>
       <c r="B4" s="60"/>
       <c r="C4" s="60"/>
@@ -2538,7 +2546,7 @@
       </c>
       <c r="J4" s="65"/>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="59"/>
       <c r="B5" s="60"/>
       <c r="C5" s="60"/>
@@ -2565,7 +2573,7 @@
       </c>
       <c r="J5" s="65"/>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="59"/>
       <c r="B6" s="60"/>
       <c r="C6" s="60"/>
@@ -2606,14 +2614,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.140625" style="66" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.42578125" style="58" bestFit="1" customWidth="1"/>
@@ -2628,7 +2636,7 @@
     <col min="11" max="16384" width="9.140625" style="58"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="54" t="s">
         <v>4</v>
       </c>
@@ -2660,7 +2668,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="59"/>
       <c r="B2" s="60" t="s">
         <v>8</v>
@@ -2691,7 +2699,7 @@
       </c>
       <c r="J2" s="65"/>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="59"/>
       <c r="B3" s="60" t="s">
         <v>8</v>
@@ -2722,7 +2730,7 @@
       </c>
       <c r="J3" s="65"/>
     </row>
-    <row r="4" spans="1:10" ht="30">
+    <row r="4" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="59" t="s">
         <v>77</v>
       </c>
@@ -2759,7 +2767,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="59" t="s">
         <v>77</v>
       </c>
@@ -2767,14 +2775,14 @@
         <v>10</v>
       </c>
       <c r="C5" s="60" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D5" s="61">
         <v>4</v>
       </c>
       <c r="E5" s="62">
         <f>IF(ISERROR(MATCH(C5,SkillList,0)),0,MATCH(C5,SkillList,0))</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F5" s="62">
         <f>IF(ISERROR(MATCH(B5,MemberList,0)),0,MATCH(B5,MemberList,0))</f>
@@ -2782,21 +2790,21 @@
       </c>
       <c r="G5" s="63">
         <f>INDEX(CostPerHour,E5)</f>
-        <v>591.86</v>
+        <v>236.74</v>
       </c>
       <c r="H5" s="64">
         <f>IF(ISERROR(INDEX(Competency,F5,E5)), 0, INDEX(Competency,F5,E5))</f>
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="I5" s="63">
         <f t="shared" si="0"/>
-        <v>1893.9520000000002</v>
+        <v>189.39200000000002</v>
       </c>
       <c r="J5" s="65" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="59"/>
       <c r="B6" s="60"/>
       <c r="C6" s="60"/>
@@ -2837,14 +2845,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:C4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.140625" style="66" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.42578125" style="58" bestFit="1" customWidth="1"/>
@@ -2859,7 +2867,7 @@
     <col min="11" max="16384" width="9.140625" style="58"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="54" t="s">
         <v>4</v>
       </c>
@@ -2891,7 +2899,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="59" t="s">
         <v>77</v>
       </c>
@@ -2928,7 +2936,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="59" t="s">
         <v>77</v>
       </c>
@@ -2965,7 +2973,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="59" t="s">
         <v>77</v>
       </c>
@@ -3002,7 +3010,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="59"/>
       <c r="B5" s="60"/>
       <c r="C5" s="60"/>
@@ -3029,7 +3037,7 @@
       </c>
       <c r="J5" s="65"/>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="59"/>
       <c r="B6" s="60"/>
       <c r="C6" s="60"/>
@@ -3070,14 +3078,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.140625" style="66" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.42578125" style="58" bestFit="1" customWidth="1"/>
@@ -3092,7 +3100,7 @@
     <col min="11" max="16384" width="9.140625" style="58"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="54" t="s">
         <v>4</v>
       </c>
@@ -3124,34 +3132,44 @@
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="59"/>
-      <c r="B2" s="60"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="61"/>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="59" t="s">
+        <v>86</v>
+      </c>
+      <c r="B2" s="60" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="60" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="61">
+        <v>3</v>
+      </c>
       <c r="E2" s="62">
         <f>IF(ISERROR(MATCH(C2,SkillList,0)),0,MATCH(C2,SkillList,0))</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F2" s="62">
         <f>IF(ISERROR(MATCH(B2,MemberList,0)),0,MATCH(B2,MemberList,0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2" s="63">
         <f>INDEX(CostPerHour,E2)</f>
-        <v>1183.71</v>
+        <v>591.86</v>
       </c>
       <c r="H2" s="64">
         <f>IF(ISERROR(INDEX(Competency,F2,E2)), 0, INDEX(Competency,F2,E2))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" s="63">
         <f>D2*G2*H2</f>
-        <v>0</v>
-      </c>
-      <c r="J2" s="65"/>
-    </row>
-    <row r="3" spans="1:10">
+        <v>1775.58</v>
+      </c>
+      <c r="J2" s="65" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="59"/>
       <c r="B3" s="60"/>
       <c r="C3" s="60"/>
@@ -3178,7 +3196,7 @@
       </c>
       <c r="J3" s="65"/>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="59"/>
       <c r="B4" s="60"/>
       <c r="C4" s="60"/>
@@ -3205,7 +3223,7 @@
       </c>
       <c r="J4" s="65"/>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="59"/>
       <c r="B5" s="60"/>
       <c r="C5" s="60"/>
@@ -3232,7 +3250,7 @@
       </c>
       <c r="J5" s="65"/>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="59"/>
       <c r="B6" s="60"/>
       <c r="C6" s="60"/>
@@ -3273,14 +3291,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.42578125" bestFit="1" customWidth="1"/>
@@ -3293,7 +3311,7 @@
     <col min="30" max="35" width="4.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="15" customHeight="1" thickBot="1">
+    <row r="1" spans="1:35" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="92" t="s">
         <v>83</v>
       </c>
@@ -3334,7 +3352,7 @@
       <c r="AH1" s="90"/>
       <c r="AI1" s="91"/>
     </row>
-    <row r="2" spans="1:35" s="27" customFormat="1" ht="15" customHeight="1">
+    <row r="2" spans="1:35" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="93"/>
       <c r="B2" s="93"/>
       <c r="C2" s="94" t="s">
@@ -3381,7 +3399,7 @@
       <c r="AH2" s="87"/>
       <c r="AI2" s="88"/>
     </row>
-    <row r="3" spans="1:35" ht="180">
+    <row r="3" spans="1:35" ht="180" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>5</v>
       </c>
@@ -3488,7 +3506,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:35">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" s="24">
         <v>1</v>
       </c>
@@ -3595,7 +3613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" s="24">
         <v>2</v>
       </c>
@@ -3702,7 +3720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" s="24">
         <v>3</v>
       </c>
@@ -3743,7 +3761,7 @@
       <c r="AH6" s="36"/>
       <c r="AI6" s="45"/>
     </row>
-    <row r="7" spans="1:35">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" s="24">
         <v>4</v>
       </c>
@@ -3784,7 +3802,7 @@
       <c r="AH7" s="36"/>
       <c r="AI7" s="45"/>
     </row>
-    <row r="8" spans="1:35">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" s="24">
         <v>5</v>
       </c>
@@ -3825,7 +3843,7 @@
       <c r="AH8" s="36"/>
       <c r="AI8" s="45"/>
     </row>
-    <row r="9" spans="1:35">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" s="24">
         <v>6</v>
       </c>
@@ -3866,7 +3884,7 @@
       <c r="AH9" s="36"/>
       <c r="AI9" s="45"/>
     </row>
-    <row r="10" spans="1:35" ht="15.75" thickBot="1">
+    <row r="10" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="24">
         <v>7</v>
       </c>
@@ -3989,14 +4007,14 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.42578125" style="28" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="3" bestFit="1" customWidth="1"/>
@@ -4006,7 +4024,7 @@
     <col min="7" max="7" width="13.140625" style="30" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>71</v>
       </c>
@@ -4029,7 +4047,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="100" t="s">
         <v>25</v>
       </c>
@@ -4056,7 +4074,7 @@
       </c>
       <c r="H2" s="74"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="101"/>
       <c r="B3" s="9">
         <v>2</v>
@@ -4081,7 +4099,7 @@
       </c>
       <c r="H3" s="74"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="101"/>
       <c r="B4" s="9">
         <v>3</v>
@@ -4106,7 +4124,7 @@
       </c>
       <c r="H4" s="74"/>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="101"/>
       <c r="B5" s="9">
         <v>4</v>
@@ -4131,7 +4149,7 @@
       </c>
       <c r="H5" s="74"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="101"/>
       <c r="B6" s="9">
         <v>5</v>
@@ -4156,7 +4174,7 @@
       </c>
       <c r="H6" s="74"/>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="102"/>
       <c r="B7" s="9">
         <v>6</v>
@@ -4181,7 +4199,7 @@
       </c>
       <c r="H7" s="74"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="100" t="s">
         <v>29</v>
       </c>
@@ -4207,7 +4225,7 @@
         <v>591.86</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="101"/>
       <c r="B9" s="9">
         <v>8</v>
@@ -4231,7 +4249,7 @@
         <v>236.74</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="101"/>
       <c r="B10" s="9">
         <v>9</v>
@@ -4255,7 +4273,7 @@
         <v>177.56</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="101"/>
       <c r="B11" s="9">
         <v>10</v>
@@ -4279,7 +4297,7 @@
         <v>591.86</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="101"/>
       <c r="B12" s="9">
         <v>11</v>
@@ -4303,7 +4321,7 @@
         <v>177.56</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="101"/>
       <c r="B13" s="9">
         <v>12</v>
@@ -4327,7 +4345,7 @@
         <v>118.37</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="101"/>
       <c r="B14" s="9">
         <v>13</v>
@@ -4351,7 +4369,7 @@
         <v>118.37</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="101"/>
       <c r="B15" s="9">
         <v>14</v>
@@ -4375,7 +4393,7 @@
         <v>295.93</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="101"/>
       <c r="B16" s="9">
         <v>15</v>
@@ -4399,7 +4417,7 @@
         <v>118.37</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="100" t="s">
         <v>69</v>
       </c>
@@ -4425,7 +4443,7 @@
         <v>177.56</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="101"/>
       <c r="B18" s="9">
         <v>17</v>
@@ -4449,7 +4467,7 @@
         <v>71.02</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="101"/>
       <c r="B19" s="9">
         <v>18</v>
@@ -4473,7 +4491,7 @@
         <v>35.51</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="101"/>
       <c r="B20" s="9">
         <v>19</v>
@@ -4497,7 +4515,7 @@
         <v>236.74</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="101"/>
       <c r="B21" s="9">
         <v>20</v>
@@ -4521,7 +4539,7 @@
         <v>71.02</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="101"/>
       <c r="B22" s="9">
         <v>21</v>
@@ -4545,7 +4563,7 @@
         <v>35.51</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="101"/>
       <c r="B23" s="9">
         <v>22</v>
@@ -4569,7 +4587,7 @@
         <v>71.02</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="101"/>
       <c r="B24" s="9">
         <v>23</v>
@@ -4593,7 +4611,7 @@
         <v>35.51</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="101"/>
       <c r="B25" s="9">
         <v>24</v>
@@ -4617,7 +4635,7 @@
         <v>35.51</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="102"/>
       <c r="B26" s="9">
         <v>25</v>
@@ -4641,7 +4659,7 @@
         <v>71.02</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="100" t="s">
         <v>70</v>
       </c>
@@ -4667,7 +4685,7 @@
         <v>295.93</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="101"/>
       <c r="B28" s="9">
         <v>27</v>
@@ -4691,7 +4709,7 @@
         <v>71.02</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="101"/>
       <c r="B29" s="9">
         <v>28</v>
@@ -4715,7 +4733,7 @@
         <v>177.56</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="102"/>
       <c r="B30" s="9">
         <v>29</v>
@@ -4739,7 +4757,7 @@
         <v>71.02</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="100" t="s">
         <v>28</v>
       </c>
@@ -4765,7 +4783,7 @@
         <v>35.51</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="101"/>
       <c r="B32" s="9">
         <v>31</v>
@@ -4789,7 +4807,7 @@
         <v>35.51</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="101"/>
       <c r="B33" s="9">
         <v>32</v>
@@ -4813,7 +4831,7 @@
         <v>71.02</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="101"/>
       <c r="B34" s="9">
         <v>33</v>

--- a/Project Management/Effort Calculation.xlsx
+++ b/Project Management/Effort Calculation.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="330" windowWidth="18795" windowHeight="11700" tabRatio="785"/>
+    <workbookView xWindow="360" yWindow="330" windowWidth="18795" windowHeight="11700" tabRatio="785" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="8" r:id="rId1"/>
@@ -24,7 +24,7 @@
     <definedName name="MemberList">'Team Member'!$B$4:$B$10</definedName>
     <definedName name="SkillList">'Skill Set'!$C$2:$C$34</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -298,11 +298,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;₹&quot;\ #,##0.00"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1115,7 +1115,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1150,7 +1149,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1326,12 +1324,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:O20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="2.85546875" style="1" customWidth="1"/>
     <col min="2" max="4" width="9.140625" style="1"/>
@@ -1339,8 +1337,8 @@
     <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:15" ht="15.75" thickBot="1"/>
+    <row r="2" spans="2:15">
       <c r="B2" s="19"/>
       <c r="C2" s="20"/>
       <c r="D2" s="20"/>
@@ -1356,7 +1354,7 @@
       <c r="N2" s="20"/>
       <c r="O2" s="21"/>
     </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:15">
       <c r="B3" s="3"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
@@ -1372,7 +1370,7 @@
       <c r="N3" s="4"/>
       <c r="O3" s="22"/>
     </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:15">
       <c r="B4" s="3"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -1388,7 +1386,7 @@
       <c r="N4" s="4"/>
       <c r="O4" s="22"/>
     </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:15">
       <c r="B5" s="3"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -1404,7 +1402,7 @@
       <c r="N5" s="4"/>
       <c r="O5" s="22"/>
     </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:15">
       <c r="B6" s="3"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
@@ -1420,7 +1418,7 @@
       <c r="N6" s="4"/>
       <c r="O6" s="22"/>
     </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:15">
       <c r="B7" s="3"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
@@ -1436,7 +1434,7 @@
       <c r="N7" s="4"/>
       <c r="O7" s="22"/>
     </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:15">
       <c r="B8" s="3"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
@@ -1452,7 +1450,7 @@
       <c r="N8" s="4"/>
       <c r="O8" s="22"/>
     </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:15">
       <c r="B9" s="3"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
@@ -1468,7 +1466,7 @@
       <c r="N9" s="4"/>
       <c r="O9" s="22"/>
     </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:15">
       <c r="B10" s="3"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
@@ -1486,7 +1484,7 @@
       <c r="N10" s="4"/>
       <c r="O10" s="22"/>
     </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:15">
       <c r="B11" s="3"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -1497,7 +1495,7 @@
       <c r="G11" s="78"/>
       <c r="H11" s="82">
         <f>Summery!D10</f>
-        <v>9304.0059999999994</v>
+        <v>10014.238000000001</v>
       </c>
       <c r="I11" s="83"/>
       <c r="J11" s="84"/>
@@ -1507,7 +1505,7 @@
       <c r="N11" s="4"/>
       <c r="O11" s="22"/>
     </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:15">
       <c r="B12" s="3"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
@@ -1528,7 +1526,7 @@
       <c r="N12" s="4"/>
       <c r="O12" s="22"/>
     </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:15">
       <c r="B13" s="3"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -1549,7 +1547,7 @@
       <c r="N13" s="4"/>
       <c r="O13" s="22"/>
     </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:15">
       <c r="B14" s="3"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
@@ -1565,7 +1563,7 @@
       <c r="N14" s="4"/>
       <c r="O14" s="22"/>
     </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:15">
       <c r="B15" s="3"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -1581,7 +1579,7 @@
       <c r="N15" s="4"/>
       <c r="O15" s="22"/>
     </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:15">
       <c r="B16" s="3"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -1597,7 +1595,7 @@
       <c r="N16" s="4"/>
       <c r="O16" s="22"/>
     </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:15">
       <c r="B17" s="3"/>
       <c r="D17" s="4"/>
       <c r="E17" s="5"/>
@@ -1612,7 +1610,7 @@
       <c r="N17" s="4"/>
       <c r="O17" s="22"/>
     </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:15">
       <c r="B18" s="3"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
@@ -1627,7 +1625,7 @@
       <c r="N18" s="4"/>
       <c r="O18" s="22"/>
     </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:15">
       <c r="B19" s="3"/>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
@@ -1643,7 +1641,7 @@
       <c r="N19" s="4"/>
       <c r="O19" s="22"/>
     </row>
-    <row r="20" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:15" ht="15.75" thickBot="1">
       <c r="B20" s="6"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -1676,12 +1674,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="2.85546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="28.5703125" style="1" customWidth="1"/>
@@ -1703,7 +1701,7 @@
     <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17">
       <c r="A1" s="4"/>
       <c r="B1" s="85" t="s">
         <v>62</v>
@@ -1724,7 +1722,7 @@
       <c r="P1" s="8"/>
       <c r="Q1" s="8"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17">
       <c r="A2" s="4"/>
       <c r="B2" s="11" t="s">
         <v>6</v>
@@ -1757,7 +1755,7 @@
       <c r="P2" s="8"/>
       <c r="Q2" s="8"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17">
       <c r="A3" s="4"/>
       <c r="B3" s="10" t="s">
         <v>7</v>
@@ -1792,7 +1790,7 @@
       <c r="P3" s="5"/>
       <c r="Q3" s="5"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17">
       <c r="A4" s="4"/>
       <c r="B4" s="10" t="s">
         <v>10</v>
@@ -1815,7 +1813,7 @@
       </c>
       <c r="H4" s="34">
         <f>SUM(School!I:I)</f>
-        <v>1183.72</v>
+        <v>1893.9520000000002</v>
       </c>
       <c r="I4" s="5"/>
       <c r="J4" s="4"/>
@@ -1827,7 +1825,7 @@
       <c r="P4" s="5"/>
       <c r="Q4" s="5"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17">
       <c r="A5" s="4"/>
       <c r="B5" s="10" t="s">
         <v>8</v>
@@ -1862,7 +1860,7 @@
       <c r="P5" s="5"/>
       <c r="Q5" s="5"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17">
       <c r="A6" s="4"/>
       <c r="B6" s="10" t="s">
         <v>11</v>
@@ -1897,7 +1895,7 @@
       <c r="P6" s="5"/>
       <c r="Q6" s="5"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17">
       <c r="A7" s="4"/>
       <c r="B7" s="10" t="s">
         <v>12</v>
@@ -1932,7 +1930,7 @@
       <c r="P7" s="5"/>
       <c r="Q7" s="5"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17">
       <c r="A8" s="4"/>
       <c r="B8" s="10" t="s">
         <v>13</v>
@@ -1955,7 +1953,7 @@
       </c>
       <c r="H8" s="35">
         <f>SUM(H3:H7)</f>
-        <v>9304.0060000000012</v>
+        <v>10014.238000000001</v>
       </c>
       <c r="I8" s="5"/>
       <c r="J8" s="4"/>
@@ -1967,7 +1965,7 @@
       <c r="P8" s="5"/>
       <c r="Q8" s="5"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17">
       <c r="A9" s="4"/>
       <c r="B9" s="10" t="s">
         <v>14</v>
@@ -1978,7 +1976,7 @@
       </c>
       <c r="D9" s="34">
         <f>SUMIF(Business!B:B,B9,Business!I:I) + SUMIF(School!B:B,B9,School!I:I) + SUMIF(Service!B:B,B9,Service!I:I)+SUMIF(Retail!B:B,B9,Retail!I:I) + SUMIF(Tourism!B:B,B9,Tourism!I:I)</f>
-        <v>1183.72</v>
+        <v>1893.9520000000002</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="4"/>
@@ -1994,7 +1992,7 @@
       <c r="P9" s="5"/>
       <c r="Q9" s="5"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17">
       <c r="A10" s="4"/>
       <c r="B10" s="12" t="s">
         <v>0</v>
@@ -2005,7 +2003,7 @@
       </c>
       <c r="D10" s="35">
         <f>SUM(D3:D9)</f>
-        <v>9304.0059999999994</v>
+        <v>10014.238000000001</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="4"/>
@@ -2021,7 +2019,7 @@
       <c r="P10" s="5"/>
       <c r="Q10" s="5"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="17"/>
@@ -2037,7 +2035,7 @@
       <c r="P11" s="5"/>
       <c r="Q11" s="5"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="17"/>
@@ -2053,7 +2051,7 @@
       <c r="P12" s="5"/>
       <c r="Q12" s="5"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="17"/>
@@ -2072,7 +2070,7 @@
       <c r="P13" s="5"/>
       <c r="Q13" s="5"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="17"/>
@@ -2091,7 +2089,7 @@
       <c r="P14" s="5"/>
       <c r="Q14" s="5"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="17"/>
@@ -2110,7 +2108,7 @@
       <c r="P15" s="5"/>
       <c r="Q15" s="5"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="17"/>
@@ -2129,7 +2127,7 @@
       <c r="P16" s="5"/>
       <c r="Q16" s="5"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="17"/>
@@ -2148,7 +2146,7 @@
       <c r="P17" s="5"/>
       <c r="Q17" s="5"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="17"/>
@@ -2181,14 +2179,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.140625" style="66" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.42578125" style="58" bestFit="1" customWidth="1"/>
@@ -2203,7 +2201,7 @@
     <col min="11" max="16384" width="9.140625" style="58"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10">
       <c r="A1" s="70" t="s">
         <v>4</v>
       </c>
@@ -2235,7 +2233,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10">
       <c r="A2" s="59" t="s">
         <v>51</v>
       </c>
@@ -2272,7 +2270,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10">
       <c r="A3" s="59"/>
       <c r="B3" s="60"/>
       <c r="C3" s="60"/>
@@ -2299,7 +2297,7 @@
       </c>
       <c r="J3" s="65"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10">
       <c r="A4" s="59"/>
       <c r="B4" s="60"/>
       <c r="C4" s="60"/>
@@ -2326,7 +2324,7 @@
       </c>
       <c r="J4" s="65"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10">
       <c r="A5" s="59"/>
       <c r="B5" s="60"/>
       <c r="C5" s="60"/>
@@ -2353,7 +2351,7 @@
       </c>
       <c r="J5" s="65"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10">
       <c r="A6" s="59"/>
       <c r="B6" s="60"/>
       <c r="C6" s="60"/>
@@ -2395,14 +2393,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.7109375" style="66" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.42578125" style="58" bestFit="1" customWidth="1"/>
@@ -2417,7 +2415,7 @@
     <col min="11" max="16384" width="9.140625" style="58"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10">
       <c r="A1" s="54" t="s">
         <v>4</v>
       </c>
@@ -2449,7 +2447,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10">
       <c r="A2" s="59">
         <v>42298</v>
       </c>
@@ -2476,15 +2474,15 @@
       </c>
       <c r="H2" s="64">
         <f>IF(ISERROR(INDEX(Competency,F2,E2)), 0, INDEX(Competency,F2,E2))</f>
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="I2" s="63">
         <f>D2*G2*H2</f>
-        <v>591.86</v>
+        <v>946.97600000000011</v>
       </c>
       <c r="J2" s="65"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10">
       <c r="A3" s="59">
         <v>42299</v>
       </c>
@@ -2511,15 +2509,15 @@
       </c>
       <c r="H3" s="64">
         <f>IF(ISERROR(INDEX(Competency,F3,E3)), 0, INDEX(Competency,F3,E3))</f>
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="I3" s="63">
         <f t="shared" ref="I3:I6" si="0">D3*G3*H3</f>
-        <v>591.86</v>
+        <v>946.97600000000011</v>
       </c>
       <c r="J3" s="65"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10">
       <c r="A4" s="59"/>
       <c r="B4" s="60"/>
       <c r="C4" s="60"/>
@@ -2546,7 +2544,7 @@
       </c>
       <c r="J4" s="65"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10">
       <c r="A5" s="59"/>
       <c r="B5" s="60"/>
       <c r="C5" s="60"/>
@@ -2573,7 +2571,7 @@
       </c>
       <c r="J5" s="65"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10">
       <c r="A6" s="59"/>
       <c r="B6" s="60"/>
       <c r="C6" s="60"/>
@@ -2614,14 +2612,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.140625" style="66" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.42578125" style="58" bestFit="1" customWidth="1"/>
@@ -2636,7 +2634,7 @@
     <col min="11" max="16384" width="9.140625" style="58"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10">
       <c r="A1" s="54" t="s">
         <v>4</v>
       </c>
@@ -2668,7 +2666,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10">
       <c r="A2" s="59"/>
       <c r="B2" s="60" t="s">
         <v>8</v>
@@ -2699,7 +2697,7 @@
       </c>
       <c r="J2" s="65"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10">
       <c r="A3" s="59"/>
       <c r="B3" s="60" t="s">
         <v>8</v>
@@ -2730,7 +2728,7 @@
       </c>
       <c r="J3" s="65"/>
     </row>
-    <row r="4" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="30">
       <c r="A4" s="59" t="s">
         <v>77</v>
       </c>
@@ -2767,7 +2765,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10">
       <c r="A5" s="59" t="s">
         <v>77</v>
       </c>
@@ -2804,7 +2802,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10">
       <c r="A6" s="59"/>
       <c r="B6" s="60"/>
       <c r="C6" s="60"/>
@@ -2845,14 +2843,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.140625" style="66" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.42578125" style="58" bestFit="1" customWidth="1"/>
@@ -2867,7 +2865,7 @@
     <col min="11" max="16384" width="9.140625" style="58"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10">
       <c r="A1" s="54" t="s">
         <v>4</v>
       </c>
@@ -2899,7 +2897,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10">
       <c r="A2" s="59" t="s">
         <v>77</v>
       </c>
@@ -2936,7 +2934,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10">
       <c r="A3" s="59" t="s">
         <v>77</v>
       </c>
@@ -2973,7 +2971,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10">
       <c r="A4" s="59" t="s">
         <v>77</v>
       </c>
@@ -3010,7 +3008,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10">
       <c r="A5" s="59"/>
       <c r="B5" s="60"/>
       <c r="C5" s="60"/>
@@ -3037,7 +3035,7 @@
       </c>
       <c r="J5" s="65"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10">
       <c r="A6" s="59"/>
       <c r="B6" s="60"/>
       <c r="C6" s="60"/>
@@ -3078,14 +3076,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.140625" style="66" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.42578125" style="58" bestFit="1" customWidth="1"/>
@@ -3100,7 +3098,7 @@
     <col min="11" max="16384" width="9.140625" style="58"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10">
       <c r="A1" s="54" t="s">
         <v>4</v>
       </c>
@@ -3132,7 +3130,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10">
       <c r="A2" s="59" t="s">
         <v>86</v>
       </c>
@@ -3169,7 +3167,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10">
       <c r="A3" s="59"/>
       <c r="B3" s="60"/>
       <c r="C3" s="60"/>
@@ -3196,7 +3194,7 @@
       </c>
       <c r="J3" s="65"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10">
       <c r="A4" s="59"/>
       <c r="B4" s="60"/>
       <c r="C4" s="60"/>
@@ -3223,7 +3221,7 @@
       </c>
       <c r="J4" s="65"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10">
       <c r="A5" s="59"/>
       <c r="B5" s="60"/>
       <c r="C5" s="60"/>
@@ -3250,7 +3248,7 @@
       </c>
       <c r="J5" s="65"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10">
       <c r="A6" s="59"/>
       <c r="B6" s="60"/>
       <c r="C6" s="60"/>
@@ -3291,14 +3289,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AI10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="4.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.42578125" bestFit="1" customWidth="1"/>
@@ -3311,7 +3309,7 @@
     <col min="30" max="35" width="4.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:35" ht="15" customHeight="1" thickBot="1">
       <c r="A1" s="92" t="s">
         <v>83</v>
       </c>
@@ -3352,7 +3350,7 @@
       <c r="AH1" s="90"/>
       <c r="AI1" s="91"/>
     </row>
-    <row r="2" spans="1:35" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A2" s="93"/>
       <c r="B2" s="93"/>
       <c r="C2" s="94" t="s">
@@ -3399,7 +3397,7 @@
       <c r="AH2" s="87"/>
       <c r="AI2" s="88"/>
     </row>
-    <row r="3" spans="1:35" ht="180" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" ht="180">
       <c r="A3" s="11" t="s">
         <v>5</v>
       </c>
@@ -3506,7 +3504,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35">
       <c r="A4" s="24">
         <v>1</v>
       </c>
@@ -3613,7 +3611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35">
       <c r="A5" s="24">
         <v>2</v>
       </c>
@@ -3720,7 +3718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35">
       <c r="A6" s="24">
         <v>3</v>
       </c>
@@ -3761,7 +3759,7 @@
       <c r="AH6" s="36"/>
       <c r="AI6" s="45"/>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35">
       <c r="A7" s="24">
         <v>4</v>
       </c>
@@ -3802,7 +3800,7 @@
       <c r="AH7" s="36"/>
       <c r="AI7" s="45"/>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35">
       <c r="A8" s="24">
         <v>5</v>
       </c>
@@ -3843,7 +3841,7 @@
       <c r="AH8" s="36"/>
       <c r="AI8" s="45"/>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35">
       <c r="A9" s="24">
         <v>6</v>
       </c>
@@ -3884,7 +3882,7 @@
       <c r="AH9" s="36"/>
       <c r="AI9" s="45"/>
     </row>
-    <row r="10" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:35" ht="15.75" thickBot="1">
       <c r="A10" s="24">
         <v>7</v>
       </c>
@@ -3898,7 +3896,7 @@
         <v>0.25</v>
       </c>
       <c r="E10" s="49">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="F10" s="49">
         <v>0.25</v>
@@ -3910,13 +3908,13 @@
         <v>0.25</v>
       </c>
       <c r="I10" s="48">
+        <v>0.8</v>
+      </c>
+      <c r="J10" s="48">
         <v>0.5</v>
       </c>
-      <c r="J10" s="48">
-        <v>0.25</v>
-      </c>
       <c r="K10" s="48">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="L10" s="48">
         <v>0</v>
@@ -3939,35 +3937,35 @@
       <c r="R10" s="48">
         <v>0.25</v>
       </c>
-      <c r="S10" s="48">
-        <v>0</v>
-      </c>
-      <c r="T10" s="48">
-        <v>0</v>
+      <c r="S10" s="49">
+        <v>0.25</v>
+      </c>
+      <c r="T10" s="49">
+        <v>0.5</v>
       </c>
       <c r="U10" s="48">
         <v>0</v>
       </c>
       <c r="V10" s="48">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="W10" s="48">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="X10" s="48">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="Y10" s="48">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="Z10" s="48">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AA10" s="48">
         <v>1</v>
       </c>
       <c r="AB10" s="48">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AC10" s="48">
         <v>0.25</v>
@@ -3979,7 +3977,7 @@
         <v>0.5</v>
       </c>
       <c r="AF10" s="48">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AG10" s="48">
         <v>1</v>
@@ -4007,14 +4005,14 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="17.42578125" style="28" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="3" bestFit="1" customWidth="1"/>
@@ -4024,7 +4022,7 @@
     <col min="7" max="7" width="13.140625" style="30" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" s="11" t="s">
         <v>71</v>
       </c>
@@ -4047,7 +4045,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="A2" s="100" t="s">
         <v>25</v>
       </c>
@@ -4074,7 +4072,7 @@
       </c>
       <c r="H2" s="74"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="A3" s="101"/>
       <c r="B3" s="9">
         <v>2</v>
@@ -4099,7 +4097,7 @@
       </c>
       <c r="H3" s="74"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8">
       <c r="A4" s="101"/>
       <c r="B4" s="9">
         <v>3</v>
@@ -4124,7 +4122,7 @@
       </c>
       <c r="H4" s="74"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8">
       <c r="A5" s="101"/>
       <c r="B5" s="9">
         <v>4</v>
@@ -4149,7 +4147,7 @@
       </c>
       <c r="H5" s="74"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8">
       <c r="A6" s="101"/>
       <c r="B6" s="9">
         <v>5</v>
@@ -4174,7 +4172,7 @@
       </c>
       <c r="H6" s="74"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8">
       <c r="A7" s="102"/>
       <c r="B7" s="9">
         <v>6</v>
@@ -4199,7 +4197,7 @@
       </c>
       <c r="H7" s="74"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8">
       <c r="A8" s="100" t="s">
         <v>29</v>
       </c>
@@ -4225,7 +4223,7 @@
         <v>591.86</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8">
       <c r="A9" s="101"/>
       <c r="B9" s="9">
         <v>8</v>
@@ -4249,7 +4247,7 @@
         <v>236.74</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8">
       <c r="A10" s="101"/>
       <c r="B10" s="9">
         <v>9</v>
@@ -4273,7 +4271,7 @@
         <v>177.56</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8">
       <c r="A11" s="101"/>
       <c r="B11" s="9">
         <v>10</v>
@@ -4297,7 +4295,7 @@
         <v>591.86</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8">
       <c r="A12" s="101"/>
       <c r="B12" s="9">
         <v>11</v>
@@ -4321,7 +4319,7 @@
         <v>177.56</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8">
       <c r="A13" s="101"/>
       <c r="B13" s="9">
         <v>12</v>
@@ -4345,7 +4343,7 @@
         <v>118.37</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8">
       <c r="A14" s="101"/>
       <c r="B14" s="9">
         <v>13</v>
@@ -4369,7 +4367,7 @@
         <v>118.37</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8">
       <c r="A15" s="101"/>
       <c r="B15" s="9">
         <v>14</v>
@@ -4393,7 +4391,7 @@
         <v>295.93</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8">
       <c r="A16" s="101"/>
       <c r="B16" s="9">
         <v>15</v>
@@ -4417,7 +4415,7 @@
         <v>118.37</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7">
       <c r="A17" s="100" t="s">
         <v>69</v>
       </c>
@@ -4443,7 +4441,7 @@
         <v>177.56</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7">
       <c r="A18" s="101"/>
       <c r="B18" s="9">
         <v>17</v>
@@ -4467,7 +4465,7 @@
         <v>71.02</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7">
       <c r="A19" s="101"/>
       <c r="B19" s="9">
         <v>18</v>
@@ -4491,7 +4489,7 @@
         <v>35.51</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7">
       <c r="A20" s="101"/>
       <c r="B20" s="9">
         <v>19</v>
@@ -4515,7 +4513,7 @@
         <v>236.74</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7">
       <c r="A21" s="101"/>
       <c r="B21" s="9">
         <v>20</v>
@@ -4539,7 +4537,7 @@
         <v>71.02</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7">
       <c r="A22" s="101"/>
       <c r="B22" s="9">
         <v>21</v>
@@ -4563,7 +4561,7 @@
         <v>35.51</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7">
       <c r="A23" s="101"/>
       <c r="B23" s="9">
         <v>22</v>
@@ -4587,7 +4585,7 @@
         <v>71.02</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7">
       <c r="A24" s="101"/>
       <c r="B24" s="9">
         <v>23</v>
@@ -4611,7 +4609,7 @@
         <v>35.51</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7">
       <c r="A25" s="101"/>
       <c r="B25" s="9">
         <v>24</v>
@@ -4635,7 +4633,7 @@
         <v>35.51</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7">
       <c r="A26" s="102"/>
       <c r="B26" s="9">
         <v>25</v>
@@ -4659,7 +4657,7 @@
         <v>71.02</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7">
       <c r="A27" s="100" t="s">
         <v>70</v>
       </c>
@@ -4685,7 +4683,7 @@
         <v>295.93</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7">
       <c r="A28" s="101"/>
       <c r="B28" s="9">
         <v>27</v>
@@ -4709,7 +4707,7 @@
         <v>71.02</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7">
       <c r="A29" s="101"/>
       <c r="B29" s="9">
         <v>28</v>
@@ -4733,7 +4731,7 @@
         <v>177.56</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7">
       <c r="A30" s="102"/>
       <c r="B30" s="9">
         <v>29</v>
@@ -4757,7 +4755,7 @@
         <v>71.02</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7">
       <c r="A31" s="100" t="s">
         <v>28</v>
       </c>
@@ -4783,7 +4781,7 @@
         <v>35.51</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7">
       <c r="A32" s="101"/>
       <c r="B32" s="9">
         <v>31</v>
@@ -4807,7 +4805,7 @@
         <v>35.51</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7">
       <c r="A33" s="101"/>
       <c r="B33" s="9">
         <v>32</v>
@@ -4831,7 +4829,7 @@
         <v>71.02</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7">
       <c r="A34" s="101"/>
       <c r="B34" s="9">
         <v>33</v>

--- a/Project Management/Effort Calculation.xlsx
+++ b/Project Management/Effort Calculation.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="330" windowWidth="18795" windowHeight="11700" tabRatio="785" activeTab="7"/>
+    <workbookView xWindow="360" yWindow="330" windowWidth="18795" windowHeight="11700" tabRatio="785"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="8" r:id="rId1"/>
@@ -24,12 +24,12 @@
     <definedName name="MemberList">'Team Member'!$B$4:$B$10</definedName>
     <definedName name="SkillList">'Skill Set'!$C$2:$C$34</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="93">
   <si>
     <t>Total</t>
   </si>
@@ -214,9 +214,6 @@
     <t>Man Days</t>
   </si>
   <si>
-    <t>Man Day</t>
-  </si>
-  <si>
     <t>Personel</t>
   </si>
   <si>
@@ -232,9 +229,6 @@
     <t>Tourism</t>
   </si>
   <si>
-    <t>Hr</t>
-  </si>
-  <si>
     <t>Effort Calculation</t>
   </si>
   <si>
@@ -293,16 +287,37 @@
   </si>
   <si>
     <t>Updating business model to target April 2016 launch</t>
+  </si>
+  <si>
+    <t>24.10.2015</t>
+  </si>
+  <si>
+    <t>Discussion on Ascent project.</t>
+  </si>
+  <si>
+    <t>23.10.2015</t>
+  </si>
+  <si>
+    <t>Discussion on path and review</t>
+  </si>
+  <si>
+    <t>Man Hr</t>
+  </si>
+  <si>
+    <t>Project</t>
+  </si>
+  <si>
+    <t>Cost Per Anum!</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;₹&quot;\ #,##0.00"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -749,7 +764,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -765,7 +780,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="4" fontId="1" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1115,6 +1129,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1149,6 +1164,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1324,12 +1340,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:O20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11:J11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.85546875" style="1" customWidth="1"/>
     <col min="2" max="4" width="9.140625" style="1"/>
@@ -1337,24 +1355,24 @@
     <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" ht="15.75" thickBot="1"/>
-    <row r="2" spans="2:15">
-      <c r="B2" s="19"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="20"/>
-      <c r="O2" s="21"/>
-    </row>
-    <row r="3" spans="2:15">
+    <row r="1" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B2" s="18"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="20"/>
+    </row>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B3" s="3"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
@@ -1368,9 +1386,9 @@
       <c r="L3" s="4"/>
       <c r="M3" s="4"/>
       <c r="N3" s="4"/>
-      <c r="O3" s="22"/>
-    </row>
-    <row r="4" spans="2:15">
+      <c r="O3" s="21"/>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B4" s="3"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -1384,9 +1402,9 @@
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
-      <c r="O4" s="22"/>
-    </row>
-    <row r="5" spans="2:15">
+      <c r="O4" s="21"/>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B5" s="3"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -1400,9 +1418,9 @@
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
-      <c r="O5" s="22"/>
-    </row>
-    <row r="6" spans="2:15">
+      <c r="O5" s="21"/>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B6" s="3"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
@@ -1416,9 +1434,9 @@
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
-      <c r="O6" s="22"/>
-    </row>
-    <row r="7" spans="2:15">
+      <c r="O6" s="21"/>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B7" s="3"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
@@ -1432,9 +1450,9 @@
       <c r="L7" s="4"/>
       <c r="M7" s="4"/>
       <c r="N7" s="4"/>
-      <c r="O7" s="22"/>
-    </row>
-    <row r="8" spans="2:15">
+      <c r="O7" s="21"/>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B8" s="3"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
@@ -1448,9 +1466,9 @@
       <c r="L8" s="4"/>
       <c r="M8" s="4"/>
       <c r="N8" s="4"/>
-      <c r="O8" s="22"/>
-    </row>
-    <row r="9" spans="2:15">
+      <c r="O8" s="21"/>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B9" s="3"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
@@ -1464,90 +1482,90 @@
       <c r="L9" s="4"/>
       <c r="M9" s="4"/>
       <c r="N9" s="4"/>
-      <c r="O9" s="22"/>
-    </row>
-    <row r="10" spans="2:15">
+      <c r="O9" s="21"/>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B10" s="3"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
-      <c r="F10" s="75" t="s">
-        <v>68</v>
-      </c>
-      <c r="G10" s="76"/>
-      <c r="H10" s="76"/>
-      <c r="I10" s="76"/>
-      <c r="J10" s="76"/>
+      <c r="F10" s="74" t="s">
+        <v>66</v>
+      </c>
+      <c r="G10" s="75"/>
+      <c r="H10" s="75"/>
+      <c r="I10" s="75"/>
+      <c r="J10" s="75"/>
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
       <c r="M10" s="4"/>
       <c r="N10" s="4"/>
-      <c r="O10" s="22"/>
-    </row>
-    <row r="11" spans="2:15">
+      <c r="O10" s="21"/>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B11" s="3"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
-      <c r="F11" s="77" t="s">
+      <c r="F11" s="76" t="s">
         <v>59</v>
       </c>
-      <c r="G11" s="78"/>
-      <c r="H11" s="82">
+      <c r="G11" s="77"/>
+      <c r="H11" s="81">
         <f>Summery!D10</f>
-        <v>10014.238000000001</v>
-      </c>
-      <c r="I11" s="83"/>
-      <c r="J11" s="84"/>
+        <v>10724.463</v>
+      </c>
+      <c r="I11" s="82"/>
+      <c r="J11" s="83"/>
       <c r="K11" s="4"/>
       <c r="L11" s="4"/>
       <c r="M11" s="4"/>
       <c r="N11" s="4"/>
-      <c r="O11" s="22"/>
-    </row>
-    <row r="12" spans="2:15">
+      <c r="O11" s="21"/>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B12" s="3"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
-      <c r="F12" s="77" t="s">
-        <v>78</v>
-      </c>
-      <c r="G12" s="78"/>
-      <c r="H12" s="79">
+      <c r="F12" s="76" t="s">
+        <v>76</v>
+      </c>
+      <c r="G12" s="77"/>
+      <c r="H12" s="78">
         <f>Summery!C10</f>
-        <v>24</v>
-      </c>
-      <c r="I12" s="80"/>
-      <c r="J12" s="81"/>
+        <v>25.5</v>
+      </c>
+      <c r="I12" s="79"/>
+      <c r="J12" s="80"/>
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
       <c r="M12" s="4"/>
       <c r="N12" s="4"/>
-      <c r="O12" s="22"/>
-    </row>
-    <row r="13" spans="2:15">
+      <c r="O12" s="21"/>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B13" s="3"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
-      <c r="F13" s="77" t="s">
+      <c r="F13" s="76" t="s">
         <v>60</v>
       </c>
-      <c r="G13" s="78"/>
-      <c r="H13" s="79">
+      <c r="G13" s="77"/>
+      <c r="H13" s="78">
         <f>H12/8</f>
-        <v>3</v>
-      </c>
-      <c r="I13" s="80"/>
-      <c r="J13" s="81"/>
+        <v>3.1875</v>
+      </c>
+      <c r="I13" s="79"/>
+      <c r="J13" s="80"/>
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
       <c r="M13" s="4"/>
       <c r="N13" s="4"/>
-      <c r="O13" s="22"/>
-    </row>
-    <row r="14" spans="2:15">
+      <c r="O13" s="21"/>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B14" s="3"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
@@ -1561,9 +1579,9 @@
       <c r="L14" s="4"/>
       <c r="M14" s="4"/>
       <c r="N14" s="4"/>
-      <c r="O14" s="22"/>
-    </row>
-    <row r="15" spans="2:15">
+      <c r="O14" s="21"/>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B15" s="3"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -1577,9 +1595,9 @@
       <c r="L15" s="4"/>
       <c r="M15" s="4"/>
       <c r="N15" s="4"/>
-      <c r="O15" s="22"/>
-    </row>
-    <row r="16" spans="2:15">
+      <c r="O15" s="21"/>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B16" s="3"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -1593,9 +1611,9 @@
       <c r="L16" s="4"/>
       <c r="M16" s="4"/>
       <c r="N16" s="4"/>
-      <c r="O16" s="22"/>
-    </row>
-    <row r="17" spans="2:15">
+      <c r="O16" s="21"/>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B17" s="3"/>
       <c r="D17" s="4"/>
       <c r="E17" s="5"/>
@@ -1608,9 +1626,9 @@
       <c r="L17" s="4"/>
       <c r="M17" s="4"/>
       <c r="N17" s="4"/>
-      <c r="O17" s="22"/>
-    </row>
-    <row r="18" spans="2:15">
+      <c r="O17" s="21"/>
+    </row>
+    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B18" s="3"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
@@ -1623,9 +1641,9 @@
       <c r="L18" s="4"/>
       <c r="M18" s="4"/>
       <c r="N18" s="4"/>
-      <c r="O18" s="22"/>
-    </row>
-    <row r="19" spans="2:15">
+      <c r="O18" s="21"/>
+    </row>
+    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B19" s="3"/>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
@@ -1639,9 +1657,9 @@
       <c r="L19" s="4"/>
       <c r="M19" s="4"/>
       <c r="N19" s="4"/>
-      <c r="O19" s="22"/>
-    </row>
-    <row r="20" spans="2:15" ht="15.75" thickBot="1">
+      <c r="O19" s="21"/>
+    </row>
+    <row r="20" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="6"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -1655,7 +1673,7 @@
       <c r="L20" s="7"/>
       <c r="M20" s="7"/>
       <c r="N20" s="7"/>
-      <c r="O20" s="23"/>
+      <c r="O20" s="22"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
@@ -1674,21 +1692,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q18"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.85546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="28.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.7109375" style="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" style="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" style="17" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="28.5703125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="8.7109375" style="18" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.7109375" style="18" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" style="17" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.7109375" style="17" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
@@ -1701,17 +1721,19 @@
     <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="4"/>
-      <c r="B1" s="85" t="s">
-        <v>62</v>
-      </c>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
+      <c r="B1" s="84" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
       <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
+      <c r="F1" s="84" t="s">
+        <v>91</v>
+      </c>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
       <c r="I1" s="8"/>
       <c r="J1" s="8"/>
       <c r="K1" s="8"/>
@@ -1722,27 +1744,25 @@
       <c r="P1" s="8"/>
       <c r="Q1" s="8"/>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
       <c r="B2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="D2" s="14" t="s">
+      <c r="C2" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="8" t="s">
-        <v>67</v>
-      </c>
+      <c r="E2" s="8"/>
       <c r="F2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="H2" s="14" t="s">
+      <c r="G2" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="H2" s="13" t="s">
         <v>1</v>
       </c>
       <c r="I2" s="8"/>
@@ -1755,30 +1775,30 @@
       <c r="P2" s="8"/>
       <c r="Q2" s="8"/>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="15">
+      <c r="C3" s="14">
         <f>SUMIF(Business!B:B,B3,Business!D:D) + SUMIF(School!B:B,B3,School!D:D) + SUMIF(Service!B:B,B3,Service!D:D)+SUMIF(Retail!B:B,B3,Retail!D:D) + SUMIF(Tourism!B:B,B3,Tourism!D:D)</f>
-        <v>13</v>
-      </c>
-      <c r="D3" s="34">
+        <v>14.5</v>
+      </c>
+      <c r="D3" s="33">
         <f>SUMIF(Business!B:B,B3,Business!I:I) + SUMIF(School!B:B,B3,School!I:I) + SUMIF(Service!B:B,B3,Service!I:I)+SUMIF(Retail!B:B,B3,Retail!I:I) + SUMIF(Tourism!B:B,B3,Tourism!I:I)</f>
-        <v>6510.4299999999994</v>
+        <v>7220.6549999999997</v>
       </c>
       <c r="E3" s="5"/>
       <c r="F3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="15">
+      <c r="G3" s="14">
         <f>SUM(Business!D:D)</f>
-        <v>5</v>
-      </c>
-      <c r="H3" s="34">
+        <v>5.5</v>
+      </c>
+      <c r="H3" s="33">
         <f>SUM(Business!I:I)</f>
-        <v>1775.5500000000002</v>
+        <v>2367.4050000000002</v>
       </c>
       <c r="I3" s="5"/>
       <c r="J3" s="4"/>
@@ -1790,28 +1810,28 @@
       <c r="P3" s="5"/>
       <c r="Q3" s="5"/>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="15">
+      <c r="C4" s="14">
         <f>SUMIF(Business!B:B,B4,Business!D:D) + SUMIF(School!B:B,B4,School!D:D) + SUMIF(Service!B:B,B4,Service!D:D)+SUMIF(Retail!B:B,B4,Retail!D:D) + SUMIF(Tourism!B:B,B4,Tourism!D:D)</f>
         <v>7</v>
       </c>
-      <c r="D4" s="34">
+      <c r="D4" s="33">
         <f>SUMIF(Business!B:B,B4,Business!I:I) + SUMIF(School!B:B,B4,School!I:I) + SUMIF(Service!B:B,B4,Service!I:I)+SUMIF(Retail!B:B,B4,Retail!I:I) + SUMIF(Tourism!B:B,B4,Tourism!I:I)</f>
         <v>1609.8560000000002</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="G4" s="15">
+        <v>62</v>
+      </c>
+      <c r="G4" s="14">
         <f>SUM(School!D:D)</f>
         <v>4</v>
       </c>
-      <c r="H4" s="34">
+      <c r="H4" s="33">
         <f>SUM(School!I:I)</f>
         <v>1893.9520000000002</v>
       </c>
@@ -1825,30 +1845,30 @@
       <c r="P4" s="5"/>
       <c r="Q4" s="5"/>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="15">
+      <c r="C5" s="14">
         <f>SUMIF(Business!B:B,B5,Business!D:D) + SUMIF(School!B:B,B5,School!D:D) + SUMIF(Service!B:B,B5,Service!D:D)+SUMIF(Retail!B:B,B5,Retail!D:D) + SUMIF(Tourism!B:B,B5,Tourism!D:D)</f>
         <v>0</v>
       </c>
-      <c r="D5" s="34">
+      <c r="D5" s="33">
         <f>SUMIF(Business!B:B,B5,Business!I:I) + SUMIF(School!B:B,B5,School!I:I) + SUMIF(Service!B:B,B5,Service!I:I)+SUMIF(Retail!B:B,B5,Retail!I:I) + SUMIF(Tourism!B:B,B5,Tourism!I:I)</f>
         <v>0</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="G5" s="15">
+        <v>63</v>
+      </c>
+      <c r="G5" s="14">
         <f>SUM(Service!D:D)</f>
-        <v>8</v>
-      </c>
-      <c r="H5" s="34">
+        <v>9</v>
+      </c>
+      <c r="H5" s="33">
         <f>SUM(Service!I:I)</f>
-        <v>2556.8319999999999</v>
+        <v>2675.2019999999998</v>
       </c>
       <c r="I5" s="5"/>
       <c r="J5" s="4"/>
@@ -1860,28 +1880,28 @@
       <c r="P5" s="5"/>
       <c r="Q5" s="5"/>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="15">
+      <c r="C6" s="14">
         <f>SUMIF(Business!B:B,B6,Business!D:D) + SUMIF(School!B:B,B6,School!D:D) + SUMIF(Service!B:B,B6,Service!D:D)+SUMIF(Retail!B:B,B6,Retail!D:D) + SUMIF(Tourism!B:B,B6,Tourism!D:D)</f>
         <v>0</v>
       </c>
-      <c r="D6" s="34">
+      <c r="D6" s="33">
         <f>SUMIF(Business!B:B,B6,Business!I:I) + SUMIF(School!B:B,B6,School!I:I) + SUMIF(Service!B:B,B6,Service!I:I)+SUMIF(Retail!B:B,B6,Retail!I:I) + SUMIF(Tourism!B:B,B6,Tourism!I:I)</f>
         <v>0</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="G6" s="15">
+        <v>64</v>
+      </c>
+      <c r="G6" s="14">
         <f>SUM(Retail!D:D)</f>
         <v>4</v>
       </c>
-      <c r="H6" s="34">
+      <c r="H6" s="33">
         <f>SUM(Retail!I:I)</f>
         <v>2012.3240000000001</v>
       </c>
@@ -1895,28 +1915,28 @@
       <c r="P6" s="5"/>
       <c r="Q6" s="5"/>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="15">
+      <c r="C7" s="14">
         <f>SUMIF(Business!B:B,B7,Business!D:D) + SUMIF(School!B:B,B7,School!D:D) + SUMIF(Service!B:B,B7,Service!D:D)+SUMIF(Retail!B:B,B7,Retail!D:D) + SUMIF(Tourism!B:B,B7,Tourism!D:D)</f>
         <v>0</v>
       </c>
-      <c r="D7" s="34">
+      <c r="D7" s="33">
         <f>SUMIF(Business!B:B,B7,Business!I:I) + SUMIF(School!B:B,B7,School!I:I) + SUMIF(Service!B:B,B7,Service!I:I)+SUMIF(Retail!B:B,B7,Retail!I:I) + SUMIF(Tourism!B:B,B7,Tourism!I:I)</f>
         <v>0</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="G7" s="15">
+        <v>65</v>
+      </c>
+      <c r="G7" s="14">
         <f>SUM(Tourism!D:D)</f>
         <v>3</v>
       </c>
-      <c r="H7" s="34">
+      <c r="H7" s="33">
         <f>SUM(Tourism!I:I)</f>
         <v>1775.58</v>
       </c>
@@ -1930,16 +1950,16 @@
       <c r="P7" s="5"/>
       <c r="Q7" s="5"/>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="15">
+      <c r="C8" s="14">
         <f>SUMIF(Business!B:B,B8,Business!D:D) + SUMIF(School!B:B,B8,School!D:D) + SUMIF(Service!B:B,B8,Service!D:D)+SUMIF(Retail!B:B,B8,Retail!D:D) + SUMIF(Tourism!B:B,B8,Tourism!D:D)</f>
         <v>0</v>
       </c>
-      <c r="D8" s="34">
+      <c r="D8" s="33">
         <f>SUMIF(Business!B:B,B8,Business!I:I) + SUMIF(School!B:B,B8,School!I:I) + SUMIF(Service!B:B,B8,Service!I:I)+SUMIF(Retail!B:B,B8,Retail!I:I) + SUMIF(Tourism!B:B,B8,Tourism!I:I)</f>
         <v>0</v>
       </c>
@@ -1947,13 +1967,13 @@
       <c r="F8" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="G8" s="16">
+      <c r="G8" s="15">
         <f>SUM(G3:G7)</f>
-        <v>24</v>
-      </c>
-      <c r="H8" s="35">
+        <v>25.5</v>
+      </c>
+      <c r="H8" s="34">
         <f>SUM(H3:H7)</f>
-        <v>10014.238000000001</v>
+        <v>10724.463</v>
       </c>
       <c r="I8" s="5"/>
       <c r="J8" s="4"/>
@@ -1965,23 +1985,23 @@
       <c r="P8" s="5"/>
       <c r="Q8" s="5"/>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="15">
+      <c r="C9" s="14">
         <f>SUMIF(Business!B:B,B9,Business!D:D) + SUMIF(School!B:B,B9,School!D:D) + SUMIF(Service!B:B,B9,Service!D:D)+SUMIF(Retail!B:B,B9,Retail!D:D) + SUMIF(Tourism!B:B,B9,Tourism!D:D)</f>
         <v>4</v>
       </c>
-      <c r="D9" s="34">
+      <c r="D9" s="33">
         <f>SUMIF(Business!B:B,B9,Business!I:I) + SUMIF(School!B:B,B9,School!I:I) + SUMIF(Service!B:B,B9,Service!I:I)+SUMIF(Retail!B:B,B9,Retail!I:I) + SUMIF(Tourism!B:B,B9,Tourism!I:I)</f>
         <v>1893.9520000000002</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="4"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
       <c r="I9" s="5"/>
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
@@ -1992,23 +2012,23 @@
       <c r="P9" s="5"/>
       <c r="Q9" s="5"/>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="16">
+      <c r="C10" s="15">
         <f>SUM(C3:C9)</f>
-        <v>24</v>
-      </c>
-      <c r="D10" s="35">
+        <v>25.5</v>
+      </c>
+      <c r="D10" s="34">
         <f>SUM(D3:D9)</f>
-        <v>10014.238000000001</v>
+        <v>10724.463</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="4"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
       <c r="I10" s="5"/>
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
@@ -2019,11 +2039,11 @@
       <c r="P10" s="5"/>
       <c r="Q10" s="5"/>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
       <c r="E11" s="5"/>
       <c r="I11" s="5"/>
       <c r="J11" s="4"/>
@@ -2035,11 +2055,11 @@
       <c r="P11" s="5"/>
       <c r="Q11" s="5"/>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
       <c r="E12" s="5"/>
       <c r="I12" s="5"/>
       <c r="J12" s="4"/>
@@ -2051,15 +2071,15 @@
       <c r="P12" s="5"/>
       <c r="Q12" s="5"/>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
       <c r="E13" s="5"/>
       <c r="F13" s="4"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
       <c r="I13" s="5"/>
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
@@ -2070,15 +2090,15 @@
       <c r="P13" s="5"/>
       <c r="Q13" s="5"/>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
       <c r="E14" s="5"/>
       <c r="F14" s="4"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
       <c r="I14" s="5"/>
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
@@ -2089,15 +2109,15 @@
       <c r="P14" s="5"/>
       <c r="Q14" s="5"/>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
       <c r="E15" s="5"/>
       <c r="F15" s="4"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
       <c r="I15" s="5"/>
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
@@ -2108,15 +2128,15 @@
       <c r="P15" s="5"/>
       <c r="Q15" s="5"/>
     </row>
-    <row r="16" spans="1:17">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
       <c r="E16" s="5"/>
       <c r="F16" s="4"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
       <c r="I16" s="5"/>
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
@@ -2127,15 +2147,15 @@
       <c r="P16" s="5"/>
       <c r="Q16" s="5"/>
     </row>
-    <row r="17" spans="1:17">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
       <c r="E17" s="5"/>
       <c r="F17" s="4"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
       <c r="I17" s="5"/>
       <c r="J17" s="4"/>
       <c r="K17" s="4"/>
@@ -2146,15 +2166,15 @@
       <c r="P17" s="5"/>
       <c r="Q17" s="5"/>
     </row>
-    <row r="18" spans="1:17">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
       <c r="E18" s="5"/>
       <c r="F18" s="4"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
       <c r="I18" s="5"/>
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
@@ -2167,8 +2187,9 @@
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="B1:D1"/>
+    <mergeCell ref="F1:H1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2179,204 +2200,214 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.140625" style="66" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.42578125" style="58" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.140625" style="58" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.28515625" style="58" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" style="67" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="67" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" style="68" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="8.5703125" style="58" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="9.7109375" style="67" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="64" style="69" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="58"/>
+    <col min="1" max="1" width="10.140625" style="65" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" style="57" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.140625" style="57" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.28515625" style="57" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" style="66" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="66" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" style="67" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="8.5703125" style="57" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="9.7109375" style="66" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="64" style="68" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="57"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="70" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="71" t="s">
+      <c r="B1" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="71" t="s">
+      <c r="C1" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="D1" s="71" t="s">
+      <c r="D1" s="70" t="s">
         <v>50</v>
       </c>
-      <c r="E1" s="72" t="s">
+      <c r="E1" s="71" t="s">
         <v>57</v>
       </c>
-      <c r="F1" s="72" t="s">
-        <v>74</v>
-      </c>
-      <c r="G1" s="71" t="s">
+      <c r="F1" s="71" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1" s="70" t="s">
         <v>58</v>
       </c>
-      <c r="H1" s="71" t="s">
+      <c r="H1" s="70" t="s">
         <v>56</v>
       </c>
-      <c r="I1" s="71" t="s">
+      <c r="I1" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="57" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="59" t="s">
+      <c r="J1" s="56" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="58" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="60" t="s">
+      <c r="B2" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="60" t="s">
+      <c r="C2" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="D2" s="73">
+      <c r="D2" s="72">
         <v>5</v>
       </c>
-      <c r="E2" s="62">
+      <c r="E2" s="61">
         <f>IF(ISERROR(MATCH(C2,SkillList,0)),0,MATCH(C2,SkillList,0))</f>
         <v>4</v>
       </c>
-      <c r="F2" s="62">
+      <c r="F2" s="61">
         <f>IF(ISERROR(MATCH(B2,MemberList,0)),0,MATCH(B2,MemberList,0))</f>
         <v>1</v>
       </c>
-      <c r="G2" s="63">
+      <c r="G2" s="62">
         <f>INDEX(CostPerHour,E2)</f>
         <v>355.11</v>
       </c>
-      <c r="H2" s="64">
+      <c r="H2" s="63">
         <f>IF(ISERROR(INDEX(Competency,F2,E2)), 0, INDEX(Competency,F2,E2))</f>
         <v>1</v>
       </c>
-      <c r="I2" s="63">
+      <c r="I2" s="62">
         <f>D2*G2*H2</f>
         <v>1775.5500000000002</v>
       </c>
-      <c r="J2" s="65" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="59"/>
-      <c r="B3" s="60"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="62">
+      <c r="J2" s="64" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="58" t="s">
+        <v>88</v>
+      </c>
+      <c r="B3" s="59" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" s="72">
+        <v>0.5</v>
+      </c>
+      <c r="E3" s="61">
         <f>IF(ISERROR(MATCH(C3,SkillList,0)),0,MATCH(C3,SkillList,0))</f>
-        <v>0</v>
-      </c>
-      <c r="F3" s="62">
+        <v>1</v>
+      </c>
+      <c r="F3" s="61">
         <f>IF(ISERROR(MATCH(B3,MemberList,0)),0,MATCH(B3,MemberList,0))</f>
-        <v>0</v>
-      </c>
-      <c r="G3" s="63">
+        <v>1</v>
+      </c>
+      <c r="G3" s="62">
         <f>INDEX(CostPerHour,E3)</f>
-        <v>946.97</v>
-      </c>
-      <c r="H3" s="64">
+        <v>1183.71</v>
+      </c>
+      <c r="H3" s="63">
         <f>IF(ISERROR(INDEX(Competency,F3,E3)), 0, INDEX(Competency,F3,E3))</f>
-        <v>0</v>
-      </c>
-      <c r="I3" s="63">
+        <v>1</v>
+      </c>
+      <c r="I3" s="62">
         <f t="shared" ref="I3:I6" si="0">D3*G3*H3</f>
-        <v>0</v>
-      </c>
-      <c r="J3" s="65"/>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="59"/>
-      <c r="B4" s="60"/>
-      <c r="C4" s="60"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="62">
+        <v>591.85500000000002</v>
+      </c>
+      <c r="J3" s="64" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="58"/>
+      <c r="B4" s="59"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="61">
         <f>IF(ISERROR(MATCH(C4,SkillList,0)),0,MATCH(C4,SkillList,0))</f>
         <v>0</v>
       </c>
-      <c r="F4" s="62">
+      <c r="F4" s="61">
         <f>IF(ISERROR(MATCH(B4,MemberList,0)),0,MATCH(B4,MemberList,0))</f>
         <v>0</v>
       </c>
-      <c r="G4" s="63">
+      <c r="G4" s="62">
         <f>INDEX(CostPerHour,E4)</f>
         <v>946.97</v>
       </c>
-      <c r="H4" s="64">
+      <c r="H4" s="63">
         <f>IF(ISERROR(INDEX(Competency,F4,E4)), 0, INDEX(Competency,F4,E4))</f>
         <v>1</v>
       </c>
-      <c r="I4" s="63">
+      <c r="I4" s="62">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J4" s="65"/>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="59"/>
-      <c r="B5" s="60"/>
-      <c r="C5" s="60"/>
-      <c r="D5" s="73"/>
-      <c r="E5" s="62">
+      <c r="J4" s="64"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="58"/>
+      <c r="B5" s="59"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="61">
         <f>IF(ISERROR(MATCH(C5,SkillList,0)),0,MATCH(C5,SkillList,0))</f>
         <v>0</v>
       </c>
-      <c r="F5" s="62">
+      <c r="F5" s="61">
         <f>IF(ISERROR(MATCH(B5,MemberList,0)),0,MATCH(B5,MemberList,0))</f>
         <v>0</v>
       </c>
-      <c r="G5" s="63">
+      <c r="G5" s="62">
         <f>INDEX(CostPerHour,E5)</f>
         <v>355.11</v>
       </c>
-      <c r="H5" s="64">
+      <c r="H5" s="63">
         <f>IF(ISERROR(INDEX(Competency,F5,E5)), 0, INDEX(Competency,F5,E5))</f>
         <v>0</v>
       </c>
-      <c r="I5" s="63">
+      <c r="I5" s="62">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J5" s="65"/>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="59"/>
-      <c r="B6" s="60"/>
-      <c r="C6" s="60"/>
-      <c r="D6" s="73"/>
-      <c r="E6" s="62">
+      <c r="J5" s="64"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="58"/>
+      <c r="B6" s="59"/>
+      <c r="C6" s="59"/>
+      <c r="D6" s="72"/>
+      <c r="E6" s="61">
         <f>IF(ISERROR(MATCH(C6,SkillList,0)),0,MATCH(C6,SkillList,0))</f>
         <v>0</v>
       </c>
-      <c r="F6" s="62">
+      <c r="F6" s="61">
         <f>IF(ISERROR(MATCH(B6,MemberList,0)),0,MATCH(B6,MemberList,0))</f>
         <v>0</v>
       </c>
-      <c r="G6" s="63">
+      <c r="G6" s="62">
         <f>INDEX(CostPerHour,E6)</f>
         <v>355.11</v>
       </c>
-      <c r="H6" s="64">
+      <c r="H6" s="63">
         <f>IF(ISERROR(INDEX(Competency,F6,E6)), 0, INDEX(Competency,F6,E6))</f>
         <v>0</v>
       </c>
-      <c r="I6" s="63">
+      <c r="I6" s="62">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J6" s="65"/>
+      <c r="J6" s="64"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
@@ -2393,210 +2424,210 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="66" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.42578125" style="58" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.140625" style="58" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.28515625" style="58" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" style="67" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="67" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" style="68" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="8.5703125" style="58" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="9.7109375" style="67" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="64" style="69" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="58"/>
+    <col min="1" max="1" width="10.7109375" style="65" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" style="57" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.140625" style="57" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.28515625" style="57" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" style="66" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="66" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" style="67" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="8.5703125" style="57" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="9.7109375" style="66" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="64" style="68" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="57"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="54" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="55" t="s">
+      <c r="B1" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="55" t="s">
+      <c r="C1" s="54" t="s">
         <v>39</v>
       </c>
-      <c r="D1" s="55" t="s">
+      <c r="D1" s="54" t="s">
         <v>50</v>
       </c>
-      <c r="E1" s="56" t="s">
+      <c r="E1" s="55" t="s">
         <v>57</v>
       </c>
-      <c r="F1" s="56" t="s">
-        <v>74</v>
-      </c>
-      <c r="G1" s="55" t="s">
+      <c r="F1" s="55" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1" s="54" t="s">
         <v>58</v>
       </c>
-      <c r="H1" s="55" t="s">
+      <c r="H1" s="54" t="s">
         <v>56</v>
       </c>
-      <c r="I1" s="55" t="s">
+      <c r="I1" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="57" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="59">
+      <c r="J1" s="56" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="58">
         <v>42298</v>
       </c>
-      <c r="B2" s="60" t="s">
+      <c r="B2" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="60" t="s">
+      <c r="C2" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="61">
+      <c r="D2" s="60">
         <v>2</v>
       </c>
-      <c r="E2" s="62">
+      <c r="E2" s="61">
         <f>IF(ISERROR(MATCH(C2,SkillList,0)),0,MATCH(C2,SkillList,0))</f>
         <v>7</v>
       </c>
-      <c r="F2" s="62">
+      <c r="F2" s="61">
         <f>IF(ISERROR(MATCH(B2,MemberList,0)),0,MATCH(B2,MemberList,0))</f>
         <v>7</v>
       </c>
-      <c r="G2" s="63">
+      <c r="G2" s="62">
         <f>INDEX(CostPerHour,E2)</f>
         <v>591.86</v>
       </c>
-      <c r="H2" s="64">
+      <c r="H2" s="63">
         <f>IF(ISERROR(INDEX(Competency,F2,E2)), 0, INDEX(Competency,F2,E2))</f>
         <v>0.8</v>
       </c>
-      <c r="I2" s="63">
+      <c r="I2" s="62">
         <f>D2*G2*H2</f>
         <v>946.97600000000011</v>
       </c>
-      <c r="J2" s="65"/>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="59">
+      <c r="J2" s="64"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="58">
         <v>42299</v>
       </c>
-      <c r="B3" s="60" t="s">
+      <c r="B3" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="60" t="s">
+      <c r="C3" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="61">
+      <c r="D3" s="60">
         <v>2</v>
       </c>
-      <c r="E3" s="62">
+      <c r="E3" s="61">
         <f>IF(ISERROR(MATCH(C3,SkillList,0)),0,MATCH(C3,SkillList,0))</f>
         <v>7</v>
       </c>
-      <c r="F3" s="62">
+      <c r="F3" s="61">
         <f>IF(ISERROR(MATCH(B3,MemberList,0)),0,MATCH(B3,MemberList,0))</f>
         <v>7</v>
       </c>
-      <c r="G3" s="63">
+      <c r="G3" s="62">
         <f>INDEX(CostPerHour,E3)</f>
         <v>591.86</v>
       </c>
-      <c r="H3" s="64">
+      <c r="H3" s="63">
         <f>IF(ISERROR(INDEX(Competency,F3,E3)), 0, INDEX(Competency,F3,E3))</f>
         <v>0.8</v>
       </c>
-      <c r="I3" s="63">
+      <c r="I3" s="62">
         <f t="shared" ref="I3:I6" si="0">D3*G3*H3</f>
         <v>946.97600000000011</v>
       </c>
-      <c r="J3" s="65"/>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="59"/>
-      <c r="B4" s="60"/>
-      <c r="C4" s="60"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="62">
+      <c r="J3" s="64"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="58"/>
+      <c r="B4" s="59"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="61">
         <f>IF(ISERROR(MATCH(C4,SkillList,0)),0,MATCH(C4,SkillList,0))</f>
         <v>0</v>
       </c>
-      <c r="F4" s="62">
+      <c r="F4" s="61">
         <f>IF(ISERROR(MATCH(B4,MemberList,0)),0,MATCH(B4,MemberList,0))</f>
         <v>0</v>
       </c>
-      <c r="G4" s="63">
+      <c r="G4" s="62">
         <f>INDEX(CostPerHour,E4)</f>
         <v>946.97</v>
       </c>
-      <c r="H4" s="64">
+      <c r="H4" s="63">
         <f>IF(ISERROR(INDEX(Competency,F4,E4)), 0, INDEX(Competency,F4,E4))</f>
         <v>1</v>
       </c>
-      <c r="I4" s="63">
+      <c r="I4" s="62">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J4" s="65"/>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="59"/>
-      <c r="B5" s="60"/>
-      <c r="C5" s="60"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="62">
+      <c r="J4" s="64"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="58"/>
+      <c r="B5" s="59"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="61">
         <f>IF(ISERROR(MATCH(C5,SkillList,0)),0,MATCH(C5,SkillList,0))</f>
         <v>0</v>
       </c>
-      <c r="F5" s="62">
+      <c r="F5" s="61">
         <f>IF(ISERROR(MATCH(B5,MemberList,0)),0,MATCH(B5,MemberList,0))</f>
         <v>0</v>
       </c>
-      <c r="G5" s="63">
+      <c r="G5" s="62">
         <f>INDEX(CostPerHour,E5)</f>
         <v>355.11</v>
       </c>
-      <c r="H5" s="64">
+      <c r="H5" s="63">
         <f>IF(ISERROR(INDEX(Competency,F5,E5)), 0, INDEX(Competency,F5,E5))</f>
         <v>0</v>
       </c>
-      <c r="I5" s="63">
+      <c r="I5" s="62">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J5" s="65"/>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="59"/>
-      <c r="B6" s="60"/>
-      <c r="C6" s="60"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="62">
+      <c r="J5" s="64"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="58"/>
+      <c r="B6" s="59"/>
+      <c r="C6" s="59"/>
+      <c r="D6" s="60"/>
+      <c r="E6" s="61">
         <f>IF(ISERROR(MATCH(C6,SkillList,0)),0,MATCH(C6,SkillList,0))</f>
         <v>0</v>
       </c>
-      <c r="F6" s="62">
+      <c r="F6" s="61">
         <f>IF(ISERROR(MATCH(B6,MemberList,0)),0,MATCH(B6,MemberList,0))</f>
         <v>0</v>
       </c>
-      <c r="G6" s="63">
+      <c r="G6" s="62">
         <f>INDEX(CostPerHour,E6)</f>
         <v>355.11</v>
       </c>
-      <c r="H6" s="64">
+      <c r="H6" s="63">
         <f>IF(ISERROR(INDEX(Competency,F6,E6)), 0, INDEX(Competency,F6,E6))</f>
         <v>0</v>
       </c>
-      <c r="I6" s="63">
+      <c r="I6" s="62">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J6" s="65"/>
+      <c r="J6" s="64"/>
     </row>
   </sheetData>
   <dataValidations count="2">
@@ -2612,222 +2643,256 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.140625" style="66" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.42578125" style="58" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.140625" style="58" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.28515625" style="58" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" style="67" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="67" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" style="68" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="8.5703125" style="58" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="9.7109375" style="67" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="64" style="69" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="58"/>
+    <col min="1" max="1" width="10.140625" style="65" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" style="57" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.140625" style="57" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.28515625" style="57" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" style="66" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="66" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" style="67" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="8.5703125" style="57" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="9.7109375" style="66" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="64" style="68" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="57"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="54" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="55" t="s">
+      <c r="B1" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="55" t="s">
+      <c r="C1" s="54" t="s">
         <v>39</v>
       </c>
-      <c r="D1" s="55" t="s">
+      <c r="D1" s="54" t="s">
         <v>50</v>
       </c>
-      <c r="E1" s="56" t="s">
+      <c r="E1" s="55" t="s">
         <v>57</v>
       </c>
-      <c r="F1" s="56" t="s">
-        <v>74</v>
-      </c>
-      <c r="G1" s="55" t="s">
+      <c r="F1" s="55" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1" s="54" t="s">
         <v>58</v>
       </c>
-      <c r="H1" s="55" t="s">
+      <c r="H1" s="54" t="s">
         <v>56</v>
       </c>
-      <c r="I1" s="55" t="s">
+      <c r="I1" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="57" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="59"/>
-      <c r="B2" s="60" t="s">
+      <c r="J1" s="56" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="58"/>
+      <c r="B2" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="60" t="s">
+      <c r="C2" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="61"/>
-      <c r="E2" s="62">
+      <c r="D2" s="60"/>
+      <c r="E2" s="61">
         <f>IF(ISERROR(MATCH(C2,SkillList,0)),0,MATCH(C2,SkillList,0))</f>
         <v>8</v>
       </c>
-      <c r="F2" s="62">
+      <c r="F2" s="61">
         <f>IF(ISERROR(MATCH(B2,MemberList,0)),0,MATCH(B2,MemberList,0))</f>
         <v>3</v>
       </c>
-      <c r="G2" s="63">
+      <c r="G2" s="62">
         <f>INDEX(CostPerHour,E2)</f>
         <v>236.74</v>
       </c>
-      <c r="H2" s="64">
+      <c r="H2" s="63">
         <f>IF(ISERROR(INDEX(Competency,F2,E2)), 0, INDEX(Competency,F2,E2))</f>
         <v>0</v>
       </c>
-      <c r="I2" s="63">
+      <c r="I2" s="62">
         <f>D2*G2*H2</f>
         <v>0</v>
       </c>
-      <c r="J2" s="65"/>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="59"/>
-      <c r="B3" s="60" t="s">
+      <c r="J2" s="64"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="58"/>
+      <c r="B3" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="60" t="s">
+      <c r="C3" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="61"/>
-      <c r="E3" s="62">
+      <c r="D3" s="60"/>
+      <c r="E3" s="61">
         <f>IF(ISERROR(MATCH(C3,SkillList,0)),0,MATCH(C3,SkillList,0))</f>
         <v>8</v>
       </c>
-      <c r="F3" s="62">
+      <c r="F3" s="61">
         <f>IF(ISERROR(MATCH(B3,MemberList,0)),0,MATCH(B3,MemberList,0))</f>
         <v>3</v>
       </c>
-      <c r="G3" s="63">
+      <c r="G3" s="62">
         <f>INDEX(CostPerHour,E3)</f>
         <v>236.74</v>
       </c>
-      <c r="H3" s="64">
+      <c r="H3" s="63">
         <f>IF(ISERROR(INDEX(Competency,F3,E3)), 0, INDEX(Competency,F3,E3))</f>
         <v>0</v>
       </c>
-      <c r="I3" s="63">
-        <f t="shared" ref="I3:I6" si="0">D3*G3*H3</f>
-        <v>0</v>
-      </c>
-      <c r="J3" s="65"/>
-    </row>
-    <row r="4" spans="1:10" ht="30">
-      <c r="A4" s="59" t="s">
-        <v>77</v>
-      </c>
-      <c r="B4" s="60" t="s">
+      <c r="I3" s="62">
+        <f t="shared" ref="I3:I8" si="0">D3*G3*H3</f>
+        <v>0</v>
+      </c>
+      <c r="J3" s="64"/>
+    </row>
+    <row r="4" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="58" t="s">
+        <v>75</v>
+      </c>
+      <c r="B4" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="60" t="s">
+      <c r="C4" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="61">
+      <c r="D4" s="60">
         <v>4</v>
       </c>
-      <c r="E4" s="62">
+      <c r="E4" s="61">
         <f>IF(ISERROR(MATCH(C4,SkillList,0)),0,MATCH(C4,SkillList,0))</f>
         <v>10</v>
       </c>
-      <c r="F4" s="62">
+      <c r="F4" s="61">
         <f>IF(ISERROR(MATCH(B4,MemberList,0)),0,MATCH(B4,MemberList,0))</f>
         <v>1</v>
       </c>
-      <c r="G4" s="63">
+      <c r="G4" s="62">
         <f>INDEX(CostPerHour,E4)</f>
         <v>591.86</v>
       </c>
-      <c r="H4" s="64">
+      <c r="H4" s="63">
         <f>IF(ISERROR(INDEX(Competency,F4,E4)), 0, INDEX(Competency,F4,E4))</f>
         <v>1</v>
       </c>
-      <c r="I4" s="63">
+      <c r="I4" s="62">
         <f t="shared" si="0"/>
         <v>2367.44</v>
       </c>
-      <c r="J4" s="65" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="59" t="s">
-        <v>77</v>
-      </c>
-      <c r="B5" s="60" t="s">
+      <c r="J4" s="64" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="58" t="s">
+        <v>75</v>
+      </c>
+      <c r="B5" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="60" t="s">
+      <c r="C5" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="61">
+      <c r="D5" s="60">
         <v>4</v>
       </c>
-      <c r="E5" s="62">
+      <c r="E5" s="61">
         <f>IF(ISERROR(MATCH(C5,SkillList,0)),0,MATCH(C5,SkillList,0))</f>
         <v>8</v>
       </c>
-      <c r="F5" s="62">
+      <c r="F5" s="61">
         <f>IF(ISERROR(MATCH(B5,MemberList,0)),0,MATCH(B5,MemberList,0))</f>
         <v>2</v>
       </c>
-      <c r="G5" s="63">
+      <c r="G5" s="62">
         <f>INDEX(CostPerHour,E5)</f>
         <v>236.74</v>
       </c>
-      <c r="H5" s="64">
+      <c r="H5" s="63">
         <f>IF(ISERROR(INDEX(Competency,F5,E5)), 0, INDEX(Competency,F5,E5))</f>
         <v>0.2</v>
       </c>
-      <c r="I5" s="63">
+      <c r="I5" s="62">
         <f t="shared" si="0"/>
         <v>189.39200000000002</v>
       </c>
-      <c r="J5" s="65" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="59"/>
-      <c r="B6" s="60"/>
-      <c r="C6" s="60"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="62">
+      <c r="J5" s="64" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="58" t="s">
+        <v>86</v>
+      </c>
+      <c r="B6" s="59" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="59" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="60">
+        <v>1</v>
+      </c>
+      <c r="E6" s="61">
         <f>IF(ISERROR(MATCH(C6,SkillList,0)),0,MATCH(C6,SkillList,0))</f>
-        <v>0</v>
-      </c>
-      <c r="F6" s="62">
+        <v>8</v>
+      </c>
+      <c r="F6" s="61">
         <f>IF(ISERROR(MATCH(B6,MemberList,0)),0,MATCH(B6,MemberList,0))</f>
-        <v>0</v>
-      </c>
-      <c r="G6" s="63">
+        <v>1</v>
+      </c>
+      <c r="G6" s="62">
         <f>INDEX(CostPerHour,E6)</f>
-        <v>355.11</v>
-      </c>
-      <c r="H6" s="64">
+        <v>236.74</v>
+      </c>
+      <c r="H6" s="63">
         <f>IF(ISERROR(INDEX(Competency,F6,E6)), 0, INDEX(Competency,F6,E6))</f>
-        <v>0</v>
-      </c>
-      <c r="I6" s="63">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J6" s="65"/>
+        <v>0.5</v>
+      </c>
+      <c r="I6" s="62">
+        <f t="shared" ref="I6" si="1">D6*G6*H6</f>
+        <v>118.37</v>
+      </c>
+      <c r="J6" s="64" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="58"/>
+      <c r="B7" s="59"/>
+      <c r="C7" s="59"/>
+      <c r="D7" s="60"/>
+      <c r="E7" s="61"/>
+      <c r="F7" s="61"/>
+      <c r="G7" s="62"/>
+      <c r="H7" s="63"/>
+      <c r="I7" s="62"/>
+      <c r="J7" s="64"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="58"/>
+      <c r="B8" s="59"/>
+      <c r="C8" s="59"/>
+      <c r="D8" s="60"/>
+      <c r="E8" s="61"/>
+      <c r="F8" s="61"/>
+      <c r="G8" s="62"/>
+      <c r="H8" s="63"/>
+      <c r="I8" s="62"/>
+      <c r="J8" s="64"/>
     </row>
   </sheetData>
   <dataValidations count="2">
@@ -2843,224 +2908,224 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.140625" style="66" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.42578125" style="58" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.140625" style="58" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.28515625" style="58" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" style="67" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="67" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" style="68" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="8.5703125" style="58" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="9.7109375" style="67" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="64" style="69" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="58"/>
+    <col min="1" max="1" width="10.140625" style="65" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" style="57" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.140625" style="57" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.28515625" style="57" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" style="66" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="66" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" style="67" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="8.5703125" style="57" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="9.7109375" style="66" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="64" style="68" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="57"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="54" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="55" t="s">
+      <c r="B1" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="55" t="s">
+      <c r="C1" s="54" t="s">
         <v>39</v>
       </c>
-      <c r="D1" s="55" t="s">
+      <c r="D1" s="54" t="s">
         <v>50</v>
       </c>
-      <c r="E1" s="56" t="s">
+      <c r="E1" s="55" t="s">
         <v>57</v>
       </c>
-      <c r="F1" s="56" t="s">
-        <v>74</v>
-      </c>
-      <c r="G1" s="55" t="s">
+      <c r="F1" s="55" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1" s="54" t="s">
         <v>58</v>
       </c>
-      <c r="H1" s="55" t="s">
+      <c r="H1" s="54" t="s">
         <v>56</v>
       </c>
-      <c r="I1" s="55" t="s">
+      <c r="I1" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="57" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="59" t="s">
+      <c r="J1" s="56" t="s">
         <v>77</v>
       </c>
-      <c r="B2" s="60" t="s">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="58" t="s">
+        <v>75</v>
+      </c>
+      <c r="B2" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="60" t="s">
+      <c r="C2" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="61">
+      <c r="D2" s="60">
         <v>1</v>
       </c>
-      <c r="E2" s="62">
+      <c r="E2" s="61">
         <f>IF(ISERROR(MATCH(C2,SkillList,0)),0,MATCH(C2,SkillList,0))</f>
         <v>7</v>
       </c>
-      <c r="F2" s="62">
+      <c r="F2" s="61">
         <f>IF(ISERROR(MATCH(B2,MemberList,0)),0,MATCH(B2,MemberList,0))</f>
         <v>2</v>
       </c>
-      <c r="G2" s="63">
+      <c r="G2" s="62">
         <f>INDEX(CostPerHour,E2)</f>
         <v>591.86</v>
       </c>
-      <c r="H2" s="64">
+      <c r="H2" s="63">
         <f>IF(ISERROR(INDEX(Competency,F2,E2)), 0, INDEX(Competency,F2,E2))</f>
         <v>0.8</v>
       </c>
-      <c r="I2" s="63">
+      <c r="I2" s="62">
         <f>D2*G2*H2</f>
         <v>473.48800000000006</v>
       </c>
-      <c r="J2" s="65" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="59" t="s">
-        <v>77</v>
-      </c>
-      <c r="B3" s="60" t="s">
+      <c r="J2" s="64" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="58" t="s">
+        <v>75</v>
+      </c>
+      <c r="B3" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="60" t="s">
+      <c r="C3" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="61">
+      <c r="D3" s="60">
         <v>1</v>
       </c>
-      <c r="E3" s="62">
+      <c r="E3" s="61">
         <f>IF(ISERROR(MATCH(C3,SkillList,0)),0,MATCH(C3,SkillList,0))</f>
         <v>7</v>
       </c>
-      <c r="F3" s="62">
+      <c r="F3" s="61">
         <f>IF(ISERROR(MATCH(B3,MemberList,0)),0,MATCH(B3,MemberList,0))</f>
         <v>1</v>
       </c>
-      <c r="G3" s="63">
+      <c r="G3" s="62">
         <f>INDEX(CostPerHour,E3)</f>
         <v>591.86</v>
       </c>
-      <c r="H3" s="64">
+      <c r="H3" s="63">
         <f>IF(ISERROR(INDEX(Competency,F3,E3)), 0, INDEX(Competency,F3,E3))</f>
         <v>1</v>
       </c>
-      <c r="I3" s="63">
+      <c r="I3" s="62">
         <f t="shared" ref="I3:I6" si="0">D3*G3*H3</f>
         <v>591.86</v>
       </c>
-      <c r="J3" s="65" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="59" t="s">
-        <v>77</v>
-      </c>
-      <c r="B4" s="60" t="s">
+      <c r="J3" s="64" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="58" t="s">
+        <v>75</v>
+      </c>
+      <c r="B4" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="60" t="s">
+      <c r="C4" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="61">
+      <c r="D4" s="60">
         <v>2</v>
       </c>
-      <c r="E4" s="62">
+      <c r="E4" s="61">
         <f>IF(ISERROR(MATCH(C4,SkillList,0)),0,MATCH(C4,SkillList,0))</f>
         <v>7</v>
       </c>
-      <c r="F4" s="62">
+      <c r="F4" s="61">
         <f>IF(ISERROR(MATCH(B4,MemberList,0)),0,MATCH(B4,MemberList,0))</f>
         <v>2</v>
       </c>
-      <c r="G4" s="63">
+      <c r="G4" s="62">
         <f>INDEX(CostPerHour,E4)</f>
         <v>591.86</v>
       </c>
-      <c r="H4" s="64">
+      <c r="H4" s="63">
         <f>IF(ISERROR(INDEX(Competency,F4,E4)), 0, INDEX(Competency,F4,E4))</f>
         <v>0.8</v>
       </c>
-      <c r="I4" s="63">
+      <c r="I4" s="62">
         <f t="shared" si="0"/>
         <v>946.97600000000011</v>
       </c>
-      <c r="J4" s="65" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="59"/>
-      <c r="B5" s="60"/>
-      <c r="C5" s="60"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="62">
+      <c r="J4" s="64" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="58"/>
+      <c r="B5" s="59"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="61">
         <f>IF(ISERROR(MATCH(C5,SkillList,0)),0,MATCH(C5,SkillList,0))</f>
         <v>0</v>
       </c>
-      <c r="F5" s="62">
+      <c r="F5" s="61">
         <f>IF(ISERROR(MATCH(B5,MemberList,0)),0,MATCH(B5,MemberList,0))</f>
         <v>0</v>
       </c>
-      <c r="G5" s="63">
+      <c r="G5" s="62">
         <f>INDEX(CostPerHour,E5)</f>
         <v>355.11</v>
       </c>
-      <c r="H5" s="64">
+      <c r="H5" s="63">
         <f>IF(ISERROR(INDEX(Competency,F5,E5)), 0, INDEX(Competency,F5,E5))</f>
         <v>0</v>
       </c>
-      <c r="I5" s="63">
+      <c r="I5" s="62">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J5" s="65"/>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="59"/>
-      <c r="B6" s="60"/>
-      <c r="C6" s="60"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="62">
+      <c r="J5" s="64"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="58"/>
+      <c r="B6" s="59"/>
+      <c r="C6" s="59"/>
+      <c r="D6" s="60"/>
+      <c r="E6" s="61">
         <f>IF(ISERROR(MATCH(C6,SkillList,0)),0,MATCH(C6,SkillList,0))</f>
         <v>0</v>
       </c>
-      <c r="F6" s="62">
+      <c r="F6" s="61">
         <f>IF(ISERROR(MATCH(B6,MemberList,0)),0,MATCH(B6,MemberList,0))</f>
         <v>0</v>
       </c>
-      <c r="G6" s="63">
+      <c r="G6" s="62">
         <f>INDEX(CostPerHour,E6)</f>
         <v>355.11</v>
       </c>
-      <c r="H6" s="64">
+      <c r="H6" s="63">
         <f>IF(ISERROR(INDEX(Competency,F6,E6)), 0, INDEX(Competency,F6,E6))</f>
         <v>0</v>
       </c>
-      <c r="I6" s="63">
+      <c r="I6" s="62">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J6" s="65"/>
+      <c r="J6" s="64"/>
     </row>
   </sheetData>
   <dataValidations count="2">
@@ -3076,204 +3141,204 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.140625" style="66" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.42578125" style="58" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.140625" style="58" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.28515625" style="58" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" style="67" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="67" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" style="68" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="8.5703125" style="58" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="9.7109375" style="67" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="64" style="69" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="58"/>
+    <col min="1" max="1" width="10.140625" style="65" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" style="57" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.140625" style="57" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.28515625" style="57" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" style="66" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="66" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" style="67" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="8.5703125" style="57" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="9.7109375" style="66" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="64" style="68" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="57"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="54" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="55" t="s">
+      <c r="B1" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="55" t="s">
+      <c r="C1" s="54" t="s">
         <v>39</v>
       </c>
-      <c r="D1" s="55" t="s">
+      <c r="D1" s="54" t="s">
         <v>50</v>
       </c>
-      <c r="E1" s="56" t="s">
+      <c r="E1" s="55" t="s">
         <v>57</v>
       </c>
-      <c r="F1" s="56" t="s">
-        <v>74</v>
-      </c>
-      <c r="G1" s="55" t="s">
+      <c r="F1" s="55" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1" s="54" t="s">
         <v>58</v>
       </c>
-      <c r="H1" s="55" t="s">
+      <c r="H1" s="54" t="s">
         <v>56</v>
       </c>
-      <c r="I1" s="55" t="s">
+      <c r="I1" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="57" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="59" t="s">
-        <v>86</v>
-      </c>
-      <c r="B2" s="60" t="s">
+      <c r="J1" s="56" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="58" t="s">
+        <v>84</v>
+      </c>
+      <c r="B2" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="60" t="s">
+      <c r="C2" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="61">
+      <c r="D2" s="60">
         <v>3</v>
       </c>
-      <c r="E2" s="62">
+      <c r="E2" s="61">
         <f>IF(ISERROR(MATCH(C2,SkillList,0)),0,MATCH(C2,SkillList,0))</f>
         <v>7</v>
       </c>
-      <c r="F2" s="62">
+      <c r="F2" s="61">
         <f>IF(ISERROR(MATCH(B2,MemberList,0)),0,MATCH(B2,MemberList,0))</f>
         <v>1</v>
       </c>
-      <c r="G2" s="63">
+      <c r="G2" s="62">
         <f>INDEX(CostPerHour,E2)</f>
         <v>591.86</v>
       </c>
-      <c r="H2" s="64">
+      <c r="H2" s="63">
         <f>IF(ISERROR(INDEX(Competency,F2,E2)), 0, INDEX(Competency,F2,E2))</f>
         <v>1</v>
       </c>
-      <c r="I2" s="63">
+      <c r="I2" s="62">
         <f>D2*G2*H2</f>
         <v>1775.58</v>
       </c>
-      <c r="J2" s="65" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="59"/>
-      <c r="B3" s="60"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="62">
+      <c r="J2" s="64" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="58"/>
+      <c r="B3" s="59"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="61">
         <f>IF(ISERROR(MATCH(C3,SkillList,0)),0,MATCH(C3,SkillList,0))</f>
         <v>0</v>
       </c>
-      <c r="F3" s="62">
+      <c r="F3" s="61">
         <f>IF(ISERROR(MATCH(B3,MemberList,0)),0,MATCH(B3,MemberList,0))</f>
         <v>0</v>
       </c>
-      <c r="G3" s="63">
+      <c r="G3" s="62">
         <f>INDEX(CostPerHour,E3)</f>
         <v>946.97</v>
       </c>
-      <c r="H3" s="64">
+      <c r="H3" s="63">
         <f>IF(ISERROR(INDEX(Competency,F3,E3)), 0, INDEX(Competency,F3,E3))</f>
         <v>0</v>
       </c>
-      <c r="I3" s="63">
+      <c r="I3" s="62">
         <f t="shared" ref="I3:I6" si="0">D3*G3*H3</f>
         <v>0</v>
       </c>
-      <c r="J3" s="65"/>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="59"/>
-      <c r="B4" s="60"/>
-      <c r="C4" s="60"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="62">
+      <c r="J3" s="64"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="58"/>
+      <c r="B4" s="59"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="61">
         <f>IF(ISERROR(MATCH(C4,SkillList,0)),0,MATCH(C4,SkillList,0))</f>
         <v>0</v>
       </c>
-      <c r="F4" s="62">
+      <c r="F4" s="61">
         <f>IF(ISERROR(MATCH(B4,MemberList,0)),0,MATCH(B4,MemberList,0))</f>
         <v>0</v>
       </c>
-      <c r="G4" s="63">
+      <c r="G4" s="62">
         <f>INDEX(CostPerHour,E4)</f>
         <v>946.97</v>
       </c>
-      <c r="H4" s="64">
+      <c r="H4" s="63">
         <f>IF(ISERROR(INDEX(Competency,F4,E4)), 0, INDEX(Competency,F4,E4))</f>
         <v>1</v>
       </c>
-      <c r="I4" s="63">
+      <c r="I4" s="62">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J4" s="65"/>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="59"/>
-      <c r="B5" s="60"/>
-      <c r="C5" s="60"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="62">
+      <c r="J4" s="64"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="58"/>
+      <c r="B5" s="59"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="61">
         <f>IF(ISERROR(MATCH(C5,SkillList,0)),0,MATCH(C5,SkillList,0))</f>
         <v>0</v>
       </c>
-      <c r="F5" s="62">
+      <c r="F5" s="61">
         <f>IF(ISERROR(MATCH(B5,MemberList,0)),0,MATCH(B5,MemberList,0))</f>
         <v>0</v>
       </c>
-      <c r="G5" s="63">
+      <c r="G5" s="62">
         <f>INDEX(CostPerHour,E5)</f>
         <v>355.11</v>
       </c>
-      <c r="H5" s="64">
+      <c r="H5" s="63">
         <f>IF(ISERROR(INDEX(Competency,F5,E5)), 0, INDEX(Competency,F5,E5))</f>
         <v>0</v>
       </c>
-      <c r="I5" s="63">
+      <c r="I5" s="62">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J5" s="65"/>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="59"/>
-      <c r="B6" s="60"/>
-      <c r="C6" s="60"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="62">
+      <c r="J5" s="64"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="58"/>
+      <c r="B6" s="59"/>
+      <c r="C6" s="59"/>
+      <c r="D6" s="60"/>
+      <c r="E6" s="61">
         <f>IF(ISERROR(MATCH(C6,SkillList,0)),0,MATCH(C6,SkillList,0))</f>
         <v>0</v>
       </c>
-      <c r="F6" s="62">
+      <c r="F6" s="61">
         <f>IF(ISERROR(MATCH(B6,MemberList,0)),0,MATCH(B6,MemberList,0))</f>
         <v>0</v>
       </c>
-      <c r="G6" s="63">
+      <c r="G6" s="62">
         <f>INDEX(CostPerHour,E6)</f>
         <v>355.11</v>
       </c>
-      <c r="H6" s="64">
+      <c r="H6" s="63">
         <f>IF(ISERROR(INDEX(Competency,F6,E6)), 0, INDEX(Competency,F6,E6))</f>
         <v>0</v>
       </c>
-      <c r="I6" s="63">
+      <c r="I6" s="62">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J6" s="65"/>
+      <c r="J6" s="64"/>
     </row>
   </sheetData>
   <dataValidations count="2">
@@ -3289,14 +3354,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.42578125" bestFit="1" customWidth="1"/>
@@ -3309,683 +3374,683 @@
     <col min="30" max="35" width="4.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="15" customHeight="1" thickBot="1">
-      <c r="A1" s="92" t="s">
-        <v>83</v>
-      </c>
-      <c r="B1" s="92"/>
-      <c r="C1" s="89" t="s">
+    <row r="1" spans="1:35" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="91" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="91"/>
+      <c r="C1" s="88" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="90"/>
-      <c r="H1" s="90"/>
-      <c r="I1" s="90"/>
-      <c r="J1" s="90"/>
-      <c r="K1" s="90"/>
-      <c r="L1" s="90"/>
-      <c r="M1" s="90"/>
-      <c r="N1" s="90"/>
-      <c r="O1" s="90"/>
-      <c r="P1" s="90"/>
-      <c r="Q1" s="90"/>
-      <c r="R1" s="90"/>
-      <c r="S1" s="90"/>
-      <c r="T1" s="90"/>
-      <c r="U1" s="90"/>
-      <c r="V1" s="90"/>
-      <c r="W1" s="90"/>
-      <c r="X1" s="90"/>
-      <c r="Y1" s="90"/>
-      <c r="Z1" s="90"/>
-      <c r="AA1" s="90"/>
-      <c r="AB1" s="90"/>
-      <c r="AC1" s="90"/>
-      <c r="AD1" s="90"/>
-      <c r="AE1" s="90"/>
-      <c r="AF1" s="90"/>
-      <c r="AG1" s="90"/>
-      <c r="AH1" s="90"/>
-      <c r="AI1" s="91"/>
-    </row>
-    <row r="2" spans="1:35" s="27" customFormat="1" ht="15" customHeight="1">
-      <c r="A2" s="93"/>
-      <c r="B2" s="93"/>
-      <c r="C2" s="94" t="s">
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
+      <c r="L1" s="89"/>
+      <c r="M1" s="89"/>
+      <c r="N1" s="89"/>
+      <c r="O1" s="89"/>
+      <c r="P1" s="89"/>
+      <c r="Q1" s="89"/>
+      <c r="R1" s="89"/>
+      <c r="S1" s="89"/>
+      <c r="T1" s="89"/>
+      <c r="U1" s="89"/>
+      <c r="V1" s="89"/>
+      <c r="W1" s="89"/>
+      <c r="X1" s="89"/>
+      <c r="Y1" s="89"/>
+      <c r="Z1" s="89"/>
+      <c r="AA1" s="89"/>
+      <c r="AB1" s="89"/>
+      <c r="AC1" s="89"/>
+      <c r="AD1" s="89"/>
+      <c r="AE1" s="89"/>
+      <c r="AF1" s="89"/>
+      <c r="AG1" s="89"/>
+      <c r="AH1" s="89"/>
+      <c r="AI1" s="90"/>
+    </row>
+    <row r="2" spans="1:35" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="92"/>
+      <c r="B2" s="92"/>
+      <c r="C2" s="93" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="95"/>
-      <c r="E2" s="95"/>
-      <c r="F2" s="95"/>
-      <c r="G2" s="95"/>
-      <c r="H2" s="96"/>
-      <c r="I2" s="94" t="s">
+      <c r="D2" s="94"/>
+      <c r="E2" s="94"/>
+      <c r="F2" s="94"/>
+      <c r="G2" s="94"/>
+      <c r="H2" s="95"/>
+      <c r="I2" s="93" t="s">
         <v>29</v>
       </c>
-      <c r="J2" s="95"/>
-      <c r="K2" s="95"/>
-      <c r="L2" s="95"/>
-      <c r="M2" s="95"/>
-      <c r="N2" s="95"/>
-      <c r="O2" s="95"/>
-      <c r="P2" s="95"/>
-      <c r="Q2" s="96"/>
-      <c r="R2" s="95" t="s">
+      <c r="J2" s="94"/>
+      <c r="K2" s="94"/>
+      <c r="L2" s="94"/>
+      <c r="M2" s="94"/>
+      <c r="N2" s="94"/>
+      <c r="O2" s="94"/>
+      <c r="P2" s="94"/>
+      <c r="Q2" s="95"/>
+      <c r="R2" s="94" t="s">
         <v>23</v>
       </c>
-      <c r="S2" s="95"/>
-      <c r="T2" s="95"/>
-      <c r="U2" s="95"/>
-      <c r="V2" s="95"/>
-      <c r="W2" s="95"/>
-      <c r="X2" s="95"/>
-      <c r="Y2" s="95"/>
-      <c r="Z2" s="95"/>
-      <c r="AA2" s="96"/>
-      <c r="AB2" s="97" t="s">
+      <c r="S2" s="94"/>
+      <c r="T2" s="94"/>
+      <c r="U2" s="94"/>
+      <c r="V2" s="94"/>
+      <c r="W2" s="94"/>
+      <c r="X2" s="94"/>
+      <c r="Y2" s="94"/>
+      <c r="Z2" s="94"/>
+      <c r="AA2" s="95"/>
+      <c r="AB2" s="96" t="s">
         <v>26</v>
       </c>
-      <c r="AC2" s="98"/>
-      <c r="AD2" s="98"/>
-      <c r="AE2" s="99"/>
-      <c r="AF2" s="86" t="s">
+      <c r="AC2" s="97"/>
+      <c r="AD2" s="97"/>
+      <c r="AE2" s="98"/>
+      <c r="AF2" s="85" t="s">
         <v>28</v>
       </c>
-      <c r="AG2" s="87"/>
-      <c r="AH2" s="87"/>
-      <c r="AI2" s="88"/>
-    </row>
-    <row r="3" spans="1:35" ht="180">
+      <c r="AG2" s="86"/>
+      <c r="AH2" s="86"/>
+      <c r="AI2" s="87"/>
+    </row>
+    <row r="3" spans="1:35" ht="180" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="42" t="s">
+      <c r="C3" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="D3" s="25" t="s">
+      <c r="D3" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="E3" s="25" t="s">
+      <c r="E3" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="F3" s="25" t="s">
+      <c r="F3" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="G3" s="25" t="s">
+      <c r="G3" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="H3" s="43" t="s">
+      <c r="H3" s="42" t="s">
         <v>46</v>
       </c>
-      <c r="I3" s="42" t="s">
+      <c r="I3" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="25" t="s">
+      <c r="J3" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="K3" s="25" t="s">
+      <c r="K3" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="L3" s="25" t="s">
+      <c r="L3" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="M3" s="25" t="s">
+      <c r="M3" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="N3" s="25" t="s">
+      <c r="N3" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="O3" s="51" t="s">
+      <c r="O3" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="P3" s="51" t="s">
+      <c r="P3" s="50" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q3" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="R3" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="S3" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="T3" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="U3" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="V3" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="W3" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="X3" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y3" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z3" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA3" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB3" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="AC3" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="Q3" s="43" t="s">
-        <v>72</v>
-      </c>
-      <c r="R3" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="S3" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="T3" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="U3" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="V3" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="W3" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="X3" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y3" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="Z3" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="AA3" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="AB3" s="42" t="s">
-        <v>21</v>
-      </c>
-      <c r="AC3" s="25" t="s">
-        <v>75</v>
-      </c>
-      <c r="AD3" s="25" t="s">
+      <c r="AD3" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="AE3" s="43" t="s">
+      <c r="AE3" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="AF3" s="42" t="s">
+      <c r="AF3" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="AG3" s="25" t="s">
+      <c r="AG3" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="AH3" s="25" t="s">
+      <c r="AH3" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="AI3" s="43" t="s">
+      <c r="AI3" s="42" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:35">
-      <c r="A4" s="24">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A4" s="23">
         <v>1</v>
       </c>
-      <c r="B4" s="38" t="s">
+      <c r="B4" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="44">
+      <c r="C4" s="43">
         <v>1</v>
       </c>
-      <c r="D4" s="36">
+      <c r="D4" s="35">
         <v>1</v>
       </c>
-      <c r="E4" s="36">
+      <c r="E4" s="35">
         <v>1</v>
       </c>
-      <c r="F4" s="36">
+      <c r="F4" s="35">
         <v>1</v>
       </c>
-      <c r="G4" s="36">
+      <c r="G4" s="35">
         <v>1</v>
       </c>
-      <c r="H4" s="45">
+      <c r="H4" s="44">
         <v>1</v>
       </c>
-      <c r="I4" s="44">
+      <c r="I4" s="43">
         <v>1</v>
       </c>
-      <c r="J4" s="36">
+      <c r="J4" s="35">
         <v>0.5</v>
       </c>
-      <c r="K4" s="36">
+      <c r="K4" s="35">
         <v>1</v>
       </c>
-      <c r="L4" s="36">
+      <c r="L4" s="35">
         <v>1</v>
       </c>
-      <c r="M4" s="36">
+      <c r="M4" s="35">
         <v>1</v>
       </c>
-      <c r="N4" s="36">
+      <c r="N4" s="35">
         <v>1</v>
       </c>
-      <c r="O4" s="52">
+      <c r="O4" s="51">
         <v>0.8</v>
       </c>
-      <c r="P4" s="45">
+      <c r="P4" s="44">
         <v>1</v>
       </c>
-      <c r="Q4" s="45">
+      <c r="Q4" s="44">
         <v>0.8</v>
       </c>
-      <c r="R4" s="40">
-        <v>0</v>
-      </c>
-      <c r="S4" s="36">
-        <v>0</v>
-      </c>
-      <c r="T4" s="36">
+      <c r="R4" s="39">
+        <v>0</v>
+      </c>
+      <c r="S4" s="35">
+        <v>0</v>
+      </c>
+      <c r="T4" s="35">
         <v>1</v>
       </c>
-      <c r="U4" s="36">
+      <c r="U4" s="35">
         <v>1</v>
       </c>
-      <c r="V4" s="36">
-        <v>0</v>
-      </c>
-      <c r="W4" s="36">
-        <v>0</v>
-      </c>
-      <c r="X4" s="36">
-        <v>0</v>
-      </c>
-      <c r="Y4" s="36">
-        <v>0</v>
-      </c>
-      <c r="Z4" s="36">
-        <v>0</v>
-      </c>
-      <c r="AA4" s="45">
+      <c r="V4" s="35">
+        <v>0</v>
+      </c>
+      <c r="W4" s="35">
+        <v>0</v>
+      </c>
+      <c r="X4" s="35">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="35">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="35">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="44">
         <v>1</v>
       </c>
-      <c r="AB4" s="44">
+      <c r="AB4" s="43">
         <v>1</v>
       </c>
-      <c r="AC4" s="40">
-        <v>0</v>
-      </c>
-      <c r="AD4" s="36">
-        <v>0</v>
-      </c>
-      <c r="AE4" s="45">
+      <c r="AC4" s="39">
+        <v>0</v>
+      </c>
+      <c r="AD4" s="35">
+        <v>0</v>
+      </c>
+      <c r="AE4" s="44">
         <v>1</v>
       </c>
-      <c r="AF4" s="44">
-        <v>0</v>
-      </c>
-      <c r="AG4" s="36">
-        <v>0</v>
-      </c>
-      <c r="AH4" s="36">
-        <v>0</v>
-      </c>
-      <c r="AI4" s="45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:35">
-      <c r="A5" s="24">
+      <c r="AF4" s="43">
+        <v>0</v>
+      </c>
+      <c r="AG4" s="35">
+        <v>0</v>
+      </c>
+      <c r="AH4" s="35">
+        <v>0</v>
+      </c>
+      <c r="AI4" s="44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A5" s="23">
         <v>2</v>
       </c>
-      <c r="B5" s="38" t="s">
+      <c r="B5" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="46">
+      <c r="C5" s="45">
         <v>0.5</v>
       </c>
-      <c r="D5" s="37">
+      <c r="D5" s="36">
         <v>0.2</v>
       </c>
-      <c r="E5" s="37">
-        <v>0</v>
-      </c>
-      <c r="F5" s="37">
-        <v>0</v>
-      </c>
-      <c r="G5" s="37">
-        <v>0</v>
-      </c>
-      <c r="H5" s="47">
-        <v>0</v>
-      </c>
-      <c r="I5" s="46">
+      <c r="E5" s="36">
+        <v>0</v>
+      </c>
+      <c r="F5" s="36">
+        <v>0</v>
+      </c>
+      <c r="G5" s="36">
+        <v>0</v>
+      </c>
+      <c r="H5" s="46">
+        <v>0</v>
+      </c>
+      <c r="I5" s="45">
         <v>0.8</v>
       </c>
-      <c r="J5" s="37">
+      <c r="J5" s="36">
         <v>0.2</v>
       </c>
-      <c r="K5" s="37">
+      <c r="K5" s="36">
         <v>0.5</v>
       </c>
-      <c r="L5" s="37">
+      <c r="L5" s="36">
         <v>0.3</v>
       </c>
-      <c r="M5" s="37">
+      <c r="M5" s="36">
         <v>1</v>
       </c>
-      <c r="N5" s="37">
+      <c r="N5" s="36">
         <v>1</v>
       </c>
-      <c r="O5" s="53">
+      <c r="O5" s="52">
         <v>0.5</v>
       </c>
-      <c r="P5" s="53">
+      <c r="P5" s="52">
         <v>0.8</v>
       </c>
-      <c r="Q5" s="47">
+      <c r="Q5" s="46">
         <v>0.5</v>
       </c>
-      <c r="R5" s="41">
-        <v>0</v>
-      </c>
-      <c r="S5" s="37">
-        <v>0</v>
-      </c>
-      <c r="T5" s="36">
-        <v>0</v>
-      </c>
-      <c r="U5" s="36">
-        <v>0</v>
-      </c>
-      <c r="V5" s="36">
-        <v>0</v>
-      </c>
-      <c r="W5" s="36">
-        <v>0</v>
-      </c>
-      <c r="X5" s="36">
-        <v>0</v>
-      </c>
-      <c r="Y5" s="36">
-        <v>0</v>
-      </c>
-      <c r="Z5" s="36">
-        <v>0</v>
-      </c>
-      <c r="AA5" s="45">
-        <v>0</v>
-      </c>
-      <c r="AB5" s="44">
-        <v>0</v>
-      </c>
-      <c r="AC5" s="40">
-        <v>0</v>
-      </c>
-      <c r="AD5" s="36">
-        <v>0</v>
-      </c>
-      <c r="AE5" s="45">
-        <v>0</v>
-      </c>
-      <c r="AF5" s="44">
-        <v>0</v>
-      </c>
-      <c r="AG5" s="36">
-        <v>0</v>
-      </c>
-      <c r="AH5" s="36">
-        <v>0</v>
-      </c>
-      <c r="AI5" s="45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:35">
-      <c r="A6" s="24">
+      <c r="R5" s="40">
+        <v>0</v>
+      </c>
+      <c r="S5" s="36">
+        <v>0</v>
+      </c>
+      <c r="T5" s="35">
+        <v>0</v>
+      </c>
+      <c r="U5" s="35">
+        <v>0</v>
+      </c>
+      <c r="V5" s="35">
+        <v>0</v>
+      </c>
+      <c r="W5" s="35">
+        <v>0</v>
+      </c>
+      <c r="X5" s="35">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="35">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="35">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="44">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="43">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="39">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="35">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="44">
+        <v>0</v>
+      </c>
+      <c r="AF5" s="43">
+        <v>0</v>
+      </c>
+      <c r="AG5" s="35">
+        <v>0</v>
+      </c>
+      <c r="AH5" s="35">
+        <v>0</v>
+      </c>
+      <c r="AI5" s="44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A6" s="23">
         <v>3</v>
       </c>
-      <c r="B6" s="38" t="s">
+      <c r="B6" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="46"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="47"/>
-      <c r="I6" s="46"/>
-      <c r="J6" s="37"/>
-      <c r="K6" s="37"/>
-      <c r="L6" s="37"/>
-      <c r="M6" s="37"/>
-      <c r="N6" s="37"/>
-      <c r="O6" s="53"/>
-      <c r="P6" s="53"/>
-      <c r="Q6" s="47"/>
-      <c r="R6" s="41"/>
-      <c r="S6" s="37"/>
-      <c r="T6" s="36"/>
-      <c r="U6" s="36"/>
-      <c r="V6" s="36"/>
-      <c r="W6" s="36"/>
-      <c r="X6" s="36"/>
-      <c r="Y6" s="36"/>
-      <c r="Z6" s="36"/>
-      <c r="AA6" s="45"/>
-      <c r="AB6" s="44"/>
-      <c r="AC6" s="40"/>
-      <c r="AD6" s="36"/>
-      <c r="AE6" s="45"/>
-      <c r="AF6" s="44"/>
-      <c r="AG6" s="36"/>
-      <c r="AH6" s="36"/>
-      <c r="AI6" s="45"/>
-    </row>
-    <row r="7" spans="1:35">
-      <c r="A7" s="24">
+      <c r="C6" s="45"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="45"/>
+      <c r="J6" s="36"/>
+      <c r="K6" s="36"/>
+      <c r="L6" s="36"/>
+      <c r="M6" s="36"/>
+      <c r="N6" s="36"/>
+      <c r="O6" s="52"/>
+      <c r="P6" s="52"/>
+      <c r="Q6" s="46"/>
+      <c r="R6" s="40"/>
+      <c r="S6" s="36"/>
+      <c r="T6" s="35"/>
+      <c r="U6" s="35"/>
+      <c r="V6" s="35"/>
+      <c r="W6" s="35"/>
+      <c r="X6" s="35"/>
+      <c r="Y6" s="35"/>
+      <c r="Z6" s="35"/>
+      <c r="AA6" s="44"/>
+      <c r="AB6" s="43"/>
+      <c r="AC6" s="39"/>
+      <c r="AD6" s="35"/>
+      <c r="AE6" s="44"/>
+      <c r="AF6" s="43"/>
+      <c r="AG6" s="35"/>
+      <c r="AH6" s="35"/>
+      <c r="AI6" s="44"/>
+    </row>
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A7" s="23">
         <v>4</v>
       </c>
-      <c r="B7" s="38" t="s">
+      <c r="B7" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="46"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="47"/>
-      <c r="I7" s="46"/>
-      <c r="J7" s="37"/>
-      <c r="K7" s="37"/>
-      <c r="L7" s="37"/>
-      <c r="M7" s="37"/>
-      <c r="N7" s="37"/>
-      <c r="O7" s="53"/>
-      <c r="P7" s="53"/>
-      <c r="Q7" s="47"/>
-      <c r="R7" s="41"/>
-      <c r="S7" s="37"/>
-      <c r="T7" s="36"/>
-      <c r="U7" s="36"/>
-      <c r="V7" s="36"/>
-      <c r="W7" s="36"/>
-      <c r="X7" s="36"/>
-      <c r="Y7" s="36"/>
-      <c r="Z7" s="36"/>
-      <c r="AA7" s="45"/>
-      <c r="AB7" s="44"/>
-      <c r="AC7" s="40"/>
-      <c r="AD7" s="36"/>
-      <c r="AE7" s="45"/>
-      <c r="AF7" s="44"/>
-      <c r="AG7" s="36"/>
-      <c r="AH7" s="36"/>
-      <c r="AI7" s="45"/>
-    </row>
-    <row r="8" spans="1:35">
-      <c r="A8" s="24">
+      <c r="C7" s="45"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="46"/>
+      <c r="I7" s="45"/>
+      <c r="J7" s="36"/>
+      <c r="K7" s="36"/>
+      <c r="L7" s="36"/>
+      <c r="M7" s="36"/>
+      <c r="N7" s="36"/>
+      <c r="O7" s="52"/>
+      <c r="P7" s="52"/>
+      <c r="Q7" s="46"/>
+      <c r="R7" s="40"/>
+      <c r="S7" s="36"/>
+      <c r="T7" s="35"/>
+      <c r="U7" s="35"/>
+      <c r="V7" s="35"/>
+      <c r="W7" s="35"/>
+      <c r="X7" s="35"/>
+      <c r="Y7" s="35"/>
+      <c r="Z7" s="35"/>
+      <c r="AA7" s="44"/>
+      <c r="AB7" s="43"/>
+      <c r="AC7" s="39"/>
+      <c r="AD7" s="35"/>
+      <c r="AE7" s="44"/>
+      <c r="AF7" s="43"/>
+      <c r="AG7" s="35"/>
+      <c r="AH7" s="35"/>
+      <c r="AI7" s="44"/>
+    </row>
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A8" s="23">
         <v>5</v>
       </c>
-      <c r="B8" s="38" t="s">
+      <c r="B8" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="46"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="37"/>
-      <c r="H8" s="47"/>
-      <c r="I8" s="46"/>
-      <c r="J8" s="37"/>
-      <c r="K8" s="37"/>
-      <c r="L8" s="37"/>
-      <c r="M8" s="37"/>
-      <c r="N8" s="37"/>
-      <c r="O8" s="53"/>
-      <c r="P8" s="53"/>
-      <c r="Q8" s="47"/>
-      <c r="R8" s="41"/>
-      <c r="S8" s="37"/>
-      <c r="T8" s="36"/>
-      <c r="U8" s="36"/>
-      <c r="V8" s="36"/>
-      <c r="W8" s="36"/>
-      <c r="X8" s="36"/>
-      <c r="Y8" s="36"/>
-      <c r="Z8" s="36"/>
-      <c r="AA8" s="45"/>
-      <c r="AB8" s="44"/>
-      <c r="AC8" s="40"/>
-      <c r="AD8" s="36"/>
-      <c r="AE8" s="45"/>
-      <c r="AF8" s="44"/>
-      <c r="AG8" s="36"/>
-      <c r="AH8" s="36"/>
-      <c r="AI8" s="45"/>
-    </row>
-    <row r="9" spans="1:35">
-      <c r="A9" s="24">
+      <c r="C8" s="45"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="46"/>
+      <c r="I8" s="45"/>
+      <c r="J8" s="36"/>
+      <c r="K8" s="36"/>
+      <c r="L8" s="36"/>
+      <c r="M8" s="36"/>
+      <c r="N8" s="36"/>
+      <c r="O8" s="52"/>
+      <c r="P8" s="52"/>
+      <c r="Q8" s="46"/>
+      <c r="R8" s="40"/>
+      <c r="S8" s="36"/>
+      <c r="T8" s="35"/>
+      <c r="U8" s="35"/>
+      <c r="V8" s="35"/>
+      <c r="W8" s="35"/>
+      <c r="X8" s="35"/>
+      <c r="Y8" s="35"/>
+      <c r="Z8" s="35"/>
+      <c r="AA8" s="44"/>
+      <c r="AB8" s="43"/>
+      <c r="AC8" s="39"/>
+      <c r="AD8" s="35"/>
+      <c r="AE8" s="44"/>
+      <c r="AF8" s="43"/>
+      <c r="AG8" s="35"/>
+      <c r="AH8" s="35"/>
+      <c r="AI8" s="44"/>
+    </row>
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A9" s="23">
         <v>6</v>
       </c>
-      <c r="B9" s="38" t="s">
+      <c r="B9" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="46"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="37"/>
-      <c r="G9" s="37"/>
-      <c r="H9" s="47"/>
-      <c r="I9" s="46"/>
-      <c r="J9" s="37"/>
-      <c r="K9" s="37"/>
-      <c r="L9" s="37"/>
-      <c r="M9" s="37"/>
-      <c r="N9" s="37"/>
-      <c r="O9" s="53"/>
-      <c r="P9" s="53"/>
-      <c r="Q9" s="47"/>
-      <c r="R9" s="41"/>
-      <c r="S9" s="37"/>
-      <c r="T9" s="36"/>
-      <c r="U9" s="36"/>
-      <c r="V9" s="36"/>
-      <c r="W9" s="36"/>
-      <c r="X9" s="36"/>
-      <c r="Y9" s="36"/>
-      <c r="Z9" s="36"/>
-      <c r="AA9" s="45"/>
-      <c r="AB9" s="44"/>
-      <c r="AC9" s="40"/>
-      <c r="AD9" s="36"/>
-      <c r="AE9" s="45"/>
-      <c r="AF9" s="44"/>
-      <c r="AG9" s="36"/>
-      <c r="AH9" s="36"/>
-      <c r="AI9" s="45"/>
-    </row>
-    <row r="10" spans="1:35" ht="15.75" thickBot="1">
-      <c r="A10" s="24">
+      <c r="C9" s="45"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="46"/>
+      <c r="I9" s="45"/>
+      <c r="J9" s="36"/>
+      <c r="K9" s="36"/>
+      <c r="L9" s="36"/>
+      <c r="M9" s="36"/>
+      <c r="N9" s="36"/>
+      <c r="O9" s="52"/>
+      <c r="P9" s="52"/>
+      <c r="Q9" s="46"/>
+      <c r="R9" s="40"/>
+      <c r="S9" s="36"/>
+      <c r="T9" s="35"/>
+      <c r="U9" s="35"/>
+      <c r="V9" s="35"/>
+      <c r="W9" s="35"/>
+      <c r="X9" s="35"/>
+      <c r="Y9" s="35"/>
+      <c r="Z9" s="35"/>
+      <c r="AA9" s="44"/>
+      <c r="AB9" s="43"/>
+      <c r="AC9" s="39"/>
+      <c r="AD9" s="35"/>
+      <c r="AE9" s="44"/>
+      <c r="AF9" s="43"/>
+      <c r="AG9" s="35"/>
+      <c r="AH9" s="35"/>
+      <c r="AI9" s="44"/>
+    </row>
+    <row r="10" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="23">
         <v>7</v>
       </c>
-      <c r="B10" s="38" t="s">
+      <c r="B10" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="48">
+      <c r="C10" s="47">
         <v>0.25</v>
       </c>
-      <c r="D10" s="49">
+      <c r="D10" s="48">
         <v>0.25</v>
       </c>
-      <c r="E10" s="49">
+      <c r="E10" s="48">
         <v>0.25</v>
       </c>
-      <c r="F10" s="49">
+      <c r="F10" s="48">
         <v>0.25</v>
       </c>
-      <c r="G10" s="49">
+      <c r="G10" s="48">
         <v>0.25</v>
       </c>
-      <c r="H10" s="50">
+      <c r="H10" s="49">
         <v>0.25</v>
       </c>
-      <c r="I10" s="48">
+      <c r="I10" s="47">
         <v>0.8</v>
       </c>
-      <c r="J10" s="48">
+      <c r="J10" s="47">
         <v>0.5</v>
       </c>
-      <c r="K10" s="48">
+      <c r="K10" s="47">
         <v>0.5</v>
       </c>
-      <c r="L10" s="48">
-        <v>0</v>
-      </c>
-      <c r="M10" s="48">
+      <c r="L10" s="47">
+        <v>0</v>
+      </c>
+      <c r="M10" s="47">
         <v>0.25</v>
       </c>
-      <c r="N10" s="48">
-        <v>0</v>
-      </c>
-      <c r="O10" s="48">
+      <c r="N10" s="47">
+        <v>0</v>
+      </c>
+      <c r="O10" s="47">
         <v>0.5</v>
       </c>
-      <c r="P10" s="48">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="48">
-        <v>0</v>
-      </c>
-      <c r="R10" s="48">
+      <c r="P10" s="47">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="47">
+        <v>0</v>
+      </c>
+      <c r="R10" s="47">
         <v>0.25</v>
       </c>
-      <c r="S10" s="49">
+      <c r="S10" s="48">
         <v>0.25</v>
       </c>
-      <c r="T10" s="49">
+      <c r="T10" s="48">
         <v>0.5</v>
       </c>
-      <c r="U10" s="48">
-        <v>0</v>
-      </c>
-      <c r="V10" s="48">
+      <c r="U10" s="47">
+        <v>0</v>
+      </c>
+      <c r="V10" s="47">
         <v>0.5</v>
       </c>
-      <c r="W10" s="48">
+      <c r="W10" s="47">
         <v>0.5</v>
       </c>
-      <c r="X10" s="48">
+      <c r="X10" s="47">
         <v>0.25</v>
       </c>
-      <c r="Y10" s="48">
+      <c r="Y10" s="47">
         <v>0.25</v>
       </c>
-      <c r="Z10" s="48">
+      <c r="Z10" s="47">
         <v>0.25</v>
       </c>
-      <c r="AA10" s="48">
+      <c r="AA10" s="47">
         <v>1</v>
       </c>
-      <c r="AB10" s="48">
+      <c r="AB10" s="47">
         <v>0.25</v>
       </c>
-      <c r="AC10" s="48">
+      <c r="AC10" s="47">
         <v>0.25</v>
       </c>
-      <c r="AD10" s="48">
+      <c r="AD10" s="47">
         <v>0.25</v>
       </c>
-      <c r="AE10" s="48">
+      <c r="AE10" s="47">
         <v>0.5</v>
       </c>
-      <c r="AF10" s="48">
+      <c r="AF10" s="47">
         <v>0.25</v>
       </c>
-      <c r="AG10" s="48">
+      <c r="AG10" s="47">
         <v>1</v>
       </c>
-      <c r="AH10" s="48">
-        <v>0</v>
-      </c>
-      <c r="AI10" s="48">
+      <c r="AH10" s="47">
+        <v>0</v>
+      </c>
+      <c r="AI10" s="47">
         <v>0</v>
       </c>
     </row>
@@ -4005,26 +4070,24 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.42578125" style="28" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.42578125" style="27" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.28515625" style="29" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="15" style="33" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="31" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" style="30" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.28515625" style="28" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="15" style="32" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="30" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" style="29" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B1" s="11" t="s">
         <v>5</v>
@@ -4032,21 +4095,21 @@
       <c r="C1" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="D1" s="32" t="s">
+      <c r="D1" s="31" t="s">
+        <v>92</v>
+      </c>
+      <c r="E1" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="E1" s="32" t="s">
-        <v>55</v>
-      </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="13" t="s">
         <v>53</v>
       </c>
       <c r="G1" s="11" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="100" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="99" t="s">
         <v>25</v>
       </c>
       <c r="B2" s="9">
@@ -4055,150 +4118,150 @@
       <c r="C2" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="D2" s="34">
+      <c r="D2" s="33">
         <v>10000000</v>
       </c>
-      <c r="E2" s="34">
+      <c r="E2" s="33">
         <f>D2/4</f>
         <v>2500000</v>
       </c>
-      <c r="F2" s="15">
+      <c r="F2" s="14">
         <f>E2/12</f>
         <v>208333.33333333334</v>
       </c>
-      <c r="G2" s="34">
+      <c r="G2" s="33">
         <f>ROUND(F2/22/8,2)</f>
         <v>1183.71</v>
       </c>
-      <c r="H2" s="74"/>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="101"/>
+      <c r="H2" s="73"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="100"/>
       <c r="B3" s="9">
         <v>2</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="D3" s="34">
+      <c r="D3" s="33">
         <v>8000000</v>
       </c>
-      <c r="E3" s="34">
+      <c r="E3" s="33">
         <f t="shared" ref="E3:E34" si="0">D3/4</f>
         <v>2000000</v>
       </c>
-      <c r="F3" s="15">
+      <c r="F3" s="14">
         <f t="shared" ref="F3:F34" si="1">E3/12</f>
         <v>166666.66666666666</v>
       </c>
-      <c r="G3" s="34">
+      <c r="G3" s="33">
         <f t="shared" ref="G3:G34" si="2">ROUND(F3/22/8,2)</f>
         <v>946.97</v>
       </c>
-      <c r="H3" s="74"/>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="101"/>
+      <c r="H3" s="73"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="100"/>
       <c r="B4" s="9">
         <v>3</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D4" s="34">
+      <c r="D4" s="33">
         <v>8000000</v>
       </c>
-      <c r="E4" s="34">
+      <c r="E4" s="33">
         <f t="shared" si="0"/>
         <v>2000000</v>
       </c>
-      <c r="F4" s="15">
+      <c r="F4" s="14">
         <f t="shared" si="1"/>
         <v>166666.66666666666</v>
       </c>
-      <c r="G4" s="34">
+      <c r="G4" s="33">
         <f t="shared" si="2"/>
         <v>946.97</v>
       </c>
-      <c r="H4" s="74"/>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="101"/>
+      <c r="H4" s="73"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="100"/>
       <c r="B5" s="9">
         <v>4</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="D5" s="34">
+      <c r="D5" s="33">
         <v>3000000</v>
       </c>
-      <c r="E5" s="34">
+      <c r="E5" s="33">
         <f t="shared" si="0"/>
         <v>750000</v>
       </c>
-      <c r="F5" s="15">
+      <c r="F5" s="14">
         <f t="shared" si="1"/>
         <v>62500</v>
       </c>
-      <c r="G5" s="34">
+      <c r="G5" s="33">
         <f t="shared" si="2"/>
         <v>355.11</v>
       </c>
-      <c r="H5" s="74"/>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="101"/>
+      <c r="H5" s="73"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="100"/>
       <c r="B6" s="9">
         <v>5</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="D6" s="34">
+      <c r="D6" s="33">
         <v>3000000</v>
       </c>
-      <c r="E6" s="34">
+      <c r="E6" s="33">
         <f t="shared" si="0"/>
         <v>750000</v>
       </c>
-      <c r="F6" s="15">
+      <c r="F6" s="14">
         <f t="shared" si="1"/>
         <v>62500</v>
       </c>
-      <c r="G6" s="34">
+      <c r="G6" s="33">
         <f t="shared" si="2"/>
         <v>355.11</v>
       </c>
-      <c r="H6" s="74"/>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="102"/>
+      <c r="H6" s="73"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="101"/>
       <c r="B7" s="9">
         <v>6</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="D7" s="34">
+      <c r="D7" s="33">
         <v>8000000</v>
       </c>
-      <c r="E7" s="34">
+      <c r="E7" s="33">
         <f t="shared" si="0"/>
         <v>2000000</v>
       </c>
-      <c r="F7" s="15">
+      <c r="F7" s="14">
         <f t="shared" si="1"/>
         <v>166666.66666666666</v>
       </c>
-      <c r="G7" s="34">
+      <c r="G7" s="33">
         <f t="shared" si="2"/>
         <v>946.97</v>
       </c>
-      <c r="H7" s="74"/>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="100" t="s">
+      <c r="H7" s="73"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="99" t="s">
         <v>29</v>
       </c>
       <c r="B8" s="9">
@@ -4207,217 +4270,217 @@
       <c r="C8" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="34">
+      <c r="D8" s="33">
         <v>5000000</v>
       </c>
-      <c r="E8" s="34">
+      <c r="E8" s="33">
         <f t="shared" si="0"/>
         <v>1250000</v>
       </c>
-      <c r="F8" s="15">
+      <c r="F8" s="14">
         <f t="shared" si="1"/>
         <v>104166.66666666667</v>
       </c>
-      <c r="G8" s="34">
+      <c r="G8" s="33">
         <f t="shared" si="2"/>
         <v>591.86</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="101"/>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="100"/>
       <c r="B9" s="9">
         <v>8</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="34">
+      <c r="D9" s="33">
         <v>2000000</v>
       </c>
-      <c r="E9" s="34">
+      <c r="E9" s="33">
         <f t="shared" si="0"/>
         <v>500000</v>
       </c>
-      <c r="F9" s="15">
+      <c r="F9" s="14">
         <f t="shared" si="1"/>
         <v>41666.666666666664</v>
       </c>
-      <c r="G9" s="34">
+      <c r="G9" s="33">
         <f t="shared" si="2"/>
         <v>236.74</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="101"/>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="100"/>
       <c r="B10" s="9">
         <v>9</v>
       </c>
       <c r="C10" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="34">
+      <c r="D10" s="33">
         <v>1500000</v>
       </c>
-      <c r="E10" s="34">
+      <c r="E10" s="33">
         <f t="shared" si="0"/>
         <v>375000</v>
       </c>
-      <c r="F10" s="15">
+      <c r="F10" s="14">
         <f t="shared" si="1"/>
         <v>31250</v>
       </c>
-      <c r="G10" s="34">
+      <c r="G10" s="33">
         <f t="shared" si="2"/>
         <v>177.56</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="101"/>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="100"/>
       <c r="B11" s="9">
         <v>10</v>
       </c>
       <c r="C11" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D11" s="34">
+      <c r="D11" s="33">
         <v>5000000</v>
       </c>
-      <c r="E11" s="34">
+      <c r="E11" s="33">
         <f t="shared" si="0"/>
         <v>1250000</v>
       </c>
-      <c r="F11" s="15">
+      <c r="F11" s="14">
         <f t="shared" si="1"/>
         <v>104166.66666666667</v>
       </c>
-      <c r="G11" s="34">
+      <c r="G11" s="33">
         <f t="shared" si="2"/>
         <v>591.86</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="101"/>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="100"/>
       <c r="B12" s="9">
         <v>11</v>
       </c>
       <c r="C12" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="34">
+      <c r="D12" s="33">
         <v>1500000</v>
       </c>
-      <c r="E12" s="34">
+      <c r="E12" s="33">
         <f t="shared" si="0"/>
         <v>375000</v>
       </c>
-      <c r="F12" s="15">
+      <c r="F12" s="14">
         <f t="shared" si="1"/>
         <v>31250</v>
       </c>
-      <c r="G12" s="34">
+      <c r="G12" s="33">
         <f t="shared" si="2"/>
         <v>177.56</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="101"/>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="100"/>
       <c r="B13" s="9">
         <v>12</v>
       </c>
       <c r="C13" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="34">
+      <c r="D13" s="33">
         <v>1000000</v>
       </c>
-      <c r="E13" s="34">
+      <c r="E13" s="33">
         <f t="shared" si="0"/>
         <v>250000</v>
       </c>
-      <c r="F13" s="15">
+      <c r="F13" s="14">
         <f t="shared" si="1"/>
         <v>20833.333333333332</v>
       </c>
-      <c r="G13" s="34">
+      <c r="G13" s="33">
         <f t="shared" si="2"/>
         <v>118.37</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="101"/>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="100"/>
       <c r="B14" s="9">
         <v>13</v>
       </c>
       <c r="C14" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="34">
+      <c r="D14" s="33">
         <v>1000000</v>
       </c>
-      <c r="E14" s="34">
+      <c r="E14" s="33">
         <f t="shared" si="0"/>
         <v>250000</v>
       </c>
-      <c r="F14" s="15">
+      <c r="F14" s="14">
         <f t="shared" si="1"/>
         <v>20833.333333333332</v>
       </c>
-      <c r="G14" s="34">
+      <c r="G14" s="33">
         <f t="shared" si="2"/>
         <v>118.37</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="101"/>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="100"/>
       <c r="B15" s="9">
         <v>14</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="D15" s="34">
+        <v>71</v>
+      </c>
+      <c r="D15" s="33">
         <v>2500000</v>
       </c>
-      <c r="E15" s="34">
+      <c r="E15" s="33">
         <f t="shared" si="0"/>
         <v>625000</v>
       </c>
-      <c r="F15" s="15">
+      <c r="F15" s="14">
         <f t="shared" si="1"/>
         <v>52083.333333333336</v>
       </c>
-      <c r="G15" s="34">
+      <c r="G15" s="33">
         <f t="shared" si="2"/>
         <v>295.93</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="101"/>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="100"/>
       <c r="B16" s="9">
         <v>15</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="D16" s="34">
+        <v>70</v>
+      </c>
+      <c r="D16" s="33">
         <v>1000000</v>
       </c>
-      <c r="E16" s="34">
+      <c r="E16" s="33">
         <f t="shared" si="0"/>
         <v>250000</v>
       </c>
-      <c r="F16" s="15">
+      <c r="F16" s="14">
         <f t="shared" si="1"/>
         <v>20833.333333333332</v>
       </c>
-      <c r="G16" s="34">
+      <c r="G16" s="33">
         <f t="shared" si="2"/>
         <v>118.37</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="100" t="s">
-        <v>69</v>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="99" t="s">
+        <v>67</v>
       </c>
       <c r="B17" s="9">
         <v>16</v>
@@ -4425,241 +4488,241 @@
       <c r="C17" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="34">
+      <c r="D17" s="33">
         <v>1500000</v>
       </c>
-      <c r="E17" s="34">
+      <c r="E17" s="33">
         <f t="shared" si="0"/>
         <v>375000</v>
       </c>
-      <c r="F17" s="15">
+      <c r="F17" s="14">
         <f t="shared" si="1"/>
         <v>31250</v>
       </c>
-      <c r="G17" s="34">
+      <c r="G17" s="33">
         <f t="shared" si="2"/>
         <v>177.56</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="101"/>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="100"/>
       <c r="B18" s="9">
         <v>17</v>
       </c>
       <c r="C18" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="D18" s="34">
+      <c r="D18" s="33">
         <v>600000</v>
       </c>
-      <c r="E18" s="34">
+      <c r="E18" s="33">
         <f t="shared" si="0"/>
         <v>150000</v>
       </c>
-      <c r="F18" s="15">
+      <c r="F18" s="14">
         <f t="shared" si="1"/>
         <v>12500</v>
       </c>
-      <c r="G18" s="34">
+      <c r="G18" s="33">
         <f t="shared" si="2"/>
         <v>71.02</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="101"/>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="100"/>
       <c r="B19" s="9">
         <v>18</v>
       </c>
       <c r="C19" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D19" s="34">
+      <c r="D19" s="33">
         <v>300000</v>
       </c>
-      <c r="E19" s="34">
+      <c r="E19" s="33">
         <f t="shared" si="0"/>
         <v>75000</v>
       </c>
-      <c r="F19" s="15">
+      <c r="F19" s="14">
         <f t="shared" si="1"/>
         <v>6250</v>
       </c>
-      <c r="G19" s="34">
+      <c r="G19" s="33">
         <f t="shared" si="2"/>
         <v>35.51</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="101"/>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="100"/>
       <c r="B20" s="9">
         <v>19</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="D20" s="34">
+        <v>74</v>
+      </c>
+      <c r="D20" s="33">
         <v>2000000</v>
       </c>
-      <c r="E20" s="34">
+      <c r="E20" s="33">
         <f t="shared" si="0"/>
         <v>500000</v>
       </c>
-      <c r="F20" s="15">
+      <c r="F20" s="14">
         <f t="shared" si="1"/>
         <v>41666.666666666664</v>
       </c>
-      <c r="G20" s="34">
+      <c r="G20" s="33">
         <f t="shared" si="2"/>
         <v>236.74</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="101"/>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="100"/>
       <c r="B21" s="9">
         <v>20</v>
       </c>
       <c r="C21" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D21" s="34">
+      <c r="D21" s="33">
         <v>600000</v>
       </c>
-      <c r="E21" s="34">
+      <c r="E21" s="33">
         <f t="shared" si="0"/>
         <v>150000</v>
       </c>
-      <c r="F21" s="15">
+      <c r="F21" s="14">
         <f t="shared" si="1"/>
         <v>12500</v>
       </c>
-      <c r="G21" s="34">
+      <c r="G21" s="33">
         <f t="shared" si="2"/>
         <v>71.02</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="101"/>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="100"/>
       <c r="B22" s="9">
         <v>21</v>
       </c>
       <c r="C22" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="D22" s="34">
+      <c r="D22" s="33">
         <v>300000</v>
       </c>
-      <c r="E22" s="34">
+      <c r="E22" s="33">
         <f t="shared" si="0"/>
         <v>75000</v>
       </c>
-      <c r="F22" s="15">
+      <c r="F22" s="14">
         <f t="shared" si="1"/>
         <v>6250</v>
       </c>
-      <c r="G22" s="34">
+      <c r="G22" s="33">
         <f t="shared" si="2"/>
         <v>35.51</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="101"/>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="100"/>
       <c r="B23" s="9">
         <v>22</v>
       </c>
       <c r="C23" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D23" s="34">
+      <c r="D23" s="33">
         <v>600000</v>
       </c>
-      <c r="E23" s="34">
+      <c r="E23" s="33">
         <f t="shared" si="0"/>
         <v>150000</v>
       </c>
-      <c r="F23" s="15">
+      <c r="F23" s="14">
         <f t="shared" si="1"/>
         <v>12500</v>
       </c>
-      <c r="G23" s="34">
+      <c r="G23" s="33">
         <f t="shared" si="2"/>
         <v>71.02</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="101"/>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="100"/>
       <c r="B24" s="9">
         <v>23</v>
       </c>
       <c r="C24" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D24" s="34">
+      <c r="D24" s="33">
         <v>300000</v>
       </c>
-      <c r="E24" s="34">
+      <c r="E24" s="33">
         <f t="shared" si="0"/>
         <v>75000</v>
       </c>
-      <c r="F24" s="15">
+      <c r="F24" s="14">
         <f t="shared" si="1"/>
         <v>6250</v>
       </c>
-      <c r="G24" s="34">
+      <c r="G24" s="33">
         <f t="shared" si="2"/>
         <v>35.51</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="101"/>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="100"/>
       <c r="B25" s="9">
         <v>24</v>
       </c>
       <c r="C25" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="D25" s="34">
+      <c r="D25" s="33">
         <v>300000</v>
       </c>
-      <c r="E25" s="34">
+      <c r="E25" s="33">
         <f t="shared" si="0"/>
         <v>75000</v>
       </c>
-      <c r="F25" s="15">
+      <c r="F25" s="14">
         <f t="shared" si="1"/>
         <v>6250</v>
       </c>
-      <c r="G25" s="34">
+      <c r="G25" s="33">
         <f t="shared" si="2"/>
         <v>35.51</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="102"/>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="101"/>
       <c r="B26" s="9">
         <v>25</v>
       </c>
       <c r="C26" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="D26" s="34">
+      <c r="D26" s="33">
         <v>600000</v>
       </c>
-      <c r="E26" s="34">
+      <c r="E26" s="33">
         <f t="shared" si="0"/>
         <v>150000</v>
       </c>
-      <c r="F26" s="15">
+      <c r="F26" s="14">
         <f t="shared" si="1"/>
         <v>12500</v>
       </c>
-      <c r="G26" s="34">
+      <c r="G26" s="33">
         <f t="shared" si="2"/>
         <v>71.02</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="100" t="s">
-        <v>70</v>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="99" t="s">
+        <v>68</v>
       </c>
       <c r="B27" s="9">
         <v>26</v>
@@ -4667,96 +4730,96 @@
       <c r="C27" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D27" s="34">
+      <c r="D27" s="33">
         <v>2500000</v>
       </c>
-      <c r="E27" s="34">
+      <c r="E27" s="33">
         <f t="shared" si="0"/>
         <v>625000</v>
       </c>
-      <c r="F27" s="15">
+      <c r="F27" s="14">
         <f t="shared" si="1"/>
         <v>52083.333333333336</v>
       </c>
-      <c r="G27" s="34">
+      <c r="G27" s="33">
         <f t="shared" si="2"/>
         <v>295.93</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="101"/>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="100"/>
       <c r="B28" s="9">
         <v>27</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="D28" s="34">
+        <v>73</v>
+      </c>
+      <c r="D28" s="33">
         <v>600000</v>
       </c>
-      <c r="E28" s="34">
+      <c r="E28" s="33">
         <f t="shared" si="0"/>
         <v>150000</v>
       </c>
-      <c r="F28" s="15">
+      <c r="F28" s="14">
         <f t="shared" si="1"/>
         <v>12500</v>
       </c>
-      <c r="G28" s="34">
+      <c r="G28" s="33">
         <f t="shared" si="2"/>
         <v>71.02</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="101"/>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="100"/>
       <c r="B29" s="9">
         <v>28</v>
       </c>
       <c r="C29" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="D29" s="34">
+      <c r="D29" s="33">
         <v>1500000</v>
       </c>
-      <c r="E29" s="34">
+      <c r="E29" s="33">
         <f t="shared" si="0"/>
         <v>375000</v>
       </c>
-      <c r="F29" s="15">
+      <c r="F29" s="14">
         <f t="shared" si="1"/>
         <v>31250</v>
       </c>
-      <c r="G29" s="34">
+      <c r="G29" s="33">
         <f t="shared" si="2"/>
         <v>177.56</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="102"/>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="101"/>
       <c r="B30" s="9">
         <v>29</v>
       </c>
       <c r="C30" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D30" s="34">
+      <c r="D30" s="33">
         <v>600000</v>
       </c>
-      <c r="E30" s="34">
+      <c r="E30" s="33">
         <f t="shared" si="0"/>
         <v>150000</v>
       </c>
-      <c r="F30" s="15">
+      <c r="F30" s="14">
         <f t="shared" si="1"/>
         <v>12500</v>
       </c>
-      <c r="G30" s="34">
+      <c r="G30" s="33">
         <f t="shared" si="2"/>
         <v>71.02</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="100" t="s">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="99" t="s">
         <v>28</v>
       </c>
       <c r="B31" s="9">
@@ -4765,95 +4828,96 @@
       <c r="C31" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="D31" s="34">
+      <c r="D31" s="33">
         <v>300000</v>
       </c>
-      <c r="E31" s="34">
+      <c r="E31" s="33">
         <f t="shared" si="0"/>
         <v>75000</v>
       </c>
-      <c r="F31" s="15">
+      <c r="F31" s="14">
         <f t="shared" si="1"/>
         <v>6250</v>
       </c>
-      <c r="G31" s="34">
+      <c r="G31" s="33">
         <f t="shared" si="2"/>
         <v>35.51</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
-      <c r="A32" s="101"/>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="100"/>
       <c r="B32" s="9">
         <v>31</v>
       </c>
       <c r="C32" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="D32" s="34">
+      <c r="D32" s="33">
         <v>300000</v>
       </c>
-      <c r="E32" s="34">
+      <c r="E32" s="33">
         <f t="shared" si="0"/>
         <v>75000</v>
       </c>
-      <c r="F32" s="15">
+      <c r="F32" s="14">
         <f t="shared" si="1"/>
         <v>6250</v>
       </c>
-      <c r="G32" s="34">
+      <c r="G32" s="33">
         <f t="shared" si="2"/>
         <v>35.51</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
-      <c r="A33" s="101"/>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="100"/>
       <c r="B33" s="9">
         <v>32</v>
       </c>
       <c r="C33" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="D33" s="34">
+      <c r="D33" s="33">
         <v>600000</v>
       </c>
-      <c r="E33" s="34">
+      <c r="E33" s="33">
         <f t="shared" si="0"/>
         <v>150000</v>
       </c>
-      <c r="F33" s="15">
+      <c r="F33" s="14">
         <f t="shared" si="1"/>
         <v>12500</v>
       </c>
-      <c r="G33" s="34">
+      <c r="G33" s="33">
         <f t="shared" si="2"/>
         <v>71.02</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
-      <c r="A34" s="101"/>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="100"/>
       <c r="B34" s="9">
         <v>33</v>
       </c>
       <c r="C34" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="D34" s="34">
+      <c r="D34" s="33">
         <v>1000000</v>
       </c>
-      <c r="E34" s="34">
+      <c r="E34" s="33">
         <f t="shared" si="0"/>
         <v>250000</v>
       </c>
-      <c r="F34" s="15">
+      <c r="F34" s="14">
         <f t="shared" si="1"/>
         <v>20833.333333333332</v>
       </c>
-      <c r="G34" s="34">
+      <c r="G34" s="33">
         <f t="shared" si="2"/>
         <v>118.37</v>
       </c>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="5">
     <mergeCell ref="A31:A34"/>
     <mergeCell ref="A2:A7"/>

--- a/Project Management/Effort Calculation.xlsx
+++ b/Project Management/Effort Calculation.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="330" windowWidth="18795" windowHeight="11700" tabRatio="785"/>
+    <workbookView xWindow="360" yWindow="330" windowWidth="18795" windowHeight="11700" tabRatio="785" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="8" r:id="rId1"/>
@@ -24,7 +24,7 @@
     <definedName name="MemberList">'Team Member'!$B$4:$B$10</definedName>
     <definedName name="SkillList">'Skill Set'!$C$2:$C$34</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -313,11 +313,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;₹&quot;\ #,##0.00"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1129,7 +1129,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1164,7 +1163,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1340,14 +1338,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:O20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H11" sqref="H11:J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="2.85546875" style="1" customWidth="1"/>
     <col min="2" max="4" width="9.140625" style="1"/>
@@ -1355,8 +1353,8 @@
     <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:15" ht="15.75" thickBot="1"/>
+    <row r="2" spans="2:15">
       <c r="B2" s="18"/>
       <c r="C2" s="19"/>
       <c r="D2" s="19"/>
@@ -1372,7 +1370,7 @@
       <c r="N2" s="19"/>
       <c r="O2" s="20"/>
     </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:15">
       <c r="B3" s="3"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
@@ -1388,7 +1386,7 @@
       <c r="N3" s="4"/>
       <c r="O3" s="21"/>
     </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:15">
       <c r="B4" s="3"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -1404,7 +1402,7 @@
       <c r="N4" s="4"/>
       <c r="O4" s="21"/>
     </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:15">
       <c r="B5" s="3"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -1420,7 +1418,7 @@
       <c r="N5" s="4"/>
       <c r="O5" s="21"/>
     </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:15">
       <c r="B6" s="3"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
@@ -1436,7 +1434,7 @@
       <c r="N6" s="4"/>
       <c r="O6" s="21"/>
     </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:15">
       <c r="B7" s="3"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
@@ -1452,7 +1450,7 @@
       <c r="N7" s="4"/>
       <c r="O7" s="21"/>
     </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:15">
       <c r="B8" s="3"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
@@ -1468,7 +1466,7 @@
       <c r="N8" s="4"/>
       <c r="O8" s="21"/>
     </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:15">
       <c r="B9" s="3"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
@@ -1484,7 +1482,7 @@
       <c r="N9" s="4"/>
       <c r="O9" s="21"/>
     </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:15">
       <c r="B10" s="3"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
@@ -1502,7 +1500,7 @@
       <c r="N10" s="4"/>
       <c r="O10" s="21"/>
     </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:15">
       <c r="B11" s="3"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -1513,7 +1511,7 @@
       <c r="G11" s="77"/>
       <c r="H11" s="81">
         <f>Summery!D10</f>
-        <v>10724.463</v>
+        <v>10014.231</v>
       </c>
       <c r="I11" s="82"/>
       <c r="J11" s="83"/>
@@ -1523,7 +1521,7 @@
       <c r="N11" s="4"/>
       <c r="O11" s="21"/>
     </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:15">
       <c r="B12" s="3"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
@@ -1544,7 +1542,7 @@
       <c r="N12" s="4"/>
       <c r="O12" s="21"/>
     </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:15">
       <c r="B13" s="3"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -1565,7 +1563,7 @@
       <c r="N13" s="4"/>
       <c r="O13" s="21"/>
     </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:15">
       <c r="B14" s="3"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
@@ -1581,7 +1579,7 @@
       <c r="N14" s="4"/>
       <c r="O14" s="21"/>
     </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:15">
       <c r="B15" s="3"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -1597,7 +1595,7 @@
       <c r="N15" s="4"/>
       <c r="O15" s="21"/>
     </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:15">
       <c r="B16" s="3"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -1613,7 +1611,7 @@
       <c r="N16" s="4"/>
       <c r="O16" s="21"/>
     </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:15">
       <c r="B17" s="3"/>
       <c r="D17" s="4"/>
       <c r="E17" s="5"/>
@@ -1628,7 +1626,7 @@
       <c r="N17" s="4"/>
       <c r="O17" s="21"/>
     </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:15">
       <c r="B18" s="3"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
@@ -1643,7 +1641,7 @@
       <c r="N18" s="4"/>
       <c r="O18" s="21"/>
     </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:15">
       <c r="B19" s="3"/>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
@@ -1659,7 +1657,7 @@
       <c r="N19" s="4"/>
       <c r="O19" s="21"/>
     </row>
-    <row r="20" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:15" ht="15.75" thickBot="1">
       <c r="B20" s="6"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -1692,14 +1690,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="2.85546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="28.5703125" style="1" customWidth="1"/>
@@ -1721,7 +1719,7 @@
     <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17">
       <c r="A1" s="4"/>
       <c r="B1" s="84" t="s">
         <v>61</v>
@@ -1744,7 +1742,7 @@
       <c r="P1" s="8"/>
       <c r="Q1" s="8"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17">
       <c r="A2" s="4"/>
       <c r="B2" s="11" t="s">
         <v>6</v>
@@ -1775,7 +1773,7 @@
       <c r="P2" s="8"/>
       <c r="Q2" s="8"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17">
       <c r="A3" s="4"/>
       <c r="B3" s="10" t="s">
         <v>7</v>
@@ -1810,7 +1808,7 @@
       <c r="P3" s="5"/>
       <c r="Q3" s="5"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17">
       <c r="A4" s="4"/>
       <c r="B4" s="10" t="s">
         <v>10</v>
@@ -1833,7 +1831,7 @@
       </c>
       <c r="H4" s="33">
         <f>SUM(School!I:I)</f>
-        <v>1893.9520000000002</v>
+        <v>1183.72</v>
       </c>
       <c r="I4" s="5"/>
       <c r="J4" s="4"/>
@@ -1845,7 +1843,7 @@
       <c r="P4" s="5"/>
       <c r="Q4" s="5"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17">
       <c r="A5" s="4"/>
       <c r="B5" s="10" t="s">
         <v>8</v>
@@ -1880,7 +1878,7 @@
       <c r="P5" s="5"/>
       <c r="Q5" s="5"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17">
       <c r="A6" s="4"/>
       <c r="B6" s="10" t="s">
         <v>11</v>
@@ -1915,7 +1913,7 @@
       <c r="P6" s="5"/>
       <c r="Q6" s="5"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17">
       <c r="A7" s="4"/>
       <c r="B7" s="10" t="s">
         <v>12</v>
@@ -1950,7 +1948,7 @@
       <c r="P7" s="5"/>
       <c r="Q7" s="5"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17">
       <c r="A8" s="4"/>
       <c r="B8" s="10" t="s">
         <v>13</v>
@@ -1973,7 +1971,7 @@
       </c>
       <c r="H8" s="34">
         <f>SUM(H3:H7)</f>
-        <v>10724.463</v>
+        <v>10014.231</v>
       </c>
       <c r="I8" s="5"/>
       <c r="J8" s="4"/>
@@ -1985,7 +1983,7 @@
       <c r="P8" s="5"/>
       <c r="Q8" s="5"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17">
       <c r="A9" s="4"/>
       <c r="B9" s="10" t="s">
         <v>14</v>
@@ -1996,7 +1994,7 @@
       </c>
       <c r="D9" s="33">
         <f>SUMIF(Business!B:B,B9,Business!I:I) + SUMIF(School!B:B,B9,School!I:I) + SUMIF(Service!B:B,B9,Service!I:I)+SUMIF(Retail!B:B,B9,Retail!I:I) + SUMIF(Tourism!B:B,B9,Tourism!I:I)</f>
-        <v>1893.9520000000002</v>
+        <v>1183.72</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="4"/>
@@ -2012,7 +2010,7 @@
       <c r="P9" s="5"/>
       <c r="Q9" s="5"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17">
       <c r="A10" s="4"/>
       <c r="B10" s="12" t="s">
         <v>0</v>
@@ -2023,7 +2021,7 @@
       </c>
       <c r="D10" s="34">
         <f>SUM(D3:D9)</f>
-        <v>10724.463</v>
+        <v>10014.231</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="4"/>
@@ -2039,7 +2037,7 @@
       <c r="P10" s="5"/>
       <c r="Q10" s="5"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="16"/>
@@ -2055,7 +2053,7 @@
       <c r="P11" s="5"/>
       <c r="Q11" s="5"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="16"/>
@@ -2071,7 +2069,7 @@
       <c r="P12" s="5"/>
       <c r="Q12" s="5"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="16"/>
@@ -2090,7 +2088,7 @@
       <c r="P13" s="5"/>
       <c r="Q13" s="5"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="16"/>
@@ -2109,7 +2107,7 @@
       <c r="P14" s="5"/>
       <c r="Q14" s="5"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="16"/>
@@ -2128,7 +2126,7 @@
       <c r="P15" s="5"/>
       <c r="Q15" s="5"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="16"/>
@@ -2147,7 +2145,7 @@
       <c r="P16" s="5"/>
       <c r="Q16" s="5"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="16"/>
@@ -2166,7 +2164,7 @@
       <c r="P17" s="5"/>
       <c r="Q17" s="5"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="16"/>
@@ -2200,14 +2198,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.140625" style="65" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.42578125" style="57" bestFit="1" customWidth="1"/>
@@ -2222,7 +2220,7 @@
     <col min="11" max="16384" width="9.140625" style="57"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10">
       <c r="A1" s="69" t="s">
         <v>4</v>
       </c>
@@ -2254,7 +2252,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10">
       <c r="A2" s="58" t="s">
         <v>51</v>
       </c>
@@ -2291,7 +2289,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10">
       <c r="A3" s="58" t="s">
         <v>88</v>
       </c>
@@ -2328,7 +2326,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10">
       <c r="A4" s="58"/>
       <c r="B4" s="59"/>
       <c r="C4" s="59"/>
@@ -2355,7 +2353,7 @@
       </c>
       <c r="J4" s="64"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10">
       <c r="A5" s="58"/>
       <c r="B5" s="59"/>
       <c r="C5" s="59"/>
@@ -2382,7 +2380,7 @@
       </c>
       <c r="J5" s="64"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10">
       <c r="A6" s="58"/>
       <c r="B6" s="59"/>
       <c r="C6" s="59"/>
@@ -2424,14 +2422,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.7109375" style="65" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.42578125" style="57" bestFit="1" customWidth="1"/>
@@ -2446,7 +2444,7 @@
     <col min="11" max="16384" width="9.140625" style="57"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10">
       <c r="A1" s="53" t="s">
         <v>4</v>
       </c>
@@ -2478,7 +2476,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10">
       <c r="A2" s="58">
         <v>42298</v>
       </c>
@@ -2505,15 +2503,15 @@
       </c>
       <c r="H2" s="63">
         <f>IF(ISERROR(INDEX(Competency,F2,E2)), 0, INDEX(Competency,F2,E2))</f>
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="I2" s="62">
         <f>D2*G2*H2</f>
-        <v>946.97600000000011</v>
+        <v>591.86</v>
       </c>
       <c r="J2" s="64"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10">
       <c r="A3" s="58">
         <v>42299</v>
       </c>
@@ -2540,15 +2538,15 @@
       </c>
       <c r="H3" s="63">
         <f>IF(ISERROR(INDEX(Competency,F3,E3)), 0, INDEX(Competency,F3,E3))</f>
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="I3" s="62">
         <f t="shared" ref="I3:I6" si="0">D3*G3*H3</f>
-        <v>946.97600000000011</v>
+        <v>591.86</v>
       </c>
       <c r="J3" s="64"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10">
       <c r="A4" s="58"/>
       <c r="B4" s="59"/>
       <c r="C4" s="59"/>
@@ -2575,7 +2573,7 @@
       </c>
       <c r="J4" s="64"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10">
       <c r="A5" s="58"/>
       <c r="B5" s="59"/>
       <c r="C5" s="59"/>
@@ -2602,7 +2600,7 @@
       </c>
       <c r="J5" s="64"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10">
       <c r="A6" s="58"/>
       <c r="B6" s="59"/>
       <c r="C6" s="59"/>
@@ -2643,14 +2641,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.140625" style="65" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.42578125" style="57" bestFit="1" customWidth="1"/>
@@ -2665,7 +2663,7 @@
     <col min="11" max="16384" width="9.140625" style="57"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10">
       <c r="A1" s="53" t="s">
         <v>4</v>
       </c>
@@ -2697,7 +2695,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10">
       <c r="A2" s="58"/>
       <c r="B2" s="59" t="s">
         <v>8</v>
@@ -2728,7 +2726,7 @@
       </c>
       <c r="J2" s="64"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10">
       <c r="A3" s="58"/>
       <c r="B3" s="59" t="s">
         <v>8</v>
@@ -2754,12 +2752,12 @@
         <v>0</v>
       </c>
       <c r="I3" s="62">
-        <f t="shared" ref="I3:I8" si="0">D3*G3*H3</f>
+        <f t="shared" ref="I3:I5" si="0">D3*G3*H3</f>
         <v>0</v>
       </c>
       <c r="J3" s="64"/>
     </row>
-    <row r="4" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="30">
       <c r="A4" s="58" t="s">
         <v>75</v>
       </c>
@@ -2796,7 +2794,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10">
       <c r="A5" s="58" t="s">
         <v>75</v>
       </c>
@@ -2833,7 +2831,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10">
       <c r="A6" s="58" t="s">
         <v>86</v>
       </c>
@@ -2870,7 +2868,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10">
       <c r="A7" s="58"/>
       <c r="B7" s="59"/>
       <c r="C7" s="59"/>
@@ -2882,7 +2880,7 @@
       <c r="I7" s="62"/>
       <c r="J7" s="64"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10">
       <c r="A8" s="58"/>
       <c r="B8" s="59"/>
       <c r="C8" s="59"/>
@@ -2908,14 +2906,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.140625" style="65" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.42578125" style="57" bestFit="1" customWidth="1"/>
@@ -2930,7 +2928,7 @@
     <col min="11" max="16384" width="9.140625" style="57"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10">
       <c r="A1" s="53" t="s">
         <v>4</v>
       </c>
@@ -2962,7 +2960,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10">
       <c r="A2" s="58" t="s">
         <v>75</v>
       </c>
@@ -2999,7 +2997,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10">
       <c r="A3" s="58" t="s">
         <v>75</v>
       </c>
@@ -3036,7 +3034,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10">
       <c r="A4" s="58" t="s">
         <v>75</v>
       </c>
@@ -3073,7 +3071,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10">
       <c r="A5" s="58"/>
       <c r="B5" s="59"/>
       <c r="C5" s="59"/>
@@ -3100,7 +3098,7 @@
       </c>
       <c r="J5" s="64"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10">
       <c r="A6" s="58"/>
       <c r="B6" s="59"/>
       <c r="C6" s="59"/>
@@ -3141,14 +3139,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.140625" style="65" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.42578125" style="57" bestFit="1" customWidth="1"/>
@@ -3163,7 +3161,7 @@
     <col min="11" max="16384" width="9.140625" style="57"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10">
       <c r="A1" s="53" t="s">
         <v>4</v>
       </c>
@@ -3195,7 +3193,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10">
       <c r="A2" s="58" t="s">
         <v>84</v>
       </c>
@@ -3232,7 +3230,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10">
       <c r="A3" s="58"/>
       <c r="B3" s="59"/>
       <c r="C3" s="59"/>
@@ -3259,7 +3257,7 @@
       </c>
       <c r="J3" s="64"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10">
       <c r="A4" s="58"/>
       <c r="B4" s="59"/>
       <c r="C4" s="59"/>
@@ -3286,7 +3284,7 @@
       </c>
       <c r="J4" s="64"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10">
       <c r="A5" s="58"/>
       <c r="B5" s="59"/>
       <c r="C5" s="59"/>
@@ -3313,7 +3311,7 @@
       </c>
       <c r="J5" s="64"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10">
       <c r="A6" s="58"/>
       <c r="B6" s="59"/>
       <c r="C6" s="59"/>
@@ -3354,14 +3352,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AI10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AI10" sqref="AI10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="4.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.42578125" bestFit="1" customWidth="1"/>
@@ -3374,7 +3372,7 @@
     <col min="30" max="35" width="4.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:35" ht="15" customHeight="1" thickBot="1">
       <c r="A1" s="91" t="s">
         <v>81</v>
       </c>
@@ -3415,7 +3413,7 @@
       <c r="AH1" s="89"/>
       <c r="AI1" s="90"/>
     </row>
-    <row r="2" spans="1:35" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" s="26" customFormat="1" ht="15" customHeight="1">
       <c r="A2" s="92"/>
       <c r="B2" s="92"/>
       <c r="C2" s="93" t="s">
@@ -3462,7 +3460,7 @@
       <c r="AH2" s="86"/>
       <c r="AI2" s="87"/>
     </row>
-    <row r="3" spans="1:35" ht="180" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" ht="180">
       <c r="A3" s="11" t="s">
         <v>5</v>
       </c>
@@ -3569,7 +3567,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35">
       <c r="A4" s="23">
         <v>1</v>
       </c>
@@ -3676,7 +3674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35">
       <c r="A5" s="23">
         <v>2</v>
       </c>
@@ -3783,7 +3781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35">
       <c r="A6" s="23">
         <v>3</v>
       </c>
@@ -3824,7 +3822,7 @@
       <c r="AH6" s="35"/>
       <c r="AI6" s="44"/>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35">
       <c r="A7" s="23">
         <v>4</v>
       </c>
@@ -3865,7 +3863,7 @@
       <c r="AH7" s="35"/>
       <c r="AI7" s="44"/>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35">
       <c r="A8" s="23">
         <v>5</v>
       </c>
@@ -3906,7 +3904,7 @@
       <c r="AH8" s="35"/>
       <c r="AI8" s="44"/>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35">
       <c r="A9" s="23">
         <v>6</v>
       </c>
@@ -3947,7 +3945,7 @@
       <c r="AH9" s="35"/>
       <c r="AI9" s="44"/>
     </row>
-    <row r="10" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:35" ht="15.75" thickBot="1">
       <c r="A10" s="23">
         <v>7</v>
       </c>
@@ -3973,7 +3971,7 @@
         <v>0.25</v>
       </c>
       <c r="I10" s="47">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="J10" s="47">
         <v>0.5</v>
@@ -4045,7 +4043,7 @@
         <v>0.25</v>
       </c>
       <c r="AG10" s="47">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AH10" s="47">
         <v>0</v>
@@ -4070,12 +4068,12 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="17.42578125" style="27" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="3" bestFit="1" customWidth="1"/>
@@ -4085,7 +4083,7 @@
     <col min="7" max="7" width="13.140625" style="29" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" s="11" t="s">
         <v>69</v>
       </c>
@@ -4108,7 +4106,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="A2" s="99" t="s">
         <v>25</v>
       </c>
@@ -4135,7 +4133,7 @@
       </c>
       <c r="H2" s="73"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="A3" s="100"/>
       <c r="B3" s="9">
         <v>2</v>
@@ -4160,7 +4158,7 @@
       </c>
       <c r="H3" s="73"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8">
       <c r="A4" s="100"/>
       <c r="B4" s="9">
         <v>3</v>
@@ -4185,7 +4183,7 @@
       </c>
       <c r="H4" s="73"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8">
       <c r="A5" s="100"/>
       <c r="B5" s="9">
         <v>4</v>
@@ -4210,7 +4208,7 @@
       </c>
       <c r="H5" s="73"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8">
       <c r="A6" s="100"/>
       <c r="B6" s="9">
         <v>5</v>
@@ -4235,7 +4233,7 @@
       </c>
       <c r="H6" s="73"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8">
       <c r="A7" s="101"/>
       <c r="B7" s="9">
         <v>6</v>
@@ -4260,7 +4258,7 @@
       </c>
       <c r="H7" s="73"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8">
       <c r="A8" s="99" t="s">
         <v>29</v>
       </c>
@@ -4286,7 +4284,7 @@
         <v>591.86</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8">
       <c r="A9" s="100"/>
       <c r="B9" s="9">
         <v>8</v>
@@ -4310,7 +4308,7 @@
         <v>236.74</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8">
       <c r="A10" s="100"/>
       <c r="B10" s="9">
         <v>9</v>
@@ -4334,7 +4332,7 @@
         <v>177.56</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8">
       <c r="A11" s="100"/>
       <c r="B11" s="9">
         <v>10</v>
@@ -4358,7 +4356,7 @@
         <v>591.86</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8">
       <c r="A12" s="100"/>
       <c r="B12" s="9">
         <v>11</v>
@@ -4382,7 +4380,7 @@
         <v>177.56</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8">
       <c r="A13" s="100"/>
       <c r="B13" s="9">
         <v>12</v>
@@ -4406,7 +4404,7 @@
         <v>118.37</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8">
       <c r="A14" s="100"/>
       <c r="B14" s="9">
         <v>13</v>
@@ -4430,7 +4428,7 @@
         <v>118.37</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8">
       <c r="A15" s="100"/>
       <c r="B15" s="9">
         <v>14</v>
@@ -4454,7 +4452,7 @@
         <v>295.93</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8">
       <c r="A16" s="100"/>
       <c r="B16" s="9">
         <v>15</v>
@@ -4478,7 +4476,7 @@
         <v>118.37</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7">
       <c r="A17" s="99" t="s">
         <v>67</v>
       </c>
@@ -4504,7 +4502,7 @@
         <v>177.56</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7">
       <c r="A18" s="100"/>
       <c r="B18" s="9">
         <v>17</v>
@@ -4528,7 +4526,7 @@
         <v>71.02</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7">
       <c r="A19" s="100"/>
       <c r="B19" s="9">
         <v>18</v>
@@ -4552,7 +4550,7 @@
         <v>35.51</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7">
       <c r="A20" s="100"/>
       <c r="B20" s="9">
         <v>19</v>
@@ -4576,7 +4574,7 @@
         <v>236.74</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7">
       <c r="A21" s="100"/>
       <c r="B21" s="9">
         <v>20</v>
@@ -4600,7 +4598,7 @@
         <v>71.02</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7">
       <c r="A22" s="100"/>
       <c r="B22" s="9">
         <v>21</v>
@@ -4624,7 +4622,7 @@
         <v>35.51</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7">
       <c r="A23" s="100"/>
       <c r="B23" s="9">
         <v>22</v>
@@ -4648,7 +4646,7 @@
         <v>71.02</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7">
       <c r="A24" s="100"/>
       <c r="B24" s="9">
         <v>23</v>
@@ -4672,7 +4670,7 @@
         <v>35.51</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7">
       <c r="A25" s="100"/>
       <c r="B25" s="9">
         <v>24</v>
@@ -4696,7 +4694,7 @@
         <v>35.51</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7">
       <c r="A26" s="101"/>
       <c r="B26" s="9">
         <v>25</v>
@@ -4720,7 +4718,7 @@
         <v>71.02</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7">
       <c r="A27" s="99" t="s">
         <v>68</v>
       </c>
@@ -4746,7 +4744,7 @@
         <v>295.93</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7">
       <c r="A28" s="100"/>
       <c r="B28" s="9">
         <v>27</v>
@@ -4770,7 +4768,7 @@
         <v>71.02</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7">
       <c r="A29" s="100"/>
       <c r="B29" s="9">
         <v>28</v>
@@ -4794,7 +4792,7 @@
         <v>177.56</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7">
       <c r="A30" s="101"/>
       <c r="B30" s="9">
         <v>29</v>
@@ -4818,7 +4816,7 @@
         <v>71.02</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7">
       <c r="A31" s="99" t="s">
         <v>28</v>
       </c>
@@ -4844,7 +4842,7 @@
         <v>35.51</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7">
       <c r="A32" s="100"/>
       <c r="B32" s="9">
         <v>31</v>
@@ -4868,7 +4866,7 @@
         <v>35.51</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7">
       <c r="A33" s="100"/>
       <c r="B33" s="9">
         <v>32</v>
@@ -4892,7 +4890,7 @@
         <v>71.02</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7">
       <c r="A34" s="100"/>
       <c r="B34" s="9">
         <v>33</v>

--- a/Project Management/Effort Calculation.xlsx
+++ b/Project Management/Effort Calculation.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="330" windowWidth="18795" windowHeight="11700" tabRatio="785" activeTab="7"/>
+    <workbookView xWindow="360" yWindow="330" windowWidth="18795" windowHeight="11700" tabRatio="785" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="8" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="93">
   <si>
     <t>Total</t>
   </si>
@@ -1511,7 +1511,7 @@
       <c r="G11" s="77"/>
       <c r="H11" s="81">
         <f>Summery!D10</f>
-        <v>10014.231</v>
+        <v>10191.791000000001</v>
       </c>
       <c r="I11" s="82"/>
       <c r="J11" s="83"/>
@@ -1532,7 +1532,7 @@
       <c r="G12" s="77"/>
       <c r="H12" s="78">
         <f>Summery!C10</f>
-        <v>25.5</v>
+        <v>27.5</v>
       </c>
       <c r="I12" s="79"/>
       <c r="J12" s="80"/>
@@ -1553,7 +1553,7 @@
       <c r="G13" s="77"/>
       <c r="H13" s="78">
         <f>H12/8</f>
-        <v>3.1875</v>
+        <v>3.4375</v>
       </c>
       <c r="I13" s="79"/>
       <c r="J13" s="80"/>
@@ -1827,11 +1827,11 @@
       </c>
       <c r="G4" s="14">
         <f>SUM(School!D:D)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H4" s="33">
         <f>SUM(School!I:I)</f>
-        <v>1183.72</v>
+        <v>1361.28</v>
       </c>
       <c r="I4" s="5"/>
       <c r="J4" s="4"/>
@@ -1967,11 +1967,11 @@
       </c>
       <c r="G8" s="15">
         <f>SUM(G3:G7)</f>
-        <v>25.5</v>
+        <v>27.5</v>
       </c>
       <c r="H8" s="34">
         <f>SUM(H3:H7)</f>
-        <v>10014.231</v>
+        <v>10191.791000000001</v>
       </c>
       <c r="I8" s="5"/>
       <c r="J8" s="4"/>
@@ -1990,11 +1990,11 @@
       </c>
       <c r="C9" s="14">
         <f>SUMIF(Business!B:B,B9,Business!D:D) + SUMIF(School!B:B,B9,School!D:D) + SUMIF(Service!B:B,B9,Service!D:D)+SUMIF(Retail!B:B,B9,Retail!D:D) + SUMIF(Tourism!B:B,B9,Tourism!D:D)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D9" s="33">
         <f>SUMIF(Business!B:B,B9,Business!I:I) + SUMIF(School!B:B,B9,School!I:I) + SUMIF(Service!B:B,B9,Service!I:I)+SUMIF(Retail!B:B,B9,Retail!I:I) + SUMIF(Tourism!B:B,B9,Tourism!I:I)</f>
-        <v>1183.72</v>
+        <v>1361.28</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="4"/>
@@ -2017,11 +2017,11 @@
       </c>
       <c r="C10" s="15">
         <f>SUM(C3:C9)</f>
-        <v>25.5</v>
+        <v>27.5</v>
       </c>
       <c r="D10" s="34">
         <f>SUM(D3:D9)</f>
-        <v>10014.231</v>
+        <v>10191.791000000001</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="4"/>
@@ -2425,8 +2425,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2547,29 +2547,37 @@
       <c r="J3" s="64"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="58"/>
-      <c r="B4" s="59"/>
-      <c r="C4" s="59"/>
-      <c r="D4" s="60"/>
+      <c r="A4" s="58">
+        <v>42301</v>
+      </c>
+      <c r="B4" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="59" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="60">
+        <v>2</v>
+      </c>
       <c r="E4" s="61">
         <f>IF(ISERROR(MATCH(C4,SkillList,0)),0,MATCH(C4,SkillList,0))</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F4" s="61">
         <f>IF(ISERROR(MATCH(B4,MemberList,0)),0,MATCH(B4,MemberList,0))</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G4" s="62">
         <f>INDEX(CostPerHour,E4)</f>
-        <v>946.97</v>
+        <v>177.56</v>
       </c>
       <c r="H4" s="63">
         <f>IF(ISERROR(INDEX(Competency,F4,E4)), 0, INDEX(Competency,F4,E4))</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="I4" s="62">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>177.56</v>
       </c>
       <c r="J4" s="64"/>
     </row>
@@ -3355,7 +3363,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AI10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AI10" sqref="AI10"/>
     </sheetView>
   </sheetViews>

--- a/Project Management/Effort Calculation.xlsx
+++ b/Project Management/Effort Calculation.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="330" windowWidth="18795" windowHeight="11700" tabRatio="785" activeTab="3"/>
+    <workbookView xWindow="360" yWindow="330" windowWidth="18795" windowHeight="11700" tabRatio="785" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="8" r:id="rId1"/>
@@ -24,12 +24,12 @@
     <definedName name="MemberList">'Team Member'!$B$4:$B$10</definedName>
     <definedName name="SkillList">'Skill Set'!$C$2:$C$34</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="93">
   <si>
     <t>Total</t>
   </si>
@@ -1511,7 +1511,7 @@
       <c r="G11" s="77"/>
       <c r="H11" s="81">
         <f>Summery!D10</f>
-        <v>10191.791000000001</v>
+        <v>10239.139000000001</v>
       </c>
       <c r="I11" s="82"/>
       <c r="J11" s="83"/>
@@ -1532,7 +1532,7 @@
       <c r="G12" s="77"/>
       <c r="H12" s="78">
         <f>Summery!C10</f>
-        <v>27.5</v>
+        <v>28.5</v>
       </c>
       <c r="I12" s="79"/>
       <c r="J12" s="80"/>
@@ -1553,7 +1553,7 @@
       <c r="G13" s="77"/>
       <c r="H13" s="78">
         <f>H12/8</f>
-        <v>3.4375</v>
+        <v>3.5625</v>
       </c>
       <c r="I13" s="79"/>
       <c r="J13" s="80"/>
@@ -1815,11 +1815,11 @@
       </c>
       <c r="C4" s="14">
         <f>SUMIF(Business!B:B,B4,Business!D:D) + SUMIF(School!B:B,B4,School!D:D) + SUMIF(Service!B:B,B4,Service!D:D)+SUMIF(Retail!B:B,B4,Retail!D:D) + SUMIF(Tourism!B:B,B4,Tourism!D:D)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D4" s="33">
         <f>SUMIF(Business!B:B,B4,Business!I:I) + SUMIF(School!B:B,B4,School!I:I) + SUMIF(Service!B:B,B4,Service!I:I)+SUMIF(Retail!B:B,B4,Retail!I:I) + SUMIF(Tourism!B:B,B4,Tourism!I:I)</f>
-        <v>1609.8560000000002</v>
+        <v>1657.2040000000002</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="10" t="s">
@@ -1862,11 +1862,11 @@
       </c>
       <c r="G5" s="14">
         <f>SUM(Service!D:D)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H5" s="33">
         <f>SUM(Service!I:I)</f>
-        <v>2675.2019999999998</v>
+        <v>2722.5499999999997</v>
       </c>
       <c r="I5" s="5"/>
       <c r="J5" s="4"/>
@@ -1967,11 +1967,11 @@
       </c>
       <c r="G8" s="15">
         <f>SUM(G3:G7)</f>
-        <v>27.5</v>
+        <v>28.5</v>
       </c>
       <c r="H8" s="34">
         <f>SUM(H3:H7)</f>
-        <v>10191.791000000001</v>
+        <v>10239.139000000001</v>
       </c>
       <c r="I8" s="5"/>
       <c r="J8" s="4"/>
@@ -2017,11 +2017,11 @@
       </c>
       <c r="C10" s="15">
         <f>SUM(C3:C9)</f>
-        <v>27.5</v>
+        <v>28.5</v>
       </c>
       <c r="D10" s="34">
         <f>SUM(D3:D9)</f>
-        <v>10191.791000000001</v>
+        <v>10239.139000000001</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="4"/>
@@ -2372,7 +2372,7 @@
       </c>
       <c r="H5" s="63">
         <f>IF(ISERROR(INDEX(Competency,F5,E5)), 0, INDEX(Competency,F5,E5))</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I5" s="62">
         <f t="shared" si="0"/>
@@ -2425,7 +2425,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
@@ -2600,7 +2600,7 @@
       </c>
       <c r="H5" s="63">
         <f>IF(ISERROR(INDEX(Competency,F5,E5)), 0, INDEX(Competency,F5,E5))</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I5" s="62">
         <f t="shared" si="0"/>
@@ -2652,8 +2652,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2869,7 +2869,7 @@
         <v>0.5</v>
       </c>
       <c r="I6" s="62">
-        <f t="shared" ref="I6" si="1">D6*G6*H6</f>
+        <f t="shared" ref="I6:I7" si="1">D6*G6*H6</f>
         <v>118.37</v>
       </c>
       <c r="J6" s="64" t="s">
@@ -2877,16 +2877,41 @@
       </c>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="58"/>
-      <c r="B7" s="59"/>
-      <c r="C7" s="59"/>
-      <c r="D7" s="60"/>
-      <c r="E7" s="61"/>
-      <c r="F7" s="61"/>
-      <c r="G7" s="62"/>
-      <c r="H7" s="63"/>
-      <c r="I7" s="62"/>
-      <c r="J7" s="64"/>
+      <c r="A7" s="58" t="s">
+        <v>86</v>
+      </c>
+      <c r="B7" s="59" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="59" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="60">
+        <v>1</v>
+      </c>
+      <c r="E7" s="61">
+        <f>IF(ISERROR(MATCH(C7,SkillList,0)),0,MATCH(C7,SkillList,0))</f>
+        <v>8</v>
+      </c>
+      <c r="F7" s="61">
+        <f>IF(ISERROR(MATCH(B7,MemberList,0)),0,MATCH(B7,MemberList,0))</f>
+        <v>2</v>
+      </c>
+      <c r="G7" s="62">
+        <f>INDEX(CostPerHour,E7)</f>
+        <v>236.74</v>
+      </c>
+      <c r="H7" s="63">
+        <f>IF(ISERROR(INDEX(Competency,F7,E7)), 0, INDEX(Competency,F7,E7))</f>
+        <v>0.2</v>
+      </c>
+      <c r="I7" s="62">
+        <f t="shared" si="1"/>
+        <v>47.348000000000006</v>
+      </c>
+      <c r="J7" s="64" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="58"/>
@@ -3098,7 +3123,7 @@
       </c>
       <c r="H5" s="63">
         <f>IF(ISERROR(INDEX(Competency,F5,E5)), 0, INDEX(Competency,F5,E5))</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I5" s="62">
         <f t="shared" si="0"/>
@@ -3311,7 +3336,7 @@
       </c>
       <c r="H5" s="63">
         <f>IF(ISERROR(INDEX(Competency,F5,E5)), 0, INDEX(Competency,F5,E5))</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I5" s="62">
         <f t="shared" si="0"/>
@@ -3364,7 +3389,7 @@
   <dimension ref="A1:AI10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AI10" sqref="AI10"/>
+      <selection activeCell="C5" sqref="C5:AI5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3699,13 +3724,13 @@
         <v>0</v>
       </c>
       <c r="F5" s="36">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="G5" s="36">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="H5" s="46">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I5" s="45">
         <v>0.8</v>
@@ -3741,10 +3766,10 @@
         <v>0</v>
       </c>
       <c r="T5" s="35">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="U5" s="35">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="V5" s="35">
         <v>0</v>
@@ -3762,7 +3787,7 @@
         <v>0</v>
       </c>
       <c r="AA5" s="44">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AB5" s="43">
         <v>0</v>

--- a/Project Management/Effort Calculation.xlsx
+++ b/Project Management/Effort Calculation.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="330" windowWidth="18795" windowHeight="11700" tabRatio="785" activeTab="4"/>
+    <workbookView xWindow="360" yWindow="330" windowWidth="18795" windowHeight="11700" tabRatio="785"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="8" r:id="rId1"/>
@@ -24,12 +24,12 @@
     <definedName name="MemberList">'Team Member'!$B$4:$B$10</definedName>
     <definedName name="SkillList">'Skill Set'!$C$2:$C$34</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="97">
   <si>
     <t>Total</t>
   </si>
@@ -308,16 +308,28 @@
   </si>
   <si>
     <t>Cost Per Anum!</t>
+  </si>
+  <si>
+    <t>26.10.2015</t>
+  </si>
+  <si>
+    <t>Technical Template creation</t>
+  </si>
+  <si>
+    <t>21.10.2015</t>
+  </si>
+  <si>
+    <t>Discussion on how to progress with requirement</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;₹&quot;\ #,##0.00"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1129,6 +1141,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1163,6 +1176,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1338,14 +1352,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:O20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11:J11"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.85546875" style="1" customWidth="1"/>
     <col min="2" max="4" width="9.140625" style="1"/>
@@ -1353,8 +1365,8 @@
     <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" ht="15.75" thickBot="1"/>
-    <row r="2" spans="2:15">
+    <row r="1" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B2" s="18"/>
       <c r="C2" s="19"/>
       <c r="D2" s="19"/>
@@ -1370,7 +1382,7 @@
       <c r="N2" s="19"/>
       <c r="O2" s="20"/>
     </row>
-    <row r="3" spans="2:15">
+    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B3" s="3"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
@@ -1386,7 +1398,7 @@
       <c r="N3" s="4"/>
       <c r="O3" s="21"/>
     </row>
-    <row r="4" spans="2:15">
+    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B4" s="3"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -1402,7 +1414,7 @@
       <c r="N4" s="4"/>
       <c r="O4" s="21"/>
     </row>
-    <row r="5" spans="2:15">
+    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B5" s="3"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -1418,7 +1430,7 @@
       <c r="N5" s="4"/>
       <c r="O5" s="21"/>
     </row>
-    <row r="6" spans="2:15">
+    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B6" s="3"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
@@ -1434,7 +1446,7 @@
       <c r="N6" s="4"/>
       <c r="O6" s="21"/>
     </row>
-    <row r="7" spans="2:15">
+    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B7" s="3"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
@@ -1450,7 +1462,7 @@
       <c r="N7" s="4"/>
       <c r="O7" s="21"/>
     </row>
-    <row r="8" spans="2:15">
+    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B8" s="3"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
@@ -1466,7 +1478,7 @@
       <c r="N8" s="4"/>
       <c r="O8" s="21"/>
     </row>
-    <row r="9" spans="2:15">
+    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B9" s="3"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
@@ -1482,7 +1494,7 @@
       <c r="N9" s="4"/>
       <c r="O9" s="21"/>
     </row>
-    <row r="10" spans="2:15">
+    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B10" s="3"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
@@ -1500,7 +1512,7 @@
       <c r="N10" s="4"/>
       <c r="O10" s="21"/>
     </row>
-    <row r="11" spans="2:15">
+    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B11" s="3"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -1511,7 +1523,7 @@
       <c r="G11" s="77"/>
       <c r="H11" s="81">
         <f>Summery!D10</f>
-        <v>10239.139000000001</v>
+        <v>11126.929</v>
       </c>
       <c r="I11" s="82"/>
       <c r="J11" s="83"/>
@@ -1521,7 +1533,7 @@
       <c r="N11" s="4"/>
       <c r="O11" s="21"/>
     </row>
-    <row r="12" spans="2:15">
+    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B12" s="3"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
@@ -1532,7 +1544,7 @@
       <c r="G12" s="77"/>
       <c r="H12" s="78">
         <f>Summery!C10</f>
-        <v>28.5</v>
+        <v>30</v>
       </c>
       <c r="I12" s="79"/>
       <c r="J12" s="80"/>
@@ -1542,7 +1554,7 @@
       <c r="N12" s="4"/>
       <c r="O12" s="21"/>
     </row>
-    <row r="13" spans="2:15">
+    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B13" s="3"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -1553,7 +1565,7 @@
       <c r="G13" s="77"/>
       <c r="H13" s="78">
         <f>H12/8</f>
-        <v>3.5625</v>
+        <v>3.75</v>
       </c>
       <c r="I13" s="79"/>
       <c r="J13" s="80"/>
@@ -1563,7 +1575,7 @@
       <c r="N13" s="4"/>
       <c r="O13" s="21"/>
     </row>
-    <row r="14" spans="2:15">
+    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B14" s="3"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
@@ -1579,7 +1591,7 @@
       <c r="N14" s="4"/>
       <c r="O14" s="21"/>
     </row>
-    <row r="15" spans="2:15">
+    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B15" s="3"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -1595,7 +1607,7 @@
       <c r="N15" s="4"/>
       <c r="O15" s="21"/>
     </row>
-    <row r="16" spans="2:15">
+    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B16" s="3"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -1611,7 +1623,7 @@
       <c r="N16" s="4"/>
       <c r="O16" s="21"/>
     </row>
-    <row r="17" spans="2:15">
+    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B17" s="3"/>
       <c r="D17" s="4"/>
       <c r="E17" s="5"/>
@@ -1626,7 +1638,7 @@
       <c r="N17" s="4"/>
       <c r="O17" s="21"/>
     </row>
-    <row r="18" spans="2:15">
+    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B18" s="3"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
@@ -1641,7 +1653,7 @@
       <c r="N18" s="4"/>
       <c r="O18" s="21"/>
     </row>
-    <row r="19" spans="2:15">
+    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B19" s="3"/>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
@@ -1657,7 +1669,7 @@
       <c r="N19" s="4"/>
       <c r="O19" s="21"/>
     </row>
-    <row r="20" spans="2:15" ht="15.75" thickBot="1">
+    <row r="20" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="6"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -1690,14 +1702,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.85546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="28.5703125" style="1" customWidth="1"/>
@@ -1719,7 +1731,7 @@
     <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="4"/>
       <c r="B1" s="84" t="s">
         <v>61</v>
@@ -1742,7 +1754,7 @@
       <c r="P1" s="8"/>
       <c r="Q1" s="8"/>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
       <c r="B2" s="11" t="s">
         <v>6</v>
@@ -1773,18 +1785,18 @@
       <c r="P2" s="8"/>
       <c r="Q2" s="8"/>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="10" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="14">
         <f>SUMIF(Business!B:B,B3,Business!D:D) + SUMIF(School!B:B,B3,School!D:D) + SUMIF(Service!B:B,B3,Service!D:D)+SUMIF(Retail!B:B,B3,Retail!D:D) + SUMIF(Tourism!B:B,B3,Tourism!D:D)</f>
-        <v>14.5</v>
+        <v>16</v>
       </c>
       <c r="D3" s="33">
         <f>SUMIF(Business!B:B,B3,Business!I:I) + SUMIF(School!B:B,B3,School!I:I) + SUMIF(Service!B:B,B3,Service!I:I)+SUMIF(Retail!B:B,B3,Retail!I:I) + SUMIF(Tourism!B:B,B3,Tourism!I:I)</f>
-        <v>7220.6549999999997</v>
+        <v>8108.4449999999997</v>
       </c>
       <c r="E3" s="5"/>
       <c r="F3" s="10" t="s">
@@ -1792,11 +1804,11 @@
       </c>
       <c r="G3" s="14">
         <f>SUM(Business!D:D)</f>
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="H3" s="33">
         <f>SUM(Business!I:I)</f>
-        <v>2367.4050000000002</v>
+        <v>2959.2650000000003</v>
       </c>
       <c r="I3" s="5"/>
       <c r="J3" s="4"/>
@@ -1808,7 +1820,7 @@
       <c r="P3" s="5"/>
       <c r="Q3" s="5"/>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="10" t="s">
         <v>10</v>
@@ -1827,11 +1839,11 @@
       </c>
       <c r="G4" s="14">
         <f>SUM(School!D:D)</f>
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="H4" s="33">
         <f>SUM(School!I:I)</f>
-        <v>1361.28</v>
+        <v>1657.21</v>
       </c>
       <c r="I4" s="5"/>
       <c r="J4" s="4"/>
@@ -1843,7 +1855,7 @@
       <c r="P4" s="5"/>
       <c r="Q4" s="5"/>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="10" t="s">
         <v>8</v>
@@ -1878,7 +1890,7 @@
       <c r="P5" s="5"/>
       <c r="Q5" s="5"/>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="10" t="s">
         <v>11</v>
@@ -1913,7 +1925,7 @@
       <c r="P6" s="5"/>
       <c r="Q6" s="5"/>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="10" t="s">
         <v>12</v>
@@ -1948,7 +1960,7 @@
       <c r="P7" s="5"/>
       <c r="Q7" s="5"/>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="10" t="s">
         <v>13</v>
@@ -1967,11 +1979,11 @@
       </c>
       <c r="G8" s="15">
         <f>SUM(G3:G7)</f>
-        <v>28.5</v>
+        <v>30</v>
       </c>
       <c r="H8" s="34">
         <f>SUM(H3:H7)</f>
-        <v>10239.139000000001</v>
+        <v>11126.929</v>
       </c>
       <c r="I8" s="5"/>
       <c r="J8" s="4"/>
@@ -1983,7 +1995,7 @@
       <c r="P8" s="5"/>
       <c r="Q8" s="5"/>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="10" t="s">
         <v>14</v>
@@ -2010,18 +2022,18 @@
       <c r="P9" s="5"/>
       <c r="Q9" s="5"/>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="12" t="s">
         <v>0</v>
       </c>
       <c r="C10" s="15">
         <f>SUM(C3:C9)</f>
-        <v>28.5</v>
+        <v>30</v>
       </c>
       <c r="D10" s="34">
         <f>SUM(D3:D9)</f>
-        <v>10239.139000000001</v>
+        <v>11126.929</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="4"/>
@@ -2037,7 +2049,7 @@
       <c r="P10" s="5"/>
       <c r="Q10" s="5"/>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="16"/>
@@ -2053,7 +2065,7 @@
       <c r="P11" s="5"/>
       <c r="Q11" s="5"/>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="16"/>
@@ -2069,7 +2081,7 @@
       <c r="P12" s="5"/>
       <c r="Q12" s="5"/>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="16"/>
@@ -2088,7 +2100,7 @@
       <c r="P13" s="5"/>
       <c r="Q13" s="5"/>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="16"/>
@@ -2107,7 +2119,7 @@
       <c r="P14" s="5"/>
       <c r="Q14" s="5"/>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="16"/>
@@ -2126,7 +2138,7 @@
       <c r="P15" s="5"/>
       <c r="Q15" s="5"/>
     </row>
-    <row r="16" spans="1:17">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="16"/>
@@ -2145,7 +2157,7 @@
       <c r="P16" s="5"/>
       <c r="Q16" s="5"/>
     </row>
-    <row r="17" spans="1:17">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="16"/>
@@ -2164,7 +2176,7 @@
       <c r="P17" s="5"/>
       <c r="Q17" s="5"/>
     </row>
-    <row r="18" spans="1:17">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="16"/>
@@ -2198,14 +2210,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.140625" style="65" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.42578125" style="57" bestFit="1" customWidth="1"/>
@@ -2220,7 +2230,7 @@
     <col min="11" max="16384" width="9.140625" style="57"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="69" t="s">
         <v>4</v>
       </c>
@@ -2252,7 +2262,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="58" t="s">
         <v>51</v>
       </c>
@@ -2289,7 +2299,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="58" t="s">
         <v>88</v>
       </c>
@@ -2326,22 +2336,30 @@
         <v>89</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="58"/>
-      <c r="B4" s="59"/>
-      <c r="C4" s="59"/>
-      <c r="D4" s="72"/>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="58" t="s">
+        <v>93</v>
+      </c>
+      <c r="B4" s="59" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="72">
+        <v>1</v>
+      </c>
       <c r="E4" s="61">
         <f>IF(ISERROR(MATCH(C4,SkillList,0)),0,MATCH(C4,SkillList,0))</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F4" s="61">
         <f>IF(ISERROR(MATCH(B4,MemberList,0)),0,MATCH(B4,MemberList,0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" s="62">
         <f>INDEX(CostPerHour,E4)</f>
-        <v>946.97</v>
+        <v>591.86</v>
       </c>
       <c r="H4" s="63">
         <f>IF(ISERROR(INDEX(Competency,F4,E4)), 0, INDEX(Competency,F4,E4))</f>
@@ -2349,11 +2367,13 @@
       </c>
       <c r="I4" s="62">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J4" s="64"/>
-    </row>
-    <row r="5" spans="1:10">
+        <v>591.86</v>
+      </c>
+      <c r="J4" s="64" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="58"/>
       <c r="B5" s="59"/>
       <c r="C5" s="59"/>
@@ -2380,7 +2400,7 @@
       </c>
       <c r="J5" s="64"/>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="58"/>
       <c r="B6" s="59"/>
       <c r="C6" s="59"/>
@@ -2422,14 +2442,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.7109375" style="65" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.42578125" style="57" bestFit="1" customWidth="1"/>
@@ -2444,7 +2464,7 @@
     <col min="11" max="16384" width="9.140625" style="57"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="53" t="s">
         <v>4</v>
       </c>
@@ -2476,9 +2496,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="58">
-        <v>42298</v>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="58" t="s">
+        <v>95</v>
       </c>
       <c r="B2" s="59" t="s">
         <v>14</v>
@@ -2511,9 +2531,9 @@
       </c>
       <c r="J2" s="64"/>
     </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="58">
-        <v>42299</v>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="58" t="s">
+        <v>75</v>
       </c>
       <c r="B3" s="59" t="s">
         <v>14</v>
@@ -2546,9 +2566,9 @@
       </c>
       <c r="J3" s="64"/>
     </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="58">
-        <v>42301</v>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="58" t="s">
+        <v>86</v>
       </c>
       <c r="B4" s="59" t="s">
         <v>14</v>
@@ -2581,34 +2601,44 @@
       </c>
       <c r="J4" s="64"/>
     </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="58"/>
-      <c r="B5" s="59"/>
-      <c r="C5" s="59"/>
-      <c r="D5" s="60"/>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="58" t="s">
+        <v>93</v>
+      </c>
+      <c r="B5" s="59" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="60">
+        <v>0.5</v>
+      </c>
       <c r="E5" s="61">
         <f>IF(ISERROR(MATCH(C5,SkillList,0)),0,MATCH(C5,SkillList,0))</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F5" s="61">
         <f>IF(ISERROR(MATCH(B5,MemberList,0)),0,MATCH(B5,MemberList,0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" s="62">
         <f>INDEX(CostPerHour,E5)</f>
-        <v>355.11</v>
+        <v>591.86</v>
       </c>
       <c r="H5" s="63">
         <f>IF(ISERROR(INDEX(Competency,F5,E5)), 0, INDEX(Competency,F5,E5))</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I5" s="62">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J5" s="64"/>
-    </row>
-    <row r="6" spans="1:10">
+        <v>295.93</v>
+      </c>
+      <c r="J5" s="64" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="58"/>
       <c r="B6" s="59"/>
       <c r="C6" s="59"/>
@@ -2649,14 +2679,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.140625" style="65" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.42578125" style="57" bestFit="1" customWidth="1"/>
@@ -2671,7 +2701,7 @@
     <col min="11" max="16384" width="9.140625" style="57"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="53" t="s">
         <v>4</v>
       </c>
@@ -2703,7 +2733,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="58"/>
       <c r="B2" s="59" t="s">
         <v>8</v>
@@ -2713,19 +2743,19 @@
       </c>
       <c r="D2" s="60"/>
       <c r="E2" s="61">
-        <f>IF(ISERROR(MATCH(C2,SkillList,0)),0,MATCH(C2,SkillList,0))</f>
+        <f t="shared" ref="E2:E7" si="0">IF(ISERROR(MATCH(C2,SkillList,0)),0,MATCH(C2,SkillList,0))</f>
         <v>8</v>
       </c>
       <c r="F2" s="61">
-        <f>IF(ISERROR(MATCH(B2,MemberList,0)),0,MATCH(B2,MemberList,0))</f>
+        <f t="shared" ref="F2:F7" si="1">IF(ISERROR(MATCH(B2,MemberList,0)),0,MATCH(B2,MemberList,0))</f>
         <v>3</v>
       </c>
       <c r="G2" s="62">
-        <f>INDEX(CostPerHour,E2)</f>
+        <f t="shared" ref="G2:G7" si="2">INDEX(CostPerHour,E2)</f>
         <v>236.74</v>
       </c>
       <c r="H2" s="63">
-        <f>IF(ISERROR(INDEX(Competency,F2,E2)), 0, INDEX(Competency,F2,E2))</f>
+        <f t="shared" ref="H2:H7" si="3">IF(ISERROR(INDEX(Competency,F2,E2)), 0, INDEX(Competency,F2,E2))</f>
         <v>0</v>
       </c>
       <c r="I2" s="62">
@@ -2734,7 +2764,7 @@
       </c>
       <c r="J2" s="64"/>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="58"/>
       <c r="B3" s="59" t="s">
         <v>8</v>
@@ -2744,28 +2774,28 @@
       </c>
       <c r="D3" s="60"/>
       <c r="E3" s="61">
-        <f>IF(ISERROR(MATCH(C3,SkillList,0)),0,MATCH(C3,SkillList,0))</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="F3" s="61">
-        <f>IF(ISERROR(MATCH(B3,MemberList,0)),0,MATCH(B3,MemberList,0))</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="G3" s="62">
-        <f>INDEX(CostPerHour,E3)</f>
+        <f t="shared" si="2"/>
         <v>236.74</v>
       </c>
       <c r="H3" s="63">
-        <f>IF(ISERROR(INDEX(Competency,F3,E3)), 0, INDEX(Competency,F3,E3))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I3" s="62">
-        <f t="shared" ref="I3:I5" si="0">D3*G3*H3</f>
+        <f t="shared" ref="I3:I5" si="4">D3*G3*H3</f>
         <v>0</v>
       </c>
       <c r="J3" s="64"/>
     </row>
-    <row r="4" spans="1:10" ht="30">
+    <row r="4" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="58" t="s">
         <v>75</v>
       </c>
@@ -2779,30 +2809,30 @@
         <v>4</v>
       </c>
       <c r="E4" s="61">
-        <f>IF(ISERROR(MATCH(C4,SkillList,0)),0,MATCH(C4,SkillList,0))</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="F4" s="61">
-        <f>IF(ISERROR(MATCH(B4,MemberList,0)),0,MATCH(B4,MemberList,0))</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G4" s="62">
-        <f>INDEX(CostPerHour,E4)</f>
+        <f t="shared" si="2"/>
         <v>591.86</v>
       </c>
       <c r="H4" s="63">
-        <f>IF(ISERROR(INDEX(Competency,F4,E4)), 0, INDEX(Competency,F4,E4))</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="I4" s="62">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>2367.44</v>
       </c>
       <c r="J4" s="64" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="58" t="s">
         <v>75</v>
       </c>
@@ -2816,30 +2846,30 @@
         <v>4</v>
       </c>
       <c r="E5" s="61">
-        <f>IF(ISERROR(MATCH(C5,SkillList,0)),0,MATCH(C5,SkillList,0))</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="F5" s="61">
-        <f>IF(ISERROR(MATCH(B5,MemberList,0)),0,MATCH(B5,MemberList,0))</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="G5" s="62">
-        <f>INDEX(CostPerHour,E5)</f>
+        <f t="shared" si="2"/>
         <v>236.74</v>
       </c>
       <c r="H5" s="63">
-        <f>IF(ISERROR(INDEX(Competency,F5,E5)), 0, INDEX(Competency,F5,E5))</f>
+        <f t="shared" si="3"/>
         <v>0.2</v>
       </c>
       <c r="I5" s="62">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>189.39200000000002</v>
       </c>
       <c r="J5" s="64" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="58" t="s">
         <v>86</v>
       </c>
@@ -2853,30 +2883,30 @@
         <v>1</v>
       </c>
       <c r="E6" s="61">
-        <f>IF(ISERROR(MATCH(C6,SkillList,0)),0,MATCH(C6,SkillList,0))</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="F6" s="61">
-        <f>IF(ISERROR(MATCH(B6,MemberList,0)),0,MATCH(B6,MemberList,0))</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G6" s="62">
-        <f>INDEX(CostPerHour,E6)</f>
+        <f t="shared" si="2"/>
         <v>236.74</v>
       </c>
       <c r="H6" s="63">
-        <f>IF(ISERROR(INDEX(Competency,F6,E6)), 0, INDEX(Competency,F6,E6))</f>
+        <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
       <c r="I6" s="62">
-        <f t="shared" ref="I6:I7" si="1">D6*G6*H6</f>
+        <f t="shared" ref="I6:I7" si="5">D6*G6*H6</f>
         <v>118.37</v>
       </c>
       <c r="J6" s="64" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="58" t="s">
         <v>86</v>
       </c>
@@ -2890,30 +2920,30 @@
         <v>1</v>
       </c>
       <c r="E7" s="61">
-        <f>IF(ISERROR(MATCH(C7,SkillList,0)),0,MATCH(C7,SkillList,0))</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="F7" s="61">
-        <f>IF(ISERROR(MATCH(B7,MemberList,0)),0,MATCH(B7,MemberList,0))</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="G7" s="62">
-        <f>INDEX(CostPerHour,E7)</f>
+        <f t="shared" si="2"/>
         <v>236.74</v>
       </c>
       <c r="H7" s="63">
-        <f>IF(ISERROR(INDEX(Competency,F7,E7)), 0, INDEX(Competency,F7,E7))</f>
+        <f t="shared" si="3"/>
         <v>0.2</v>
       </c>
       <c r="I7" s="62">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>47.348000000000006</v>
       </c>
       <c r="J7" s="64" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="58"/>
       <c r="B8" s="59"/>
       <c r="C8" s="59"/>
@@ -2939,14 +2969,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.140625" style="65" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.42578125" style="57" bestFit="1" customWidth="1"/>
@@ -2961,7 +2991,7 @@
     <col min="11" max="16384" width="9.140625" style="57"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="53" t="s">
         <v>4</v>
       </c>
@@ -2993,7 +3023,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="58" t="s">
         <v>75</v>
       </c>
@@ -3030,7 +3060,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="58" t="s">
         <v>75</v>
       </c>
@@ -3067,7 +3097,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="58" t="s">
         <v>75</v>
       </c>
@@ -3104,7 +3134,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="58"/>
       <c r="B5" s="59"/>
       <c r="C5" s="59"/>
@@ -3131,7 +3161,7 @@
       </c>
       <c r="J5" s="64"/>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="58"/>
       <c r="B6" s="59"/>
       <c r="C6" s="59"/>
@@ -3172,14 +3202,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.140625" style="65" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.42578125" style="57" bestFit="1" customWidth="1"/>
@@ -3194,7 +3224,7 @@
     <col min="11" max="16384" width="9.140625" style="57"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="53" t="s">
         <v>4</v>
       </c>
@@ -3226,7 +3256,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="58" t="s">
         <v>84</v>
       </c>
@@ -3263,7 +3293,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="58"/>
       <c r="B3" s="59"/>
       <c r="C3" s="59"/>
@@ -3290,7 +3320,7 @@
       </c>
       <c r="J3" s="64"/>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="58"/>
       <c r="B4" s="59"/>
       <c r="C4" s="59"/>
@@ -3317,7 +3347,7 @@
       </c>
       <c r="J4" s="64"/>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="58"/>
       <c r="B5" s="59"/>
       <c r="C5" s="59"/>
@@ -3344,7 +3374,7 @@
       </c>
       <c r="J5" s="64"/>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="58"/>
       <c r="B6" s="59"/>
       <c r="C6" s="59"/>
@@ -3385,14 +3415,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:AI5"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.42578125" bestFit="1" customWidth="1"/>
@@ -3405,7 +3435,7 @@
     <col min="30" max="35" width="4.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="15" customHeight="1" thickBot="1">
+    <row r="1" spans="1:35" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="91" t="s">
         <v>81</v>
       </c>
@@ -3446,7 +3476,7 @@
       <c r="AH1" s="89"/>
       <c r="AI1" s="90"/>
     </row>
-    <row r="2" spans="1:35" s="26" customFormat="1" ht="15" customHeight="1">
+    <row r="2" spans="1:35" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="92"/>
       <c r="B2" s="92"/>
       <c r="C2" s="93" t="s">
@@ -3493,7 +3523,7 @@
       <c r="AH2" s="86"/>
       <c r="AI2" s="87"/>
     </row>
-    <row r="3" spans="1:35" ht="180">
+    <row r="3" spans="1:35" ht="180" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>5</v>
       </c>
@@ -3600,7 +3630,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:35">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" s="23">
         <v>1</v>
       </c>
@@ -3707,7 +3737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" s="23">
         <v>2</v>
       </c>
@@ -3814,7 +3844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" s="23">
         <v>3</v>
       </c>
@@ -3855,7 +3885,7 @@
       <c r="AH6" s="35"/>
       <c r="AI6" s="44"/>
     </row>
-    <row r="7" spans="1:35">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" s="23">
         <v>4</v>
       </c>
@@ -3896,7 +3926,7 @@
       <c r="AH7" s="35"/>
       <c r="AI7" s="44"/>
     </row>
-    <row r="8" spans="1:35">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" s="23">
         <v>5</v>
       </c>
@@ -3937,7 +3967,7 @@
       <c r="AH8" s="35"/>
       <c r="AI8" s="44"/>
     </row>
-    <row r="9" spans="1:35">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" s="23">
         <v>6</v>
       </c>
@@ -3978,7 +4008,7 @@
       <c r="AH9" s="35"/>
       <c r="AI9" s="44"/>
     </row>
-    <row r="10" spans="1:35" ht="15.75" thickBot="1">
+    <row r="10" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="23">
         <v>7</v>
       </c>
@@ -4101,12 +4131,12 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.42578125" style="27" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="3" bestFit="1" customWidth="1"/>
@@ -4116,7 +4146,7 @@
     <col min="7" max="7" width="13.140625" style="29" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>69</v>
       </c>
@@ -4139,7 +4169,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="99" t="s">
         <v>25</v>
       </c>
@@ -4166,7 +4196,7 @@
       </c>
       <c r="H2" s="73"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="100"/>
       <c r="B3" s="9">
         <v>2</v>
@@ -4191,7 +4221,7 @@
       </c>
       <c r="H3" s="73"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="100"/>
       <c r="B4" s="9">
         <v>3</v>
@@ -4216,7 +4246,7 @@
       </c>
       <c r="H4" s="73"/>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="100"/>
       <c r="B5" s="9">
         <v>4</v>
@@ -4241,7 +4271,7 @@
       </c>
       <c r="H5" s="73"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="100"/>
       <c r="B6" s="9">
         <v>5</v>
@@ -4266,7 +4296,7 @@
       </c>
       <c r="H6" s="73"/>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="101"/>
       <c r="B7" s="9">
         <v>6</v>
@@ -4291,7 +4321,7 @@
       </c>
       <c r="H7" s="73"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="99" t="s">
         <v>29</v>
       </c>
@@ -4317,7 +4347,7 @@
         <v>591.86</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="100"/>
       <c r="B9" s="9">
         <v>8</v>
@@ -4341,7 +4371,7 @@
         <v>236.74</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="100"/>
       <c r="B10" s="9">
         <v>9</v>
@@ -4365,7 +4395,7 @@
         <v>177.56</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="100"/>
       <c r="B11" s="9">
         <v>10</v>
@@ -4389,7 +4419,7 @@
         <v>591.86</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="100"/>
       <c r="B12" s="9">
         <v>11</v>
@@ -4413,7 +4443,7 @@
         <v>177.56</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="100"/>
       <c r="B13" s="9">
         <v>12</v>
@@ -4437,7 +4467,7 @@
         <v>118.37</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="100"/>
       <c r="B14" s="9">
         <v>13</v>
@@ -4461,7 +4491,7 @@
         <v>118.37</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="100"/>
       <c r="B15" s="9">
         <v>14</v>
@@ -4485,7 +4515,7 @@
         <v>295.93</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="100"/>
       <c r="B16" s="9">
         <v>15</v>
@@ -4509,7 +4539,7 @@
         <v>118.37</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="99" t="s">
         <v>67</v>
       </c>
@@ -4535,7 +4565,7 @@
         <v>177.56</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="100"/>
       <c r="B18" s="9">
         <v>17</v>
@@ -4559,7 +4589,7 @@
         <v>71.02</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="100"/>
       <c r="B19" s="9">
         <v>18</v>
@@ -4583,7 +4613,7 @@
         <v>35.51</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="100"/>
       <c r="B20" s="9">
         <v>19</v>
@@ -4607,7 +4637,7 @@
         <v>236.74</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="100"/>
       <c r="B21" s="9">
         <v>20</v>
@@ -4631,7 +4661,7 @@
         <v>71.02</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="100"/>
       <c r="B22" s="9">
         <v>21</v>
@@ -4655,7 +4685,7 @@
         <v>35.51</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="100"/>
       <c r="B23" s="9">
         <v>22</v>
@@ -4679,7 +4709,7 @@
         <v>71.02</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="100"/>
       <c r="B24" s="9">
         <v>23</v>
@@ -4703,7 +4733,7 @@
         <v>35.51</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="100"/>
       <c r="B25" s="9">
         <v>24</v>
@@ -4727,7 +4757,7 @@
         <v>35.51</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="101"/>
       <c r="B26" s="9">
         <v>25</v>
@@ -4751,7 +4781,7 @@
         <v>71.02</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="99" t="s">
         <v>68</v>
       </c>
@@ -4777,7 +4807,7 @@
         <v>295.93</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="100"/>
       <c r="B28" s="9">
         <v>27</v>
@@ -4801,7 +4831,7 @@
         <v>71.02</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="100"/>
       <c r="B29" s="9">
         <v>28</v>
@@ -4825,7 +4855,7 @@
         <v>177.56</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="101"/>
       <c r="B30" s="9">
         <v>29</v>
@@ -4849,7 +4879,7 @@
         <v>71.02</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="99" t="s">
         <v>28</v>
       </c>
@@ -4875,7 +4905,7 @@
         <v>35.51</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="100"/>
       <c r="B32" s="9">
         <v>31</v>
@@ -4899,7 +4929,7 @@
         <v>35.51</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="100"/>
       <c r="B33" s="9">
         <v>32</v>
@@ -4923,7 +4953,7 @@
         <v>71.02</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="100"/>
       <c r="B34" s="9">
         <v>33</v>

--- a/Project Management/Effort Calculation.xlsx
+++ b/Project Management/Effort Calculation.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="330" windowWidth="18795" windowHeight="11700" tabRatio="785"/>
+    <workbookView xWindow="360" yWindow="330" windowWidth="18795" windowHeight="11700" tabRatio="785" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="8" r:id="rId1"/>
@@ -319,7 +319,7 @@
     <t>21.10.2015</t>
   </si>
   <si>
-    <t>Discussion on how to progress with requirement</t>
+    <t>Discussion on how to progress with requirement, Changing model</t>
   </si>
 </sst>
 </file>
@@ -1355,7 +1355,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:O20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1523,7 +1523,7 @@
       <c r="G11" s="77"/>
       <c r="H11" s="81">
         <f>Summery!D10</f>
-        <v>11126.929</v>
+        <v>11422.859</v>
       </c>
       <c r="I11" s="82"/>
       <c r="J11" s="83"/>
@@ -1544,7 +1544,7 @@
       <c r="G12" s="77"/>
       <c r="H12" s="78">
         <f>Summery!C10</f>
-        <v>30</v>
+        <v>30.5</v>
       </c>
       <c r="I12" s="79"/>
       <c r="J12" s="80"/>
@@ -1565,7 +1565,7 @@
       <c r="G13" s="77"/>
       <c r="H13" s="78">
         <f>H12/8</f>
-        <v>3.75</v>
+        <v>3.8125</v>
       </c>
       <c r="I13" s="79"/>
       <c r="J13" s="80"/>
@@ -1792,11 +1792,11 @@
       </c>
       <c r="C3" s="14">
         <f>SUMIF(Business!B:B,B3,Business!D:D) + SUMIF(School!B:B,B3,School!D:D) + SUMIF(Service!B:B,B3,Service!D:D)+SUMIF(Retail!B:B,B3,Retail!D:D) + SUMIF(Tourism!B:B,B3,Tourism!D:D)</f>
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="D3" s="33">
         <f>SUMIF(Business!B:B,B3,Business!I:I) + SUMIF(School!B:B,B3,School!I:I) + SUMIF(Service!B:B,B3,Service!I:I)+SUMIF(Retail!B:B,B3,Retail!I:I) + SUMIF(Tourism!B:B,B3,Tourism!I:I)</f>
-        <v>8108.4449999999997</v>
+        <v>8404.375</v>
       </c>
       <c r="E3" s="5"/>
       <c r="F3" s="10" t="s">
@@ -1839,11 +1839,11 @@
       </c>
       <c r="G4" s="14">
         <f>SUM(School!D:D)</f>
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="H4" s="33">
         <f>SUM(School!I:I)</f>
-        <v>1657.21</v>
+        <v>1953.1399999999999</v>
       </c>
       <c r="I4" s="5"/>
       <c r="J4" s="4"/>
@@ -1979,11 +1979,11 @@
       </c>
       <c r="G8" s="15">
         <f>SUM(G3:G7)</f>
-        <v>30</v>
+        <v>30.5</v>
       </c>
       <c r="H8" s="34">
         <f>SUM(H3:H7)</f>
-        <v>11126.929</v>
+        <v>11422.859</v>
       </c>
       <c r="I8" s="5"/>
       <c r="J8" s="4"/>
@@ -2029,11 +2029,11 @@
       </c>
       <c r="C10" s="15">
         <f>SUM(C3:C9)</f>
-        <v>30</v>
+        <v>30.5</v>
       </c>
       <c r="D10" s="34">
         <f>SUM(D3:D9)</f>
-        <v>11126.929</v>
+        <v>11422.859</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="4"/>
@@ -2445,8 +2445,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2612,7 +2612,7 @@
         <v>3</v>
       </c>
       <c r="D5" s="60">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E5" s="61">
         <f>IF(ISERROR(MATCH(C5,SkillList,0)),0,MATCH(C5,SkillList,0))</f>
@@ -2632,7 +2632,7 @@
       </c>
       <c r="I5" s="62">
         <f t="shared" si="0"/>
-        <v>295.93</v>
+        <v>591.86</v>
       </c>
       <c r="J5" s="64" t="s">
         <v>96</v>

--- a/Project Management/Effort Calculation.xlsx
+++ b/Project Management/Effort Calculation.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="99">
   <si>
     <t>Total</t>
   </si>
@@ -320,6 +320,12 @@
   </si>
   <si>
     <t>Discussion on how to progress with requirement, Changing model</t>
+  </si>
+  <si>
+    <t>27.10.2015</t>
+  </si>
+  <si>
+    <t>Adding requirement using use case and class diagram</t>
   </si>
 </sst>
 </file>
@@ -1523,7 +1529,7 @@
       <c r="G11" s="77"/>
       <c r="H11" s="81">
         <f>Summery!D10</f>
-        <v>11422.859</v>
+        <v>11600.419000000002</v>
       </c>
       <c r="I11" s="82"/>
       <c r="J11" s="83"/>
@@ -1544,7 +1550,7 @@
       <c r="G12" s="77"/>
       <c r="H12" s="78">
         <f>Summery!C10</f>
-        <v>30.5</v>
+        <v>31.5</v>
       </c>
       <c r="I12" s="79"/>
       <c r="J12" s="80"/>
@@ -1565,7 +1571,7 @@
       <c r="G13" s="77"/>
       <c r="H13" s="78">
         <f>H12/8</f>
-        <v>3.8125</v>
+        <v>3.9375</v>
       </c>
       <c r="I13" s="79"/>
       <c r="J13" s="80"/>
@@ -1792,11 +1798,11 @@
       </c>
       <c r="C3" s="14">
         <f>SUMIF(Business!B:B,B3,Business!D:D) + SUMIF(School!B:B,B3,School!D:D) + SUMIF(Service!B:B,B3,Service!D:D)+SUMIF(Retail!B:B,B3,Retail!D:D) + SUMIF(Tourism!B:B,B3,Tourism!D:D)</f>
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="D3" s="33">
         <f>SUMIF(Business!B:B,B3,Business!I:I) + SUMIF(School!B:B,B3,School!I:I) + SUMIF(Service!B:B,B3,Service!I:I)+SUMIF(Retail!B:B,B3,Retail!I:I) + SUMIF(Tourism!B:B,B3,Tourism!I:I)</f>
-        <v>8404.375</v>
+        <v>8581.9350000000013</v>
       </c>
       <c r="E3" s="5"/>
       <c r="F3" s="10" t="s">
@@ -1839,11 +1845,11 @@
       </c>
       <c r="G4" s="14">
         <f>SUM(School!D:D)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H4" s="33">
         <f>SUM(School!I:I)</f>
-        <v>1953.1399999999999</v>
+        <v>2130.6999999999998</v>
       </c>
       <c r="I4" s="5"/>
       <c r="J4" s="4"/>
@@ -1979,11 +1985,11 @@
       </c>
       <c r="G8" s="15">
         <f>SUM(G3:G7)</f>
-        <v>30.5</v>
+        <v>31.5</v>
       </c>
       <c r="H8" s="34">
         <f>SUM(H3:H7)</f>
-        <v>11422.859</v>
+        <v>11600.419</v>
       </c>
       <c r="I8" s="5"/>
       <c r="J8" s="4"/>
@@ -2029,11 +2035,11 @@
       </c>
       <c r="C10" s="15">
         <f>SUM(C3:C9)</f>
-        <v>30.5</v>
+        <v>31.5</v>
       </c>
       <c r="D10" s="34">
         <f>SUM(D3:D9)</f>
-        <v>11422.859</v>
+        <v>11600.419000000002</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="4"/>
@@ -2213,7 +2219,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2443,10 +2451,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2561,7 +2569,7 @@
         <v>0.5</v>
       </c>
       <c r="I3" s="62">
-        <f t="shared" ref="I3:I6" si="0">D3*G3*H3</f>
+        <f t="shared" ref="I3:I5" si="0">D3*G3*H3</f>
         <v>591.86</v>
       </c>
       <c r="J3" s="64"/>
@@ -2639,31 +2647,101 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="58"/>
-      <c r="B6" s="59"/>
-      <c r="C6" s="59"/>
-      <c r="D6" s="60"/>
+      <c r="A6" s="58" t="s">
+        <v>97</v>
+      </c>
+      <c r="B6" s="59" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="59" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="60">
+        <v>1</v>
+      </c>
       <c r="E6" s="61">
         <f>IF(ISERROR(MATCH(C6,SkillList,0)),0,MATCH(C6,SkillList,0))</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F6" s="61">
         <f>IF(ISERROR(MATCH(B6,MemberList,0)),0,MATCH(B6,MemberList,0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" s="62">
         <f>INDEX(CostPerHour,E6)</f>
-        <v>355.11</v>
+        <v>177.56</v>
       </c>
       <c r="H6" s="63">
         <f>IF(ISERROR(INDEX(Competency,F6,E6)), 0, INDEX(Competency,F6,E6))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" s="62">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J6" s="64"/>
+        <f t="shared" ref="I6" si="1">D6*G6*H6</f>
+        <v>177.56</v>
+      </c>
+      <c r="J6" s="64" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="58"/>
+      <c r="B7" s="59"/>
+      <c r="C7" s="59"/>
+      <c r="D7" s="60"/>
+      <c r="E7" s="61"/>
+      <c r="F7" s="61"/>
+      <c r="G7" s="62"/>
+      <c r="H7" s="63"/>
+      <c r="I7" s="62"/>
+      <c r="J7" s="64"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="58"/>
+      <c r="B8" s="59"/>
+      <c r="C8" s="59"/>
+      <c r="D8" s="60"/>
+      <c r="E8" s="61"/>
+      <c r="F8" s="61"/>
+      <c r="G8" s="62"/>
+      <c r="H8" s="63"/>
+      <c r="I8" s="62"/>
+      <c r="J8" s="64"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="58"/>
+      <c r="B9" s="59"/>
+      <c r="C9" s="59"/>
+      <c r="D9" s="60"/>
+      <c r="E9" s="61"/>
+      <c r="F9" s="61"/>
+      <c r="G9" s="62"/>
+      <c r="H9" s="63"/>
+      <c r="I9" s="62"/>
+      <c r="J9" s="64"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="58"/>
+      <c r="B10" s="59"/>
+      <c r="C10" s="59"/>
+      <c r="D10" s="60"/>
+      <c r="E10" s="61"/>
+      <c r="F10" s="61"/>
+      <c r="G10" s="62"/>
+      <c r="H10" s="63"/>
+      <c r="I10" s="62"/>
+      <c r="J10" s="64"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="58"/>
+      <c r="B11" s="59"/>
+      <c r="C11" s="59"/>
+      <c r="D11" s="60"/>
+      <c r="E11" s="61"/>
+      <c r="F11" s="61"/>
+      <c r="G11" s="62"/>
+      <c r="H11" s="63"/>
+      <c r="I11" s="62"/>
+      <c r="J11" s="64"/>
     </row>
   </sheetData>
   <dataValidations count="2">

--- a/Project Management/Effort Calculation.xlsx
+++ b/Project Management/Effort Calculation.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="330" windowWidth="18795" windowHeight="11700" tabRatio="785" activeTab="3"/>
+    <workbookView xWindow="360" yWindow="330" windowWidth="18795" windowHeight="11700" tabRatio="785"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="8" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="101">
   <si>
     <t>Total</t>
   </si>
@@ -326,6 +326,12 @@
   </si>
   <si>
     <t>Adding requirement using use case and class diagram</t>
+  </si>
+  <si>
+    <t>27.10.2016</t>
+  </si>
+  <si>
+    <t>Calculating sales commision, and how it will fit</t>
   </si>
 </sst>
 </file>
@@ -1361,7 +1367,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:O20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1529,7 +1535,7 @@
       <c r="G11" s="77"/>
       <c r="H11" s="81">
         <f>Summery!D10</f>
-        <v>11600.419000000002</v>
+        <v>11896.349</v>
       </c>
       <c r="I11" s="82"/>
       <c r="J11" s="83"/>
@@ -1550,7 +1556,7 @@
       <c r="G12" s="77"/>
       <c r="H12" s="78">
         <f>Summery!C10</f>
-        <v>31.5</v>
+        <v>32</v>
       </c>
       <c r="I12" s="79"/>
       <c r="J12" s="80"/>
@@ -1571,7 +1577,7 @@
       <c r="G13" s="77"/>
       <c r="H13" s="78">
         <f>H12/8</f>
-        <v>3.9375</v>
+        <v>4</v>
       </c>
       <c r="I13" s="79"/>
       <c r="J13" s="80"/>
@@ -1798,11 +1804,11 @@
       </c>
       <c r="C3" s="14">
         <f>SUMIF(Business!B:B,B3,Business!D:D) + SUMIF(School!B:B,B3,School!D:D) + SUMIF(Service!B:B,B3,Service!D:D)+SUMIF(Retail!B:B,B3,Retail!D:D) + SUMIF(Tourism!B:B,B3,Tourism!D:D)</f>
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="D3" s="33">
         <f>SUMIF(Business!B:B,B3,Business!I:I) + SUMIF(School!B:B,B3,School!I:I) + SUMIF(Service!B:B,B3,Service!I:I)+SUMIF(Retail!B:B,B3,Retail!I:I) + SUMIF(Tourism!B:B,B3,Tourism!I:I)</f>
-        <v>8581.9350000000013</v>
+        <v>8877.8649999999998</v>
       </c>
       <c r="E3" s="5"/>
       <c r="F3" s="10" t="s">
@@ -1950,11 +1956,11 @@
       </c>
       <c r="G7" s="14">
         <f>SUM(Tourism!D:D)</f>
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="H7" s="33">
         <f>SUM(Tourism!I:I)</f>
-        <v>1775.58</v>
+        <v>2071.5099999999998</v>
       </c>
       <c r="I7" s="5"/>
       <c r="J7" s="4"/>
@@ -1985,11 +1991,11 @@
       </c>
       <c r="G8" s="15">
         <f>SUM(G3:G7)</f>
-        <v>31.5</v>
+        <v>32</v>
       </c>
       <c r="H8" s="34">
         <f>SUM(H3:H7)</f>
-        <v>11600.419</v>
+        <v>11896.349</v>
       </c>
       <c r="I8" s="5"/>
       <c r="J8" s="4"/>
@@ -2035,11 +2041,11 @@
       </c>
       <c r="C10" s="15">
         <f>SUM(C3:C9)</f>
-        <v>31.5</v>
+        <v>32</v>
       </c>
       <c r="D10" s="34">
         <f>SUM(D3:D9)</f>
-        <v>11600.419000000002</v>
+        <v>11896.349</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="4"/>
@@ -2453,7 +2459,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
@@ -3284,7 +3290,7 @@
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3372,31 +3378,41 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="58"/>
-      <c r="B3" s="59"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="60"/>
+      <c r="A3" s="58" t="s">
+        <v>99</v>
+      </c>
+      <c r="B3" s="59" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="60">
+        <v>0.5</v>
+      </c>
       <c r="E3" s="61">
         <f>IF(ISERROR(MATCH(C3,SkillList,0)),0,MATCH(C3,SkillList,0))</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F3" s="61">
         <f>IF(ISERROR(MATCH(B3,MemberList,0)),0,MATCH(B3,MemberList,0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" s="62">
         <f>INDEX(CostPerHour,E3)</f>
-        <v>946.97</v>
+        <v>591.86</v>
       </c>
       <c r="H3" s="63">
         <f>IF(ISERROR(INDEX(Competency,F3,E3)), 0, INDEX(Competency,F3,E3))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" s="62">
         <f t="shared" ref="I3:I6" si="0">D3*G3*H3</f>
-        <v>0</v>
-      </c>
-      <c r="J3" s="64"/>
+        <v>295.93</v>
+      </c>
+      <c r="J3" s="64" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="58"/>

--- a/Project Management/Effort Calculation.xlsx
+++ b/Project Management/Effort Calculation.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="330" windowWidth="18795" windowHeight="11700" tabRatio="785"/>
+    <workbookView xWindow="360" yWindow="330" windowWidth="18795" windowHeight="11700" tabRatio="785" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="8" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="102">
   <si>
     <t>Total</t>
   </si>
@@ -332,6 +332,9 @@
   </si>
   <si>
     <t>Calculating sales commision, and how it will fit</t>
+  </si>
+  <si>
+    <t>28.10.2015</t>
   </si>
 </sst>
 </file>
@@ -1367,7 +1370,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:O20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1535,7 +1538,7 @@
       <c r="G11" s="77"/>
       <c r="H11" s="81">
         <f>Summery!D10</f>
-        <v>11896.349</v>
+        <v>12073.909</v>
       </c>
       <c r="I11" s="82"/>
       <c r="J11" s="83"/>
@@ -1556,7 +1559,7 @@
       <c r="G12" s="77"/>
       <c r="H12" s="78">
         <f>Summery!C10</f>
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I12" s="79"/>
       <c r="J12" s="80"/>
@@ -1577,7 +1580,7 @@
       <c r="G13" s="77"/>
       <c r="H13" s="78">
         <f>H12/8</f>
-        <v>4</v>
+        <v>4.125</v>
       </c>
       <c r="I13" s="79"/>
       <c r="J13" s="80"/>
@@ -1804,11 +1807,11 @@
       </c>
       <c r="C3" s="14">
         <f>SUMIF(Business!B:B,B3,Business!D:D) + SUMIF(School!B:B,B3,School!D:D) + SUMIF(Service!B:B,B3,Service!D:D)+SUMIF(Retail!B:B,B3,Retail!D:D) + SUMIF(Tourism!B:B,B3,Tourism!D:D)</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D3" s="33">
         <f>SUMIF(Business!B:B,B3,Business!I:I) + SUMIF(School!B:B,B3,School!I:I) + SUMIF(Service!B:B,B3,Service!I:I)+SUMIF(Retail!B:B,B3,Retail!I:I) + SUMIF(Tourism!B:B,B3,Tourism!I:I)</f>
-        <v>8877.8649999999998</v>
+        <v>9055.4249999999993</v>
       </c>
       <c r="E3" s="5"/>
       <c r="F3" s="10" t="s">
@@ -1851,11 +1854,11 @@
       </c>
       <c r="G4" s="14">
         <f>SUM(School!D:D)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H4" s="33">
         <f>SUM(School!I:I)</f>
-        <v>2130.6999999999998</v>
+        <v>2308.2599999999998</v>
       </c>
       <c r="I4" s="5"/>
       <c r="J4" s="4"/>
@@ -1991,11 +1994,11 @@
       </c>
       <c r="G8" s="15">
         <f>SUM(G3:G7)</f>
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H8" s="34">
         <f>SUM(H3:H7)</f>
-        <v>11896.349</v>
+        <v>12073.909</v>
       </c>
       <c r="I8" s="5"/>
       <c r="J8" s="4"/>
@@ -2041,11 +2044,11 @@
       </c>
       <c r="C10" s="15">
         <f>SUM(C3:C9)</f>
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D10" s="34">
         <f>SUM(D3:D9)</f>
-        <v>11896.349</v>
+        <v>12073.909</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="4"/>
@@ -2459,8 +2462,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2682,7 +2685,7 @@
         <v>1</v>
       </c>
       <c r="I6" s="62">
-        <f t="shared" ref="I6" si="1">D6*G6*H6</f>
+        <f t="shared" ref="I6:I11" si="1">D6*G6*H6</f>
         <v>177.56</v>
       </c>
       <c r="J6" s="64" t="s">
@@ -2690,15 +2693,38 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="58"/>
-      <c r="B7" s="59"/>
-      <c r="C7" s="59"/>
-      <c r="D7" s="60"/>
-      <c r="E7" s="61"/>
-      <c r="F7" s="61"/>
-      <c r="G7" s="62"/>
-      <c r="H7" s="63"/>
-      <c r="I7" s="62"/>
+      <c r="A7" s="58" t="s">
+        <v>101</v>
+      </c>
+      <c r="B7" s="59" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="59" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="60">
+        <v>1</v>
+      </c>
+      <c r="E7" s="61">
+        <f>IF(ISERROR(MATCH(C7,SkillList,0)),0,MATCH(C7,SkillList,0))</f>
+        <v>9</v>
+      </c>
+      <c r="F7" s="61">
+        <f>IF(ISERROR(MATCH(B7,MemberList,0)),0,MATCH(B7,MemberList,0))</f>
+        <v>1</v>
+      </c>
+      <c r="G7" s="62">
+        <f>INDEX(CostPerHour,E7)</f>
+        <v>177.56</v>
+      </c>
+      <c r="H7" s="63">
+        <f>IF(ISERROR(INDEX(Competency,F7,E7)), 0, INDEX(Competency,F7,E7))</f>
+        <v>1</v>
+      </c>
+      <c r="I7" s="62">
+        <f t="shared" si="1"/>
+        <v>177.56</v>
+      </c>
       <c r="J7" s="64"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -2706,11 +2732,26 @@
       <c r="B8" s="59"/>
       <c r="C8" s="59"/>
       <c r="D8" s="60"/>
-      <c r="E8" s="61"/>
-      <c r="F8" s="61"/>
-      <c r="G8" s="62"/>
-      <c r="H8" s="63"/>
-      <c r="I8" s="62"/>
+      <c r="E8" s="61">
+        <f>IF(ISERROR(MATCH(C8,SkillList,0)),0,MATCH(C8,SkillList,0))</f>
+        <v>0</v>
+      </c>
+      <c r="F8" s="61">
+        <f>IF(ISERROR(MATCH(B8,MemberList,0)),0,MATCH(B8,MemberList,0))</f>
+        <v>0</v>
+      </c>
+      <c r="G8" s="62">
+        <f>INDEX(CostPerHour,E8)</f>
+        <v>591.86</v>
+      </c>
+      <c r="H8" s="63">
+        <f>IF(ISERROR(INDEX(Competency,F8,E8)), 0, INDEX(Competency,F8,E8))</f>
+        <v>0</v>
+      </c>
+      <c r="I8" s="62">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="J8" s="64"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -2718,11 +2759,26 @@
       <c r="B9" s="59"/>
       <c r="C9" s="59"/>
       <c r="D9" s="60"/>
-      <c r="E9" s="61"/>
-      <c r="F9" s="61"/>
-      <c r="G9" s="62"/>
-      <c r="H9" s="63"/>
-      <c r="I9" s="62"/>
+      <c r="E9" s="61">
+        <f>IF(ISERROR(MATCH(C9,SkillList,0)),0,MATCH(C9,SkillList,0))</f>
+        <v>0</v>
+      </c>
+      <c r="F9" s="61">
+        <f>IF(ISERROR(MATCH(B9,MemberList,0)),0,MATCH(B9,MemberList,0))</f>
+        <v>0</v>
+      </c>
+      <c r="G9" s="62">
+        <f>INDEX(CostPerHour,E9)</f>
+        <v>236.74</v>
+      </c>
+      <c r="H9" s="63">
+        <f>IF(ISERROR(INDEX(Competency,F9,E9)), 0, INDEX(Competency,F9,E9))</f>
+        <v>0</v>
+      </c>
+      <c r="I9" s="62">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="J9" s="64"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -2730,11 +2786,26 @@
       <c r="B10" s="59"/>
       <c r="C10" s="59"/>
       <c r="D10" s="60"/>
-      <c r="E10" s="61"/>
-      <c r="F10" s="61"/>
-      <c r="G10" s="62"/>
-      <c r="H10" s="63"/>
-      <c r="I10" s="62"/>
+      <c r="E10" s="61">
+        <f>IF(ISERROR(MATCH(C10,SkillList,0)),0,MATCH(C10,SkillList,0))</f>
+        <v>0</v>
+      </c>
+      <c r="F10" s="61">
+        <f>IF(ISERROR(MATCH(B10,MemberList,0)),0,MATCH(B10,MemberList,0))</f>
+        <v>0</v>
+      </c>
+      <c r="G10" s="62">
+        <f>INDEX(CostPerHour,E10)</f>
+        <v>177.56</v>
+      </c>
+      <c r="H10" s="63">
+        <f>IF(ISERROR(INDEX(Competency,F10,E10)), 0, INDEX(Competency,F10,E10))</f>
+        <v>0.25</v>
+      </c>
+      <c r="I10" s="62">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="J10" s="64"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -2742,11 +2813,26 @@
       <c r="B11" s="59"/>
       <c r="C11" s="59"/>
       <c r="D11" s="60"/>
-      <c r="E11" s="61"/>
-      <c r="F11" s="61"/>
-      <c r="G11" s="62"/>
-      <c r="H11" s="63"/>
-      <c r="I11" s="62"/>
+      <c r="E11" s="61">
+        <f>IF(ISERROR(MATCH(C11,SkillList,0)),0,MATCH(C11,SkillList,0))</f>
+        <v>0</v>
+      </c>
+      <c r="F11" s="61">
+        <f>IF(ISERROR(MATCH(B11,MemberList,0)),0,MATCH(B11,MemberList,0))</f>
+        <v>0</v>
+      </c>
+      <c r="G11" s="62">
+        <f>INDEX(CostPerHour,E11)</f>
+        <v>591.86</v>
+      </c>
+      <c r="H11" s="63">
+        <f>IF(ISERROR(INDEX(Competency,F11,E11)), 0, INDEX(Competency,F11,E11))</f>
+        <v>0</v>
+      </c>
+      <c r="I11" s="62">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="J11" s="64"/>
     </row>
   </sheetData>

--- a/Project Management/Effort Calculation.xlsx
+++ b/Project Management/Effort Calculation.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="108">
   <si>
     <t>Total</t>
   </si>
@@ -335,6 +335,24 @@
   </si>
   <si>
     <t>28.10.2015</t>
+  </si>
+  <si>
+    <t>30.10.2015</t>
+  </si>
+  <si>
+    <t>31.10.2015</t>
+  </si>
+  <si>
+    <t>Forming solution structure</t>
+  </si>
+  <si>
+    <t>Coding for basic framework</t>
+  </si>
+  <si>
+    <t>Coding for basic framework and implementation of Student sample</t>
+  </si>
+  <si>
+    <t>Making model iterative</t>
   </si>
 </sst>
 </file>
@@ -1538,7 +1556,7 @@
       <c r="G11" s="77"/>
       <c r="H11" s="81">
         <f>Summery!D10</f>
-        <v>12073.909</v>
+        <v>14441.329000000002</v>
       </c>
       <c r="I11" s="82"/>
       <c r="J11" s="83"/>
@@ -1559,7 +1577,7 @@
       <c r="G12" s="77"/>
       <c r="H12" s="78">
         <f>Summery!C10</f>
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="I12" s="79"/>
       <c r="J12" s="80"/>
@@ -1580,7 +1598,7 @@
       <c r="G13" s="77"/>
       <c r="H13" s="78">
         <f>H12/8</f>
-        <v>4.125</v>
+        <v>5.625</v>
       </c>
       <c r="I13" s="79"/>
       <c r="J13" s="80"/>
@@ -1807,11 +1825,11 @@
       </c>
       <c r="C3" s="14">
         <f>SUMIF(Business!B:B,B3,Business!D:D) + SUMIF(School!B:B,B3,School!D:D) + SUMIF(Service!B:B,B3,Service!D:D)+SUMIF(Retail!B:B,B3,Retail!D:D) + SUMIF(Tourism!B:B,B3,Tourism!D:D)</f>
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="D3" s="33">
         <f>SUMIF(Business!B:B,B3,Business!I:I) + SUMIF(School!B:B,B3,School!I:I) + SUMIF(Service!B:B,B3,Service!I:I)+SUMIF(Retail!B:B,B3,Retail!I:I) + SUMIF(Tourism!B:B,B3,Tourism!I:I)</f>
-        <v>9055.4249999999993</v>
+        <v>11422.845000000001</v>
       </c>
       <c r="E3" s="5"/>
       <c r="F3" s="10" t="s">
@@ -1854,11 +1872,11 @@
       </c>
       <c r="G4" s="14">
         <f>SUM(School!D:D)</f>
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="H4" s="33">
         <f>SUM(School!I:I)</f>
-        <v>2308.2599999999998</v>
+        <v>4675.6799999999994</v>
       </c>
       <c r="I4" s="5"/>
       <c r="J4" s="4"/>
@@ -1994,11 +2012,11 @@
       </c>
       <c r="G8" s="15">
         <f>SUM(G3:G7)</f>
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="H8" s="34">
         <f>SUM(H3:H7)</f>
-        <v>12073.909</v>
+        <v>14441.329</v>
       </c>
       <c r="I8" s="5"/>
       <c r="J8" s="4"/>
@@ -2044,11 +2062,11 @@
       </c>
       <c r="C10" s="15">
         <f>SUM(C3:C9)</f>
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="D10" s="34">
         <f>SUM(D3:D9)</f>
-        <v>12073.909</v>
+        <v>14441.329000000002</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="4"/>
@@ -2460,10 +2478,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2527,19 +2545,19 @@
         <v>2</v>
       </c>
       <c r="E2" s="61">
-        <f>IF(ISERROR(MATCH(C2,SkillList,0)),0,MATCH(C2,SkillList,0))</f>
+        <f t="shared" ref="E2:E19" si="0">IF(ISERROR(MATCH(C2,SkillList,0)),0,MATCH(C2,SkillList,0))</f>
         <v>7</v>
       </c>
       <c r="F2" s="61">
-        <f>IF(ISERROR(MATCH(B2,MemberList,0)),0,MATCH(B2,MemberList,0))</f>
+        <f t="shared" ref="F2:F19" si="1">IF(ISERROR(MATCH(B2,MemberList,0)),0,MATCH(B2,MemberList,0))</f>
         <v>7</v>
       </c>
       <c r="G2" s="62">
-        <f>INDEX(CostPerHour,E2)</f>
+        <f t="shared" ref="G2:G19" si="2">INDEX(CostPerHour,E2)</f>
         <v>591.86</v>
       </c>
       <c r="H2" s="63">
-        <f>IF(ISERROR(INDEX(Competency,F2,E2)), 0, INDEX(Competency,F2,E2))</f>
+        <f t="shared" ref="H2:H19" si="3">IF(ISERROR(INDEX(Competency,F2,E2)), 0, INDEX(Competency,F2,E2))</f>
         <v>0.5</v>
       </c>
       <c r="I2" s="62">
@@ -2562,23 +2580,23 @@
         <v>2</v>
       </c>
       <c r="E3" s="61">
-        <f>IF(ISERROR(MATCH(C3,SkillList,0)),0,MATCH(C3,SkillList,0))</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="F3" s="61">
-        <f>IF(ISERROR(MATCH(B3,MemberList,0)),0,MATCH(B3,MemberList,0))</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="G3" s="62">
-        <f>INDEX(CostPerHour,E3)</f>
+        <f t="shared" si="2"/>
         <v>591.86</v>
       </c>
       <c r="H3" s="63">
-        <f>IF(ISERROR(INDEX(Competency,F3,E3)), 0, INDEX(Competency,F3,E3))</f>
+        <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
       <c r="I3" s="62">
-        <f t="shared" ref="I3:I5" si="0">D3*G3*H3</f>
+        <f t="shared" ref="I3:I5" si="4">D3*G3*H3</f>
         <v>591.86</v>
       </c>
       <c r="J3" s="64"/>
@@ -2597,23 +2615,23 @@
         <v>2</v>
       </c>
       <c r="E4" s="61">
-        <f>IF(ISERROR(MATCH(C4,SkillList,0)),0,MATCH(C4,SkillList,0))</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="F4" s="61">
-        <f>IF(ISERROR(MATCH(B4,MemberList,0)),0,MATCH(B4,MemberList,0))</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="G4" s="62">
-        <f>INDEX(CostPerHour,E4)</f>
+        <f t="shared" si="2"/>
         <v>177.56</v>
       </c>
       <c r="H4" s="63">
-        <f>IF(ISERROR(INDEX(Competency,F4,E4)), 0, INDEX(Competency,F4,E4))</f>
+        <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
       <c r="I4" s="62">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>177.56</v>
       </c>
       <c r="J4" s="64"/>
@@ -2632,23 +2650,23 @@
         <v>1</v>
       </c>
       <c r="E5" s="61">
-        <f>IF(ISERROR(MATCH(C5,SkillList,0)),0,MATCH(C5,SkillList,0))</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="F5" s="61">
-        <f>IF(ISERROR(MATCH(B5,MemberList,0)),0,MATCH(B5,MemberList,0))</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G5" s="62">
-        <f>INDEX(CostPerHour,E5)</f>
+        <f t="shared" si="2"/>
         <v>591.86</v>
       </c>
       <c r="H5" s="63">
-        <f>IF(ISERROR(INDEX(Competency,F5,E5)), 0, INDEX(Competency,F5,E5))</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="I5" s="62">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>591.86</v>
       </c>
       <c r="J5" s="64" t="s">
@@ -2669,23 +2687,23 @@
         <v>1</v>
       </c>
       <c r="E6" s="61">
-        <f>IF(ISERROR(MATCH(C6,SkillList,0)),0,MATCH(C6,SkillList,0))</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="F6" s="61">
-        <f>IF(ISERROR(MATCH(B6,MemberList,0)),0,MATCH(B6,MemberList,0))</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G6" s="62">
-        <f>INDEX(CostPerHour,E6)</f>
+        <f t="shared" si="2"/>
         <v>177.56</v>
       </c>
       <c r="H6" s="63">
-        <f>IF(ISERROR(INDEX(Competency,F6,E6)), 0, INDEX(Competency,F6,E6))</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="I6" s="62">
-        <f t="shared" ref="I6:I11" si="1">D6*G6*H6</f>
+        <f t="shared" ref="I6:I19" si="5">D6*G6*H6</f>
         <v>177.56</v>
       </c>
       <c r="J6" s="64" t="s">
@@ -2706,107 +2724,139 @@
         <v>1</v>
       </c>
       <c r="E7" s="61">
-        <f>IF(ISERROR(MATCH(C7,SkillList,0)),0,MATCH(C7,SkillList,0))</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="F7" s="61">
-        <f>IF(ISERROR(MATCH(B7,MemberList,0)),0,MATCH(B7,MemberList,0))</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G7" s="62">
-        <f>INDEX(CostPerHour,E7)</f>
+        <f t="shared" si="2"/>
         <v>177.56</v>
       </c>
       <c r="H7" s="63">
-        <f>IF(ISERROR(INDEX(Competency,F7,E7)), 0, INDEX(Competency,F7,E7))</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="I7" s="62">
+        <f t="shared" si="5"/>
+        <v>177.56</v>
+      </c>
+      <c r="J7" s="64" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="58" t="s">
+        <v>102</v>
+      </c>
+      <c r="B8" s="59" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="60">
+        <v>2</v>
+      </c>
+      <c r="E8" s="61">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="F8" s="61">
         <f t="shared" si="1"/>
-        <v>177.56</v>
-      </c>
-      <c r="J7" s="64"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="58"/>
-      <c r="B8" s="59"/>
-      <c r="C8" s="59"/>
-      <c r="D8" s="60"/>
-      <c r="E8" s="61">
-        <f>IF(ISERROR(MATCH(C8,SkillList,0)),0,MATCH(C8,SkillList,0))</f>
-        <v>0</v>
-      </c>
-      <c r="F8" s="61">
-        <f>IF(ISERROR(MATCH(B8,MemberList,0)),0,MATCH(B8,MemberList,0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" s="62">
-        <f>INDEX(CostPerHour,E8)</f>
+        <f t="shared" si="2"/>
         <v>591.86</v>
       </c>
       <c r="H8" s="63">
-        <f>IF(ISERROR(INDEX(Competency,F8,E8)), 0, INDEX(Competency,F8,E8))</f>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="I8" s="62">
+        <f t="shared" si="5"/>
+        <v>1183.72</v>
+      </c>
+      <c r="J8" s="64" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="58" t="s">
+        <v>102</v>
+      </c>
+      <c r="B9" s="59" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="59" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="60">
+        <v>4</v>
+      </c>
+      <c r="E9" s="61">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="F9" s="61">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J8" s="64"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="58"/>
-      <c r="B9" s="59"/>
-      <c r="C9" s="59"/>
-      <c r="D9" s="60"/>
-      <c r="E9" s="61">
-        <f>IF(ISERROR(MATCH(C9,SkillList,0)),0,MATCH(C9,SkillList,0))</f>
-        <v>0</v>
-      </c>
-      <c r="F9" s="61">
-        <f>IF(ISERROR(MATCH(B9,MemberList,0)),0,MATCH(B9,MemberList,0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" s="62">
-        <f>INDEX(CostPerHour,E9)</f>
-        <v>236.74</v>
+        <f t="shared" si="2"/>
+        <v>118.37</v>
       </c>
       <c r="H9" s="63">
-        <f>IF(ISERROR(INDEX(Competency,F9,E9)), 0, INDEX(Competency,F9,E9))</f>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="I9" s="62">
+        <f t="shared" si="5"/>
+        <v>473.48</v>
+      </c>
+      <c r="J9" s="64" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="58" t="s">
+        <v>103</v>
+      </c>
+      <c r="B10" s="59" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="59" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="60">
+        <v>6</v>
+      </c>
+      <c r="E10" s="61">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="F10" s="61">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J9" s="64"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="58"/>
-      <c r="B10" s="59"/>
-      <c r="C10" s="59"/>
-      <c r="D10" s="60"/>
-      <c r="E10" s="61">
-        <f>IF(ISERROR(MATCH(C10,SkillList,0)),0,MATCH(C10,SkillList,0))</f>
-        <v>0</v>
-      </c>
-      <c r="F10" s="61">
-        <f>IF(ISERROR(MATCH(B10,MemberList,0)),0,MATCH(B10,MemberList,0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10" s="62">
-        <f>INDEX(CostPerHour,E10)</f>
-        <v>177.56</v>
+        <f t="shared" si="2"/>
+        <v>118.37</v>
       </c>
       <c r="H10" s="63">
-        <f>IF(ISERROR(INDEX(Competency,F10,E10)), 0, INDEX(Competency,F10,E10))</f>
-        <v>0.25</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="I10" s="62">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J10" s="64"/>
+        <f t="shared" si="5"/>
+        <v>710.22</v>
+      </c>
+      <c r="J10" s="64" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="58"/>
@@ -2814,26 +2864,242 @@
       <c r="C11" s="59"/>
       <c r="D11" s="60"/>
       <c r="E11" s="61">
-        <f>IF(ISERROR(MATCH(C11,SkillList,0)),0,MATCH(C11,SkillList,0))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F11" s="61">
-        <f>IF(ISERROR(MATCH(B11,MemberList,0)),0,MATCH(B11,MemberList,0))</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G11" s="62">
-        <f>INDEX(CostPerHour,E11)</f>
+        <f t="shared" si="2"/>
         <v>591.86</v>
       </c>
       <c r="H11" s="63">
-        <f>IF(ISERROR(INDEX(Competency,F11,E11)), 0, INDEX(Competency,F11,E11))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I11" s="62">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J11" s="64"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="58"/>
+      <c r="B12" s="59"/>
+      <c r="C12" s="59"/>
+      <c r="D12" s="60"/>
+      <c r="E12" s="61">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F12" s="61">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J11" s="64"/>
+      <c r="G12" s="62">
+        <f t="shared" si="2"/>
+        <v>177.56</v>
+      </c>
+      <c r="H12" s="63">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I12" s="62">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J12" s="64"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="58"/>
+      <c r="B13" s="59"/>
+      <c r="C13" s="59"/>
+      <c r="D13" s="60"/>
+      <c r="E13" s="61">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F13" s="61">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G13" s="62">
+        <f t="shared" si="2"/>
+        <v>118.37</v>
+      </c>
+      <c r="H13" s="63">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I13" s="62">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J13" s="64"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="58"/>
+      <c r="B14" s="59"/>
+      <c r="C14" s="59"/>
+      <c r="D14" s="60"/>
+      <c r="E14" s="61">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F14" s="61">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G14" s="62">
+        <f t="shared" si="2"/>
+        <v>118.37</v>
+      </c>
+      <c r="H14" s="63">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I14" s="62">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J14" s="64"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="58"/>
+      <c r="B15" s="59"/>
+      <c r="C15" s="59"/>
+      <c r="D15" s="60"/>
+      <c r="E15" s="61">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F15" s="61">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G15" s="62">
+        <f t="shared" si="2"/>
+        <v>295.93</v>
+      </c>
+      <c r="H15" s="63">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I15" s="62">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J15" s="64"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="58"/>
+      <c r="B16" s="59"/>
+      <c r="C16" s="59"/>
+      <c r="D16" s="60"/>
+      <c r="E16" s="61">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F16" s="61">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G16" s="62">
+        <f t="shared" si="2"/>
+        <v>118.37</v>
+      </c>
+      <c r="H16" s="63">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I16" s="62">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J16" s="64"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="58"/>
+      <c r="B17" s="59"/>
+      <c r="C17" s="59"/>
+      <c r="D17" s="60"/>
+      <c r="E17" s="61">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F17" s="61">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G17" s="62">
+        <f t="shared" si="2"/>
+        <v>177.56</v>
+      </c>
+      <c r="H17" s="63">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I17" s="62">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J17" s="64"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="58"/>
+      <c r="B18" s="59"/>
+      <c r="C18" s="59"/>
+      <c r="D18" s="60"/>
+      <c r="E18" s="61">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F18" s="61">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G18" s="62">
+        <f t="shared" si="2"/>
+        <v>118.37</v>
+      </c>
+      <c r="H18" s="63">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I18" s="62">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J18" s="64"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="58"/>
+      <c r="B19" s="59"/>
+      <c r="C19" s="59"/>
+      <c r="D19" s="60"/>
+      <c r="E19" s="61">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F19" s="61">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G19" s="62">
+        <f t="shared" si="2"/>
+        <v>591.86</v>
+      </c>
+      <c r="H19" s="63">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I19" s="62">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J19" s="64"/>
     </row>
   </sheetData>
   <dataValidations count="2">

--- a/Project Management/Effort Calculation.xlsx
+++ b/Project Management/Effort Calculation.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="111">
   <si>
     <t>Total</t>
   </si>
@@ -353,6 +353,15 @@
   </si>
   <si>
     <t>Making model iterative</t>
+  </si>
+  <si>
+    <t>04.11.2015</t>
+  </si>
+  <si>
+    <t>Modeling student</t>
+  </si>
+  <si>
+    <t>Developed basic framework and studen as test form</t>
   </si>
 </sst>
 </file>
@@ -1556,7 +1565,7 @@
       <c r="G11" s="77"/>
       <c r="H11" s="81">
         <f>Summery!D10</f>
-        <v>14441.329000000002</v>
+        <v>15003.589000000002</v>
       </c>
       <c r="I11" s="82"/>
       <c r="J11" s="83"/>
@@ -1577,7 +1586,7 @@
       <c r="G12" s="77"/>
       <c r="H12" s="78">
         <f>Summery!C10</f>
-        <v>45</v>
+        <v>49.5</v>
       </c>
       <c r="I12" s="79"/>
       <c r="J12" s="80"/>
@@ -1598,7 +1607,7 @@
       <c r="G13" s="77"/>
       <c r="H13" s="78">
         <f>H12/8</f>
-        <v>5.625</v>
+        <v>6.1875</v>
       </c>
       <c r="I13" s="79"/>
       <c r="J13" s="80"/>
@@ -1825,11 +1834,11 @@
       </c>
       <c r="C3" s="14">
         <f>SUMIF(Business!B:B,B3,Business!D:D) + SUMIF(School!B:B,B3,School!D:D) + SUMIF(Service!B:B,B3,Service!D:D)+SUMIF(Retail!B:B,B3,Retail!D:D) + SUMIF(Tourism!B:B,B3,Tourism!D:D)</f>
-        <v>31</v>
+        <v>35.5</v>
       </c>
       <c r="D3" s="33">
         <f>SUMIF(Business!B:B,B3,Business!I:I) + SUMIF(School!B:B,B3,School!I:I) + SUMIF(Service!B:B,B3,Service!I:I)+SUMIF(Retail!B:B,B3,Retail!I:I) + SUMIF(Tourism!B:B,B3,Tourism!I:I)</f>
-        <v>11422.845000000001</v>
+        <v>11985.105000000001</v>
       </c>
       <c r="E3" s="5"/>
       <c r="F3" s="10" t="s">
@@ -1872,11 +1881,11 @@
       </c>
       <c r="G4" s="14">
         <f>SUM(School!D:D)</f>
-        <v>21</v>
+        <v>25.5</v>
       </c>
       <c r="H4" s="33">
         <f>SUM(School!I:I)</f>
-        <v>4675.6799999999994</v>
+        <v>5237.9399999999987</v>
       </c>
       <c r="I4" s="5"/>
       <c r="J4" s="4"/>
@@ -2012,11 +2021,11 @@
       </c>
       <c r="G8" s="15">
         <f>SUM(G3:G7)</f>
-        <v>45</v>
+        <v>49.5</v>
       </c>
       <c r="H8" s="34">
         <f>SUM(H3:H7)</f>
-        <v>14441.329</v>
+        <v>15003.588999999998</v>
       </c>
       <c r="I8" s="5"/>
       <c r="J8" s="4"/>
@@ -2062,11 +2071,11 @@
       </c>
       <c r="C10" s="15">
         <f>SUM(C3:C9)</f>
-        <v>45</v>
+        <v>49.5</v>
       </c>
       <c r="D10" s="34">
         <f>SUM(D3:D9)</f>
-        <v>14441.329000000002</v>
+        <v>15003.589000000002</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="4"/>
@@ -2481,7 +2490,7 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2859,58 +2868,78 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="58"/>
-      <c r="B11" s="59"/>
-      <c r="C11" s="59"/>
-      <c r="D11" s="60"/>
+      <c r="A11" s="58" t="s">
+        <v>108</v>
+      </c>
+      <c r="B11" s="59" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="59" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="60">
+        <v>0.5</v>
+      </c>
       <c r="E11" s="61">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F11" s="61">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11" s="62">
         <f t="shared" si="2"/>
-        <v>591.86</v>
+        <v>177.56</v>
       </c>
       <c r="H11" s="63">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" s="62">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J11" s="64"/>
+        <v>88.78</v>
+      </c>
+      <c r="J11" s="64" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="58"/>
-      <c r="B12" s="59"/>
-      <c r="C12" s="59"/>
-      <c r="D12" s="60"/>
+      <c r="A12" s="58" t="s">
+        <v>108</v>
+      </c>
+      <c r="B12" s="59" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="59" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="60">
+        <v>4</v>
+      </c>
       <c r="E12" s="61">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F12" s="61">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" s="62">
         <f t="shared" si="2"/>
-        <v>177.56</v>
+        <v>118.37</v>
       </c>
       <c r="H12" s="63">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" s="62">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J12" s="64"/>
+        <v>473.48</v>
+      </c>
+      <c r="J12" s="64" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="58"/>

--- a/Project Management/Effort Calculation.xlsx
+++ b/Project Management/Effort Calculation.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="113">
   <si>
     <t>Total</t>
   </si>
@@ -362,6 +362,12 @@
   </si>
   <si>
     <t>Developed basic framework and studen as test form</t>
+  </si>
+  <si>
+    <t>05.11.2015</t>
+  </si>
+  <si>
+    <t>Restructuring UI using control. Training for Sample code.</t>
   </si>
 </sst>
 </file>
@@ -1565,7 +1571,7 @@
       <c r="G11" s="77"/>
       <c r="H11" s="81">
         <f>Summery!D10</f>
-        <v>15003.589000000002</v>
+        <v>15477.069000000001</v>
       </c>
       <c r="I11" s="82"/>
       <c r="J11" s="83"/>
@@ -1586,7 +1592,7 @@
       <c r="G12" s="77"/>
       <c r="H12" s="78">
         <f>Summery!C10</f>
-        <v>49.5</v>
+        <v>53.5</v>
       </c>
       <c r="I12" s="79"/>
       <c r="J12" s="80"/>
@@ -1607,7 +1613,7 @@
       <c r="G13" s="77"/>
       <c r="H13" s="78">
         <f>H12/8</f>
-        <v>6.1875</v>
+        <v>6.6875</v>
       </c>
       <c r="I13" s="79"/>
       <c r="J13" s="80"/>
@@ -1834,11 +1840,11 @@
       </c>
       <c r="C3" s="14">
         <f>SUMIF(Business!B:B,B3,Business!D:D) + SUMIF(School!B:B,B3,School!D:D) + SUMIF(Service!B:B,B3,Service!D:D)+SUMIF(Retail!B:B,B3,Retail!D:D) + SUMIF(Tourism!B:B,B3,Tourism!D:D)</f>
-        <v>35.5</v>
+        <v>39.5</v>
       </c>
       <c r="D3" s="33">
         <f>SUMIF(Business!B:B,B3,Business!I:I) + SUMIF(School!B:B,B3,School!I:I) + SUMIF(Service!B:B,B3,Service!I:I)+SUMIF(Retail!B:B,B3,Retail!I:I) + SUMIF(Tourism!B:B,B3,Tourism!I:I)</f>
-        <v>11985.105000000001</v>
+        <v>12458.585000000001</v>
       </c>
       <c r="E3" s="5"/>
       <c r="F3" s="10" t="s">
@@ -1881,11 +1887,11 @@
       </c>
       <c r="G4" s="14">
         <f>SUM(School!D:D)</f>
-        <v>25.5</v>
+        <v>29.5</v>
       </c>
       <c r="H4" s="33">
         <f>SUM(School!I:I)</f>
-        <v>5237.9399999999987</v>
+        <v>5711.4199999999983</v>
       </c>
       <c r="I4" s="5"/>
       <c r="J4" s="4"/>
@@ -2021,11 +2027,11 @@
       </c>
       <c r="G8" s="15">
         <f>SUM(G3:G7)</f>
-        <v>49.5</v>
+        <v>53.5</v>
       </c>
       <c r="H8" s="34">
         <f>SUM(H3:H7)</f>
-        <v>15003.588999999998</v>
+        <v>15477.068999999998</v>
       </c>
       <c r="I8" s="5"/>
       <c r="J8" s="4"/>
@@ -2071,11 +2077,11 @@
       </c>
       <c r="C10" s="15">
         <f>SUM(C3:C9)</f>
-        <v>49.5</v>
+        <v>53.5</v>
       </c>
       <c r="D10" s="34">
         <f>SUM(D3:D9)</f>
-        <v>15003.589000000002</v>
+        <v>15477.069000000001</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="4"/>
@@ -2490,7 +2496,7 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2942,17 +2948,25 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="58"/>
-      <c r="B13" s="59"/>
-      <c r="C13" s="59"/>
-      <c r="D13" s="60"/>
+      <c r="A13" s="58" t="s">
+        <v>111</v>
+      </c>
+      <c r="B13" s="59" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="59" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="60">
+        <v>4</v>
+      </c>
       <c r="E13" s="61">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F13" s="61">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13" s="62">
         <f t="shared" si="2"/>
@@ -2960,13 +2974,15 @@
       </c>
       <c r="H13" s="63">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" s="62">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J13" s="64"/>
+        <v>473.48</v>
+      </c>
+      <c r="J13" s="64" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="58"/>

--- a/Project Management/Effort Calculation.xlsx
+++ b/Project Management/Effort Calculation.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="330" windowWidth="18795" windowHeight="11700" tabRatio="785" activeTab="3"/>
@@ -24,12 +24,12 @@
     <definedName name="MemberList">'Team Member'!$B$4:$B$10</definedName>
     <definedName name="SkillList">'Skill Set'!$C$2:$C$34</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="116">
   <si>
     <t>Total</t>
   </si>
@@ -368,16 +368,25 @@
   </si>
   <si>
     <t>Restructuring UI using control. Training for Sample code.</t>
+  </si>
+  <si>
+    <t>Added Gender component</t>
+  </si>
+  <si>
+    <t>Added Religion component</t>
+  </si>
+  <si>
+    <t>06.11.2015</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;₹&quot;\ #,##0.00"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1189,7 +1198,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1224,7 +1232,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1400,12 +1407,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:O20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="2.85546875" style="1" customWidth="1"/>
     <col min="2" max="4" width="9.140625" style="1"/>
@@ -1413,8 +1420,8 @@
     <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:15" ht="15.75" thickBot="1"/>
+    <row r="2" spans="2:15">
       <c r="B2" s="18"/>
       <c r="C2" s="19"/>
       <c r="D2" s="19"/>
@@ -1430,7 +1437,7 @@
       <c r="N2" s="19"/>
       <c r="O2" s="20"/>
     </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:15">
       <c r="B3" s="3"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
@@ -1446,7 +1453,7 @@
       <c r="N3" s="4"/>
       <c r="O3" s="21"/>
     </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:15">
       <c r="B4" s="3"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -1462,7 +1469,7 @@
       <c r="N4" s="4"/>
       <c r="O4" s="21"/>
     </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:15">
       <c r="B5" s="3"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -1478,7 +1485,7 @@
       <c r="N5" s="4"/>
       <c r="O5" s="21"/>
     </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:15">
       <c r="B6" s="3"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
@@ -1494,7 +1501,7 @@
       <c r="N6" s="4"/>
       <c r="O6" s="21"/>
     </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:15">
       <c r="B7" s="3"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
@@ -1510,7 +1517,7 @@
       <c r="N7" s="4"/>
       <c r="O7" s="21"/>
     </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:15">
       <c r="B8" s="3"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
@@ -1526,7 +1533,7 @@
       <c r="N8" s="4"/>
       <c r="O8" s="21"/>
     </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:15">
       <c r="B9" s="3"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
@@ -1542,7 +1549,7 @@
       <c r="N9" s="4"/>
       <c r="O9" s="21"/>
     </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:15">
       <c r="B10" s="3"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
@@ -1560,7 +1567,7 @@
       <c r="N10" s="4"/>
       <c r="O10" s="21"/>
     </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:15">
       <c r="B11" s="3"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -1571,7 +1578,7 @@
       <c r="G11" s="77"/>
       <c r="H11" s="81">
         <f>Summery!D10</f>
-        <v>15477.069000000001</v>
+        <v>15565.8465</v>
       </c>
       <c r="I11" s="82"/>
       <c r="J11" s="83"/>
@@ -1581,7 +1588,7 @@
       <c r="N11" s="4"/>
       <c r="O11" s="21"/>
     </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:15">
       <c r="B12" s="3"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
@@ -1592,7 +1599,7 @@
       <c r="G12" s="77"/>
       <c r="H12" s="78">
         <f>Summery!C10</f>
-        <v>53.5</v>
+        <v>56.5</v>
       </c>
       <c r="I12" s="79"/>
       <c r="J12" s="80"/>
@@ -1602,7 +1609,7 @@
       <c r="N12" s="4"/>
       <c r="O12" s="21"/>
     </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:15">
       <c r="B13" s="3"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -1613,7 +1620,7 @@
       <c r="G13" s="77"/>
       <c r="H13" s="78">
         <f>H12/8</f>
-        <v>6.6875</v>
+        <v>7.0625</v>
       </c>
       <c r="I13" s="79"/>
       <c r="J13" s="80"/>
@@ -1623,7 +1630,7 @@
       <c r="N13" s="4"/>
       <c r="O13" s="21"/>
     </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:15">
       <c r="B14" s="3"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
@@ -1639,7 +1646,7 @@
       <c r="N14" s="4"/>
       <c r="O14" s="21"/>
     </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:15">
       <c r="B15" s="3"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -1655,7 +1662,7 @@
       <c r="N15" s="4"/>
       <c r="O15" s="21"/>
     </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:15">
       <c r="B16" s="3"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -1671,7 +1678,7 @@
       <c r="N16" s="4"/>
       <c r="O16" s="21"/>
     </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:15">
       <c r="B17" s="3"/>
       <c r="D17" s="4"/>
       <c r="E17" s="5"/>
@@ -1686,7 +1693,7 @@
       <c r="N17" s="4"/>
       <c r="O17" s="21"/>
     </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:15">
       <c r="B18" s="3"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
@@ -1701,7 +1708,7 @@
       <c r="N18" s="4"/>
       <c r="O18" s="21"/>
     </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:15">
       <c r="B19" s="3"/>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
@@ -1717,7 +1724,7 @@
       <c r="N19" s="4"/>
       <c r="O19" s="21"/>
     </row>
-    <row r="20" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:15" ht="15.75" thickBot="1">
       <c r="B20" s="6"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -1750,14 +1757,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="2.85546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="28.5703125" style="1" customWidth="1"/>
@@ -1779,7 +1786,7 @@
     <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17">
       <c r="A1" s="4"/>
       <c r="B1" s="84" t="s">
         <v>61</v>
@@ -1802,7 +1809,7 @@
       <c r="P1" s="8"/>
       <c r="Q1" s="8"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17">
       <c r="A2" s="4"/>
       <c r="B2" s="11" t="s">
         <v>6</v>
@@ -1833,7 +1840,7 @@
       <c r="P2" s="8"/>
       <c r="Q2" s="8"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17">
       <c r="A3" s="4"/>
       <c r="B3" s="10" t="s">
         <v>7</v>
@@ -1868,7 +1875,7 @@
       <c r="P3" s="5"/>
       <c r="Q3" s="5"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17">
       <c r="A4" s="4"/>
       <c r="B4" s="10" t="s">
         <v>10</v>
@@ -1887,11 +1894,11 @@
       </c>
       <c r="G4" s="14">
         <f>SUM(School!D:D)</f>
-        <v>29.5</v>
+        <v>32.5</v>
       </c>
       <c r="H4" s="33">
         <f>SUM(School!I:I)</f>
-        <v>5711.4199999999983</v>
+        <v>5800.1974999999984</v>
       </c>
       <c r="I4" s="5"/>
       <c r="J4" s="4"/>
@@ -1903,7 +1910,7 @@
       <c r="P4" s="5"/>
       <c r="Q4" s="5"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17">
       <c r="A5" s="4"/>
       <c r="B5" s="10" t="s">
         <v>8</v>
@@ -1938,7 +1945,7 @@
       <c r="P5" s="5"/>
       <c r="Q5" s="5"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17">
       <c r="A6" s="4"/>
       <c r="B6" s="10" t="s">
         <v>11</v>
@@ -1973,7 +1980,7 @@
       <c r="P6" s="5"/>
       <c r="Q6" s="5"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17">
       <c r="A7" s="4"/>
       <c r="B7" s="10" t="s">
         <v>12</v>
@@ -2008,7 +2015,7 @@
       <c r="P7" s="5"/>
       <c r="Q7" s="5"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17">
       <c r="A8" s="4"/>
       <c r="B8" s="10" t="s">
         <v>13</v>
@@ -2027,11 +2034,11 @@
       </c>
       <c r="G8" s="15">
         <f>SUM(G3:G7)</f>
-        <v>53.5</v>
+        <v>56.5</v>
       </c>
       <c r="H8" s="34">
         <f>SUM(H3:H7)</f>
-        <v>15477.068999999998</v>
+        <v>15565.846499999998</v>
       </c>
       <c r="I8" s="5"/>
       <c r="J8" s="4"/>
@@ -2043,18 +2050,18 @@
       <c r="P8" s="5"/>
       <c r="Q8" s="5"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17">
       <c r="A9" s="4"/>
       <c r="B9" s="10" t="s">
         <v>14</v>
       </c>
       <c r="C9" s="14">
         <f>SUMIF(Business!B:B,B9,Business!D:D) + SUMIF(School!B:B,B9,School!D:D) + SUMIF(Service!B:B,B9,Service!D:D)+SUMIF(Retail!B:B,B9,Retail!D:D) + SUMIF(Tourism!B:B,B9,Tourism!D:D)</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D9" s="33">
         <f>SUMIF(Business!B:B,B9,Business!I:I) + SUMIF(School!B:B,B9,School!I:I) + SUMIF(Service!B:B,B9,Service!I:I)+SUMIF(Retail!B:B,B9,Retail!I:I) + SUMIF(Tourism!B:B,B9,Tourism!I:I)</f>
-        <v>1361.28</v>
+        <v>1450.0574999999999</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="4"/>
@@ -2070,18 +2077,18 @@
       <c r="P9" s="5"/>
       <c r="Q9" s="5"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17">
       <c r="A10" s="4"/>
       <c r="B10" s="12" t="s">
         <v>0</v>
       </c>
       <c r="C10" s="15">
         <f>SUM(C3:C9)</f>
-        <v>53.5</v>
+        <v>56.5</v>
       </c>
       <c r="D10" s="34">
         <f>SUM(D3:D9)</f>
-        <v>15477.069000000001</v>
+        <v>15565.8465</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="4"/>
@@ -2097,7 +2104,7 @@
       <c r="P10" s="5"/>
       <c r="Q10" s="5"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="16"/>
@@ -2113,7 +2120,7 @@
       <c r="P11" s="5"/>
       <c r="Q11" s="5"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="16"/>
@@ -2129,7 +2136,7 @@
       <c r="P12" s="5"/>
       <c r="Q12" s="5"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="16"/>
@@ -2148,7 +2155,7 @@
       <c r="P13" s="5"/>
       <c r="Q13" s="5"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="16"/>
@@ -2167,7 +2174,7 @@
       <c r="P14" s="5"/>
       <c r="Q14" s="5"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="16"/>
@@ -2186,7 +2193,7 @@
       <c r="P15" s="5"/>
       <c r="Q15" s="5"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="16"/>
@@ -2205,7 +2212,7 @@
       <c r="P16" s="5"/>
       <c r="Q16" s="5"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="16"/>
@@ -2224,7 +2231,7 @@
       <c r="P17" s="5"/>
       <c r="Q17" s="5"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="16"/>
@@ -2258,14 +2265,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.140625" style="65" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.42578125" style="57" bestFit="1" customWidth="1"/>
@@ -2280,7 +2287,7 @@
     <col min="11" max="16384" width="9.140625" style="57"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10">
       <c r="A1" s="69" t="s">
         <v>4</v>
       </c>
@@ -2312,7 +2319,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10">
       <c r="A2" s="58" t="s">
         <v>51</v>
       </c>
@@ -2349,7 +2356,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10">
       <c r="A3" s="58" t="s">
         <v>88</v>
       </c>
@@ -2386,7 +2393,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10">
       <c r="A4" s="58" t="s">
         <v>93</v>
       </c>
@@ -2423,7 +2430,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10">
       <c r="A5" s="58"/>
       <c r="B5" s="59"/>
       <c r="C5" s="59"/>
@@ -2450,7 +2457,7 @@
       </c>
       <c r="J5" s="64"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10">
       <c r="A6" s="58"/>
       <c r="B6" s="59"/>
       <c r="C6" s="59"/>
@@ -2492,14 +2499,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.7109375" style="65" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.42578125" style="57" bestFit="1" customWidth="1"/>
@@ -2514,7 +2521,7 @@
     <col min="11" max="16384" width="9.140625" style="57"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10">
       <c r="A1" s="53" t="s">
         <v>4</v>
       </c>
@@ -2546,7 +2553,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10">
       <c r="A2" s="58" t="s">
         <v>95</v>
       </c>
@@ -2581,7 +2588,7 @@
       </c>
       <c r="J2" s="64"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10">
       <c r="A3" s="58" t="s">
         <v>75</v>
       </c>
@@ -2616,7 +2623,7 @@
       </c>
       <c r="J3" s="64"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10">
       <c r="A4" s="58" t="s">
         <v>86</v>
       </c>
@@ -2651,7 +2658,7 @@
       </c>
       <c r="J4" s="64"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10">
       <c r="A5" s="58" t="s">
         <v>93</v>
       </c>
@@ -2688,7 +2695,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10">
       <c r="A6" s="58" t="s">
         <v>97</v>
       </c>
@@ -2725,7 +2732,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10">
       <c r="A7" s="58" t="s">
         <v>101</v>
       </c>
@@ -2762,7 +2769,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10">
       <c r="A8" s="58" t="s">
         <v>102</v>
       </c>
@@ -2799,7 +2806,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10">
       <c r="A9" s="58" t="s">
         <v>102</v>
       </c>
@@ -2836,7 +2843,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10">
       <c r="A10" s="58" t="s">
         <v>103</v>
       </c>
@@ -2873,7 +2880,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10">
       <c r="A11" s="58" t="s">
         <v>108</v>
       </c>
@@ -2910,7 +2917,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10">
       <c r="A12" s="58" t="s">
         <v>108</v>
       </c>
@@ -2947,7 +2954,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10">
       <c r="A13" s="58" t="s">
         <v>111</v>
       </c>
@@ -2984,18 +2991,26 @@
         <v>112</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="58"/>
-      <c r="B14" s="59"/>
-      <c r="C14" s="59"/>
-      <c r="D14" s="60"/>
+    <row r="14" spans="1:10">
+      <c r="A14" s="58" t="s">
+        <v>111</v>
+      </c>
+      <c r="B14" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="59" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="60">
+        <v>2</v>
+      </c>
       <c r="E14" s="61">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F14" s="61">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G14" s="62">
         <f t="shared" si="2"/>
@@ -3003,42 +3018,54 @@
       </c>
       <c r="H14" s="63">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="I14" s="62">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J14" s="64"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="58"/>
-      <c r="B15" s="59"/>
-      <c r="C15" s="59"/>
-      <c r="D15" s="60"/>
+        <v>59.185000000000002</v>
+      </c>
+      <c r="J14" s="64" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="58" t="s">
+        <v>115</v>
+      </c>
+      <c r="B15" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="59" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="60">
+        <v>1</v>
+      </c>
       <c r="E15" s="61">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F15" s="61">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G15" s="62">
         <f t="shared" si="2"/>
-        <v>295.93</v>
+        <v>118.37</v>
       </c>
       <c r="H15" s="63">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="I15" s="62">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J15" s="64"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+        <v>29.592500000000001</v>
+      </c>
+      <c r="J15" s="64" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="58"/>
       <c r="B16" s="59"/>
       <c r="C16" s="59"/>
@@ -3065,7 +3092,7 @@
       </c>
       <c r="J16" s="64"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10">
       <c r="A17" s="58"/>
       <c r="B17" s="59"/>
       <c r="C17" s="59"/>
@@ -3092,7 +3119,7 @@
       </c>
       <c r="J17" s="64"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10">
       <c r="A18" s="58"/>
       <c r="B18" s="59"/>
       <c r="C18" s="59"/>
@@ -3119,7 +3146,7 @@
       </c>
       <c r="J18" s="64"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10">
       <c r="A19" s="58"/>
       <c r="B19" s="59"/>
       <c r="C19" s="59"/>
@@ -3160,14 +3187,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.140625" style="65" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.42578125" style="57" bestFit="1" customWidth="1"/>
@@ -3182,7 +3209,7 @@
     <col min="11" max="16384" width="9.140625" style="57"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10">
       <c r="A1" s="53" t="s">
         <v>4</v>
       </c>
@@ -3214,7 +3241,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10">
       <c r="A2" s="58"/>
       <c r="B2" s="59" t="s">
         <v>8</v>
@@ -3245,7 +3272,7 @@
       </c>
       <c r="J2" s="64"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10">
       <c r="A3" s="58"/>
       <c r="B3" s="59" t="s">
         <v>8</v>
@@ -3276,7 +3303,7 @@
       </c>
       <c r="J3" s="64"/>
     </row>
-    <row r="4" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="30">
       <c r="A4" s="58" t="s">
         <v>75</v>
       </c>
@@ -3313,7 +3340,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10">
       <c r="A5" s="58" t="s">
         <v>75</v>
       </c>
@@ -3350,7 +3377,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10">
       <c r="A6" s="58" t="s">
         <v>86</v>
       </c>
@@ -3387,7 +3414,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10">
       <c r="A7" s="58" t="s">
         <v>86</v>
       </c>
@@ -3424,7 +3451,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10">
       <c r="A8" s="58"/>
       <c r="B8" s="59"/>
       <c r="C8" s="59"/>
@@ -3450,14 +3477,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.140625" style="65" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.42578125" style="57" bestFit="1" customWidth="1"/>
@@ -3472,7 +3499,7 @@
     <col min="11" max="16384" width="9.140625" style="57"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10">
       <c r="A1" s="53" t="s">
         <v>4</v>
       </c>
@@ -3504,7 +3531,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10">
       <c r="A2" s="58" t="s">
         <v>75</v>
       </c>
@@ -3541,7 +3568,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10">
       <c r="A3" s="58" t="s">
         <v>75</v>
       </c>
@@ -3578,7 +3605,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10">
       <c r="A4" s="58" t="s">
         <v>75</v>
       </c>
@@ -3615,7 +3642,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10">
       <c r="A5" s="58"/>
       <c r="B5" s="59"/>
       <c r="C5" s="59"/>
@@ -3642,7 +3669,7 @@
       </c>
       <c r="J5" s="64"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10">
       <c r="A6" s="58"/>
       <c r="B6" s="59"/>
       <c r="C6" s="59"/>
@@ -3683,14 +3710,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.140625" style="65" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.42578125" style="57" bestFit="1" customWidth="1"/>
@@ -3705,7 +3732,7 @@
     <col min="11" max="16384" width="9.140625" style="57"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10">
       <c r="A1" s="53" t="s">
         <v>4</v>
       </c>
@@ -3737,7 +3764,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10">
       <c r="A2" s="58" t="s">
         <v>84</v>
       </c>
@@ -3774,7 +3801,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10">
       <c r="A3" s="58" t="s">
         <v>99</v>
       </c>
@@ -3811,7 +3838,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10">
       <c r="A4" s="58"/>
       <c r="B4" s="59"/>
       <c r="C4" s="59"/>
@@ -3838,7 +3865,7 @@
       </c>
       <c r="J4" s="64"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10">
       <c r="A5" s="58"/>
       <c r="B5" s="59"/>
       <c r="C5" s="59"/>
@@ -3865,7 +3892,7 @@
       </c>
       <c r="J5" s="64"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10">
       <c r="A6" s="58"/>
       <c r="B6" s="59"/>
       <c r="C6" s="59"/>
@@ -3906,14 +3933,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AI10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="4.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.42578125" bestFit="1" customWidth="1"/>
@@ -3926,7 +3953,7 @@
     <col min="30" max="35" width="4.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:35" ht="15" customHeight="1" thickBot="1">
       <c r="A1" s="91" t="s">
         <v>81</v>
       </c>
@@ -3967,7 +3994,7 @@
       <c r="AH1" s="89"/>
       <c r="AI1" s="90"/>
     </row>
-    <row r="2" spans="1:35" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" s="26" customFormat="1" ht="15" customHeight="1">
       <c r="A2" s="92"/>
       <c r="B2" s="92"/>
       <c r="C2" s="93" t="s">
@@ -4014,7 +4041,7 @@
       <c r="AH2" s="86"/>
       <c r="AI2" s="87"/>
     </row>
-    <row r="3" spans="1:35" ht="180" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" ht="180">
       <c r="A3" s="11" t="s">
         <v>5</v>
       </c>
@@ -4121,7 +4148,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35">
       <c r="A4" s="23">
         <v>1</v>
       </c>
@@ -4228,7 +4255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35">
       <c r="A5" s="23">
         <v>2</v>
       </c>
@@ -4335,7 +4362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35">
       <c r="A6" s="23">
         <v>3</v>
       </c>
@@ -4376,7 +4403,7 @@
       <c r="AH6" s="35"/>
       <c r="AI6" s="44"/>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35">
       <c r="A7" s="23">
         <v>4</v>
       </c>
@@ -4417,7 +4444,7 @@
       <c r="AH7" s="35"/>
       <c r="AI7" s="44"/>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35">
       <c r="A8" s="23">
         <v>5</v>
       </c>
@@ -4458,7 +4485,7 @@
       <c r="AH8" s="35"/>
       <c r="AI8" s="44"/>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35">
       <c r="A9" s="23">
         <v>6</v>
       </c>
@@ -4499,7 +4526,7 @@
       <c r="AH9" s="35"/>
       <c r="AI9" s="44"/>
     </row>
-    <row r="10" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:35" ht="15.75" thickBot="1">
       <c r="A10" s="23">
         <v>7</v>
       </c>
@@ -4540,7 +4567,7 @@
         <v>0.25</v>
       </c>
       <c r="N10" s="47">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="O10" s="47">
         <v>0.5</v>
@@ -4622,12 +4649,12 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="17.42578125" style="27" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="3" bestFit="1" customWidth="1"/>
@@ -4637,7 +4664,7 @@
     <col min="7" max="7" width="13.140625" style="29" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" s="11" t="s">
         <v>69</v>
       </c>
@@ -4660,7 +4687,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="A2" s="99" t="s">
         <v>25</v>
       </c>
@@ -4687,7 +4714,7 @@
       </c>
       <c r="H2" s="73"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="A3" s="100"/>
       <c r="B3" s="9">
         <v>2</v>
@@ -4712,7 +4739,7 @@
       </c>
       <c r="H3" s="73"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8">
       <c r="A4" s="100"/>
       <c r="B4" s="9">
         <v>3</v>
@@ -4737,7 +4764,7 @@
       </c>
       <c r="H4" s="73"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8">
       <c r="A5" s="100"/>
       <c r="B5" s="9">
         <v>4</v>
@@ -4762,7 +4789,7 @@
       </c>
       <c r="H5" s="73"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8">
       <c r="A6" s="100"/>
       <c r="B6" s="9">
         <v>5</v>
@@ -4787,7 +4814,7 @@
       </c>
       <c r="H6" s="73"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8">
       <c r="A7" s="101"/>
       <c r="B7" s="9">
         <v>6</v>
@@ -4812,7 +4839,7 @@
       </c>
       <c r="H7" s="73"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8">
       <c r="A8" s="99" t="s">
         <v>29</v>
       </c>
@@ -4838,7 +4865,7 @@
         <v>591.86</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8">
       <c r="A9" s="100"/>
       <c r="B9" s="9">
         <v>8</v>
@@ -4862,7 +4889,7 @@
         <v>236.74</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8">
       <c r="A10" s="100"/>
       <c r="B10" s="9">
         <v>9</v>
@@ -4886,7 +4913,7 @@
         <v>177.56</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8">
       <c r="A11" s="100"/>
       <c r="B11" s="9">
         <v>10</v>
@@ -4910,7 +4937,7 @@
         <v>591.86</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8">
       <c r="A12" s="100"/>
       <c r="B12" s="9">
         <v>11</v>
@@ -4934,7 +4961,7 @@
         <v>177.56</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8">
       <c r="A13" s="100"/>
       <c r="B13" s="9">
         <v>12</v>
@@ -4958,7 +4985,7 @@
         <v>118.37</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8">
       <c r="A14" s="100"/>
       <c r="B14" s="9">
         <v>13</v>
@@ -4982,7 +5009,7 @@
         <v>118.37</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8">
       <c r="A15" s="100"/>
       <c r="B15" s="9">
         <v>14</v>
@@ -5006,7 +5033,7 @@
         <v>295.93</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8">
       <c r="A16" s="100"/>
       <c r="B16" s="9">
         <v>15</v>
@@ -5030,7 +5057,7 @@
         <v>118.37</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7">
       <c r="A17" s="99" t="s">
         <v>67</v>
       </c>
@@ -5056,7 +5083,7 @@
         <v>177.56</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7">
       <c r="A18" s="100"/>
       <c r="B18" s="9">
         <v>17</v>
@@ -5080,7 +5107,7 @@
         <v>71.02</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7">
       <c r="A19" s="100"/>
       <c r="B19" s="9">
         <v>18</v>
@@ -5104,7 +5131,7 @@
         <v>35.51</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7">
       <c r="A20" s="100"/>
       <c r="B20" s="9">
         <v>19</v>
@@ -5128,7 +5155,7 @@
         <v>236.74</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7">
       <c r="A21" s="100"/>
       <c r="B21" s="9">
         <v>20</v>
@@ -5152,7 +5179,7 @@
         <v>71.02</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7">
       <c r="A22" s="100"/>
       <c r="B22" s="9">
         <v>21</v>
@@ -5176,7 +5203,7 @@
         <v>35.51</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7">
       <c r="A23" s="100"/>
       <c r="B23" s="9">
         <v>22</v>
@@ -5200,7 +5227,7 @@
         <v>71.02</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7">
       <c r="A24" s="100"/>
       <c r="B24" s="9">
         <v>23</v>
@@ -5224,7 +5251,7 @@
         <v>35.51</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7">
       <c r="A25" s="100"/>
       <c r="B25" s="9">
         <v>24</v>
@@ -5248,7 +5275,7 @@
         <v>35.51</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7">
       <c r="A26" s="101"/>
       <c r="B26" s="9">
         <v>25</v>
@@ -5272,7 +5299,7 @@
         <v>71.02</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7">
       <c r="A27" s="99" t="s">
         <v>68</v>
       </c>
@@ -5298,7 +5325,7 @@
         <v>295.93</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7">
       <c r="A28" s="100"/>
       <c r="B28" s="9">
         <v>27</v>
@@ -5322,7 +5349,7 @@
         <v>71.02</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7">
       <c r="A29" s="100"/>
       <c r="B29" s="9">
         <v>28</v>
@@ -5346,7 +5373,7 @@
         <v>177.56</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7">
       <c r="A30" s="101"/>
       <c r="B30" s="9">
         <v>29</v>
@@ -5370,7 +5397,7 @@
         <v>71.02</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7">
       <c r="A31" s="99" t="s">
         <v>28</v>
       </c>
@@ -5396,7 +5423,7 @@
         <v>35.51</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7">
       <c r="A32" s="100"/>
       <c r="B32" s="9">
         <v>31</v>
@@ -5420,7 +5447,7 @@
         <v>35.51</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7">
       <c r="A33" s="100"/>
       <c r="B33" s="9">
         <v>32</v>
@@ -5444,7 +5471,7 @@
         <v>71.02</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7">
       <c r="A34" s="100"/>
       <c r="B34" s="9">
         <v>33</v>

--- a/Project Management/Effort Calculation.xlsx
+++ b/Project Management/Effort Calculation.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="330" windowWidth="18795" windowHeight="11700" tabRatio="785" activeTab="3"/>
@@ -24,12 +24,12 @@
     <definedName name="MemberList">'Team Member'!$B$4:$B$10</definedName>
     <definedName name="SkillList">'Skill Set'!$C$2:$C$34</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="120">
   <si>
     <t>Total</t>
   </si>
@@ -377,16 +377,28 @@
   </si>
   <si>
     <t>06.11.2015</t>
+  </si>
+  <si>
+    <t>07.11.2015</t>
+  </si>
+  <si>
+    <t>Wireframe for student</t>
+  </si>
+  <si>
+    <t>10.11.2015</t>
+  </si>
+  <si>
+    <t>Billing design, discussion for fees</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;₹&quot;\ #,##0.00"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1198,6 +1210,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1232,6 +1245,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1407,12 +1421,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:O20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.85546875" style="1" customWidth="1"/>
     <col min="2" max="4" width="9.140625" style="1"/>
@@ -1420,8 +1434,8 @@
     <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" ht="15.75" thickBot="1"/>
-    <row r="2" spans="2:15">
+    <row r="1" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B2" s="18"/>
       <c r="C2" s="19"/>
       <c r="D2" s="19"/>
@@ -1437,7 +1451,7 @@
       <c r="N2" s="19"/>
       <c r="O2" s="20"/>
     </row>
-    <row r="3" spans="2:15">
+    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B3" s="3"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
@@ -1453,7 +1467,7 @@
       <c r="N3" s="4"/>
       <c r="O3" s="21"/>
     </row>
-    <row r="4" spans="2:15">
+    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B4" s="3"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -1469,7 +1483,7 @@
       <c r="N4" s="4"/>
       <c r="O4" s="21"/>
     </row>
-    <row r="5" spans="2:15">
+    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B5" s="3"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -1485,7 +1499,7 @@
       <c r="N5" s="4"/>
       <c r="O5" s="21"/>
     </row>
-    <row r="6" spans="2:15">
+    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B6" s="3"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
@@ -1501,7 +1515,7 @@
       <c r="N6" s="4"/>
       <c r="O6" s="21"/>
     </row>
-    <row r="7" spans="2:15">
+    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B7" s="3"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
@@ -1517,7 +1531,7 @@
       <c r="N7" s="4"/>
       <c r="O7" s="21"/>
     </row>
-    <row r="8" spans="2:15">
+    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B8" s="3"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
@@ -1533,7 +1547,7 @@
       <c r="N8" s="4"/>
       <c r="O8" s="21"/>
     </row>
-    <row r="9" spans="2:15">
+    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B9" s="3"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
@@ -1549,7 +1563,7 @@
       <c r="N9" s="4"/>
       <c r="O9" s="21"/>
     </row>
-    <row r="10" spans="2:15">
+    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B10" s="3"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
@@ -1567,7 +1581,7 @@
       <c r="N10" s="4"/>
       <c r="O10" s="21"/>
     </row>
-    <row r="11" spans="2:15">
+    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B11" s="3"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -1578,7 +1592,7 @@
       <c r="G11" s="77"/>
       <c r="H11" s="81">
         <f>Summery!D10</f>
-        <v>15565.8465</v>
+        <v>16335.266500000002</v>
       </c>
       <c r="I11" s="82"/>
       <c r="J11" s="83"/>
@@ -1588,7 +1602,7 @@
       <c r="N11" s="4"/>
       <c r="O11" s="21"/>
     </row>
-    <row r="12" spans="2:15">
+    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B12" s="3"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
@@ -1599,7 +1613,7 @@
       <c r="G12" s="77"/>
       <c r="H12" s="78">
         <f>Summery!C10</f>
-        <v>56.5</v>
+        <v>61.5</v>
       </c>
       <c r="I12" s="79"/>
       <c r="J12" s="80"/>
@@ -1609,7 +1623,7 @@
       <c r="N12" s="4"/>
       <c r="O12" s="21"/>
     </row>
-    <row r="13" spans="2:15">
+    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B13" s="3"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -1620,7 +1634,7 @@
       <c r="G13" s="77"/>
       <c r="H13" s="78">
         <f>H12/8</f>
-        <v>7.0625</v>
+        <v>7.6875</v>
       </c>
       <c r="I13" s="79"/>
       <c r="J13" s="80"/>
@@ -1630,7 +1644,7 @@
       <c r="N13" s="4"/>
       <c r="O13" s="21"/>
     </row>
-    <row r="14" spans="2:15">
+    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B14" s="3"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
@@ -1646,7 +1660,7 @@
       <c r="N14" s="4"/>
       <c r="O14" s="21"/>
     </row>
-    <row r="15" spans="2:15">
+    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B15" s="3"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -1662,7 +1676,7 @@
       <c r="N15" s="4"/>
       <c r="O15" s="21"/>
     </row>
-    <row r="16" spans="2:15">
+    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B16" s="3"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -1678,7 +1692,7 @@
       <c r="N16" s="4"/>
       <c r="O16" s="21"/>
     </row>
-    <row r="17" spans="2:15">
+    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B17" s="3"/>
       <c r="D17" s="4"/>
       <c r="E17" s="5"/>
@@ -1693,7 +1707,7 @@
       <c r="N17" s="4"/>
       <c r="O17" s="21"/>
     </row>
-    <row r="18" spans="2:15">
+    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B18" s="3"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
@@ -1708,7 +1722,7 @@
       <c r="N18" s="4"/>
       <c r="O18" s="21"/>
     </row>
-    <row r="19" spans="2:15">
+    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B19" s="3"/>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
@@ -1724,7 +1738,7 @@
       <c r="N19" s="4"/>
       <c r="O19" s="21"/>
     </row>
-    <row r="20" spans="2:15" ht="15.75" thickBot="1">
+    <row r="20" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="6"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -1757,14 +1771,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.85546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="28.5703125" style="1" customWidth="1"/>
@@ -1786,7 +1800,7 @@
     <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="4"/>
       <c r="B1" s="84" t="s">
         <v>61</v>
@@ -1809,7 +1823,7 @@
       <c r="P1" s="8"/>
       <c r="Q1" s="8"/>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
       <c r="B2" s="11" t="s">
         <v>6</v>
@@ -1840,18 +1854,18 @@
       <c r="P2" s="8"/>
       <c r="Q2" s="8"/>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="10" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="14">
         <f>SUMIF(Business!B:B,B3,Business!D:D) + SUMIF(School!B:B,B3,School!D:D) + SUMIF(Service!B:B,B3,Service!D:D)+SUMIF(Retail!B:B,B3,Retail!D:D) + SUMIF(Tourism!B:B,B3,Tourism!D:D)</f>
-        <v>39.5</v>
+        <v>44.5</v>
       </c>
       <c r="D3" s="33">
         <f>SUMIF(Business!B:B,B3,Business!I:I) + SUMIF(School!B:B,B3,School!I:I) + SUMIF(Service!B:B,B3,Service!I:I)+SUMIF(Retail!B:B,B3,Retail!I:I) + SUMIF(Tourism!B:B,B3,Tourism!I:I)</f>
-        <v>12458.585000000001</v>
+        <v>13228.005000000001</v>
       </c>
       <c r="E3" s="5"/>
       <c r="F3" s="10" t="s">
@@ -1875,7 +1889,7 @@
       <c r="P3" s="5"/>
       <c r="Q3" s="5"/>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="10" t="s">
         <v>10</v>
@@ -1894,11 +1908,11 @@
       </c>
       <c r="G4" s="14">
         <f>SUM(School!D:D)</f>
-        <v>32.5</v>
+        <v>37.5</v>
       </c>
       <c r="H4" s="33">
         <f>SUM(School!I:I)</f>
-        <v>5800.1974999999984</v>
+        <v>6569.6174999999985</v>
       </c>
       <c r="I4" s="5"/>
       <c r="J4" s="4"/>
@@ -1910,7 +1924,7 @@
       <c r="P4" s="5"/>
       <c r="Q4" s="5"/>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="10" t="s">
         <v>8</v>
@@ -1945,7 +1959,7 @@
       <c r="P5" s="5"/>
       <c r="Q5" s="5"/>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="10" t="s">
         <v>11</v>
@@ -1980,7 +1994,7 @@
       <c r="P6" s="5"/>
       <c r="Q6" s="5"/>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="10" t="s">
         <v>12</v>
@@ -2015,7 +2029,7 @@
       <c r="P7" s="5"/>
       <c r="Q7" s="5"/>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="10" t="s">
         <v>13</v>
@@ -2034,11 +2048,11 @@
       </c>
       <c r="G8" s="15">
         <f>SUM(G3:G7)</f>
-        <v>56.5</v>
+        <v>61.5</v>
       </c>
       <c r="H8" s="34">
         <f>SUM(H3:H7)</f>
-        <v>15565.846499999998</v>
+        <v>16335.2665</v>
       </c>
       <c r="I8" s="5"/>
       <c r="J8" s="4"/>
@@ -2050,7 +2064,7 @@
       <c r="P8" s="5"/>
       <c r="Q8" s="5"/>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="10" t="s">
         <v>14</v>
@@ -2077,18 +2091,18 @@
       <c r="P9" s="5"/>
       <c r="Q9" s="5"/>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="12" t="s">
         <v>0</v>
       </c>
       <c r="C10" s="15">
         <f>SUM(C3:C9)</f>
-        <v>56.5</v>
+        <v>61.5</v>
       </c>
       <c r="D10" s="34">
         <f>SUM(D3:D9)</f>
-        <v>15565.8465</v>
+        <v>16335.266500000002</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="4"/>
@@ -2104,7 +2118,7 @@
       <c r="P10" s="5"/>
       <c r="Q10" s="5"/>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="16"/>
@@ -2120,7 +2134,7 @@
       <c r="P11" s="5"/>
       <c r="Q11" s="5"/>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="16"/>
@@ -2136,7 +2150,7 @@
       <c r="P12" s="5"/>
       <c r="Q12" s="5"/>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="16"/>
@@ -2155,7 +2169,7 @@
       <c r="P13" s="5"/>
       <c r="Q13" s="5"/>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="16"/>
@@ -2174,7 +2188,7 @@
       <c r="P14" s="5"/>
       <c r="Q14" s="5"/>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="16"/>
@@ -2193,7 +2207,7 @@
       <c r="P15" s="5"/>
       <c r="Q15" s="5"/>
     </row>
-    <row r="16" spans="1:17">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="16"/>
@@ -2212,7 +2226,7 @@
       <c r="P16" s="5"/>
       <c r="Q16" s="5"/>
     </row>
-    <row r="17" spans="1:17">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="16"/>
@@ -2231,7 +2245,7 @@
       <c r="P17" s="5"/>
       <c r="Q17" s="5"/>
     </row>
-    <row r="18" spans="1:17">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="16"/>
@@ -2265,14 +2279,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.140625" style="65" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.42578125" style="57" bestFit="1" customWidth="1"/>
@@ -2287,7 +2301,7 @@
     <col min="11" max="16384" width="9.140625" style="57"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="69" t="s">
         <v>4</v>
       </c>
@@ -2319,7 +2333,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="58" t="s">
         <v>51</v>
       </c>
@@ -2356,7 +2370,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="58" t="s">
         <v>88</v>
       </c>
@@ -2393,7 +2407,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="58" t="s">
         <v>93</v>
       </c>
@@ -2430,7 +2444,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="58"/>
       <c r="B5" s="59"/>
       <c r="C5" s="59"/>
@@ -2457,7 +2471,7 @@
       </c>
       <c r="J5" s="64"/>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="58"/>
       <c r="B6" s="59"/>
       <c r="C6" s="59"/>
@@ -2499,14 +2513,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.7109375" style="65" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.42578125" style="57" bestFit="1" customWidth="1"/>
@@ -2521,7 +2535,7 @@
     <col min="11" max="16384" width="9.140625" style="57"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="53" t="s">
         <v>4</v>
       </c>
@@ -2553,7 +2567,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="58" t="s">
         <v>95</v>
       </c>
@@ -2567,19 +2581,19 @@
         <v>2</v>
       </c>
       <c r="E2" s="61">
-        <f t="shared" ref="E2:E19" si="0">IF(ISERROR(MATCH(C2,SkillList,0)),0,MATCH(C2,SkillList,0))</f>
+        <f t="shared" ref="E2:E26" si="0">IF(ISERROR(MATCH(C2,SkillList,0)),0,MATCH(C2,SkillList,0))</f>
         <v>7</v>
       </c>
       <c r="F2" s="61">
-        <f t="shared" ref="F2:F19" si="1">IF(ISERROR(MATCH(B2,MemberList,0)),0,MATCH(B2,MemberList,0))</f>
+        <f t="shared" ref="F2:F26" si="1">IF(ISERROR(MATCH(B2,MemberList,0)),0,MATCH(B2,MemberList,0))</f>
         <v>7</v>
       </c>
       <c r="G2" s="62">
-        <f t="shared" ref="G2:G19" si="2">INDEX(CostPerHour,E2)</f>
+        <f t="shared" ref="G2:G26" si="2">INDEX(CostPerHour,E2)</f>
         <v>591.86</v>
       </c>
       <c r="H2" s="63">
-        <f t="shared" ref="H2:H19" si="3">IF(ISERROR(INDEX(Competency,F2,E2)), 0, INDEX(Competency,F2,E2))</f>
+        <f t="shared" ref="H2:H26" si="3">IF(ISERROR(INDEX(Competency,F2,E2)), 0, INDEX(Competency,F2,E2))</f>
         <v>0.5</v>
       </c>
       <c r="I2" s="62">
@@ -2588,7 +2602,7 @@
       </c>
       <c r="J2" s="64"/>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="58" t="s">
         <v>75</v>
       </c>
@@ -2623,7 +2637,7 @@
       </c>
       <c r="J3" s="64"/>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="58" t="s">
         <v>86</v>
       </c>
@@ -2658,7 +2672,7 @@
       </c>
       <c r="J4" s="64"/>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="58" t="s">
         <v>93</v>
       </c>
@@ -2695,7 +2709,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="58" t="s">
         <v>97</v>
       </c>
@@ -2725,14 +2739,14 @@
         <v>1</v>
       </c>
       <c r="I6" s="62">
-        <f t="shared" ref="I6:I19" si="5">D6*G6*H6</f>
+        <f t="shared" ref="I6:I26" si="5">D6*G6*H6</f>
         <v>177.56</v>
       </c>
       <c r="J6" s="64" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="58" t="s">
         <v>101</v>
       </c>
@@ -2769,7 +2783,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="58" t="s">
         <v>102</v>
       </c>
@@ -2806,7 +2820,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="58" t="s">
         <v>102</v>
       </c>
@@ -2843,7 +2857,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="58" t="s">
         <v>103</v>
       </c>
@@ -2880,7 +2894,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="58" t="s">
         <v>108</v>
       </c>
@@ -2917,7 +2931,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="58" t="s">
         <v>108</v>
       </c>
@@ -2954,7 +2968,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="58" t="s">
         <v>111</v>
       </c>
@@ -2991,7 +3005,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="58" t="s">
         <v>111</v>
       </c>
@@ -3028,7 +3042,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="58" t="s">
         <v>115</v>
       </c>
@@ -3065,18 +3079,26 @@
         <v>113</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="58"/>
-      <c r="B16" s="59"/>
-      <c r="C16" s="59"/>
-      <c r="D16" s="60"/>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="58" t="s">
+        <v>116</v>
+      </c>
+      <c r="B16" s="59" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="59" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="60">
+        <v>2</v>
+      </c>
       <c r="E16" s="61">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F16" s="61">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16" s="62">
         <f t="shared" si="2"/>
@@ -3084,26 +3106,36 @@
       </c>
       <c r="H16" s="63">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" s="62">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J16" s="64"/>
-    </row>
-    <row r="17" spans="1:10">
-      <c r="A17" s="58"/>
-      <c r="B17" s="59"/>
-      <c r="C17" s="59"/>
-      <c r="D17" s="60"/>
+        <v>236.74</v>
+      </c>
+      <c r="J16" s="64" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="58" t="s">
+        <v>118</v>
+      </c>
+      <c r="B17" s="59" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="60">
+        <v>3</v>
+      </c>
       <c r="E17" s="61">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="F17" s="61">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" s="62">
         <f t="shared" si="2"/>
@@ -3111,15 +3143,17 @@
       </c>
       <c r="H17" s="63">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" s="62">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J17" s="64"/>
-    </row>
-    <row r="18" spans="1:10">
+        <v>532.68000000000006</v>
+      </c>
+      <c r="J17" s="64" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="58"/>
       <c r="B18" s="59"/>
       <c r="C18" s="59"/>
@@ -3134,7 +3168,7 @@
       </c>
       <c r="G18" s="62">
         <f t="shared" si="2"/>
-        <v>118.37</v>
+        <v>71.02</v>
       </c>
       <c r="H18" s="63">
         <f t="shared" si="3"/>
@@ -3146,7 +3180,7 @@
       </c>
       <c r="J18" s="64"/>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="58"/>
       <c r="B19" s="59"/>
       <c r="C19" s="59"/>
@@ -3161,7 +3195,7 @@
       </c>
       <c r="G19" s="62">
         <f t="shared" si="2"/>
-        <v>591.86</v>
+        <v>35.51</v>
       </c>
       <c r="H19" s="63">
         <f t="shared" si="3"/>
@@ -3172,6 +3206,195 @@
         <v>0</v>
       </c>
       <c r="J19" s="64"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="58"/>
+      <c r="B20" s="59"/>
+      <c r="C20" s="59"/>
+      <c r="D20" s="60"/>
+      <c r="E20" s="61">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F20" s="61">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G20" s="62">
+        <f t="shared" si="2"/>
+        <v>236.74</v>
+      </c>
+      <c r="H20" s="63">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I20" s="62">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J20" s="64"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="58"/>
+      <c r="B21" s="59"/>
+      <c r="C21" s="59"/>
+      <c r="D21" s="60"/>
+      <c r="E21" s="61">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F21" s="61">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G21" s="62">
+        <f t="shared" si="2"/>
+        <v>71.02</v>
+      </c>
+      <c r="H21" s="63">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I21" s="62">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J21" s="64"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="58"/>
+      <c r="B22" s="59"/>
+      <c r="C22" s="59"/>
+      <c r="D22" s="60"/>
+      <c r="E22" s="61">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F22" s="61">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G22" s="62">
+        <f t="shared" si="2"/>
+        <v>35.51</v>
+      </c>
+      <c r="H22" s="63">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I22" s="62">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J22" s="64"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="58"/>
+      <c r="B23" s="59"/>
+      <c r="C23" s="59"/>
+      <c r="D23" s="60"/>
+      <c r="E23" s="61">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F23" s="61">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G23" s="62">
+        <f t="shared" si="2"/>
+        <v>71.02</v>
+      </c>
+      <c r="H23" s="63">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I23" s="62">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J23" s="64"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="58"/>
+      <c r="B24" s="59"/>
+      <c r="C24" s="59"/>
+      <c r="D24" s="60"/>
+      <c r="E24" s="61">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F24" s="61">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G24" s="62">
+        <f t="shared" si="2"/>
+        <v>35.51</v>
+      </c>
+      <c r="H24" s="63">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I24" s="62">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J24" s="64"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="58"/>
+      <c r="B25" s="59"/>
+      <c r="C25" s="59"/>
+      <c r="D25" s="60"/>
+      <c r="E25" s="61">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F25" s="61">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G25" s="62">
+        <f t="shared" si="2"/>
+        <v>71.02</v>
+      </c>
+      <c r="H25" s="63">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I25" s="62">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J25" s="64"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="58"/>
+      <c r="B26" s="59"/>
+      <c r="C26" s="59"/>
+      <c r="D26" s="60"/>
+      <c r="E26" s="61">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F26" s="61">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G26" s="62">
+        <f t="shared" si="2"/>
+        <v>35.51</v>
+      </c>
+      <c r="H26" s="63">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I26" s="62">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J26" s="64"/>
     </row>
   </sheetData>
   <dataValidations count="2">
@@ -3187,14 +3410,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.140625" style="65" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.42578125" style="57" bestFit="1" customWidth="1"/>
@@ -3209,7 +3432,7 @@
     <col min="11" max="16384" width="9.140625" style="57"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="53" t="s">
         <v>4</v>
       </c>
@@ -3241,7 +3464,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="58"/>
       <c r="B2" s="59" t="s">
         <v>8</v>
@@ -3272,7 +3495,7 @@
       </c>
       <c r="J2" s="64"/>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="58"/>
       <c r="B3" s="59" t="s">
         <v>8</v>
@@ -3303,7 +3526,7 @@
       </c>
       <c r="J3" s="64"/>
     </row>
-    <row r="4" spans="1:10" ht="30">
+    <row r="4" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="58" t="s">
         <v>75</v>
       </c>
@@ -3340,7 +3563,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="58" t="s">
         <v>75</v>
       </c>
@@ -3377,7 +3600,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="58" t="s">
         <v>86</v>
       </c>
@@ -3414,7 +3637,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="58" t="s">
         <v>86</v>
       </c>
@@ -3451,7 +3674,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="58"/>
       <c r="B8" s="59"/>
       <c r="C8" s="59"/>
@@ -3477,14 +3700,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.140625" style="65" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.42578125" style="57" bestFit="1" customWidth="1"/>
@@ -3499,7 +3722,7 @@
     <col min="11" max="16384" width="9.140625" style="57"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="53" t="s">
         <v>4</v>
       </c>
@@ -3531,7 +3754,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="58" t="s">
         <v>75</v>
       </c>
@@ -3568,7 +3791,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="58" t="s">
         <v>75</v>
       </c>
@@ -3605,7 +3828,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="58" t="s">
         <v>75</v>
       </c>
@@ -3642,7 +3865,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="58"/>
       <c r="B5" s="59"/>
       <c r="C5" s="59"/>
@@ -3669,7 +3892,7 @@
       </c>
       <c r="J5" s="64"/>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="58"/>
       <c r="B6" s="59"/>
       <c r="C6" s="59"/>
@@ -3710,14 +3933,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.140625" style="65" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.42578125" style="57" bestFit="1" customWidth="1"/>
@@ -3732,7 +3955,7 @@
     <col min="11" max="16384" width="9.140625" style="57"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="53" t="s">
         <v>4</v>
       </c>
@@ -3764,7 +3987,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="58" t="s">
         <v>84</v>
       </c>
@@ -3801,7 +4024,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="58" t="s">
         <v>99</v>
       </c>
@@ -3838,7 +4061,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="58"/>
       <c r="B4" s="59"/>
       <c r="C4" s="59"/>
@@ -3865,7 +4088,7 @@
       </c>
       <c r="J4" s="64"/>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="58"/>
       <c r="B5" s="59"/>
       <c r="C5" s="59"/>
@@ -3892,7 +4115,7 @@
       </c>
       <c r="J5" s="64"/>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="58"/>
       <c r="B6" s="59"/>
       <c r="C6" s="59"/>
@@ -3933,14 +4156,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.42578125" bestFit="1" customWidth="1"/>
@@ -3953,7 +4176,7 @@
     <col min="30" max="35" width="4.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="15" customHeight="1" thickBot="1">
+    <row r="1" spans="1:35" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="91" t="s">
         <v>81</v>
       </c>
@@ -3994,7 +4217,7 @@
       <c r="AH1" s="89"/>
       <c r="AI1" s="90"/>
     </row>
-    <row r="2" spans="1:35" s="26" customFormat="1" ht="15" customHeight="1">
+    <row r="2" spans="1:35" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="92"/>
       <c r="B2" s="92"/>
       <c r="C2" s="93" t="s">
@@ -4041,7 +4264,7 @@
       <c r="AH2" s="86"/>
       <c r="AI2" s="87"/>
     </row>
-    <row r="3" spans="1:35" ht="180">
+    <row r="3" spans="1:35" ht="180" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>5</v>
       </c>
@@ -4148,7 +4371,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:35">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" s="23">
         <v>1</v>
       </c>
@@ -4255,7 +4478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" s="23">
         <v>2</v>
       </c>
@@ -4362,7 +4585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" s="23">
         <v>3</v>
       </c>
@@ -4403,7 +4626,7 @@
       <c r="AH6" s="35"/>
       <c r="AI6" s="44"/>
     </row>
-    <row r="7" spans="1:35">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" s="23">
         <v>4</v>
       </c>
@@ -4444,7 +4667,7 @@
       <c r="AH7" s="35"/>
       <c r="AI7" s="44"/>
     </row>
-    <row r="8" spans="1:35">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" s="23">
         <v>5</v>
       </c>
@@ -4485,7 +4708,7 @@
       <c r="AH8" s="35"/>
       <c r="AI8" s="44"/>
     </row>
-    <row r="9" spans="1:35">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" s="23">
         <v>6</v>
       </c>
@@ -4526,7 +4749,7 @@
       <c r="AH9" s="35"/>
       <c r="AI9" s="44"/>
     </row>
-    <row r="10" spans="1:35" ht="15.75" thickBot="1">
+    <row r="10" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="23">
         <v>7</v>
       </c>
@@ -4649,12 +4872,12 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.42578125" style="27" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="3" bestFit="1" customWidth="1"/>
@@ -4664,7 +4887,7 @@
     <col min="7" max="7" width="13.140625" style="29" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>69</v>
       </c>
@@ -4687,7 +4910,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="99" t="s">
         <v>25</v>
       </c>
@@ -4714,7 +4937,7 @@
       </c>
       <c r="H2" s="73"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="100"/>
       <c r="B3" s="9">
         <v>2</v>
@@ -4739,7 +4962,7 @@
       </c>
       <c r="H3" s="73"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="100"/>
       <c r="B4" s="9">
         <v>3</v>
@@ -4764,7 +4987,7 @@
       </c>
       <c r="H4" s="73"/>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="100"/>
       <c r="B5" s="9">
         <v>4</v>
@@ -4789,7 +5012,7 @@
       </c>
       <c r="H5" s="73"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="100"/>
       <c r="B6" s="9">
         <v>5</v>
@@ -4814,7 +5037,7 @@
       </c>
       <c r="H6" s="73"/>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="101"/>
       <c r="B7" s="9">
         <v>6</v>
@@ -4839,7 +5062,7 @@
       </c>
       <c r="H7" s="73"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="99" t="s">
         <v>29</v>
       </c>
@@ -4865,7 +5088,7 @@
         <v>591.86</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="100"/>
       <c r="B9" s="9">
         <v>8</v>
@@ -4889,7 +5112,7 @@
         <v>236.74</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="100"/>
       <c r="B10" s="9">
         <v>9</v>
@@ -4913,7 +5136,7 @@
         <v>177.56</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="100"/>
       <c r="B11" s="9">
         <v>10</v>
@@ -4937,7 +5160,7 @@
         <v>591.86</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="100"/>
       <c r="B12" s="9">
         <v>11</v>
@@ -4961,7 +5184,7 @@
         <v>177.56</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="100"/>
       <c r="B13" s="9">
         <v>12</v>
@@ -4985,7 +5208,7 @@
         <v>118.37</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="100"/>
       <c r="B14" s="9">
         <v>13</v>
@@ -5009,7 +5232,7 @@
         <v>118.37</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="100"/>
       <c r="B15" s="9">
         <v>14</v>
@@ -5033,7 +5256,7 @@
         <v>295.93</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="100"/>
       <c r="B16" s="9">
         <v>15</v>
@@ -5057,7 +5280,7 @@
         <v>118.37</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="99" t="s">
         <v>67</v>
       </c>
@@ -5083,7 +5306,7 @@
         <v>177.56</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="100"/>
       <c r="B18" s="9">
         <v>17</v>
@@ -5107,7 +5330,7 @@
         <v>71.02</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="100"/>
       <c r="B19" s="9">
         <v>18</v>
@@ -5131,7 +5354,7 @@
         <v>35.51</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="100"/>
       <c r="B20" s="9">
         <v>19</v>
@@ -5155,7 +5378,7 @@
         <v>236.74</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="100"/>
       <c r="B21" s="9">
         <v>20</v>
@@ -5179,7 +5402,7 @@
         <v>71.02</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="100"/>
       <c r="B22" s="9">
         <v>21</v>
@@ -5203,7 +5426,7 @@
         <v>35.51</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="100"/>
       <c r="B23" s="9">
         <v>22</v>
@@ -5227,7 +5450,7 @@
         <v>71.02</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="100"/>
       <c r="B24" s="9">
         <v>23</v>
@@ -5251,7 +5474,7 @@
         <v>35.51</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="100"/>
       <c r="B25" s="9">
         <v>24</v>
@@ -5275,7 +5498,7 @@
         <v>35.51</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="101"/>
       <c r="B26" s="9">
         <v>25</v>
@@ -5299,7 +5522,7 @@
         <v>71.02</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="99" t="s">
         <v>68</v>
       </c>
@@ -5325,7 +5548,7 @@
         <v>295.93</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="100"/>
       <c r="B28" s="9">
         <v>27</v>
@@ -5349,7 +5572,7 @@
         <v>71.02</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="100"/>
       <c r="B29" s="9">
         <v>28</v>
@@ -5373,7 +5596,7 @@
         <v>177.56</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="101"/>
       <c r="B30" s="9">
         <v>29</v>
@@ -5397,7 +5620,7 @@
         <v>71.02</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="99" t="s">
         <v>28</v>
       </c>
@@ -5423,7 +5646,7 @@
         <v>35.51</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="100"/>
       <c r="B32" s="9">
         <v>31</v>
@@ -5447,7 +5670,7 @@
         <v>35.51</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="100"/>
       <c r="B33" s="9">
         <v>32</v>
@@ -5471,7 +5694,7 @@
         <v>71.02</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="100"/>
       <c r="B34" s="9">
         <v>33</v>

--- a/Project Management/Effort Calculation.xlsx
+++ b/Project Management/Effort Calculation.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="330" windowWidth="18795" windowHeight="11700" tabRatio="785" activeTab="3"/>
+    <workbookView xWindow="360" yWindow="330" windowWidth="18795" windowHeight="11700" tabRatio="785" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="8" r:id="rId1"/>
@@ -24,7 +24,7 @@
     <definedName name="MemberList">'Team Member'!$B$4:$B$10</definedName>
     <definedName name="SkillList">'Skill Set'!$C$2:$C$34</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -379,26 +379,26 @@
     <t>06.11.2015</t>
   </si>
   <si>
-    <t>07.11.2015</t>
-  </si>
-  <si>
-    <t>Wireframe for student</t>
-  </si>
-  <si>
     <t>10.11.2015</t>
   </si>
   <si>
-    <t>Billing design, discussion for fees</t>
+    <t>System Setup and Project Understanding</t>
+  </si>
+  <si>
+    <t>11.11.2015</t>
+  </si>
+  <si>
+    <t>Developed component for Caste,Class,Category,Section,Landline,Mobile, Subcaste</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;₹&quot;\ #,##0.00"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1210,7 +1210,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1245,7 +1244,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1421,12 +1419,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:O20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="2.85546875" style="1" customWidth="1"/>
     <col min="2" max="4" width="9.140625" style="1"/>
@@ -1434,8 +1432,8 @@
     <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:15" ht="15.75" thickBot="1"/>
+    <row r="2" spans="2:15">
       <c r="B2" s="18"/>
       <c r="C2" s="19"/>
       <c r="D2" s="19"/>
@@ -1451,7 +1449,7 @@
       <c r="N2" s="19"/>
       <c r="O2" s="20"/>
     </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:15">
       <c r="B3" s="3"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
@@ -1467,7 +1465,7 @@
       <c r="N3" s="4"/>
       <c r="O3" s="21"/>
     </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:15">
       <c r="B4" s="3"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -1483,7 +1481,7 @@
       <c r="N4" s="4"/>
       <c r="O4" s="21"/>
     </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:15">
       <c r="B5" s="3"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -1499,7 +1497,7 @@
       <c r="N5" s="4"/>
       <c r="O5" s="21"/>
     </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:15">
       <c r="B6" s="3"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
@@ -1515,7 +1513,7 @@
       <c r="N6" s="4"/>
       <c r="O6" s="21"/>
     </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:15">
       <c r="B7" s="3"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
@@ -1531,7 +1529,7 @@
       <c r="N7" s="4"/>
       <c r="O7" s="21"/>
     </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:15">
       <c r="B8" s="3"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
@@ -1547,7 +1545,7 @@
       <c r="N8" s="4"/>
       <c r="O8" s="21"/>
     </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:15">
       <c r="B9" s="3"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
@@ -1563,7 +1561,7 @@
       <c r="N9" s="4"/>
       <c r="O9" s="21"/>
     </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:15">
       <c r="B10" s="3"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
@@ -1581,7 +1579,7 @@
       <c r="N10" s="4"/>
       <c r="O10" s="21"/>
     </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:15">
       <c r="B11" s="3"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -1592,7 +1590,7 @@
       <c r="G11" s="77"/>
       <c r="H11" s="81">
         <f>Summery!D10</f>
-        <v>16335.266500000002</v>
+        <v>16512.806500000002</v>
       </c>
       <c r="I11" s="82"/>
       <c r="J11" s="83"/>
@@ -1602,7 +1600,7 @@
       <c r="N11" s="4"/>
       <c r="O11" s="21"/>
     </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:15">
       <c r="B12" s="3"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
@@ -1613,7 +1611,7 @@
       <c r="G12" s="77"/>
       <c r="H12" s="78">
         <f>Summery!C10</f>
-        <v>61.5</v>
+        <v>64.5</v>
       </c>
       <c r="I12" s="79"/>
       <c r="J12" s="80"/>
@@ -1623,7 +1621,7 @@
       <c r="N12" s="4"/>
       <c r="O12" s="21"/>
     </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:15">
       <c r="B13" s="3"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -1634,7 +1632,7 @@
       <c r="G13" s="77"/>
       <c r="H13" s="78">
         <f>H12/8</f>
-        <v>7.6875</v>
+        <v>8.0625</v>
       </c>
       <c r="I13" s="79"/>
       <c r="J13" s="80"/>
@@ -1644,7 +1642,7 @@
       <c r="N13" s="4"/>
       <c r="O13" s="21"/>
     </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:15">
       <c r="B14" s="3"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
@@ -1660,7 +1658,7 @@
       <c r="N14" s="4"/>
       <c r="O14" s="21"/>
     </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:15">
       <c r="B15" s="3"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -1676,7 +1674,7 @@
       <c r="N15" s="4"/>
       <c r="O15" s="21"/>
     </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:15">
       <c r="B16" s="3"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -1692,7 +1690,7 @@
       <c r="N16" s="4"/>
       <c r="O16" s="21"/>
     </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:15">
       <c r="B17" s="3"/>
       <c r="D17" s="4"/>
       <c r="E17" s="5"/>
@@ -1707,7 +1705,7 @@
       <c r="N17" s="4"/>
       <c r="O17" s="21"/>
     </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:15">
       <c r="B18" s="3"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
@@ -1722,7 +1720,7 @@
       <c r="N18" s="4"/>
       <c r="O18" s="21"/>
     </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:15">
       <c r="B19" s="3"/>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
@@ -1738,7 +1736,7 @@
       <c r="N19" s="4"/>
       <c r="O19" s="21"/>
     </row>
-    <row r="20" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:15" ht="15.75" thickBot="1">
       <c r="B20" s="6"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -1771,14 +1769,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="2.85546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="28.5703125" style="1" customWidth="1"/>
@@ -1800,7 +1798,7 @@
     <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17">
       <c r="A1" s="4"/>
       <c r="B1" s="84" t="s">
         <v>61</v>
@@ -1823,7 +1821,7 @@
       <c r="P1" s="8"/>
       <c r="Q1" s="8"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17">
       <c r="A2" s="4"/>
       <c r="B2" s="11" t="s">
         <v>6</v>
@@ -1854,18 +1852,18 @@
       <c r="P2" s="8"/>
       <c r="Q2" s="8"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17">
       <c r="A3" s="4"/>
       <c r="B3" s="10" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="14">
         <f>SUMIF(Business!B:B,B3,Business!D:D) + SUMIF(School!B:B,B3,School!D:D) + SUMIF(Service!B:B,B3,Service!D:D)+SUMIF(Retail!B:B,B3,Retail!D:D) + SUMIF(Tourism!B:B,B3,Tourism!D:D)</f>
-        <v>44.5</v>
+        <v>39.5</v>
       </c>
       <c r="D3" s="33">
         <f>SUMIF(Business!B:B,B3,Business!I:I) + SUMIF(School!B:B,B3,School!I:I) + SUMIF(Service!B:B,B3,Service!I:I)+SUMIF(Retail!B:B,B3,Retail!I:I) + SUMIF(Tourism!B:B,B3,Tourism!I:I)</f>
-        <v>13228.005000000001</v>
+        <v>12458.585000000001</v>
       </c>
       <c r="E3" s="5"/>
       <c r="F3" s="10" t="s">
@@ -1889,18 +1887,18 @@
       <c r="P3" s="5"/>
       <c r="Q3" s="5"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17">
       <c r="A4" s="4"/>
       <c r="B4" s="10" t="s">
         <v>10</v>
       </c>
       <c r="C4" s="14">
         <f>SUMIF(Business!B:B,B4,Business!D:D) + SUMIF(School!B:B,B4,School!D:D) + SUMIF(Service!B:B,B4,Service!D:D)+SUMIF(Retail!B:B,B4,Retail!D:D) + SUMIF(Tourism!B:B,B4,Tourism!D:D)</f>
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D4" s="33">
         <f>SUMIF(Business!B:B,B4,Business!I:I) + SUMIF(School!B:B,B4,School!I:I) + SUMIF(Service!B:B,B4,Service!I:I)+SUMIF(Retail!B:B,B4,Retail!I:I) + SUMIF(Tourism!B:B,B4,Tourism!I:I)</f>
-        <v>1657.2040000000002</v>
+        <v>2604.1640000000002</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="10" t="s">
@@ -1908,11 +1906,11 @@
       </c>
       <c r="G4" s="14">
         <f>SUM(School!D:D)</f>
-        <v>37.5</v>
+        <v>40.5</v>
       </c>
       <c r="H4" s="33">
         <f>SUM(School!I:I)</f>
-        <v>6569.6174999999985</v>
+        <v>6747.1574999999975</v>
       </c>
       <c r="I4" s="5"/>
       <c r="J4" s="4"/>
@@ -1924,7 +1922,7 @@
       <c r="P4" s="5"/>
       <c r="Q4" s="5"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17">
       <c r="A5" s="4"/>
       <c r="B5" s="10" t="s">
         <v>8</v>
@@ -1959,7 +1957,7 @@
       <c r="P5" s="5"/>
       <c r="Q5" s="5"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17">
       <c r="A6" s="4"/>
       <c r="B6" s="10" t="s">
         <v>11</v>
@@ -1994,7 +1992,7 @@
       <c r="P6" s="5"/>
       <c r="Q6" s="5"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17">
       <c r="A7" s="4"/>
       <c r="B7" s="10" t="s">
         <v>12</v>
@@ -2029,7 +2027,7 @@
       <c r="P7" s="5"/>
       <c r="Q7" s="5"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17">
       <c r="A8" s="4"/>
       <c r="B8" s="10" t="s">
         <v>13</v>
@@ -2048,11 +2046,11 @@
       </c>
       <c r="G8" s="15">
         <f>SUM(G3:G7)</f>
-        <v>61.5</v>
+        <v>64.5</v>
       </c>
       <c r="H8" s="34">
         <f>SUM(H3:H7)</f>
-        <v>16335.2665</v>
+        <v>16512.806499999995</v>
       </c>
       <c r="I8" s="5"/>
       <c r="J8" s="4"/>
@@ -2064,7 +2062,7 @@
       <c r="P8" s="5"/>
       <c r="Q8" s="5"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17">
       <c r="A9" s="4"/>
       <c r="B9" s="10" t="s">
         <v>14</v>
@@ -2091,18 +2089,18 @@
       <c r="P9" s="5"/>
       <c r="Q9" s="5"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17">
       <c r="A10" s="4"/>
       <c r="B10" s="12" t="s">
         <v>0</v>
       </c>
       <c r="C10" s="15">
         <f>SUM(C3:C9)</f>
-        <v>61.5</v>
+        <v>64.5</v>
       </c>
       <c r="D10" s="34">
         <f>SUM(D3:D9)</f>
-        <v>16335.266500000002</v>
+        <v>16512.806500000002</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="4"/>
@@ -2118,7 +2116,7 @@
       <c r="P10" s="5"/>
       <c r="Q10" s="5"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="16"/>
@@ -2134,7 +2132,7 @@
       <c r="P11" s="5"/>
       <c r="Q11" s="5"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="16"/>
@@ -2150,7 +2148,7 @@
       <c r="P12" s="5"/>
       <c r="Q12" s="5"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="16"/>
@@ -2169,7 +2167,7 @@
       <c r="P13" s="5"/>
       <c r="Q13" s="5"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="16"/>
@@ -2188,7 +2186,7 @@
       <c r="P14" s="5"/>
       <c r="Q14" s="5"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="16"/>
@@ -2207,7 +2205,7 @@
       <c r="P15" s="5"/>
       <c r="Q15" s="5"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="16"/>
@@ -2226,7 +2224,7 @@
       <c r="P16" s="5"/>
       <c r="Q16" s="5"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="16"/>
@@ -2245,7 +2243,7 @@
       <c r="P17" s="5"/>
       <c r="Q17" s="5"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="16"/>
@@ -2279,14 +2277,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.140625" style="65" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.42578125" style="57" bestFit="1" customWidth="1"/>
@@ -2301,7 +2299,7 @@
     <col min="11" max="16384" width="9.140625" style="57"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10">
       <c r="A1" s="69" t="s">
         <v>4</v>
       </c>
@@ -2333,7 +2331,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10">
       <c r="A2" s="58" t="s">
         <v>51</v>
       </c>
@@ -2370,7 +2368,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10">
       <c r="A3" s="58" t="s">
         <v>88</v>
       </c>
@@ -2407,7 +2405,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10">
       <c r="A4" s="58" t="s">
         <v>93</v>
       </c>
@@ -2444,7 +2442,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10">
       <c r="A5" s="58"/>
       <c r="B5" s="59"/>
       <c r="C5" s="59"/>
@@ -2471,7 +2469,7 @@
       </c>
       <c r="J5" s="64"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10">
       <c r="A6" s="58"/>
       <c r="B6" s="59"/>
       <c r="C6" s="59"/>
@@ -2513,14 +2511,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.7109375" style="65" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.42578125" style="57" bestFit="1" customWidth="1"/>
@@ -2535,7 +2533,7 @@
     <col min="11" max="16384" width="9.140625" style="57"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10">
       <c r="A1" s="53" t="s">
         <v>4</v>
       </c>
@@ -2567,7 +2565,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10">
       <c r="A2" s="58" t="s">
         <v>95</v>
       </c>
@@ -2581,19 +2579,19 @@
         <v>2</v>
       </c>
       <c r="E2" s="61">
-        <f t="shared" ref="E2:E26" si="0">IF(ISERROR(MATCH(C2,SkillList,0)),0,MATCH(C2,SkillList,0))</f>
+        <f t="shared" ref="E2:E19" si="0">IF(ISERROR(MATCH(C2,SkillList,0)),0,MATCH(C2,SkillList,0))</f>
         <v>7</v>
       </c>
       <c r="F2" s="61">
-        <f t="shared" ref="F2:F26" si="1">IF(ISERROR(MATCH(B2,MemberList,0)),0,MATCH(B2,MemberList,0))</f>
+        <f t="shared" ref="F2:F19" si="1">IF(ISERROR(MATCH(B2,MemberList,0)),0,MATCH(B2,MemberList,0))</f>
         <v>7</v>
       </c>
       <c r="G2" s="62">
-        <f t="shared" ref="G2:G26" si="2">INDEX(CostPerHour,E2)</f>
+        <f t="shared" ref="G2:G19" si="2">INDEX(CostPerHour,E2)</f>
         <v>591.86</v>
       </c>
       <c r="H2" s="63">
-        <f t="shared" ref="H2:H26" si="3">IF(ISERROR(INDEX(Competency,F2,E2)), 0, INDEX(Competency,F2,E2))</f>
+        <f t="shared" ref="H2:H19" si="3">IF(ISERROR(INDEX(Competency,F2,E2)), 0, INDEX(Competency,F2,E2))</f>
         <v>0.5</v>
       </c>
       <c r="I2" s="62">
@@ -2602,7 +2600,7 @@
       </c>
       <c r="J2" s="64"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10">
       <c r="A3" s="58" t="s">
         <v>75</v>
       </c>
@@ -2637,7 +2635,7 @@
       </c>
       <c r="J3" s="64"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10">
       <c r="A4" s="58" t="s">
         <v>86</v>
       </c>
@@ -2672,7 +2670,7 @@
       </c>
       <c r="J4" s="64"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10">
       <c r="A5" s="58" t="s">
         <v>93</v>
       </c>
@@ -2709,7 +2707,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10">
       <c r="A6" s="58" t="s">
         <v>97</v>
       </c>
@@ -2739,14 +2737,14 @@
         <v>1</v>
       </c>
       <c r="I6" s="62">
-        <f t="shared" ref="I6:I26" si="5">D6*G6*H6</f>
+        <f t="shared" ref="I6:I19" si="5">D6*G6*H6</f>
         <v>177.56</v>
       </c>
       <c r="J6" s="64" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10">
       <c r="A7" s="58" t="s">
         <v>101</v>
       </c>
@@ -2783,7 +2781,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10">
       <c r="A8" s="58" t="s">
         <v>102</v>
       </c>
@@ -2820,7 +2818,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10">
       <c r="A9" s="58" t="s">
         <v>102</v>
       </c>
@@ -2857,7 +2855,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10">
       <c r="A10" s="58" t="s">
         <v>103</v>
       </c>
@@ -2894,7 +2892,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10">
       <c r="A11" s="58" t="s">
         <v>108</v>
       </c>
@@ -2931,7 +2929,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10">
       <c r="A12" s="58" t="s">
         <v>108</v>
       </c>
@@ -2968,7 +2966,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10">
       <c r="A13" s="58" t="s">
         <v>111</v>
       </c>
@@ -3005,7 +3003,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10">
       <c r="A14" s="58" t="s">
         <v>111</v>
       </c>
@@ -3042,7 +3040,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10">
       <c r="A15" s="58" t="s">
         <v>115</v>
       </c>
@@ -3079,18 +3077,18 @@
         <v>113</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10">
       <c r="A16" s="58" t="s">
         <v>116</v>
       </c>
       <c r="B16" s="59" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C16" s="59" t="s">
         <v>19</v>
       </c>
       <c r="D16" s="60">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E16" s="61">
         <f t="shared" si="0"/>
@@ -3098,7 +3096,7 @@
       </c>
       <c r="F16" s="61">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G16" s="62">
         <f t="shared" si="2"/>
@@ -3110,36 +3108,36 @@
       </c>
       <c r="I16" s="62">
         <f t="shared" si="5"/>
-        <v>236.74</v>
+        <v>473.48</v>
       </c>
       <c r="J16" s="64" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" ht="30">
       <c r="A17" s="58" t="s">
         <v>118</v>
       </c>
       <c r="B17" s="59" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C17" s="59" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D17" s="60">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E17" s="61">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" s="61">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G17" s="62">
         <f t="shared" si="2"/>
-        <v>177.56</v>
+        <v>118.37</v>
       </c>
       <c r="H17" s="63">
         <f t="shared" si="3"/>
@@ -3147,13 +3145,13 @@
       </c>
       <c r="I17" s="62">
         <f t="shared" si="5"/>
-        <v>532.68000000000006</v>
+        <v>473.48</v>
       </c>
       <c r="J17" s="64" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10">
       <c r="A18" s="58"/>
       <c r="B18" s="59"/>
       <c r="C18" s="59"/>
@@ -3180,7 +3178,7 @@
       </c>
       <c r="J18" s="64"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10">
       <c r="A19" s="58"/>
       <c r="B19" s="59"/>
       <c r="C19" s="59"/>
@@ -3206,195 +3204,6 @@
         <v>0</v>
       </c>
       <c r="J19" s="64"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="58"/>
-      <c r="B20" s="59"/>
-      <c r="C20" s="59"/>
-      <c r="D20" s="60"/>
-      <c r="E20" s="61">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F20" s="61">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G20" s="62">
-        <f t="shared" si="2"/>
-        <v>236.74</v>
-      </c>
-      <c r="H20" s="63">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I20" s="62">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J20" s="64"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="58"/>
-      <c r="B21" s="59"/>
-      <c r="C21" s="59"/>
-      <c r="D21" s="60"/>
-      <c r="E21" s="61">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F21" s="61">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G21" s="62">
-        <f t="shared" si="2"/>
-        <v>71.02</v>
-      </c>
-      <c r="H21" s="63">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I21" s="62">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J21" s="64"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="58"/>
-      <c r="B22" s="59"/>
-      <c r="C22" s="59"/>
-      <c r="D22" s="60"/>
-      <c r="E22" s="61">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F22" s="61">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G22" s="62">
-        <f t="shared" si="2"/>
-        <v>35.51</v>
-      </c>
-      <c r="H22" s="63">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I22" s="62">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J22" s="64"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="58"/>
-      <c r="B23" s="59"/>
-      <c r="C23" s="59"/>
-      <c r="D23" s="60"/>
-      <c r="E23" s="61">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F23" s="61">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G23" s="62">
-        <f t="shared" si="2"/>
-        <v>71.02</v>
-      </c>
-      <c r="H23" s="63">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I23" s="62">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J23" s="64"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="58"/>
-      <c r="B24" s="59"/>
-      <c r="C24" s="59"/>
-      <c r="D24" s="60"/>
-      <c r="E24" s="61">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F24" s="61">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G24" s="62">
-        <f t="shared" si="2"/>
-        <v>35.51</v>
-      </c>
-      <c r="H24" s="63">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I24" s="62">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J24" s="64"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="58"/>
-      <c r="B25" s="59"/>
-      <c r="C25" s="59"/>
-      <c r="D25" s="60"/>
-      <c r="E25" s="61">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F25" s="61">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G25" s="62">
-        <f t="shared" si="2"/>
-        <v>71.02</v>
-      </c>
-      <c r="H25" s="63">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I25" s="62">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J25" s="64"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="58"/>
-      <c r="B26" s="59"/>
-      <c r="C26" s="59"/>
-      <c r="D26" s="60"/>
-      <c r="E26" s="61">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F26" s="61">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G26" s="62">
-        <f t="shared" si="2"/>
-        <v>35.51</v>
-      </c>
-      <c r="H26" s="63">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I26" s="62">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J26" s="64"/>
     </row>
   </sheetData>
   <dataValidations count="2">
@@ -3410,14 +3219,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.140625" style="65" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.42578125" style="57" bestFit="1" customWidth="1"/>
@@ -3432,7 +3241,7 @@
     <col min="11" max="16384" width="9.140625" style="57"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10">
       <c r="A1" s="53" t="s">
         <v>4</v>
       </c>
@@ -3464,7 +3273,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10">
       <c r="A2" s="58"/>
       <c r="B2" s="59" t="s">
         <v>8</v>
@@ -3495,7 +3304,7 @@
       </c>
       <c r="J2" s="64"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10">
       <c r="A3" s="58"/>
       <c r="B3" s="59" t="s">
         <v>8</v>
@@ -3526,7 +3335,7 @@
       </c>
       <c r="J3" s="64"/>
     </row>
-    <row r="4" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="30">
       <c r="A4" s="58" t="s">
         <v>75</v>
       </c>
@@ -3563,7 +3372,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10">
       <c r="A5" s="58" t="s">
         <v>75</v>
       </c>
@@ -3600,7 +3409,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10">
       <c r="A6" s="58" t="s">
         <v>86</v>
       </c>
@@ -3637,7 +3446,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10">
       <c r="A7" s="58" t="s">
         <v>86</v>
       </c>
@@ -3674,7 +3483,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10">
       <c r="A8" s="58"/>
       <c r="B8" s="59"/>
       <c r="C8" s="59"/>
@@ -3700,14 +3509,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.140625" style="65" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.42578125" style="57" bestFit="1" customWidth="1"/>
@@ -3722,7 +3531,7 @@
     <col min="11" max="16384" width="9.140625" style="57"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10">
       <c r="A1" s="53" t="s">
         <v>4</v>
       </c>
@@ -3754,7 +3563,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10">
       <c r="A2" s="58" t="s">
         <v>75</v>
       </c>
@@ -3791,7 +3600,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10">
       <c r="A3" s="58" t="s">
         <v>75</v>
       </c>
@@ -3828,7 +3637,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10">
       <c r="A4" s="58" t="s">
         <v>75</v>
       </c>
@@ -3865,7 +3674,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10">
       <c r="A5" s="58"/>
       <c r="B5" s="59"/>
       <c r="C5" s="59"/>
@@ -3892,7 +3701,7 @@
       </c>
       <c r="J5" s="64"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10">
       <c r="A6" s="58"/>
       <c r="B6" s="59"/>
       <c r="C6" s="59"/>
@@ -3933,14 +3742,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.140625" style="65" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.42578125" style="57" bestFit="1" customWidth="1"/>
@@ -3955,7 +3764,7 @@
     <col min="11" max="16384" width="9.140625" style="57"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10">
       <c r="A1" s="53" t="s">
         <v>4</v>
       </c>
@@ -3987,7 +3796,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10">
       <c r="A2" s="58" t="s">
         <v>84</v>
       </c>
@@ -4024,7 +3833,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10">
       <c r="A3" s="58" t="s">
         <v>99</v>
       </c>
@@ -4061,7 +3870,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10">
       <c r="A4" s="58"/>
       <c r="B4" s="59"/>
       <c r="C4" s="59"/>
@@ -4088,7 +3897,7 @@
       </c>
       <c r="J4" s="64"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10">
       <c r="A5" s="58"/>
       <c r="B5" s="59"/>
       <c r="C5" s="59"/>
@@ -4115,7 +3924,7 @@
       </c>
       <c r="J5" s="64"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10">
       <c r="A6" s="58"/>
       <c r="B6" s="59"/>
       <c r="C6" s="59"/>
@@ -4156,14 +3965,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AI10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="4.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.42578125" bestFit="1" customWidth="1"/>
@@ -4176,7 +3985,7 @@
     <col min="30" max="35" width="4.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:35" ht="15" customHeight="1" thickBot="1">
       <c r="A1" s="91" t="s">
         <v>81</v>
       </c>
@@ -4217,7 +4026,7 @@
       <c r="AH1" s="89"/>
       <c r="AI1" s="90"/>
     </row>
-    <row r="2" spans="1:35" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" s="26" customFormat="1" ht="15" customHeight="1">
       <c r="A2" s="92"/>
       <c r="B2" s="92"/>
       <c r="C2" s="93" t="s">
@@ -4264,7 +4073,7 @@
       <c r="AH2" s="86"/>
       <c r="AI2" s="87"/>
     </row>
-    <row r="3" spans="1:35" ht="180" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" ht="180">
       <c r="A3" s="11" t="s">
         <v>5</v>
       </c>
@@ -4371,7 +4180,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35">
       <c r="A4" s="23">
         <v>1</v>
       </c>
@@ -4478,7 +4287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35">
       <c r="A5" s="23">
         <v>2</v>
       </c>
@@ -4585,7 +4394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35">
       <c r="A6" s="23">
         <v>3</v>
       </c>
@@ -4626,7 +4435,7 @@
       <c r="AH6" s="35"/>
       <c r="AI6" s="44"/>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35">
       <c r="A7" s="23">
         <v>4</v>
       </c>
@@ -4667,7 +4476,7 @@
       <c r="AH7" s="35"/>
       <c r="AI7" s="44"/>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35">
       <c r="A8" s="23">
         <v>5</v>
       </c>
@@ -4708,7 +4517,7 @@
       <c r="AH8" s="35"/>
       <c r="AI8" s="44"/>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35">
       <c r="A9" s="23">
         <v>6</v>
       </c>
@@ -4749,7 +4558,7 @@
       <c r="AH9" s="35"/>
       <c r="AI9" s="44"/>
     </row>
-    <row r="10" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:35" ht="15.75" thickBot="1">
       <c r="A10" s="23">
         <v>7</v>
       </c>
@@ -4872,12 +4681,12 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="17.42578125" style="27" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="3" bestFit="1" customWidth="1"/>
@@ -4887,7 +4696,7 @@
     <col min="7" max="7" width="13.140625" style="29" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" s="11" t="s">
         <v>69</v>
       </c>
@@ -4910,7 +4719,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="A2" s="99" t="s">
         <v>25</v>
       </c>
@@ -4937,7 +4746,7 @@
       </c>
       <c r="H2" s="73"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="A3" s="100"/>
       <c r="B3" s="9">
         <v>2</v>
@@ -4962,7 +4771,7 @@
       </c>
       <c r="H3" s="73"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8">
       <c r="A4" s="100"/>
       <c r="B4" s="9">
         <v>3</v>
@@ -4987,7 +4796,7 @@
       </c>
       <c r="H4" s="73"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8">
       <c r="A5" s="100"/>
       <c r="B5" s="9">
         <v>4</v>
@@ -5012,7 +4821,7 @@
       </c>
       <c r="H5" s="73"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8">
       <c r="A6" s="100"/>
       <c r="B6" s="9">
         <v>5</v>
@@ -5037,7 +4846,7 @@
       </c>
       <c r="H6" s="73"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8">
       <c r="A7" s="101"/>
       <c r="B7" s="9">
         <v>6</v>
@@ -5062,7 +4871,7 @@
       </c>
       <c r="H7" s="73"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8">
       <c r="A8" s="99" t="s">
         <v>29</v>
       </c>
@@ -5088,7 +4897,7 @@
         <v>591.86</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8">
       <c r="A9" s="100"/>
       <c r="B9" s="9">
         <v>8</v>
@@ -5112,7 +4921,7 @@
         <v>236.74</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8">
       <c r="A10" s="100"/>
       <c r="B10" s="9">
         <v>9</v>
@@ -5136,7 +4945,7 @@
         <v>177.56</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8">
       <c r="A11" s="100"/>
       <c r="B11" s="9">
         <v>10</v>
@@ -5160,7 +4969,7 @@
         <v>591.86</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8">
       <c r="A12" s="100"/>
       <c r="B12" s="9">
         <v>11</v>
@@ -5184,7 +4993,7 @@
         <v>177.56</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8">
       <c r="A13" s="100"/>
       <c r="B13" s="9">
         <v>12</v>
@@ -5208,7 +5017,7 @@
         <v>118.37</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8">
       <c r="A14" s="100"/>
       <c r="B14" s="9">
         <v>13</v>
@@ -5232,7 +5041,7 @@
         <v>118.37</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8">
       <c r="A15" s="100"/>
       <c r="B15" s="9">
         <v>14</v>
@@ -5256,7 +5065,7 @@
         <v>295.93</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8">
       <c r="A16" s="100"/>
       <c r="B16" s="9">
         <v>15</v>
@@ -5280,7 +5089,7 @@
         <v>118.37</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7">
       <c r="A17" s="99" t="s">
         <v>67</v>
       </c>
@@ -5306,7 +5115,7 @@
         <v>177.56</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7">
       <c r="A18" s="100"/>
       <c r="B18" s="9">
         <v>17</v>
@@ -5330,7 +5139,7 @@
         <v>71.02</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7">
       <c r="A19" s="100"/>
       <c r="B19" s="9">
         <v>18</v>
@@ -5354,7 +5163,7 @@
         <v>35.51</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7">
       <c r="A20" s="100"/>
       <c r="B20" s="9">
         <v>19</v>
@@ -5378,7 +5187,7 @@
         <v>236.74</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7">
       <c r="A21" s="100"/>
       <c r="B21" s="9">
         <v>20</v>
@@ -5402,7 +5211,7 @@
         <v>71.02</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7">
       <c r="A22" s="100"/>
       <c r="B22" s="9">
         <v>21</v>
@@ -5426,7 +5235,7 @@
         <v>35.51</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7">
       <c r="A23" s="100"/>
       <c r="B23" s="9">
         <v>22</v>
@@ -5450,7 +5259,7 @@
         <v>71.02</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7">
       <c r="A24" s="100"/>
       <c r="B24" s="9">
         <v>23</v>
@@ -5474,7 +5283,7 @@
         <v>35.51</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7">
       <c r="A25" s="100"/>
       <c r="B25" s="9">
         <v>24</v>
@@ -5498,7 +5307,7 @@
         <v>35.51</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7">
       <c r="A26" s="101"/>
       <c r="B26" s="9">
         <v>25</v>
@@ -5522,7 +5331,7 @@
         <v>71.02</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7">
       <c r="A27" s="99" t="s">
         <v>68</v>
       </c>
@@ -5548,7 +5357,7 @@
         <v>295.93</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7">
       <c r="A28" s="100"/>
       <c r="B28" s="9">
         <v>27</v>
@@ -5572,7 +5381,7 @@
         <v>71.02</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7">
       <c r="A29" s="100"/>
       <c r="B29" s="9">
         <v>28</v>
@@ -5596,7 +5405,7 @@
         <v>177.56</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7">
       <c r="A30" s="101"/>
       <c r="B30" s="9">
         <v>29</v>
@@ -5620,7 +5429,7 @@
         <v>71.02</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7">
       <c r="A31" s="99" t="s">
         <v>28</v>
       </c>
@@ -5646,7 +5455,7 @@
         <v>35.51</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7">
       <c r="A32" s="100"/>
       <c r="B32" s="9">
         <v>31</v>
@@ -5670,7 +5479,7 @@
         <v>35.51</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7">
       <c r="A33" s="100"/>
       <c r="B33" s="9">
         <v>32</v>
@@ -5694,7 +5503,7 @@
         <v>71.02</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7">
       <c r="A34" s="100"/>
       <c r="B34" s="9">
         <v>33</v>

--- a/Project Management/Effort Calculation.xlsx
+++ b/Project Management/Effort Calculation.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="330" windowWidth="18795" windowHeight="11700" tabRatio="785" activeTab="5"/>
+    <workbookView xWindow="360" yWindow="330" windowWidth="18795" windowHeight="11700" tabRatio="785" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="8" r:id="rId1"/>
@@ -24,12 +24,12 @@
     <definedName name="MemberList">'Team Member'!$B$4:$B$10</definedName>
     <definedName name="SkillList">'Skill Set'!$C$2:$C$34</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="123">
   <si>
     <t>Total</t>
   </si>
@@ -379,26 +379,35 @@
     <t>06.11.2015</t>
   </si>
   <si>
+    <t>07.11.2015</t>
+  </si>
+  <si>
+    <t>Wireframe for student</t>
+  </si>
+  <si>
     <t>10.11.2015</t>
   </si>
   <si>
+    <t>Billing design, discussion for fees</t>
+  </si>
+  <si>
     <t>System Setup and Project Understanding</t>
   </si>
   <si>
+    <t>Developed component for Caste,Class,Category,Section,Landline,Mobile, Subcaste</t>
+  </si>
+  <si>
     <t>11.11.2015</t>
-  </si>
-  <si>
-    <t>Developed component for Caste,Class,Category,Section,Landline,Mobile, Subcaste</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;₹&quot;\ #,##0.00"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1210,6 +1219,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1244,6 +1254,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1419,12 +1430,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:O20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.85546875" style="1" customWidth="1"/>
     <col min="2" max="4" width="9.140625" style="1"/>
@@ -1432,8 +1443,8 @@
     <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" ht="15.75" thickBot="1"/>
-    <row r="2" spans="2:15">
+    <row r="1" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B2" s="18"/>
       <c r="C2" s="19"/>
       <c r="D2" s="19"/>
@@ -1449,7 +1460,7 @@
       <c r="N2" s="19"/>
       <c r="O2" s="20"/>
     </row>
-    <row r="3" spans="2:15">
+    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B3" s="3"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
@@ -1465,7 +1476,7 @@
       <c r="N3" s="4"/>
       <c r="O3" s="21"/>
     </row>
-    <row r="4" spans="2:15">
+    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B4" s="3"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -1481,7 +1492,7 @@
       <c r="N4" s="4"/>
       <c r="O4" s="21"/>
     </row>
-    <row r="5" spans="2:15">
+    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B5" s="3"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -1497,7 +1508,7 @@
       <c r="N5" s="4"/>
       <c r="O5" s="21"/>
     </row>
-    <row r="6" spans="2:15">
+    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B6" s="3"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
@@ -1513,7 +1524,7 @@
       <c r="N6" s="4"/>
       <c r="O6" s="21"/>
     </row>
-    <row r="7" spans="2:15">
+    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B7" s="3"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
@@ -1529,7 +1540,7 @@
       <c r="N7" s="4"/>
       <c r="O7" s="21"/>
     </row>
-    <row r="8" spans="2:15">
+    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B8" s="3"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
@@ -1545,7 +1556,7 @@
       <c r="N8" s="4"/>
       <c r="O8" s="21"/>
     </row>
-    <row r="9" spans="2:15">
+    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B9" s="3"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
@@ -1561,7 +1572,7 @@
       <c r="N9" s="4"/>
       <c r="O9" s="21"/>
     </row>
-    <row r="10" spans="2:15">
+    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B10" s="3"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
@@ -1579,7 +1590,7 @@
       <c r="N10" s="4"/>
       <c r="O10" s="21"/>
     </row>
-    <row r="11" spans="2:15">
+    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B11" s="3"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -1590,7 +1601,7 @@
       <c r="G11" s="77"/>
       <c r="H11" s="81">
         <f>Summery!D10</f>
-        <v>16512.806500000002</v>
+        <v>17282.226500000001</v>
       </c>
       <c r="I11" s="82"/>
       <c r="J11" s="83"/>
@@ -1600,7 +1611,7 @@
       <c r="N11" s="4"/>
       <c r="O11" s="21"/>
     </row>
-    <row r="12" spans="2:15">
+    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B12" s="3"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
@@ -1611,7 +1622,7 @@
       <c r="G12" s="77"/>
       <c r="H12" s="78">
         <f>Summery!C10</f>
-        <v>64.5</v>
+        <v>69.5</v>
       </c>
       <c r="I12" s="79"/>
       <c r="J12" s="80"/>
@@ -1621,7 +1632,7 @@
       <c r="N12" s="4"/>
       <c r="O12" s="21"/>
     </row>
-    <row r="13" spans="2:15">
+    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B13" s="3"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -1632,7 +1643,7 @@
       <c r="G13" s="77"/>
       <c r="H13" s="78">
         <f>H12/8</f>
-        <v>8.0625</v>
+        <v>8.6875</v>
       </c>
       <c r="I13" s="79"/>
       <c r="J13" s="80"/>
@@ -1642,7 +1653,7 @@
       <c r="N13" s="4"/>
       <c r="O13" s="21"/>
     </row>
-    <row r="14" spans="2:15">
+    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B14" s="3"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
@@ -1658,7 +1669,7 @@
       <c r="N14" s="4"/>
       <c r="O14" s="21"/>
     </row>
-    <row r="15" spans="2:15">
+    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B15" s="3"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -1674,7 +1685,7 @@
       <c r="N15" s="4"/>
       <c r="O15" s="21"/>
     </row>
-    <row r="16" spans="2:15">
+    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B16" s="3"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -1690,7 +1701,7 @@
       <c r="N16" s="4"/>
       <c r="O16" s="21"/>
     </row>
-    <row r="17" spans="2:15">
+    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B17" s="3"/>
       <c r="D17" s="4"/>
       <c r="E17" s="5"/>
@@ -1705,7 +1716,7 @@
       <c r="N17" s="4"/>
       <c r="O17" s="21"/>
     </row>
-    <row r="18" spans="2:15">
+    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B18" s="3"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
@@ -1720,7 +1731,7 @@
       <c r="N18" s="4"/>
       <c r="O18" s="21"/>
     </row>
-    <row r="19" spans="2:15">
+    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B19" s="3"/>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
@@ -1736,7 +1747,7 @@
       <c r="N19" s="4"/>
       <c r="O19" s="21"/>
     </row>
-    <row r="20" spans="2:15" ht="15.75" thickBot="1">
+    <row r="20" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="6"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -1769,14 +1780,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.85546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="28.5703125" style="1" customWidth="1"/>
@@ -1798,7 +1809,7 @@
     <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="4"/>
       <c r="B1" s="84" t="s">
         <v>61</v>
@@ -1821,7 +1832,7 @@
       <c r="P1" s="8"/>
       <c r="Q1" s="8"/>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
       <c r="B2" s="11" t="s">
         <v>6</v>
@@ -1852,18 +1863,18 @@
       <c r="P2" s="8"/>
       <c r="Q2" s="8"/>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="10" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="14">
         <f>SUMIF(Business!B:B,B3,Business!D:D) + SUMIF(School!B:B,B3,School!D:D) + SUMIF(Service!B:B,B3,Service!D:D)+SUMIF(Retail!B:B,B3,Retail!D:D) + SUMIF(Tourism!B:B,B3,Tourism!D:D)</f>
-        <v>39.5</v>
+        <v>44.5</v>
       </c>
       <c r="D3" s="33">
         <f>SUMIF(Business!B:B,B3,Business!I:I) + SUMIF(School!B:B,B3,School!I:I) + SUMIF(Service!B:B,B3,Service!I:I)+SUMIF(Retail!B:B,B3,Retail!I:I) + SUMIF(Tourism!B:B,B3,Tourism!I:I)</f>
-        <v>12458.585000000001</v>
+        <v>13228.005000000001</v>
       </c>
       <c r="E3" s="5"/>
       <c r="F3" s="10" t="s">
@@ -1887,7 +1898,7 @@
       <c r="P3" s="5"/>
       <c r="Q3" s="5"/>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="10" t="s">
         <v>10</v>
@@ -1906,11 +1917,11 @@
       </c>
       <c r="G4" s="14">
         <f>SUM(School!D:D)</f>
-        <v>40.5</v>
+        <v>45.5</v>
       </c>
       <c r="H4" s="33">
         <f>SUM(School!I:I)</f>
-        <v>6747.1574999999975</v>
+        <v>7516.5774999999976</v>
       </c>
       <c r="I4" s="5"/>
       <c r="J4" s="4"/>
@@ -1922,7 +1933,7 @@
       <c r="P4" s="5"/>
       <c r="Q4" s="5"/>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="10" t="s">
         <v>8</v>
@@ -1957,7 +1968,7 @@
       <c r="P5" s="5"/>
       <c r="Q5" s="5"/>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="10" t="s">
         <v>11</v>
@@ -1992,7 +2003,7 @@
       <c r="P6" s="5"/>
       <c r="Q6" s="5"/>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="10" t="s">
         <v>12</v>
@@ -2027,7 +2038,7 @@
       <c r="P7" s="5"/>
       <c r="Q7" s="5"/>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="10" t="s">
         <v>13</v>
@@ -2046,11 +2057,11 @@
       </c>
       <c r="G8" s="15">
         <f>SUM(G3:G7)</f>
-        <v>64.5</v>
+        <v>69.5</v>
       </c>
       <c r="H8" s="34">
         <f>SUM(H3:H7)</f>
-        <v>16512.806499999995</v>
+        <v>17282.226499999997</v>
       </c>
       <c r="I8" s="5"/>
       <c r="J8" s="4"/>
@@ -2062,7 +2073,7 @@
       <c r="P8" s="5"/>
       <c r="Q8" s="5"/>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="10" t="s">
         <v>14</v>
@@ -2089,18 +2100,18 @@
       <c r="P9" s="5"/>
       <c r="Q9" s="5"/>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="12" t="s">
         <v>0</v>
       </c>
       <c r="C10" s="15">
         <f>SUM(C3:C9)</f>
-        <v>64.5</v>
+        <v>69.5</v>
       </c>
       <c r="D10" s="34">
         <f>SUM(D3:D9)</f>
-        <v>16512.806500000002</v>
+        <v>17282.226500000001</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="4"/>
@@ -2116,7 +2127,7 @@
       <c r="P10" s="5"/>
       <c r="Q10" s="5"/>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="16"/>
@@ -2132,7 +2143,7 @@
       <c r="P11" s="5"/>
       <c r="Q11" s="5"/>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="16"/>
@@ -2148,7 +2159,7 @@
       <c r="P12" s="5"/>
       <c r="Q12" s="5"/>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="16"/>
@@ -2167,7 +2178,7 @@
       <c r="P13" s="5"/>
       <c r="Q13" s="5"/>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="16"/>
@@ -2186,7 +2197,7 @@
       <c r="P14" s="5"/>
       <c r="Q14" s="5"/>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="16"/>
@@ -2205,7 +2216,7 @@
       <c r="P15" s="5"/>
       <c r="Q15" s="5"/>
     </row>
-    <row r="16" spans="1:17">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="16"/>
@@ -2224,7 +2235,7 @@
       <c r="P16" s="5"/>
       <c r="Q16" s="5"/>
     </row>
-    <row r="17" spans="1:17">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="16"/>
@@ -2243,7 +2254,7 @@
       <c r="P17" s="5"/>
       <c r="Q17" s="5"/>
     </row>
-    <row r="18" spans="1:17">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="16"/>
@@ -2277,14 +2288,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.140625" style="65" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.42578125" style="57" bestFit="1" customWidth="1"/>
@@ -2299,7 +2310,7 @@
     <col min="11" max="16384" width="9.140625" style="57"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="69" t="s">
         <v>4</v>
       </c>
@@ -2331,7 +2342,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="58" t="s">
         <v>51</v>
       </c>
@@ -2368,7 +2379,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="58" t="s">
         <v>88</v>
       </c>
@@ -2405,7 +2416,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="58" t="s">
         <v>93</v>
       </c>
@@ -2442,7 +2453,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="58"/>
       <c r="B5" s="59"/>
       <c r="C5" s="59"/>
@@ -2469,7 +2480,7 @@
       </c>
       <c r="J5" s="64"/>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="58"/>
       <c r="B6" s="59"/>
       <c r="C6" s="59"/>
@@ -2511,14 +2522,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.7109375" style="65" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.42578125" style="57" bestFit="1" customWidth="1"/>
@@ -2533,7 +2544,7 @@
     <col min="11" max="16384" width="9.140625" style="57"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="53" t="s">
         <v>4</v>
       </c>
@@ -2565,7 +2576,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="58" t="s">
         <v>95</v>
       </c>
@@ -2579,19 +2590,19 @@
         <v>2</v>
       </c>
       <c r="E2" s="61">
-        <f t="shared" ref="E2:E19" si="0">IF(ISERROR(MATCH(C2,SkillList,0)),0,MATCH(C2,SkillList,0))</f>
+        <f t="shared" ref="E2:E26" si="0">IF(ISERROR(MATCH(C2,SkillList,0)),0,MATCH(C2,SkillList,0))</f>
         <v>7</v>
       </c>
       <c r="F2" s="61">
-        <f t="shared" ref="F2:F19" si="1">IF(ISERROR(MATCH(B2,MemberList,0)),0,MATCH(B2,MemberList,0))</f>
+        <f t="shared" ref="F2:F26" si="1">IF(ISERROR(MATCH(B2,MemberList,0)),0,MATCH(B2,MemberList,0))</f>
         <v>7</v>
       </c>
       <c r="G2" s="62">
-        <f t="shared" ref="G2:G19" si="2">INDEX(CostPerHour,E2)</f>
+        <f t="shared" ref="G2:G26" si="2">INDEX(CostPerHour,E2)</f>
         <v>591.86</v>
       </c>
       <c r="H2" s="63">
-        <f t="shared" ref="H2:H19" si="3">IF(ISERROR(INDEX(Competency,F2,E2)), 0, INDEX(Competency,F2,E2))</f>
+        <f t="shared" ref="H2:H26" si="3">IF(ISERROR(INDEX(Competency,F2,E2)), 0, INDEX(Competency,F2,E2))</f>
         <v>0.5</v>
       </c>
       <c r="I2" s="62">
@@ -2600,7 +2611,7 @@
       </c>
       <c r="J2" s="64"/>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="58" t="s">
         <v>75</v>
       </c>
@@ -2635,7 +2646,7 @@
       </c>
       <c r="J3" s="64"/>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="58" t="s">
         <v>86</v>
       </c>
@@ -2670,7 +2681,7 @@
       </c>
       <c r="J4" s="64"/>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="58" t="s">
         <v>93</v>
       </c>
@@ -2707,7 +2718,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="58" t="s">
         <v>97</v>
       </c>
@@ -2737,14 +2748,14 @@
         <v>1</v>
       </c>
       <c r="I6" s="62">
-        <f t="shared" ref="I6:I19" si="5">D6*G6*H6</f>
+        <f t="shared" ref="I6:I26" si="5">D6*G6*H6</f>
         <v>177.56</v>
       </c>
       <c r="J6" s="64" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="58" t="s">
         <v>101</v>
       </c>
@@ -2781,7 +2792,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="58" t="s">
         <v>102</v>
       </c>
@@ -2818,7 +2829,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="58" t="s">
         <v>102</v>
       </c>
@@ -2855,7 +2866,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="58" t="s">
         <v>103</v>
       </c>
@@ -2892,7 +2903,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="58" t="s">
         <v>108</v>
       </c>
@@ -2929,7 +2940,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="58" t="s">
         <v>108</v>
       </c>
@@ -2966,7 +2977,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="58" t="s">
         <v>111</v>
       </c>
@@ -3003,7 +3014,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="58" t="s">
         <v>111</v>
       </c>
@@ -3040,7 +3051,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="58" t="s">
         <v>115</v>
       </c>
@@ -3077,18 +3088,18 @@
         <v>113</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="58" t="s">
         <v>116</v>
       </c>
       <c r="B16" s="59" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C16" s="59" t="s">
         <v>19</v>
       </c>
       <c r="D16" s="60">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E16" s="61">
         <f t="shared" si="0"/>
@@ -3096,7 +3107,7 @@
       </c>
       <c r="F16" s="61">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G16" s="62">
         <f t="shared" si="2"/>
@@ -3108,36 +3119,36 @@
       </c>
       <c r="I16" s="62">
         <f t="shared" si="5"/>
-        <v>473.48</v>
+        <v>236.74</v>
       </c>
       <c r="J16" s="64" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="30">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="58" t="s">
         <v>118</v>
       </c>
       <c r="B17" s="59" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C17" s="59" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D17" s="60">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E17" s="61">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F17" s="61">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G17" s="62">
         <f t="shared" si="2"/>
-        <v>118.37</v>
+        <v>177.56</v>
       </c>
       <c r="H17" s="63">
         <f t="shared" si="3"/>
@@ -3145,65 +3156,274 @@
       </c>
       <c r="I17" s="62">
         <f t="shared" si="5"/>
-        <v>473.48</v>
+        <v>532.68000000000006</v>
       </c>
       <c r="J17" s="64" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
-      <c r="A18" s="58"/>
-      <c r="B18" s="59"/>
-      <c r="C18" s="59"/>
-      <c r="D18" s="60"/>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="58" t="s">
+        <v>118</v>
+      </c>
+      <c r="B18" s="59" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="59" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="60">
+        <v>4</v>
+      </c>
       <c r="E18" s="61">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F18" s="61">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G18" s="62">
         <f t="shared" si="2"/>
-        <v>71.02</v>
+        <v>118.37</v>
       </c>
       <c r="H18" s="63">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" s="62">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J18" s="64"/>
-    </row>
-    <row r="19" spans="1:10">
-      <c r="A19" s="58"/>
-      <c r="B19" s="59"/>
-      <c r="C19" s="59"/>
-      <c r="D19" s="60"/>
+        <v>473.48</v>
+      </c>
+      <c r="J18" s="64" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="58" t="s">
+        <v>122</v>
+      </c>
+      <c r="B19" s="59" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="59" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="60">
+        <v>4</v>
+      </c>
       <c r="E19" s="61">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F19" s="61">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G19" s="62">
         <f t="shared" si="2"/>
-        <v>35.51</v>
+        <v>118.37</v>
       </c>
       <c r="H19" s="63">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" s="62">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J19" s="64"/>
+        <v>473.48</v>
+      </c>
+      <c r="J19" s="64" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="58"/>
+      <c r="B20" s="59"/>
+      <c r="C20" s="59"/>
+      <c r="D20" s="60"/>
+      <c r="E20" s="61">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F20" s="61">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G20" s="62">
+        <f t="shared" si="2"/>
+        <v>236.74</v>
+      </c>
+      <c r="H20" s="63">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I20" s="62">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J20" s="64"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="58"/>
+      <c r="B21" s="59"/>
+      <c r="C21" s="59"/>
+      <c r="D21" s="60"/>
+      <c r="E21" s="61">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F21" s="61">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G21" s="62">
+        <f t="shared" si="2"/>
+        <v>71.02</v>
+      </c>
+      <c r="H21" s="63">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I21" s="62">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J21" s="64"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="58"/>
+      <c r="B22" s="59"/>
+      <c r="C22" s="59"/>
+      <c r="D22" s="60"/>
+      <c r="E22" s="61">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F22" s="61">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G22" s="62">
+        <f t="shared" si="2"/>
+        <v>35.51</v>
+      </c>
+      <c r="H22" s="63">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I22" s="62">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J22" s="64"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="58"/>
+      <c r="B23" s="59"/>
+      <c r="C23" s="59"/>
+      <c r="D23" s="60"/>
+      <c r="E23" s="61">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F23" s="61">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G23" s="62">
+        <f t="shared" si="2"/>
+        <v>71.02</v>
+      </c>
+      <c r="H23" s="63">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I23" s="62">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J23" s="64"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="58"/>
+      <c r="B24" s="59"/>
+      <c r="C24" s="59"/>
+      <c r="D24" s="60"/>
+      <c r="E24" s="61">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F24" s="61">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G24" s="62">
+        <f t="shared" si="2"/>
+        <v>35.51</v>
+      </c>
+      <c r="H24" s="63">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I24" s="62">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J24" s="64"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="58"/>
+      <c r="B25" s="59"/>
+      <c r="C25" s="59"/>
+      <c r="D25" s="60"/>
+      <c r="E25" s="61">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F25" s="61">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G25" s="62">
+        <f t="shared" si="2"/>
+        <v>71.02</v>
+      </c>
+      <c r="H25" s="63">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I25" s="62">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J25" s="64"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="58"/>
+      <c r="B26" s="59"/>
+      <c r="C26" s="59"/>
+      <c r="D26" s="60"/>
+      <c r="E26" s="61">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F26" s="61">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G26" s="62">
+        <f t="shared" si="2"/>
+        <v>35.51</v>
+      </c>
+      <c r="H26" s="63">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I26" s="62">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J26" s="64"/>
     </row>
   </sheetData>
   <dataValidations count="2">
@@ -3219,14 +3439,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.140625" style="65" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.42578125" style="57" bestFit="1" customWidth="1"/>
@@ -3241,7 +3461,7 @@
     <col min="11" max="16384" width="9.140625" style="57"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="53" t="s">
         <v>4</v>
       </c>
@@ -3273,7 +3493,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="58"/>
       <c r="B2" s="59" t="s">
         <v>8</v>
@@ -3304,7 +3524,7 @@
       </c>
       <c r="J2" s="64"/>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="58"/>
       <c r="B3" s="59" t="s">
         <v>8</v>
@@ -3335,7 +3555,7 @@
       </c>
       <c r="J3" s="64"/>
     </row>
-    <row r="4" spans="1:10" ht="30">
+    <row r="4" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="58" t="s">
         <v>75</v>
       </c>
@@ -3372,7 +3592,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="58" t="s">
         <v>75</v>
       </c>
@@ -3409,7 +3629,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="58" t="s">
         <v>86</v>
       </c>
@@ -3446,7 +3666,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="58" t="s">
         <v>86</v>
       </c>
@@ -3483,7 +3703,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="58"/>
       <c r="B8" s="59"/>
       <c r="C8" s="59"/>
@@ -3509,14 +3729,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.140625" style="65" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.42578125" style="57" bestFit="1" customWidth="1"/>
@@ -3531,7 +3751,7 @@
     <col min="11" max="16384" width="9.140625" style="57"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="53" t="s">
         <v>4</v>
       </c>
@@ -3563,7 +3783,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="58" t="s">
         <v>75</v>
       </c>
@@ -3600,7 +3820,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="58" t="s">
         <v>75</v>
       </c>
@@ -3637,7 +3857,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="58" t="s">
         <v>75</v>
       </c>
@@ -3674,7 +3894,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="58"/>
       <c r="B5" s="59"/>
       <c r="C5" s="59"/>
@@ -3701,7 +3921,7 @@
       </c>
       <c r="J5" s="64"/>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="58"/>
       <c r="B6" s="59"/>
       <c r="C6" s="59"/>
@@ -3742,14 +3962,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.140625" style="65" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.42578125" style="57" bestFit="1" customWidth="1"/>
@@ -3764,7 +3984,7 @@
     <col min="11" max="16384" width="9.140625" style="57"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="53" t="s">
         <v>4</v>
       </c>
@@ -3796,7 +4016,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="58" t="s">
         <v>84</v>
       </c>
@@ -3833,7 +4053,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="58" t="s">
         <v>99</v>
       </c>
@@ -3870,7 +4090,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="58"/>
       <c r="B4" s="59"/>
       <c r="C4" s="59"/>
@@ -3897,7 +4117,7 @@
       </c>
       <c r="J4" s="64"/>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="58"/>
       <c r="B5" s="59"/>
       <c r="C5" s="59"/>
@@ -3924,7 +4144,7 @@
       </c>
       <c r="J5" s="64"/>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="58"/>
       <c r="B6" s="59"/>
       <c r="C6" s="59"/>
@@ -3965,14 +4185,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.42578125" bestFit="1" customWidth="1"/>
@@ -3985,7 +4205,7 @@
     <col min="30" max="35" width="4.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="15" customHeight="1" thickBot="1">
+    <row r="1" spans="1:35" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="91" t="s">
         <v>81</v>
       </c>
@@ -4026,7 +4246,7 @@
       <c r="AH1" s="89"/>
       <c r="AI1" s="90"/>
     </row>
-    <row r="2" spans="1:35" s="26" customFormat="1" ht="15" customHeight="1">
+    <row r="2" spans="1:35" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="92"/>
       <c r="B2" s="92"/>
       <c r="C2" s="93" t="s">
@@ -4073,7 +4293,7 @@
       <c r="AH2" s="86"/>
       <c r="AI2" s="87"/>
     </row>
-    <row r="3" spans="1:35" ht="180">
+    <row r="3" spans="1:35" ht="180" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>5</v>
       </c>
@@ -4180,7 +4400,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:35">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" s="23">
         <v>1</v>
       </c>
@@ -4287,7 +4507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" s="23">
         <v>2</v>
       </c>
@@ -4394,7 +4614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" s="23">
         <v>3</v>
       </c>
@@ -4435,7 +4655,7 @@
       <c r="AH6" s="35"/>
       <c r="AI6" s="44"/>
     </row>
-    <row r="7" spans="1:35">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" s="23">
         <v>4</v>
       </c>
@@ -4476,7 +4696,7 @@
       <c r="AH7" s="35"/>
       <c r="AI7" s="44"/>
     </row>
-    <row r="8" spans="1:35">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" s="23">
         <v>5</v>
       </c>
@@ -4517,7 +4737,7 @@
       <c r="AH8" s="35"/>
       <c r="AI8" s="44"/>
     </row>
-    <row r="9" spans="1:35">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" s="23">
         <v>6</v>
       </c>
@@ -4558,7 +4778,7 @@
       <c r="AH9" s="35"/>
       <c r="AI9" s="44"/>
     </row>
-    <row r="10" spans="1:35" ht="15.75" thickBot="1">
+    <row r="10" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="23">
         <v>7</v>
       </c>
@@ -4681,12 +4901,12 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.42578125" style="27" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="3" bestFit="1" customWidth="1"/>
@@ -4696,7 +4916,7 @@
     <col min="7" max="7" width="13.140625" style="29" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>69</v>
       </c>
@@ -4719,7 +4939,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="99" t="s">
         <v>25</v>
       </c>
@@ -4746,7 +4966,7 @@
       </c>
       <c r="H2" s="73"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="100"/>
       <c r="B3" s="9">
         <v>2</v>
@@ -4771,7 +4991,7 @@
       </c>
       <c r="H3" s="73"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="100"/>
       <c r="B4" s="9">
         <v>3</v>
@@ -4796,7 +5016,7 @@
       </c>
       <c r="H4" s="73"/>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="100"/>
       <c r="B5" s="9">
         <v>4</v>
@@ -4821,7 +5041,7 @@
       </c>
       <c r="H5" s="73"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="100"/>
       <c r="B6" s="9">
         <v>5</v>
@@ -4846,7 +5066,7 @@
       </c>
       <c r="H6" s="73"/>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="101"/>
       <c r="B7" s="9">
         <v>6</v>
@@ -4871,7 +5091,7 @@
       </c>
       <c r="H7" s="73"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="99" t="s">
         <v>29</v>
       </c>
@@ -4897,7 +5117,7 @@
         <v>591.86</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="100"/>
       <c r="B9" s="9">
         <v>8</v>
@@ -4921,7 +5141,7 @@
         <v>236.74</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="100"/>
       <c r="B10" s="9">
         <v>9</v>
@@ -4945,7 +5165,7 @@
         <v>177.56</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="100"/>
       <c r="B11" s="9">
         <v>10</v>
@@ -4969,7 +5189,7 @@
         <v>591.86</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="100"/>
       <c r="B12" s="9">
         <v>11</v>
@@ -4993,7 +5213,7 @@
         <v>177.56</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="100"/>
       <c r="B13" s="9">
         <v>12</v>
@@ -5017,7 +5237,7 @@
         <v>118.37</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="100"/>
       <c r="B14" s="9">
         <v>13</v>
@@ -5041,7 +5261,7 @@
         <v>118.37</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="100"/>
       <c r="B15" s="9">
         <v>14</v>
@@ -5065,7 +5285,7 @@
         <v>295.93</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="100"/>
       <c r="B16" s="9">
         <v>15</v>
@@ -5089,7 +5309,7 @@
         <v>118.37</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="99" t="s">
         <v>67</v>
       </c>
@@ -5115,7 +5335,7 @@
         <v>177.56</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="100"/>
       <c r="B18" s="9">
         <v>17</v>
@@ -5139,7 +5359,7 @@
         <v>71.02</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="100"/>
       <c r="B19" s="9">
         <v>18</v>
@@ -5163,7 +5383,7 @@
         <v>35.51</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="100"/>
       <c r="B20" s="9">
         <v>19</v>
@@ -5187,7 +5407,7 @@
         <v>236.74</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="100"/>
       <c r="B21" s="9">
         <v>20</v>
@@ -5211,7 +5431,7 @@
         <v>71.02</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="100"/>
       <c r="B22" s="9">
         <v>21</v>
@@ -5235,7 +5455,7 @@
         <v>35.51</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="100"/>
       <c r="B23" s="9">
         <v>22</v>
@@ -5259,7 +5479,7 @@
         <v>71.02</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="100"/>
       <c r="B24" s="9">
         <v>23</v>
@@ -5283,7 +5503,7 @@
         <v>35.51</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="100"/>
       <c r="B25" s="9">
         <v>24</v>
@@ -5307,7 +5527,7 @@
         <v>35.51</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="101"/>
       <c r="B26" s="9">
         <v>25</v>
@@ -5331,7 +5551,7 @@
         <v>71.02</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="99" t="s">
         <v>68</v>
       </c>
@@ -5357,7 +5577,7 @@
         <v>295.93</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="100"/>
       <c r="B28" s="9">
         <v>27</v>
@@ -5381,7 +5601,7 @@
         <v>71.02</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="100"/>
       <c r="B29" s="9">
         <v>28</v>
@@ -5405,7 +5625,7 @@
         <v>177.56</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="101"/>
       <c r="B30" s="9">
         <v>29</v>
@@ -5429,7 +5649,7 @@
         <v>71.02</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="99" t="s">
         <v>28</v>
       </c>
@@ -5455,7 +5675,7 @@
         <v>35.51</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="100"/>
       <c r="B32" s="9">
         <v>31</v>
@@ -5479,7 +5699,7 @@
         <v>35.51</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="100"/>
       <c r="B33" s="9">
         <v>32</v>
@@ -5503,7 +5723,7 @@
         <v>71.02</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="100"/>
       <c r="B34" s="9">
         <v>33</v>

--- a/Project Management/Effort Calculation.xlsx
+++ b/Project Management/Effort Calculation.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="330" windowWidth="18795" windowHeight="11700" tabRatio="785" activeTab="3"/>
@@ -24,12 +24,12 @@
     <definedName name="MemberList">'Team Member'!$B$4:$B$10</definedName>
     <definedName name="SkillList">'Skill Set'!$C$2:$C$34</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="129">
   <si>
     <t>Total</t>
   </si>
@@ -398,16 +398,34 @@
   </si>
   <si>
     <t>11.11.2015</t>
+  </si>
+  <si>
+    <t>13.11.2015</t>
+  </si>
+  <si>
+    <t>Data Modelling for Student information</t>
+  </si>
+  <si>
+    <t>14.11.2015</t>
+  </si>
+  <si>
+    <t>15.11.2015</t>
+  </si>
+  <si>
+    <t>Creating database components (tables and stored procedures)</t>
+  </si>
+  <si>
+    <t>16.11.2015</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;₹&quot;\ #,##0.00"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1219,7 +1237,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1254,7 +1271,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1430,12 +1446,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:O20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="2.85546875" style="1" customWidth="1"/>
     <col min="2" max="4" width="9.140625" style="1"/>
@@ -1443,8 +1459,8 @@
     <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:15" ht="15.75" thickBot="1"/>
+    <row r="2" spans="2:15">
       <c r="B2" s="18"/>
       <c r="C2" s="19"/>
       <c r="D2" s="19"/>
@@ -1460,7 +1476,7 @@
       <c r="N2" s="19"/>
       <c r="O2" s="20"/>
     </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:15">
       <c r="B3" s="3"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
@@ -1476,7 +1492,7 @@
       <c r="N3" s="4"/>
       <c r="O3" s="21"/>
     </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:15">
       <c r="B4" s="3"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -1492,7 +1508,7 @@
       <c r="N4" s="4"/>
       <c r="O4" s="21"/>
     </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:15">
       <c r="B5" s="3"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -1508,7 +1524,7 @@
       <c r="N5" s="4"/>
       <c r="O5" s="21"/>
     </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:15">
       <c r="B6" s="3"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
@@ -1524,7 +1540,7 @@
       <c r="N6" s="4"/>
       <c r="O6" s="21"/>
     </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:15">
       <c r="B7" s="3"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
@@ -1540,7 +1556,7 @@
       <c r="N7" s="4"/>
       <c r="O7" s="21"/>
     </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:15">
       <c r="B8" s="3"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
@@ -1556,7 +1572,7 @@
       <c r="N8" s="4"/>
       <c r="O8" s="21"/>
     </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:15">
       <c r="B9" s="3"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
@@ -1572,7 +1588,7 @@
       <c r="N9" s="4"/>
       <c r="O9" s="21"/>
     </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:15">
       <c r="B10" s="3"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
@@ -1590,7 +1606,7 @@
       <c r="N10" s="4"/>
       <c r="O10" s="21"/>
     </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:15">
       <c r="B11" s="3"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -1601,7 +1617,7 @@
       <c r="G11" s="77"/>
       <c r="H11" s="81">
         <f>Summery!D10</f>
-        <v>17282.226500000001</v>
+        <v>17652.139000000003</v>
       </c>
       <c r="I11" s="82"/>
       <c r="J11" s="83"/>
@@ -1611,7 +1627,7 @@
       <c r="N11" s="4"/>
       <c r="O11" s="21"/>
     </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:15">
       <c r="B12" s="3"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
@@ -1622,7 +1638,7 @@
       <c r="G12" s="77"/>
       <c r="H12" s="78">
         <f>Summery!C10</f>
-        <v>69.5</v>
+        <v>79.5</v>
       </c>
       <c r="I12" s="79"/>
       <c r="J12" s="80"/>
@@ -1632,7 +1648,7 @@
       <c r="N12" s="4"/>
       <c r="O12" s="21"/>
     </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:15">
       <c r="B13" s="3"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -1643,7 +1659,7 @@
       <c r="G13" s="77"/>
       <c r="H13" s="78">
         <f>H12/8</f>
-        <v>8.6875</v>
+        <v>9.9375</v>
       </c>
       <c r="I13" s="79"/>
       <c r="J13" s="80"/>
@@ -1653,7 +1669,7 @@
       <c r="N13" s="4"/>
       <c r="O13" s="21"/>
     </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:15">
       <c r="B14" s="3"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
@@ -1669,7 +1685,7 @@
       <c r="N14" s="4"/>
       <c r="O14" s="21"/>
     </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:15">
       <c r="B15" s="3"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -1685,7 +1701,7 @@
       <c r="N15" s="4"/>
       <c r="O15" s="21"/>
     </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:15">
       <c r="B16" s="3"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -1701,7 +1717,7 @@
       <c r="N16" s="4"/>
       <c r="O16" s="21"/>
     </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:15">
       <c r="B17" s="3"/>
       <c r="D17" s="4"/>
       <c r="E17" s="5"/>
@@ -1716,7 +1732,7 @@
       <c r="N17" s="4"/>
       <c r="O17" s="21"/>
     </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:15">
       <c r="B18" s="3"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
@@ -1731,7 +1747,7 @@
       <c r="N18" s="4"/>
       <c r="O18" s="21"/>
     </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:15">
       <c r="B19" s="3"/>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
@@ -1747,7 +1763,7 @@
       <c r="N19" s="4"/>
       <c r="O19" s="21"/>
     </row>
-    <row r="20" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:15" ht="15.75" thickBot="1">
       <c r="B20" s="6"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -1780,14 +1796,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="2.85546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="28.5703125" style="1" customWidth="1"/>
@@ -1809,7 +1825,7 @@
     <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17">
       <c r="A1" s="4"/>
       <c r="B1" s="84" t="s">
         <v>61</v>
@@ -1832,7 +1848,7 @@
       <c r="P1" s="8"/>
       <c r="Q1" s="8"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17">
       <c r="A2" s="4"/>
       <c r="B2" s="11" t="s">
         <v>6</v>
@@ -1863,7 +1879,7 @@
       <c r="P2" s="8"/>
       <c r="Q2" s="8"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17">
       <c r="A3" s="4"/>
       <c r="B3" s="10" t="s">
         <v>7</v>
@@ -1898,7 +1914,7 @@
       <c r="P3" s="5"/>
       <c r="Q3" s="5"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17">
       <c r="A4" s="4"/>
       <c r="B4" s="10" t="s">
         <v>10</v>
@@ -1917,11 +1933,11 @@
       </c>
       <c r="G4" s="14">
         <f>SUM(School!D:D)</f>
-        <v>45.5</v>
+        <v>55.5</v>
       </c>
       <c r="H4" s="33">
         <f>SUM(School!I:I)</f>
-        <v>7516.5774999999976</v>
+        <v>7886.4899999999971</v>
       </c>
       <c r="I4" s="5"/>
       <c r="J4" s="4"/>
@@ -1933,7 +1949,7 @@
       <c r="P4" s="5"/>
       <c r="Q4" s="5"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17">
       <c r="A5" s="4"/>
       <c r="B5" s="10" t="s">
         <v>8</v>
@@ -1968,7 +1984,7 @@
       <c r="P5" s="5"/>
       <c r="Q5" s="5"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17">
       <c r="A6" s="4"/>
       <c r="B6" s="10" t="s">
         <v>11</v>
@@ -2003,7 +2019,7 @@
       <c r="P6" s="5"/>
       <c r="Q6" s="5"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17">
       <c r="A7" s="4"/>
       <c r="B7" s="10" t="s">
         <v>12</v>
@@ -2038,7 +2054,7 @@
       <c r="P7" s="5"/>
       <c r="Q7" s="5"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17">
       <c r="A8" s="4"/>
       <c r="B8" s="10" t="s">
         <v>13</v>
@@ -2057,11 +2073,11 @@
       </c>
       <c r="G8" s="15">
         <f>SUM(G3:G7)</f>
-        <v>69.5</v>
+        <v>79.5</v>
       </c>
       <c r="H8" s="34">
         <f>SUM(H3:H7)</f>
-        <v>17282.226499999997</v>
+        <v>17652.138999999996</v>
       </c>
       <c r="I8" s="5"/>
       <c r="J8" s="4"/>
@@ -2073,18 +2089,18 @@
       <c r="P8" s="5"/>
       <c r="Q8" s="5"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17">
       <c r="A9" s="4"/>
       <c r="B9" s="10" t="s">
         <v>14</v>
       </c>
       <c r="C9" s="14">
         <f>SUMIF(Business!B:B,B9,Business!D:D) + SUMIF(School!B:B,B9,School!D:D) + SUMIF(Service!B:B,B9,Service!D:D)+SUMIF(Retail!B:B,B9,Retail!D:D) + SUMIF(Tourism!B:B,B9,Tourism!D:D)</f>
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D9" s="33">
         <f>SUMIF(Business!B:B,B9,Business!I:I) + SUMIF(School!B:B,B9,School!I:I) + SUMIF(Service!B:B,B9,Service!I:I)+SUMIF(Retail!B:B,B9,Retail!I:I) + SUMIF(Tourism!B:B,B9,Tourism!I:I)</f>
-        <v>1450.0574999999999</v>
+        <v>1819.97</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="4"/>
@@ -2100,18 +2116,18 @@
       <c r="P9" s="5"/>
       <c r="Q9" s="5"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17">
       <c r="A10" s="4"/>
       <c r="B10" s="12" t="s">
         <v>0</v>
       </c>
       <c r="C10" s="15">
         <f>SUM(C3:C9)</f>
-        <v>69.5</v>
+        <v>79.5</v>
       </c>
       <c r="D10" s="34">
         <f>SUM(D3:D9)</f>
-        <v>17282.226500000001</v>
+        <v>17652.139000000003</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="4"/>
@@ -2127,7 +2143,7 @@
       <c r="P10" s="5"/>
       <c r="Q10" s="5"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="16"/>
@@ -2143,7 +2159,7 @@
       <c r="P11" s="5"/>
       <c r="Q11" s="5"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="16"/>
@@ -2159,7 +2175,7 @@
       <c r="P12" s="5"/>
       <c r="Q12" s="5"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="16"/>
@@ -2178,7 +2194,7 @@
       <c r="P13" s="5"/>
       <c r="Q13" s="5"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="16"/>
@@ -2197,7 +2213,7 @@
       <c r="P14" s="5"/>
       <c r="Q14" s="5"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="16"/>
@@ -2216,7 +2232,7 @@
       <c r="P15" s="5"/>
       <c r="Q15" s="5"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="16"/>
@@ -2235,7 +2251,7 @@
       <c r="P16" s="5"/>
       <c r="Q16" s="5"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="16"/>
@@ -2254,7 +2270,7 @@
       <c r="P17" s="5"/>
       <c r="Q17" s="5"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="16"/>
@@ -2288,14 +2304,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.140625" style="65" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.42578125" style="57" bestFit="1" customWidth="1"/>
@@ -2310,7 +2326,7 @@
     <col min="11" max="16384" width="9.140625" style="57"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10">
       <c r="A1" s="69" t="s">
         <v>4</v>
       </c>
@@ -2342,7 +2358,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10">
       <c r="A2" s="58" t="s">
         <v>51</v>
       </c>
@@ -2379,7 +2395,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10">
       <c r="A3" s="58" t="s">
         <v>88</v>
       </c>
@@ -2416,7 +2432,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10">
       <c r="A4" s="58" t="s">
         <v>93</v>
       </c>
@@ -2453,7 +2469,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10">
       <c r="A5" s="58"/>
       <c r="B5" s="59"/>
       <c r="C5" s="59"/>
@@ -2480,7 +2496,7 @@
       </c>
       <c r="J5" s="64"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10">
       <c r="A6" s="58"/>
       <c r="B6" s="59"/>
       <c r="C6" s="59"/>
@@ -2522,14 +2538,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.7109375" style="65" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.42578125" style="57" bestFit="1" customWidth="1"/>
@@ -2544,7 +2560,7 @@
     <col min="11" max="16384" width="9.140625" style="57"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10">
       <c r="A1" s="53" t="s">
         <v>4</v>
       </c>
@@ -2576,7 +2592,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10">
       <c r="A2" s="58" t="s">
         <v>95</v>
       </c>
@@ -2611,7 +2627,7 @@
       </c>
       <c r="J2" s="64"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10">
       <c r="A3" s="58" t="s">
         <v>75</v>
       </c>
@@ -2646,7 +2662,7 @@
       </c>
       <c r="J3" s="64"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10">
       <c r="A4" s="58" t="s">
         <v>86</v>
       </c>
@@ -2681,7 +2697,7 @@
       </c>
       <c r="J4" s="64"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10">
       <c r="A5" s="58" t="s">
         <v>93</v>
       </c>
@@ -2718,7 +2734,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10">
       <c r="A6" s="58" t="s">
         <v>97</v>
       </c>
@@ -2755,7 +2771,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10">
       <c r="A7" s="58" t="s">
         <v>101</v>
       </c>
@@ -2792,7 +2808,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10">
       <c r="A8" s="58" t="s">
         <v>102</v>
       </c>
@@ -2829,7 +2845,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10">
       <c r="A9" s="58" t="s">
         <v>102</v>
       </c>
@@ -2866,7 +2882,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10">
       <c r="A10" s="58" t="s">
         <v>103</v>
       </c>
@@ -2903,7 +2919,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10">
       <c r="A11" s="58" t="s">
         <v>108</v>
       </c>
@@ -2940,7 +2956,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10">
       <c r="A12" s="58" t="s">
         <v>108</v>
       </c>
@@ -2977,7 +2993,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10">
       <c r="A13" s="58" t="s">
         <v>111</v>
       </c>
@@ -3014,7 +3030,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10">
       <c r="A14" s="58" t="s">
         <v>111</v>
       </c>
@@ -3051,7 +3067,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10">
       <c r="A15" s="58" t="s">
         <v>115</v>
       </c>
@@ -3088,7 +3104,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10">
       <c r="A16" s="58" t="s">
         <v>116</v>
       </c>
@@ -3125,7 +3141,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10">
       <c r="A17" s="58" t="s">
         <v>118</v>
       </c>
@@ -3162,7 +3178,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10">
       <c r="A18" s="58" t="s">
         <v>118</v>
       </c>
@@ -3199,7 +3215,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" ht="30">
       <c r="A19" s="58" t="s">
         <v>122</v>
       </c>
@@ -3236,115 +3252,155 @@
         <v>121</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="58"/>
-      <c r="B20" s="59"/>
-      <c r="C20" s="59"/>
-      <c r="D20" s="60"/>
+    <row r="20" spans="1:10">
+      <c r="A20" s="58" t="s">
+        <v>123</v>
+      </c>
+      <c r="B20" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" s="60">
+        <v>3</v>
+      </c>
       <c r="E20" s="61">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="F20" s="61">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G20" s="62">
         <f t="shared" si="2"/>
-        <v>236.74</v>
+        <v>177.56</v>
       </c>
       <c r="H20" s="63">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="I20" s="62">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J20" s="64"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="58"/>
-      <c r="B21" s="59"/>
-      <c r="C21" s="59"/>
-      <c r="D21" s="60"/>
+        <v>133.17000000000002</v>
+      </c>
+      <c r="J20" s="64" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="58" t="s">
+        <v>125</v>
+      </c>
+      <c r="B21" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" s="60">
+        <v>2</v>
+      </c>
       <c r="E21" s="61">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="F21" s="61">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G21" s="62">
         <f t="shared" si="2"/>
-        <v>71.02</v>
+        <v>177.56</v>
       </c>
       <c r="H21" s="63">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="I21" s="62">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J21" s="64"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="58"/>
-      <c r="B22" s="59"/>
-      <c r="C22" s="59"/>
-      <c r="D22" s="60"/>
+        <v>88.78</v>
+      </c>
+      <c r="J21" s="64" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="58" t="s">
+        <v>126</v>
+      </c>
+      <c r="B22" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" s="59" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" s="60">
+        <v>4</v>
+      </c>
       <c r="E22" s="61">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F22" s="61">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G22" s="62">
         <f t="shared" si="2"/>
-        <v>35.51</v>
+        <v>118.37</v>
       </c>
       <c r="H22" s="63">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="I22" s="62">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J22" s="64"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="58"/>
-      <c r="B23" s="59"/>
-      <c r="C23" s="59"/>
-      <c r="D23" s="60"/>
+        <v>118.37</v>
+      </c>
+      <c r="J22" s="64" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="58" t="s">
+        <v>128</v>
+      </c>
+      <c r="B23" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" s="59" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" s="60">
+        <v>1</v>
+      </c>
       <c r="E23" s="61">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F23" s="61">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G23" s="62">
         <f t="shared" si="2"/>
-        <v>71.02</v>
+        <v>118.37</v>
       </c>
       <c r="H23" s="63">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="I23" s="62">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J23" s="64"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+        <v>29.592500000000001</v>
+      </c>
+      <c r="J23" s="64" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="58"/>
       <c r="B24" s="59"/>
       <c r="C24" s="59"/>
@@ -3371,7 +3427,7 @@
       </c>
       <c r="J24" s="64"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10">
       <c r="A25" s="58"/>
       <c r="B25" s="59"/>
       <c r="C25" s="59"/>
@@ -3398,7 +3454,7 @@
       </c>
       <c r="J25" s="64"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10">
       <c r="A26" s="58"/>
       <c r="B26" s="59"/>
       <c r="C26" s="59"/>
@@ -3439,14 +3495,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.140625" style="65" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.42578125" style="57" bestFit="1" customWidth="1"/>
@@ -3461,7 +3517,7 @@
     <col min="11" max="16384" width="9.140625" style="57"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10">
       <c r="A1" s="53" t="s">
         <v>4</v>
       </c>
@@ -3493,7 +3549,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10">
       <c r="A2" s="58"/>
       <c r="B2" s="59" t="s">
         <v>8</v>
@@ -3524,7 +3580,7 @@
       </c>
       <c r="J2" s="64"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10">
       <c r="A3" s="58"/>
       <c r="B3" s="59" t="s">
         <v>8</v>
@@ -3555,7 +3611,7 @@
       </c>
       <c r="J3" s="64"/>
     </row>
-    <row r="4" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="30">
       <c r="A4" s="58" t="s">
         <v>75</v>
       </c>
@@ -3592,7 +3648,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10">
       <c r="A5" s="58" t="s">
         <v>75</v>
       </c>
@@ -3629,7 +3685,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10">
       <c r="A6" s="58" t="s">
         <v>86</v>
       </c>
@@ -3666,7 +3722,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10">
       <c r="A7" s="58" t="s">
         <v>86</v>
       </c>
@@ -3703,7 +3759,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10">
       <c r="A8" s="58"/>
       <c r="B8" s="59"/>
       <c r="C8" s="59"/>
@@ -3729,14 +3785,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.140625" style="65" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.42578125" style="57" bestFit="1" customWidth="1"/>
@@ -3751,7 +3807,7 @@
     <col min="11" max="16384" width="9.140625" style="57"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10">
       <c r="A1" s="53" t="s">
         <v>4</v>
       </c>
@@ -3783,7 +3839,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10">
       <c r="A2" s="58" t="s">
         <v>75</v>
       </c>
@@ -3820,7 +3876,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10">
       <c r="A3" s="58" t="s">
         <v>75</v>
       </c>
@@ -3857,7 +3913,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10">
       <c r="A4" s="58" t="s">
         <v>75</v>
       </c>
@@ -3894,7 +3950,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10">
       <c r="A5" s="58"/>
       <c r="B5" s="59"/>
       <c r="C5" s="59"/>
@@ -3921,7 +3977,7 @@
       </c>
       <c r="J5" s="64"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10">
       <c r="A6" s="58"/>
       <c r="B6" s="59"/>
       <c r="C6" s="59"/>
@@ -3962,14 +4018,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.140625" style="65" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.42578125" style="57" bestFit="1" customWidth="1"/>
@@ -3984,7 +4040,7 @@
     <col min="11" max="16384" width="9.140625" style="57"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10">
       <c r="A1" s="53" t="s">
         <v>4</v>
       </c>
@@ -4016,7 +4072,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10">
       <c r="A2" s="58" t="s">
         <v>84</v>
       </c>
@@ -4053,7 +4109,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10">
       <c r="A3" s="58" t="s">
         <v>99</v>
       </c>
@@ -4090,7 +4146,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10">
       <c r="A4" s="58"/>
       <c r="B4" s="59"/>
       <c r="C4" s="59"/>
@@ -4117,7 +4173,7 @@
       </c>
       <c r="J4" s="64"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10">
       <c r="A5" s="58"/>
       <c r="B5" s="59"/>
       <c r="C5" s="59"/>
@@ -4144,7 +4200,7 @@
       </c>
       <c r="J5" s="64"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10">
       <c r="A6" s="58"/>
       <c r="B6" s="59"/>
       <c r="C6" s="59"/>
@@ -4185,14 +4241,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AI10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="4.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.42578125" bestFit="1" customWidth="1"/>
@@ -4205,7 +4261,7 @@
     <col min="30" max="35" width="4.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:35" ht="15" customHeight="1" thickBot="1">
       <c r="A1" s="91" t="s">
         <v>81</v>
       </c>
@@ -4246,7 +4302,7 @@
       <c r="AH1" s="89"/>
       <c r="AI1" s="90"/>
     </row>
-    <row r="2" spans="1:35" s="26" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" s="26" customFormat="1" ht="15" customHeight="1">
       <c r="A2" s="92"/>
       <c r="B2" s="92"/>
       <c r="C2" s="93" t="s">
@@ -4293,7 +4349,7 @@
       <c r="AH2" s="86"/>
       <c r="AI2" s="87"/>
     </row>
-    <row r="3" spans="1:35" ht="180" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" ht="180">
       <c r="A3" s="11" t="s">
         <v>5</v>
       </c>
@@ -4400,7 +4456,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35">
       <c r="A4" s="23">
         <v>1</v>
       </c>
@@ -4507,7 +4563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35">
       <c r="A5" s="23">
         <v>2</v>
       </c>
@@ -4614,7 +4670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35">
       <c r="A6" s="23">
         <v>3</v>
       </c>
@@ -4655,7 +4711,7 @@
       <c r="AH6" s="35"/>
       <c r="AI6" s="44"/>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35">
       <c r="A7" s="23">
         <v>4</v>
       </c>
@@ -4696,7 +4752,7 @@
       <c r="AH7" s="35"/>
       <c r="AI7" s="44"/>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35">
       <c r="A8" s="23">
         <v>5</v>
       </c>
@@ -4737,7 +4793,7 @@
       <c r="AH8" s="35"/>
       <c r="AI8" s="44"/>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35">
       <c r="A9" s="23">
         <v>6</v>
       </c>
@@ -4778,7 +4834,7 @@
       <c r="AH9" s="35"/>
       <c r="AI9" s="44"/>
     </row>
-    <row r="10" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:35" ht="15.75" thickBot="1">
       <c r="A10" s="23">
         <v>7</v>
       </c>
@@ -4901,12 +4957,12 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="17.42578125" style="27" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="3" bestFit="1" customWidth="1"/>
@@ -4916,7 +4972,7 @@
     <col min="7" max="7" width="13.140625" style="29" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" s="11" t="s">
         <v>69</v>
       </c>
@@ -4939,7 +4995,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="A2" s="99" t="s">
         <v>25</v>
       </c>
@@ -4966,7 +5022,7 @@
       </c>
       <c r="H2" s="73"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="A3" s="100"/>
       <c r="B3" s="9">
         <v>2</v>
@@ -4991,7 +5047,7 @@
       </c>
       <c r="H3" s="73"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8">
       <c r="A4" s="100"/>
       <c r="B4" s="9">
         <v>3</v>
@@ -5016,7 +5072,7 @@
       </c>
       <c r="H4" s="73"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8">
       <c r="A5" s="100"/>
       <c r="B5" s="9">
         <v>4</v>
@@ -5041,7 +5097,7 @@
       </c>
       <c r="H5" s="73"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8">
       <c r="A6" s="100"/>
       <c r="B6" s="9">
         <v>5</v>
@@ -5066,7 +5122,7 @@
       </c>
       <c r="H6" s="73"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8">
       <c r="A7" s="101"/>
       <c r="B7" s="9">
         <v>6</v>
@@ -5091,7 +5147,7 @@
       </c>
       <c r="H7" s="73"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8">
       <c r="A8" s="99" t="s">
         <v>29</v>
       </c>
@@ -5117,7 +5173,7 @@
         <v>591.86</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8">
       <c r="A9" s="100"/>
       <c r="B9" s="9">
         <v>8</v>
@@ -5141,7 +5197,7 @@
         <v>236.74</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8">
       <c r="A10" s="100"/>
       <c r="B10" s="9">
         <v>9</v>
@@ -5165,7 +5221,7 @@
         <v>177.56</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8">
       <c r="A11" s="100"/>
       <c r="B11" s="9">
         <v>10</v>
@@ -5189,7 +5245,7 @@
         <v>591.86</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8">
       <c r="A12" s="100"/>
       <c r="B12" s="9">
         <v>11</v>
@@ -5213,7 +5269,7 @@
         <v>177.56</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8">
       <c r="A13" s="100"/>
       <c r="B13" s="9">
         <v>12</v>
@@ -5237,7 +5293,7 @@
         <v>118.37</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8">
       <c r="A14" s="100"/>
       <c r="B14" s="9">
         <v>13</v>
@@ -5261,7 +5317,7 @@
         <v>118.37</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8">
       <c r="A15" s="100"/>
       <c r="B15" s="9">
         <v>14</v>
@@ -5285,7 +5341,7 @@
         <v>295.93</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8">
       <c r="A16" s="100"/>
       <c r="B16" s="9">
         <v>15</v>
@@ -5309,7 +5365,7 @@
         <v>118.37</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7">
       <c r="A17" s="99" t="s">
         <v>67</v>
       </c>
@@ -5335,7 +5391,7 @@
         <v>177.56</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7">
       <c r="A18" s="100"/>
       <c r="B18" s="9">
         <v>17</v>
@@ -5359,7 +5415,7 @@
         <v>71.02</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7">
       <c r="A19" s="100"/>
       <c r="B19" s="9">
         <v>18</v>
@@ -5383,7 +5439,7 @@
         <v>35.51</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7">
       <c r="A20" s="100"/>
       <c r="B20" s="9">
         <v>19</v>
@@ -5407,7 +5463,7 @@
         <v>236.74</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7">
       <c r="A21" s="100"/>
       <c r="B21" s="9">
         <v>20</v>
@@ -5431,7 +5487,7 @@
         <v>71.02</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7">
       <c r="A22" s="100"/>
       <c r="B22" s="9">
         <v>21</v>
@@ -5455,7 +5511,7 @@
         <v>35.51</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7">
       <c r="A23" s="100"/>
       <c r="B23" s="9">
         <v>22</v>
@@ -5479,7 +5535,7 @@
         <v>71.02</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7">
       <c r="A24" s="100"/>
       <c r="B24" s="9">
         <v>23</v>
@@ -5503,7 +5559,7 @@
         <v>35.51</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7">
       <c r="A25" s="100"/>
       <c r="B25" s="9">
         <v>24</v>
@@ -5527,7 +5583,7 @@
         <v>35.51</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7">
       <c r="A26" s="101"/>
       <c r="B26" s="9">
         <v>25</v>
@@ -5551,7 +5607,7 @@
         <v>71.02</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7">
       <c r="A27" s="99" t="s">
         <v>68</v>
       </c>
@@ -5577,7 +5633,7 @@
         <v>295.93</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7">
       <c r="A28" s="100"/>
       <c r="B28" s="9">
         <v>27</v>
@@ -5601,7 +5657,7 @@
         <v>71.02</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7">
       <c r="A29" s="100"/>
       <c r="B29" s="9">
         <v>28</v>
@@ -5625,7 +5681,7 @@
         <v>177.56</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7">
       <c r="A30" s="101"/>
       <c r="B30" s="9">
         <v>29</v>
@@ -5649,7 +5705,7 @@
         <v>71.02</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7">
       <c r="A31" s="99" t="s">
         <v>28</v>
       </c>
@@ -5675,7 +5731,7 @@
         <v>35.51</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7">
       <c r="A32" s="100"/>
       <c r="B32" s="9">
         <v>31</v>
@@ -5699,7 +5755,7 @@
         <v>35.51</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7">
       <c r="A33" s="100"/>
       <c r="B33" s="9">
         <v>32</v>
@@ -5723,7 +5779,7 @@
         <v>71.02</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7">
       <c r="A34" s="100"/>
       <c r="B34" s="9">
         <v>33</v>
